--- a/runs/run954/NotionalETEOutput954.xlsx
+++ b/runs/run954/NotionalETEOutput954.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_HELLMASKER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_175.MISSILE_ANGERMAX2_175</t>
+    <t>MISSILE_HELLMASKER2_368.MISSILE_HELLMASKER2_368</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_HELLMASKER2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I2">
-        <v>-1534.356916200778</v>
+        <v>-1846.563740226856</v>
       </c>
       <c r="J2">
-        <v>1112.120252399772</v>
+        <v>2291.181655233617</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I3">
-        <v>-1504.064625085557</v>
+        <v>-1810.107655080599</v>
       </c>
       <c r="J3">
-        <v>1085.06704410583</v>
+        <v>2235.446842002274</v>
       </c>
       <c r="K3">
-        <v>345.6439365851301</v>
+        <v>263.9584394241853</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I4">
-        <v>-1473.026414170021</v>
+        <v>-1772.7538723766</v>
       </c>
       <c r="J4">
-        <v>1058.013835811887</v>
+        <v>2179.712028770931</v>
       </c>
       <c r="K4">
-        <v>674.0524821171992</v>
+        <v>514.7547011166312</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I5">
-        <v>-1441.223915865319</v>
+        <v>-1734.480287138364</v>
       </c>
       <c r="J5">
-        <v>1030.960627517945</v>
+        <v>2123.977215539589</v>
       </c>
       <c r="K5">
-        <v>985.2256365962096</v>
+        <v>752.3887850773393</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I6">
-        <v>-1408.638310297627</v>
+        <v>-1695.264250074689</v>
       </c>
       <c r="J6">
-        <v>1003.907419224002</v>
+        <v>2068.242402308246</v>
       </c>
       <c r="K6">
-        <v>1279.163400022159</v>
+        <v>976.8606913063085</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I7">
-        <v>-1375.250314171037</v>
+        <v>-1655.082554176414</v>
       </c>
       <c r="J7">
-        <v>976.8542109300596</v>
+        <v>2012.507589076903</v>
       </c>
       <c r="K7">
-        <v>1555.865772395051</v>
+        <v>1188.17041980354</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I8">
-        <v>-1341.040169356224</v>
+        <v>-1613.911420983126</v>
       </c>
       <c r="J8">
-        <v>949.801002636117</v>
+        <v>1956.77277584556</v>
       </c>
       <c r="K8">
-        <v>1815.332753714882</v>
+        <v>1386.317970569033</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G9">
-        <v>-105.6452894969581</v>
+        <v>-105.1517362025079</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I9">
-        <v>-1305.987631198101</v>
+        <v>-1571.726486511701</v>
       </c>
       <c r="J9">
-        <v>922.7477943421744</v>
+        <v>1901.037962614217</v>
       </c>
       <c r="K9">
-        <v>2057.564343981654</v>
+        <v>1571.303343602788</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.3423645827462</v>
+        <v>135.9591787035963</v>
       </c>
       <c r="G10">
-        <v>-88.2002784817504</v>
+        <v>-87.78822472882518</v>
       </c>
       <c r="H10">
-        <v>784.3535439807797</v>
+        <v>1094.887988690489</v>
       </c>
       <c r="I10">
-        <v>-1270.071956535579</v>
+        <v>-1528.502786838346</v>
       </c>
       <c r="J10">
-        <v>895.6945860482319</v>
+        <v>1845.303149382875</v>
       </c>
       <c r="K10">
-        <v>2282.560543195365</v>
+        <v>1743.126538904803</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.2502127115683</v>
+        <v>105.5201831902998</v>
       </c>
       <c r="G11">
-        <v>-70.75526746654272</v>
+        <v>-70.42471325514248</v>
       </c>
       <c r="H11">
-        <v>966.3182882255437</v>
+        <v>1348.894634504294</v>
       </c>
       <c r="I11">
-        <v>-1233.271891426307</v>
+        <v>-1484.214743325609</v>
       </c>
       <c r="J11">
-        <v>868.6413777542895</v>
+        <v>1789.568336151532</v>
       </c>
       <c r="K11">
-        <v>2490.321351356016</v>
+        <v>1901.78755647508</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.5859358846056</v>
+        <v>87.63880031108839</v>
       </c>
       <c r="G12">
-        <v>-53.31025645133506</v>
+        <v>-53.06120178145979</v>
       </c>
       <c r="H12">
-        <v>1074.705795928042</v>
+        <v>1500.193983144033</v>
       </c>
       <c r="I12">
-        <v>-1195.565658569159</v>
+        <v>-1438.836147485624</v>
       </c>
       <c r="J12">
-        <v>841.5881694603469</v>
+        <v>1733.833522920189</v>
       </c>
       <c r="K12">
-        <v>2680.846768463609</v>
+        <v>2047.28639631362</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.122214797393</v>
+        <v>76.35075959310902</v>
       </c>
       <c r="G13">
-        <v>-35.86524543612737</v>
+        <v>-35.69769030777709</v>
       </c>
       <c r="H13">
-        <v>1152.163022051425</v>
+        <v>1608.317401684809</v>
       </c>
       <c r="I13">
-        <v>-1156.930944417</v>
+        <v>-1392.340145470621</v>
       </c>
       <c r="J13">
-        <v>814.5349611664043</v>
+        <v>1678.098709688846</v>
       </c>
       <c r="K13">
-        <v>2854.136794518142</v>
+        <v>2179.623058420421</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.9430866005766</v>
+        <v>68.47852581723751</v>
       </c>
       <c r="G14">
-        <v>-18.42023442091969</v>
+        <v>-18.33417883409439</v>
       </c>
       <c r="H14">
-        <v>1212.478922535964</v>
+        <v>1692.513049775348</v>
       </c>
       <c r="I14">
-        <v>-1117.344885972131</v>
+        <v>-1344.699222181537</v>
       </c>
       <c r="J14">
-        <v>787.4817528724618</v>
+        <v>1622.363896457504</v>
       </c>
       <c r="K14">
-        <v>3010.191429519615</v>
+        <v>2298.797542795483</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.85709224247593</v>
+        <v>62.60560367393378</v>
       </c>
       <c r="G15">
-        <v>-0.9752234057120256</v>
+        <v>-0.9706673604117004</v>
       </c>
       <c r="H15">
-        <v>1261.882323560499</v>
+        <v>1761.475816371259</v>
       </c>
       <c r="I15">
-        <v>-1076.784057256562</v>
+        <v>-1295.885184985304</v>
       </c>
       <c r="J15">
-        <v>760.4285445785193</v>
+        <v>1566.629083226161</v>
       </c>
       <c r="K15">
-        <v>3149.010673468028</v>
+        <v>2404.809849438807</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.75311347593679</v>
+        <v>58.01379868713335</v>
       </c>
       <c r="G16">
-        <v>16.46978760949565</v>
+        <v>16.392844113271</v>
       </c>
       <c r="H16">
-        <v>1303.723397954793</v>
+        <v>1819.882245640023</v>
       </c>
       <c r="I16">
-        <v>-1035.224455449151</v>
+        <v>-1245.869147031206</v>
       </c>
       <c r="J16">
-        <v>733.3753362845767</v>
+        <v>1510.894269994818</v>
       </c>
       <c r="K16">
-        <v>3270.594526363381</v>
+        <v>2497.659978350393</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.00547739615176</v>
+        <v>54.29869411252769</v>
       </c>
       <c r="G17">
-        <v>33.91479862470334</v>
+        <v>33.7563555869537</v>
       </c>
       <c r="H17">
-        <v>1340.012909596532</v>
+        <v>1870.539185634621</v>
       </c>
       <c r="I17">
-        <v>-992.6414866813648</v>
+        <v>-1194.621510156398</v>
       </c>
       <c r="J17">
-        <v>706.3221279906343</v>
+        <v>1455.159456763476</v>
       </c>
       <c r="K17">
-        <v>3374.942988205675</v>
+        <v>2577.34792953024</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.23289145246382</v>
+        <v>51.21383354968621</v>
       </c>
       <c r="G18">
-        <v>51.35980963991101</v>
+        <v>51.11986706063639</v>
       </c>
       <c r="H18">
-        <v>1372.052957394795</v>
+        <v>1915.264250958284</v>
       </c>
       <c r="I18">
-        <v>-949.009951483285</v>
+        <v>-1142.111947370511</v>
       </c>
       <c r="J18">
-        <v>679.2689196966917</v>
+        <v>1399.424643532133</v>
       </c>
       <c r="K18">
-        <v>3462.056058994909</v>
+        <v>2643.873702978348</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.18848395766307</v>
+        <v>48.59964632959596</v>
       </c>
       <c r="G19">
-        <v>68.8048206551187</v>
+        <v>68.48337853431912</v>
       </c>
       <c r="H19">
-        <v>1400.735247557135</v>
+        <v>1955.302184397711</v>
       </c>
       <c r="I19">
-        <v>-904.3040298712285</v>
+        <v>-1088.309384908932</v>
       </c>
       <c r="J19">
-        <v>652.2157114027491</v>
+        <v>1343.68983030079</v>
       </c>
       <c r="K19">
-        <v>3531.933738731084</v>
+        <v>2697.237298694719</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.70462147476886</v>
+        <v>46.34777908055096</v>
       </c>
       <c r="G20">
-        <v>86.24983167032637</v>
+        <v>85.84689000800179</v>
       </c>
       <c r="H20">
-        <v>1426.697275547612</v>
+        <v>1991.542873085817</v>
       </c>
       <c r="I20">
-        <v>-858.4972660681689</v>
+        <v>-1033.181983844187</v>
       </c>
       <c r="J20">
-        <v>625.1625031088067</v>
+        <v>1287.955017069447</v>
       </c>
       <c r="K20">
-        <v>3584.576027414198</v>
+        <v>2737.43871667935</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.66302950998535</v>
+        <v>44.3817826142483</v>
       </c>
       <c r="G21">
-        <v>103.694842685534</v>
+        <v>103.2104014816845</v>
       </c>
       <c r="H21">
-        <v>1450.410623716762</v>
+        <v>2024.644604162683</v>
       </c>
       <c r="I21">
-        <v>-811.5625528479092</v>
+        <v>-976.6971212445013</v>
       </c>
       <c r="J21">
-        <v>598.1092948148641</v>
+        <v>1232.220203838104</v>
       </c>
       <c r="K21">
-        <v>3619.982925044253</v>
+        <v>2764.477956932244</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.97759127995539</v>
+        <v>42.64599354988945</v>
       </c>
       <c r="G22">
-        <v>121.1398537007417</v>
+        <v>120.5739129553672</v>
       </c>
       <c r="H22">
-        <v>1472.233966795665</v>
+        <v>2055.108055744598</v>
       </c>
       <c r="I22">
-        <v>-763.4721154937446</v>
+        <v>-918.8213708684192</v>
       </c>
       <c r="J22">
-        <v>571.0560865209217</v>
+        <v>1176.485390606762</v>
       </c>
       <c r="K22">
-        <v>3638.154431621249</v>
+        <v>2778.355019453399</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.58393417478661</v>
+        <v>41.09880330715188</v>
       </c>
       <c r="G23">
-        <v>138.5848647159494</v>
+        <v>137.9374244290499</v>
       </c>
       <c r="H23">
-        <v>1492.446466591512</v>
+        <v>2083.322912957538</v>
       </c>
       <c r="I23">
-        <v>-714.1974953621248</v>
+        <v>-859.5204833840401</v>
       </c>
       <c r="J23">
-        <v>544.0028782269791</v>
+        <v>1120.750577375419</v>
       </c>
       <c r="K23">
-        <v>3639.090547145184</v>
+        <v>2779.069904242816</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.43285523792113</v>
+        <v>39.70840852784538</v>
       </c>
       <c r="G24">
-        <v>156.0298757311571</v>
+        <v>155.3009359027326</v>
       </c>
       <c r="H24">
-        <v>1511.269665820487</v>
+        <v>2109.598429786258</v>
       </c>
       <c r="I24">
-        <v>-663.7095330415834</v>
+        <v>-798.7593661011745</v>
       </c>
       <c r="J24">
-        <v>516.9496699330365</v>
+        <v>1065.015764144076</v>
       </c>
       <c r="K24">
-        <v>3622.79127161606</v>
+        <v>2766.622611300494</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.48602031052239</v>
+        <v>38.45003112809678</v>
       </c>
       <c r="G25">
-        <v>173.4748867463647</v>
+        <v>172.6644473764153</v>
       </c>
       <c r="H25">
-        <v>1528.882329279562</v>
+        <v>2134.184146033957</v>
       </c>
       <c r="I25">
-        <v>-611.9783510969719</v>
+        <v>-736.5020622044207</v>
       </c>
       <c r="J25">
-        <v>489.896461639094</v>
+        <v>1009.280950912734</v>
       </c>
       <c r="K25">
-        <v>3589.256605033876</v>
+        <v>2741.013140626434</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.71306359320266</v>
+        <v>37.30404353951954</v>
       </c>
       <c r="G26">
-        <v>190.9198977615725</v>
+        <v>190.027958850098</v>
       </c>
       <c r="H26">
-        <v>1545.430794368194</v>
+        <v>2157.284335732662</v>
       </c>
       <c r="I26">
-        <v>-558.9733363887893</v>
+        <v>-672.7117294748789</v>
       </c>
       <c r="J26">
-        <v>462.8432533451515</v>
+        <v>953.5461376813909</v>
       </c>
       <c r="K26">
-        <v>3538.486547398633</v>
+        <v>2702.241492220635</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.08957937147898</v>
+        <v>36.2546706190351</v>
       </c>
       <c r="G27">
-        <v>208.3649087767801</v>
+        <v>207.3914703237807</v>
       </c>
       <c r="H27">
-        <v>1561.036368869642</v>
+        <v>2179.06833378988</v>
       </c>
       <c r="I27">
-        <v>-504.6631219571372</v>
+        <v>-607.3506184879024</v>
       </c>
       <c r="J27">
-        <v>435.7900450512089</v>
+        <v>897.811324450048</v>
       </c>
       <c r="K27">
-        <v>3470.48109871033</v>
+        <v>2650.307666083098</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.59569904130723</v>
+        <v>35.28906987961911</v>
       </c>
       <c r="G28">
-        <v>225.8099197919878</v>
+        <v>224.7549817974634</v>
       </c>
       <c r="H28">
-        <v>1575.800732473158</v>
+        <v>2199.678076034566</v>
       </c>
       <c r="I28">
-        <v>-449.0155684595869</v>
+        <v>-540.3800502739913</v>
       </c>
       <c r="J28">
-        <v>408.7368367572664</v>
+        <v>842.0765112187054</v>
       </c>
       <c r="K28">
-        <v>3385.240258968967</v>
+        <v>2585.211662213823</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.21506213771894</v>
+        <v>34.3966663931788</v>
       </c>
       <c r="G29">
-        <v>243.2549308071955</v>
+        <v>242.1184932711461</v>
       </c>
       <c r="H29">
-        <v>1589.809955488008</v>
+        <v>2219.233708985492</v>
       </c>
       <c r="I29">
-        <v>-391.9977451519694</v>
+        <v>-471.760393429605</v>
       </c>
       <c r="J29">
-        <v>381.6836284633238</v>
+        <v>786.3416979873625</v>
       </c>
       <c r="K29">
-        <v>3282.764028174545</v>
+        <v>2506.953480612809</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.93405870561348</v>
+        <v>33.56866308109741</v>
       </c>
       <c r="G30">
-        <v>260.6999418224031</v>
+        <v>259.4820047448288</v>
       </c>
       <c r="H30">
-        <v>1603.137538942107</v>
+        <v>2237.837833559346</v>
       </c>
       <c r="I30">
-        <v>-333.5759104008375</v>
+        <v>-401.4510406643525</v>
       </c>
       <c r="J30">
-        <v>354.6304201693813</v>
+        <v>730.6068847560197</v>
       </c>
       <c r="K30">
-        <v>3163.052406327062</v>
+        <v>2415.533121280057</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.74126237112968</v>
+        <v>32.79767426807928</v>
       </c>
       <c r="G31">
-        <v>278.1449528376108</v>
+        <v>276.8455162185115</v>
       </c>
       <c r="H31">
-        <v>1615.846748801806</v>
+        <v>2255.578763434551</v>
       </c>
       <c r="I31">
-        <v>-273.7154917160616</v>
+        <v>-329.4103847706744</v>
       </c>
       <c r="J31">
-        <v>327.5772118754388</v>
+        <v>674.8720715246772</v>
       </c>
       <c r="K31">
-        <v>3026.105393426521</v>
+        <v>2310.950584215567</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.62699990020857</v>
+        <v>32.07744745734055</v>
       </c>
       <c r="G32">
-        <v>295.5899638528185</v>
+        <v>294.2090276921942</v>
       </c>
       <c r="H32">
-        <v>1627.992432292697</v>
+        <v>2272.533060474022</v>
       </c>
       <c r="I32">
-        <v>-212.3810652917486</v>
+        <v>-255.5957940018027</v>
       </c>
       <c r="J32">
-        <v>300.5240035814962</v>
+        <v>619.1372582933343</v>
       </c>
       <c r="K32">
-        <v>2871.922989472919</v>
+        <v>2193.205869419337</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.5830200595152</v>
+        <v>31.40264929195269</v>
       </c>
       <c r="G33">
-        <v>313.0349748680262</v>
+        <v>311.5725391658768</v>
       </c>
       <c r="H33">
-        <v>1639.622448371413</v>
+        <v>2288.767531536954</v>
       </c>
       <c r="I33">
-        <v>-149.5363350433741</v>
+        <v>-179.9635868434254</v>
       </c>
       <c r="J33">
-        <v>273.4707952875538</v>
+        <v>563.4024450619917</v>
       </c>
       <c r="K33">
-        <v>2700.505194466258</v>
+        <v>2062.29897689137</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.60223580825631</v>
+        <v>30.76869891514154</v>
       </c>
       <c r="G34">
-        <v>330.4799858832338</v>
+        <v>328.9360506395595</v>
       </c>
       <c r="H34">
-        <v>1650.778806713813</v>
+        <v>2304.340818405306</v>
       </c>
       <c r="I34">
-        <v>-85.14411112872496</v>
+        <v>-102.4690061641277</v>
       </c>
       <c r="J34">
-        <v>246.4175869936112</v>
+        <v>507.6676318306489</v>
       </c>
       <c r="K34">
-        <v>2511.852008406537</v>
+        <v>1918.229906631664</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.67852138035417</v>
+        <v>30.17163681011403</v>
       </c>
       <c r="G35">
-        <v>347.9249968984415</v>
+        <v>346.2995621132423</v>
       </c>
       <c r="H35">
-        <v>1661.498583711195</v>
+        <v>2319.304676433288</v>
       </c>
       <c r="I35">
-        <v>-19.16628793993767</v>
+        <v>-23.06619272930954</v>
       </c>
       <c r="J35">
-        <v>219.3643786996686</v>
+        <v>451.9328185993061</v>
       </c>
       <c r="K35">
-        <v>2305.963431293756</v>
+        <v>1760.99865864022</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.80655096560869</v>
+        <v>29.60802052825944</v>
       </c>
       <c r="G36">
-        <v>365.3700079136493</v>
+        <v>363.663073586925</v>
       </c>
       <c r="H36">
-        <v>1671.814665895467</v>
+        <v>2333.705012302978</v>
       </c>
       <c r="I36">
-        <v>48.43617844638936</v>
+        <v>58.29184193709232</v>
       </c>
       <c r="J36">
-        <v>192.3111704057262</v>
+        <v>396.1980053679634</v>
       </c>
       <c r="K36">
-        <v>2082.839463127916</v>
+        <v>1590.605232917037</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.98166927727135</v>
+        <v>29.07484102779861</v>
       </c>
       <c r="G37">
-        <v>382.8150189288569</v>
+        <v>381.0265850606077</v>
       </c>
       <c r="H37">
-        <v>1681.756358395009</v>
+        <v>2347.582733374725</v>
       </c>
       <c r="I37">
-        <v>117.7032933743509</v>
+        <v>141.6532433591348</v>
       </c>
       <c r="J37">
-        <v>165.2579621117836</v>
+        <v>340.4631921366206</v>
       </c>
       <c r="K37">
-        <v>1842.480103909016</v>
+        <v>1407.049629462116</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.19978681837848</v>
+        <v>28.56945497699189</v>
       </c>
       <c r="G38">
-        <v>400.2600299440646</v>
+        <v>398.3900965342904</v>
       </c>
       <c r="H38">
-        <v>1691.349886798347</v>
+        <v>2360.974448244358</v>
       </c>
       <c r="I38">
-        <v>188.6760472828369</v>
+        <v>227.0673426001127</v>
       </c>
       <c r="J38">
-        <v>138.2047538178412</v>
+        <v>284.7283789052781</v>
       </c>
       <c r="K38">
-        <v>1584.885353637057</v>
+        <v>1210.331848275457</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.45729446538436</v>
+        <v>28.08952954348717</v>
       </c>
       <c r="G39">
-        <v>417.7050409592723</v>
+        <v>415.7536080079731</v>
       </c>
       <c r="H39">
-        <v>1700.61881407718</v>
+        <v>2373.913048730732</v>
       </c>
       <c r="I39">
-        <v>261.3964399625823</v>
+        <v>314.5846854553683</v>
       </c>
       <c r="J39">
-        <v>111.1515455238986</v>
+        <v>228.9935656739352</v>
       </c>
       <c r="K39">
-        <v>1310.055212312036</v>
+        <v>1000.451889357059</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.75099329626279</v>
+        <v>27.63299703724836</v>
       </c>
       <c r="G40">
-        <v>435.1500519744799</v>
+        <v>433.1171194816558</v>
       </c>
       <c r="H40">
-        <v>1709.584389256869</v>
+        <v>2386.428196588832</v>
       </c>
       <c r="I40">
-        <v>335.9075054105325</v>
+        <v>404.2570623639564</v>
       </c>
       <c r="J40">
-        <v>84.098337229956</v>
+        <v>173.2587524425924</v>
       </c>
       <c r="K40">
-        <v>1017.989679933957</v>
+        <v>777.4097527069225</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.07803654965014</v>
+        <v>27.19801739463572</v>
       </c>
       <c r="G41">
-        <v>452.5950629896876</v>
+        <v>450.4806309553385</v>
       </c>
       <c r="H41">
-        <v>1718.265840818394</v>
+        <v>2398.546733072865</v>
       </c>
       <c r="I41">
-        <v>412.2533372962141</v>
+        <v>496.137539056843</v>
       </c>
       <c r="J41">
-        <v>57.04512893601355</v>
+        <v>117.5239392112498</v>
       </c>
       <c r="K41">
-        <v>708.6887565028189</v>
+        <v>541.2054383250482</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.43588131274917</v>
+        <v>26.78294695087391</v>
       </c>
       <c r="G42">
-        <v>470.0400740048952</v>
+        <v>467.8441424290211</v>
       </c>
       <c r="H42">
-        <v>1726.680625022392</v>
+        <v>2410.293025574612</v>
       </c>
       <c r="I42">
-        <v>490.4791150552048</v>
+        <v>590.2804879598053</v>
       </c>
       <c r="J42">
-        <v>29.99192064207097</v>
+        <v>61.78912597990696</v>
       </c>
       <c r="K42">
-        <v>382.1524420186199</v>
+        <v>291.8389462114348</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.8222480682479</v>
+        <v>26.38631229235843</v>
       </c>
       <c r="G43">
-        <v>487.485085020103</v>
+        <v>485.2076539027039</v>
       </c>
       <c r="H43">
-        <v>1734.844637218997</v>
+        <v>2421.689262593213</v>
       </c>
       <c r="I43">
-        <v>570.631130625114</v>
+        <v>686.7416203695774</v>
       </c>
       <c r="J43">
-        <v>2.938712348128396</v>
+        <v>6.054312748564119</v>
       </c>
       <c r="K43">
-        <v>38.38073648136147</v>
+        <v>29.31027636608311</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.235086633129</v>
+        <v>26.00678824049399</v>
       </c>
       <c r="G44">
-        <v>504.9300960353106</v>
+        <v>502.5711653763865</v>
       </c>
       <c r="H44">
-        <v>1742.772392572882</v>
+        <v>2432.755706011309</v>
       </c>
       <c r="I44">
-        <v>652.7568158399295</v>
+        <v>785.5780194223247</v>
       </c>
       <c r="J44">
-        <v>-24.11449594581406</v>
+        <v>-49.68050048277846</v>
       </c>
       <c r="K44">
-        <v>-322.6263601089556</v>
+        <v>-246.3805712110062</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.67254732937146</v>
+        <v>25.64317921727566</v>
       </c>
       <c r="G45">
-        <v>522.3751070505183</v>
+        <v>519.9346768500692</v>
       </c>
       <c r="H45">
-        <v>1750.47718136659</v>
+        <v>2443.510907884705</v>
       </c>
       <c r="I45">
-        <v>736.904770498915</v>
+        <v>886.8481738739266</v>
       </c>
       <c r="J45">
-        <v>-51.16770423975663</v>
+        <v>-105.4153137141213</v>
       </c>
       <c r="K45">
-        <v>-700.8688477523335</v>
+        <v>-535.2335965198347</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.1329564627978</v>
+        <v>25.29440339552978</v>
       </c>
       <c r="G46">
-        <v>539.820118065726</v>
+        <v>537.298188323752</v>
       </c>
       <c r="H46">
-        <v>1757.971203056114</v>
+        <v>2453.971897572089</v>
       </c>
       <c r="I46">
-        <v>823.12479112668</v>
+        <v>990.6120127120662</v>
       </c>
       <c r="J46">
-        <v>-78.22091253369921</v>
+        <v>-161.1501269454641</v>
       </c>
       <c r="K46">
-        <v>-1096.346726448772</v>
+        <v>-837.2487995604023</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.6147953694984</v>
+        <v>24.95947915513298</v>
       </c>
       <c r="G47">
-        <v>557.2651290809337</v>
+        <v>554.6616997974346</v>
       </c>
       <c r="H47">
-        <v>1765.265682474435</v>
+        <v>2464.154343944851</v>
       </c>
       <c r="I47">
-        <v>911.4679004414389</v>
+        <v>1096.930940620613</v>
       </c>
       <c r="J47">
-        <v>-105.2741208276418</v>
+        <v>-216.884940176807</v>
       </c>
       <c r="K47">
-        <v>-1509.059996198269</v>
+        <v>-1152.426180332708</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.11668243233786</v>
+        <v>24.6375134590055</v>
       </c>
       <c r="G48">
-        <v>574.7101400961413</v>
+        <v>572.0252112711173</v>
       </c>
       <c r="H48">
-        <v>1772.370970961957</v>
+        <v>2474.072696556208</v>
       </c>
       <c r="I48">
-        <v>1001.986377548903</v>
+        <v>1205.867874317288</v>
       </c>
       <c r="J48">
-        <v>-132.3273291215841</v>
+        <v>-272.6197534081493</v>
       </c>
       <c r="K48">
-        <v>-1939.008657000823</v>
+        <v>-1480.765738836749</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.63735758259217</v>
+        <v>24.32769183542091</v>
       </c>
       <c r="G49">
-        <v>592.155151111349</v>
+        <v>589.3887227448001</v>
       </c>
       <c r="H49">
-        <v>1779.296634710852</v>
+        <v>2483.740308962073</v>
       </c>
       <c r="I49">
-        <v>1094.733788879668</v>
+        <v>1317.487279786103</v>
       </c>
       <c r="J49">
-        <v>-159.3805374155267</v>
+        <v>-328.3545666394921</v>
       </c>
       <c r="K49">
-        <v>-2386.19270885644</v>
+        <v>-1822.267475072531</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.17566889087392</v>
+        <v>24.02926971077061</v>
       </c>
       <c r="G50">
-        <v>609.6001621265567</v>
+        <v>606.7522342184827</v>
       </c>
       <c r="H50">
-        <v>1786.051532215436</v>
+        <v>2493.16954683492</v>
       </c>
       <c r="I50">
-        <v>1189.765019888398</v>
+        <v>1431.855210426616</v>
       </c>
       <c r="J50">
-        <v>-186.4337457094693</v>
+        <v>-384.089379870835</v>
       </c>
       <c r="K50">
-        <v>-2850.612151765117</v>
+        <v>-2176.931389040053</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.73056092250253</v>
+        <v>23.74156488281431</v>
       </c>
       <c r="G51">
-        <v>627.0451731417643</v>
+        <v>624.1157456921654</v>
       </c>
       <c r="H51">
-        <v>1792.643882401912</v>
+        <v>2502.371883066846</v>
       </c>
       <c r="I51">
-        <v>1287.136307533588</v>
+        <v>1549.039346142586</v>
       </c>
       <c r="J51">
-        <v>-213.4869540034119</v>
+        <v>-439.8241931021778</v>
       </c>
       <c r="K51">
-        <v>-3332.266985726853</v>
+        <v>-2544.757480739312</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.30106458938474</v>
+        <v>23.4639509612311</v>
       </c>
       <c r="G52">
-        <v>644.4901841569721</v>
+        <v>641.4792571658481</v>
       </c>
       <c r="H52">
-        <v>1799.081324751887</v>
+        <v>2511.357981696685</v>
       </c>
       <c r="I52">
-        <v>1386.905273557101</v>
+        <v>1669.109033393134</v>
       </c>
       <c r="J52">
-        <v>-240.5401622973544</v>
+        <v>-495.5590063335206</v>
       </c>
       <c r="K52">
-        <v>-3831.157210741649</v>
+        <v>-2925.745750170309</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.88628827633503</v>
+        <v>23.19585163193142</v>
       </c>
       <c r="G53">
-        <v>661.9351951721798</v>
+        <v>658.8427686395308</v>
       </c>
       <c r="H53">
-        <v>1805.370972522822</v>
+        <v>2520.137772201029</v>
       </c>
       <c r="I53">
-        <v>1489.130958583174</v>
+        <v>1792.135326230138</v>
       </c>
       <c r="J53">
-        <v>-267.5933705912968</v>
+        <v>-551.2938195648629</v>
       </c>
       <c r="K53">
-        <v>-4347.282826809501</v>
+        <v>-3319.896197333042</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.48541005693696</v>
+        <v>22.93673562561648</v>
       </c>
       <c r="G54">
-        <v>679.3802061873873</v>
+        <v>676.2062801132134</v>
       </c>
       <c r="H54">
-        <v>1811.519459995189</v>
+        <v>2528.720515447069</v>
       </c>
       <c r="I54">
-        <v>1593.873857057111</v>
+        <v>1918.19102834614</v>
       </c>
       <c r="J54">
-        <v>-294.6465788852393</v>
+        <v>-607.0286327962058</v>
       </c>
       <c r="K54">
-        <v>-4880.643833930417</v>
+        <v>-3727.208822227517</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run954/NotionalETEOutput954.xlsx
+++ b/runs/run954/NotionalETEOutput954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_368.MISSILE_HELLMASKER2_368</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_BRAVER_269.MISSILE_BRAVER_269</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_222.MISSILE_BRAVER_222</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_117.MISSILE_BRAVER_117</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_108.MISSILE_SOMERSAULT_108</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,28 +477,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G2">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H2">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I2">
-        <v>-1846.563740226856</v>
+        <v>-449.8647062579548</v>
       </c>
       <c r="J2">
-        <v>2291.181655233617</v>
+        <v>2397.527569430815</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -497,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G3">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H3">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I3">
-        <v>-1810.107655080599</v>
+        <v>-440.9831790848821</v>
       </c>
       <c r="J3">
-        <v>2235.446842002274</v>
+        <v>2339.205807385458</v>
       </c>
       <c r="K3">
-        <v>263.9584394241853</v>
+        <v>426.8047058696304</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G4">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H4">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I4">
-        <v>-1772.7538723766</v>
+        <v>-431.8829524760276</v>
       </c>
       <c r="J4">
-        <v>2179.712028770931</v>
+        <v>2280.884045340101</v>
       </c>
       <c r="K4">
-        <v>514.7547011166312</v>
+        <v>832.3269727020638</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G5">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H5">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I5">
-        <v>-1734.480287138364</v>
+        <v>-422.5586411589849</v>
       </c>
       <c r="J5">
-        <v>2123.977215539589</v>
+        <v>2222.562283294744</v>
       </c>
       <c r="K5">
-        <v>752.3887850773393</v>
+        <v>1216.566800497303</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G6">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H6">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I6">
-        <v>-1695.264250074689</v>
+        <v>-413.0047272539693</v>
       </c>
       <c r="J6">
-        <v>2068.242402308246</v>
+        <v>2164.240521249388</v>
       </c>
       <c r="K6">
-        <v>976.8606913063085</v>
+        <v>1579.524189255347</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G7">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H7">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I7">
-        <v>-1655.082554176414</v>
+        <v>-403.2155570084822</v>
       </c>
       <c r="J7">
-        <v>2012.507589076903</v>
+        <v>2105.918759204031</v>
       </c>
       <c r="K7">
-        <v>1188.17041980354</v>
+        <v>1921.199138976196</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G8">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H8">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I8">
-        <v>-1613.911420983126</v>
+        <v>-393.1853374515715</v>
       </c>
       <c r="J8">
-        <v>1956.77277584556</v>
+        <v>2047.596997158674</v>
       </c>
       <c r="K8">
-        <v>1386.317970569033</v>
+        <v>2241.59164965985</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G9">
-        <v>-105.1517362025079</v>
+        <v>-76.20161744241307</v>
       </c>
       <c r="H9">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I9">
-        <v>-1571.726486511701</v>
+        <v>-382.9081329657047</v>
       </c>
       <c r="J9">
-        <v>1901.037962614217</v>
+        <v>1989.275235113317</v>
       </c>
       <c r="K9">
-        <v>1571.303343602788</v>
+        <v>2540.701721306309</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>135.9591787035963</v>
+        <v>276.2481408506337</v>
       </c>
       <c r="G10">
-        <v>-87.78822472882518</v>
+        <v>-63.61858546825378</v>
       </c>
       <c r="H10">
-        <v>1094.887988690489</v>
+        <v>1126.845569711403</v>
       </c>
       <c r="I10">
-        <v>-1528.502786838346</v>
+        <v>-372.3778617742282</v>
       </c>
       <c r="J10">
-        <v>1845.303149382875</v>
+        <v>1930.953473067961</v>
       </c>
       <c r="K10">
-        <v>1743.126538904803</v>
+        <v>2818.529353915571</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>105.5201831902998</v>
+        <v>214.4007834299133</v>
       </c>
       <c r="G11">
-        <v>-70.42471325514248</v>
+        <v>-51.03555349409449</v>
       </c>
       <c r="H11">
-        <v>1348.894634504294</v>
+        <v>1388.266159277715</v>
       </c>
       <c r="I11">
-        <v>-1484.214743325609</v>
+        <v>-361.5882923423334</v>
       </c>
       <c r="J11">
-        <v>1789.568336151532</v>
+        <v>1872.631711022604</v>
       </c>
       <c r="K11">
-        <v>1901.78755647508</v>
+        <v>3075.074547487638</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>87.63880031108839</v>
+        <v>178.0685635436081</v>
       </c>
       <c r="G12">
-        <v>-53.06120178145979</v>
+        <v>-38.45252151993522</v>
       </c>
       <c r="H12">
-        <v>1500.193983144033</v>
+        <v>1543.981631979924</v>
       </c>
       <c r="I12">
-        <v>-1438.836147485624</v>
+        <v>-350.5330396894001</v>
       </c>
       <c r="J12">
-        <v>1733.833522920189</v>
+        <v>1814.309948977247</v>
       </c>
       <c r="K12">
-        <v>2047.28639631362</v>
+        <v>3310.337302022511</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>76.35075959310902</v>
+        <v>155.1330008848616</v>
       </c>
       <c r="G13">
-        <v>-35.69769030777709</v>
+        <v>-25.86948954577593</v>
       </c>
       <c r="H13">
-        <v>1608.317401684809</v>
+        <v>1655.260955913733</v>
       </c>
       <c r="I13">
-        <v>-1392.340145470621</v>
+        <v>-339.205561610534</v>
       </c>
       <c r="J13">
-        <v>1678.098709688846</v>
+        <v>1755.988186931891</v>
       </c>
       <c r="K13">
-        <v>2179.623058420421</v>
+        <v>3524.317617520189</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>68.47852581723751</v>
+        <v>139.1378325875663</v>
       </c>
       <c r="G14">
-        <v>-18.33417883409439</v>
+        <v>-13.28645757161665</v>
       </c>
       <c r="H14">
-        <v>1692.513049775348</v>
+        <v>1741.91410584305</v>
       </c>
       <c r="I14">
-        <v>-1344.699222181537</v>
+        <v>-327.5991548050648</v>
       </c>
       <c r="J14">
-        <v>1622.363896457504</v>
+        <v>1697.666424886534</v>
       </c>
       <c r="K14">
-        <v>2298.797542795483</v>
+        <v>3717.015493980672</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>62.60560367393378</v>
+        <v>127.2049580371461</v>
       </c>
       <c r="G15">
-        <v>-0.9706673604117004</v>
+        <v>-0.7034255974573739</v>
       </c>
       <c r="H15">
-        <v>1761.475816371259</v>
+        <v>1812.889757066137</v>
       </c>
       <c r="I15">
-        <v>-1295.885184985304</v>
+        <v>-315.7069509097094</v>
       </c>
       <c r="J15">
-        <v>1566.629083226161</v>
+        <v>1639.344662841177</v>
       </c>
       <c r="K15">
-        <v>2404.809849438807</v>
+        <v>3888.430931403958</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>58.01379868713335</v>
+        <v>117.8751165152457</v>
       </c>
       <c r="G16">
-        <v>16.392844113271</v>
+        <v>11.87960637670191</v>
       </c>
       <c r="H16">
-        <v>1819.882245640023</v>
+        <v>1873.000952680663</v>
       </c>
       <c r="I16">
-        <v>-1245.869147031206</v>
+        <v>-303.5219124340579</v>
       </c>
       <c r="J16">
-        <v>1510.894269994818</v>
+        <v>1581.02290079582</v>
       </c>
       <c r="K16">
-        <v>2497.659978350393</v>
+        <v>4038.56392979005</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>54.29869411252769</v>
+        <v>110.3265953959919</v>
       </c>
       <c r="G17">
-        <v>33.7563555869537</v>
+        <v>24.46263835086119</v>
       </c>
       <c r="H17">
-        <v>1870.539185634621</v>
+        <v>1925.136466995987</v>
       </c>
       <c r="I17">
-        <v>-1194.621510156398</v>
+        <v>-291.0368285959731</v>
       </c>
       <c r="J17">
-        <v>1455.159456763476</v>
+        <v>1522.701138750464</v>
       </c>
       <c r="K17">
-        <v>2577.34792953024</v>
+        <v>4167.414489138946</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>51.21383354968621</v>
+        <v>104.0586331782571</v>
       </c>
       <c r="G18">
-        <v>51.11986706063639</v>
+        <v>37.04567032502047</v>
       </c>
       <c r="H18">
-        <v>1915.264250958284</v>
+        <v>1971.166967134454</v>
       </c>
       <c r="I18">
-        <v>-1142.111947370511</v>
+        <v>-278.2443110544422</v>
       </c>
       <c r="J18">
-        <v>1399.424643532133</v>
+        <v>1464.379376705107</v>
       </c>
       <c r="K18">
-        <v>2643.873702978348</v>
+        <v>4274.982609450648</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>48.59964632959596</v>
+        <v>98.74700680428637</v>
       </c>
       <c r="G19">
-        <v>68.48337853431912</v>
+        <v>49.62870229917976</v>
       </c>
       <c r="H19">
-        <v>1955.302184397711</v>
+        <v>2012.373527424314</v>
       </c>
       <c r="I19">
-        <v>-1088.309384908932</v>
+        <v>-265.1367895373513</v>
       </c>
       <c r="J19">
-        <v>1343.68983030079</v>
+        <v>1406.05761465975</v>
       </c>
       <c r="K19">
-        <v>2697.237298694719</v>
+        <v>4361.268290725155</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>46.34777908055096</v>
+        <v>94.17155888732529</v>
       </c>
       <c r="G20">
-        <v>85.84689000800179</v>
+        <v>62.21173427333904</v>
       </c>
       <c r="H20">
-        <v>1991.542873085817</v>
+        <v>2049.672009016321</v>
       </c>
       <c r="I20">
-        <v>-1033.181983844187</v>
+        <v>-251.7065073616007</v>
       </c>
       <c r="J20">
-        <v>1287.955017069447</v>
+        <v>1347.735852614393</v>
       </c>
       <c r="K20">
-        <v>2737.43871667935</v>
+        <v>4426.271532962465</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>44.3817826142483</v>
+        <v>90.17695643448876</v>
       </c>
       <c r="G21">
-        <v>103.2104014816845</v>
+        <v>74.79476624749832</v>
       </c>
       <c r="H21">
-        <v>2024.644604162683</v>
+        <v>2083.739913129833</v>
       </c>
       <c r="I21">
-        <v>-976.6971212445013</v>
+        <v>-237.9455168429054</v>
       </c>
       <c r="J21">
-        <v>1232.220203838104</v>
+        <v>1289.414090569036</v>
       </c>
       <c r="K21">
-        <v>2764.477956932244</v>
+        <v>4469.992336162581</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>42.64599354988945</v>
+        <v>86.6501000169212</v>
       </c>
       <c r="G22">
-        <v>120.5739129553672</v>
+        <v>87.37779822165761</v>
       </c>
       <c r="H22">
-        <v>2055.108055744598</v>
+        <v>2115.092531669613</v>
       </c>
       <c r="I22">
-        <v>-918.8213708684192</v>
+        <v>-223.8456745925662</v>
       </c>
       <c r="J22">
-        <v>1176.485390606762</v>
+        <v>1231.09232852368</v>
       </c>
       <c r="K22">
-        <v>2778.355019453399</v>
+        <v>4492.430700325502</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>41.09880330715188</v>
+        <v>83.5064473987314</v>
       </c>
       <c r="G23">
-        <v>137.9374244290499</v>
+        <v>99.96083019581688</v>
       </c>
       <c r="H23">
-        <v>2083.322912957538</v>
+        <v>2144.130923887677</v>
       </c>
       <c r="I23">
-        <v>-859.5204833840401</v>
+        <v>-209.3986366984295</v>
       </c>
       <c r="J23">
-        <v>1120.750577375419</v>
+        <v>1172.770566478323</v>
       </c>
       <c r="K23">
-        <v>2779.069904242816</v>
+        <v>4493.586625451227</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>39.70840852784538</v>
+        <v>80.68137904737566</v>
       </c>
       <c r="G24">
-        <v>155.3009359027326</v>
+        <v>112.5438621699762</v>
       </c>
       <c r="H24">
-        <v>2109.598429786258</v>
+        <v>2171.173370271378</v>
       </c>
       <c r="I24">
-        <v>-798.7593661011745</v>
+        <v>-194.5958537871808</v>
       </c>
       <c r="J24">
-        <v>1065.015764144076</v>
+        <v>1114.448804432966</v>
       </c>
       <c r="K24">
-        <v>2766.622611300494</v>
+        <v>4473.460111539756</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>38.45003112809678</v>
+        <v>78.12454970724806</v>
       </c>
       <c r="G25">
-        <v>172.6644473764153</v>
+        <v>125.1268941441354</v>
       </c>
       <c r="H25">
-        <v>2134.184146033957</v>
+        <v>2196.476694189505</v>
       </c>
       <c r="I25">
-        <v>-736.5020622044207</v>
+        <v>-179.4285659650531</v>
       </c>
       <c r="J25">
-        <v>1009.280950912734</v>
+        <v>1056.12704238761</v>
       </c>
       <c r="K25">
-        <v>2741.013140626434</v>
+        <v>4432.051158591092</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>37.30404353951954</v>
+        <v>75.79607917807159</v>
       </c>
       <c r="G26">
-        <v>190.027958850098</v>
+        <v>137.7099261182948</v>
       </c>
       <c r="H26">
-        <v>2157.284335732662</v>
+        <v>2220.25113202274</v>
       </c>
       <c r="I26">
-        <v>-672.7117294748789</v>
+        <v>-163.8877976339545</v>
       </c>
       <c r="J26">
-        <v>953.5461376813909</v>
+        <v>997.8052803422529</v>
       </c>
       <c r="K26">
-        <v>2702.241492220635</v>
+        <v>4369.359766605231</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>36.2546706190351</v>
+        <v>73.66391479529898</v>
       </c>
       <c r="G27">
-        <v>207.3914703237807</v>
+        <v>150.292958092454</v>
       </c>
       <c r="H27">
-        <v>2179.06833378988</v>
+        <v>2242.670961224389</v>
       </c>
       <c r="I27">
-        <v>-607.3506184879024</v>
+        <v>-147.9643521799474</v>
       </c>
       <c r="J27">
-        <v>897.811324450048</v>
+        <v>939.4835182968961</v>
       </c>
       <c r="K27">
-        <v>2650.307666083098</v>
+        <v>4285.385935582175</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>35.28906987961911</v>
+        <v>71.70196260044793</v>
       </c>
       <c r="G28">
-        <v>224.7549817974634</v>
+        <v>162.8759900666133</v>
       </c>
       <c r="H28">
-        <v>2199.678076034566</v>
+        <v>2263.882260445138</v>
       </c>
       <c r="I28">
-        <v>-540.3800502739913</v>
+        <v>-131.6488065309366</v>
       </c>
       <c r="J28">
-        <v>842.0765112187054</v>
+        <v>881.1617562515395</v>
       </c>
       <c r="K28">
-        <v>2585.211662213823</v>
+        <v>4180.129665521925</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>34.3966663931788</v>
+        <v>69.88873596603875</v>
       </c>
       <c r="G29">
-        <v>242.1184932711461</v>
+        <v>175.4590220407726</v>
       </c>
       <c r="H29">
-        <v>2219.233708985492</v>
+        <v>2284.008683039297</v>
       </c>
       <c r="I29">
-        <v>-471.760393429605</v>
+        <v>-114.9315055803454</v>
       </c>
       <c r="J29">
-        <v>786.3416979873625</v>
+        <v>822.8399942061827</v>
       </c>
       <c r="K29">
-        <v>2506.953480612809</v>
+        <v>4053.590956424479</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>33.56866308109741</v>
+        <v>68.20636058129688</v>
       </c>
       <c r="G30">
-        <v>259.4820047448288</v>
+        <v>188.0420540149318</v>
       </c>
       <c r="H30">
-        <v>2237.837833559346</v>
+        <v>2303.155824638211</v>
       </c>
       <c r="I30">
-        <v>-401.4510406643525</v>
+        <v>-97.80255647348092</v>
       </c>
       <c r="J30">
-        <v>730.6068847560197</v>
+        <v>764.5182321608258</v>
       </c>
       <c r="K30">
-        <v>2415.533121280057</v>
+        <v>3905.769808289837</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>32.79767426807928</v>
+        <v>66.63982988992501</v>
       </c>
       <c r="G31">
-        <v>276.8455162185115</v>
+        <v>200.6250859890911</v>
       </c>
       <c r="H31">
-        <v>2255.578763434551</v>
+        <v>2321.414576619174</v>
       </c>
       <c r="I31">
-        <v>-329.4103847706744</v>
+        <v>-80.25182275320412</v>
       </c>
       <c r="J31">
-        <v>674.8720715246772</v>
+        <v>706.1964701154693</v>
       </c>
       <c r="K31">
-        <v>2310.950584215567</v>
+        <v>3736.666221118001</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>32.07744745734055</v>
+        <v>65.17643978008101</v>
       </c>
       <c r="G32">
-        <v>294.2090276921942</v>
+        <v>213.2081179632504</v>
       </c>
       <c r="H32">
-        <v>2272.533060474022</v>
+        <v>2338.863735532087</v>
       </c>
       <c r="I32">
-        <v>-255.5957940018027</v>
+        <v>-62.2689183614445</v>
       </c>
       <c r="J32">
-        <v>619.1372582933343</v>
+        <v>647.8747080701124</v>
       </c>
       <c r="K32">
-        <v>2193.205869419337</v>
+        <v>3546.280194908969</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>31.40264929195269</v>
+        <v>63.80535369074673</v>
       </c>
       <c r="G33">
-        <v>311.5725391658768</v>
+        <v>225.7911499374097</v>
       </c>
       <c r="H33">
-        <v>2288.767531536954</v>
+        <v>2355.572058194163</v>
       </c>
       <c r="I33">
-        <v>-179.9635868434254</v>
+        <v>-43.84320149300636</v>
       </c>
       <c r="J33">
-        <v>563.4024450619917</v>
+        <v>589.5529460247559</v>
       </c>
       <c r="K33">
-        <v>2062.29897689137</v>
+        <v>3334.611729662743</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>30.76869891514154</v>
+        <v>62.51726402548454</v>
       </c>
       <c r="G34">
-        <v>328.9360506395595</v>
+        <v>238.374181911569</v>
       </c>
       <c r="H34">
-        <v>2304.340818405306</v>
+        <v>2371.599898023181</v>
       </c>
       <c r="I34">
-        <v>-102.4690061641277</v>
+        <v>-24.9637682980316</v>
       </c>
       <c r="J34">
-        <v>507.6676318306489</v>
+        <v>531.231183979399</v>
       </c>
       <c r="K34">
-        <v>1918.229906631664</v>
+        <v>3101.660825379321</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>30.17163681011403</v>
+        <v>61.30412565513741</v>
       </c>
       <c r="G35">
-        <v>346.2995621132423</v>
+        <v>250.9572138857283</v>
       </c>
       <c r="H35">
-        <v>2319.304676433288</v>
+        <v>2387.000521008177</v>
       </c>
       <c r="I35">
-        <v>-23.06619272930954</v>
+        <v>-5.619446429390735</v>
       </c>
       <c r="J35">
-        <v>451.9328185993061</v>
+        <v>472.9094219340421</v>
       </c>
       <c r="K35">
-        <v>1760.99865864022</v>
+        <v>2847.427482058703</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>29.60802052825944</v>
+        <v>60.15894405357071</v>
       </c>
       <c r="G36">
-        <v>363.663073586925</v>
+        <v>263.5402458598876</v>
       </c>
       <c r="H36">
-        <v>2333.705012302978</v>
+        <v>2401.82117375506</v>
       </c>
       <c r="I36">
-        <v>58.29184193709232</v>
+        <v>14.20121156881567</v>
       </c>
       <c r="J36">
-        <v>396.1980053679634</v>
+        <v>414.5876598886856</v>
       </c>
       <c r="K36">
-        <v>1590.605232917037</v>
+        <v>2571.911699700891</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>29.07484102779861</v>
+        <v>59.07560531067436</v>
       </c>
       <c r="G37">
-        <v>381.0265850606077</v>
+        <v>276.1232778340468</v>
       </c>
       <c r="H37">
-        <v>2347.582733374725</v>
+        <v>2416.103957627859</v>
       </c>
       <c r="I37">
-        <v>141.6532433591348</v>
+        <v>34.50993503555689</v>
       </c>
       <c r="J37">
-        <v>340.4631921366206</v>
+        <v>356.2658978433287</v>
       </c>
       <c r="K37">
-        <v>1407.049629462116</v>
+        <v>2275.113478305883</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>28.56945497699189</v>
+        <v>58.04873858289301</v>
       </c>
       <c r="G38">
-        <v>398.3900965342904</v>
+        <v>288.7063098082061</v>
       </c>
       <c r="H38">
-        <v>2360.974448244358</v>
+        <v>2429.886549753774</v>
       </c>
       <c r="I38">
-        <v>227.0673426001127</v>
+        <v>55.31874213398379</v>
       </c>
       <c r="J38">
-        <v>284.7283789052781</v>
+        <v>297.9441357979722</v>
       </c>
       <c r="K38">
-        <v>1210.331848275457</v>
+        <v>1957.032817873681</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>28.08952954348717</v>
+        <v>57.07360391367257</v>
       </c>
       <c r="G39">
-        <v>415.7536080079731</v>
+        <v>301.2893417823654</v>
       </c>
       <c r="H39">
-        <v>2373.913048730732</v>
+        <v>2443.202801997782</v>
       </c>
       <c r="I39">
-        <v>314.5846854553683</v>
+        <v>76.63994696345773</v>
       </c>
       <c r="J39">
-        <v>228.9935656739352</v>
+        <v>239.6223737526153</v>
       </c>
       <c r="K39">
-        <v>1000.451889357059</v>
+        <v>1617.669718404282</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>27.63299703724836</v>
+        <v>56.14600007486669</v>
       </c>
       <c r="G40">
-        <v>433.1171194816558</v>
+        <v>313.8723737565247</v>
       </c>
       <c r="H40">
-        <v>2386.428196588832</v>
+        <v>2456.08324188191</v>
       </c>
       <c r="I40">
-        <v>404.2570623639564</v>
+        <v>98.4861668467089</v>
       </c>
       <c r="J40">
-        <v>173.2587524425924</v>
+        <v>181.3006117072585</v>
       </c>
       <c r="K40">
-        <v>777.4097527069225</v>
+        <v>1257.024179897688</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>27.19801739463572</v>
+        <v>55.26218834015785</v>
       </c>
       <c r="G41">
-        <v>450.4806309553385</v>
+        <v>326.455405730684</v>
       </c>
       <c r="H41">
-        <v>2398.546733072865</v>
+        <v>2468.555494102662</v>
       </c>
       <c r="I41">
-        <v>496.137539056843</v>
+        <v>120.870329796431</v>
       </c>
       <c r="J41">
-        <v>117.5239392112498</v>
+        <v>122.9788496619019</v>
       </c>
       <c r="K41">
-        <v>541.2054383250482</v>
+        <v>875.0962023539003</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>26.78294695087391</v>
+        <v>54.41882903551522</v>
       </c>
       <c r="G42">
-        <v>467.8441424290211</v>
+        <v>339.0384377048432</v>
       </c>
       <c r="H42">
-        <v>2410.293025574612</v>
+        <v>2480.644637287033</v>
       </c>
       <c r="I42">
-        <v>590.2804879598053</v>
+        <v>143.8056821657382</v>
       </c>
       <c r="J42">
-        <v>61.78912597990696</v>
+        <v>64.65708761654508</v>
       </c>
       <c r="K42">
-        <v>291.8389462114348</v>
+        <v>471.8857857729159</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>26.38631229235843</v>
+        <v>53.61292841110281</v>
       </c>
       <c r="G43">
-        <v>485.2076539027039</v>
+        <v>351.6214696790025</v>
       </c>
       <c r="H43">
-        <v>2421.689262593213</v>
+        <v>2492.373507571884</v>
       </c>
       <c r="I43">
-        <v>686.7416203695774</v>
+        <v>167.3057964870021</v>
       </c>
       <c r="J43">
-        <v>6.054312748564119</v>
+        <v>6.335325571188239</v>
       </c>
       <c r="K43">
-        <v>29.31027636608311</v>
+        <v>47.39293015473658</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>26.00678824049399</v>
+        <v>52.84179390782505</v>
       </c>
       <c r="G44">
-        <v>502.5711653763865</v>
+        <v>364.2045016531618</v>
       </c>
       <c r="H44">
-        <v>2432.755706011309</v>
+        <v>2503.762958243507</v>
       </c>
       <c r="I44">
-        <v>785.5780194223247</v>
+        <v>191.3845795037182</v>
       </c>
       <c r="J44">
-        <v>-49.68050048277846</v>
+        <v>-51.98643647416833</v>
       </c>
       <c r="K44">
-        <v>-246.3805712110062</v>
+        <v>-398.3823645006367</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>25.64317921727566</v>
+        <v>52.10299629505361</v>
       </c>
       <c r="G45">
-        <v>519.9346768500692</v>
+        <v>376.7875336273211</v>
       </c>
       <c r="H45">
-        <v>2443.510907884705</v>
+        <v>2514.832082854951</v>
       </c>
       <c r="I45">
-        <v>886.8481738739266</v>
+        <v>216.0562804001469</v>
       </c>
       <c r="J45">
-        <v>-105.4153137141213</v>
+        <v>-110.3081985195252</v>
       </c>
       <c r="K45">
-        <v>-535.2335965198347</v>
+        <v>-865.4400981932065</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>25.29440339552978</v>
+        <v>51.39433746635476</v>
       </c>
       <c r="G46">
-        <v>537.298188323752</v>
+        <v>389.3705656014804</v>
       </c>
       <c r="H46">
-        <v>2453.971897572089</v>
+        <v>2525.598407817675</v>
       </c>
       <c r="I46">
-        <v>990.6120127120662</v>
+        <v>241.3354992336017</v>
       </c>
       <c r="J46">
-        <v>-161.1501269454641</v>
+        <v>-168.629960564882</v>
       </c>
       <c r="K46">
-        <v>-837.2487995604023</v>
+        <v>-1353.780270922972</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>24.95947915513298</v>
+        <v>50.71382292060913</v>
       </c>
       <c r="G47">
-        <v>554.6616997974346</v>
+        <v>401.9535975756397</v>
       </c>
       <c r="H47">
-        <v>2464.154343944851</v>
+        <v>2536.07805934595</v>
       </c>
       <c r="I47">
-        <v>1096.930940620613</v>
+        <v>267.2371955743753</v>
       </c>
       <c r="J47">
-        <v>-216.884940176807</v>
+        <v>-226.9517226102388</v>
       </c>
       <c r="K47">
-        <v>-1152.426180332708</v>
+        <v>-1863.402882689933</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>24.6375134590055</v>
+        <v>50.05963814381816</v>
       </c>
       <c r="G48">
-        <v>572.0252112711173</v>
+        <v>414.5366295497989</v>
       </c>
       <c r="H48">
-        <v>2474.072696556208</v>
+        <v>2546.285908746427</v>
       </c>
       <c r="I48">
-        <v>1205.867874317288</v>
+        <v>293.7766973584167</v>
       </c>
       <c r="J48">
-        <v>-272.6197534081493</v>
+        <v>-285.2734846555952</v>
       </c>
       <c r="K48">
-        <v>-1480.765738836749</v>
+        <v>-2394.307933494085</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>24.32769183542091</v>
+        <v>49.43012825469799</v>
       </c>
       <c r="G49">
-        <v>589.3887227448001</v>
+        <v>427.1196615239583</v>
       </c>
       <c r="H49">
-        <v>2483.740308962073</v>
+        <v>2556.235699338491</v>
       </c>
       <c r="I49">
-        <v>1317.487279786103</v>
+        <v>320.9697099579964</v>
       </c>
       <c r="J49">
-        <v>-328.3545666394921</v>
+        <v>-343.595246700952</v>
       </c>
       <c r="K49">
-        <v>-1822.267475072531</v>
+        <v>-2946.495423335436</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>24.02926971077061</v>
+        <v>48.82378039419007</v>
       </c>
       <c r="G50">
-        <v>606.7522342184827</v>
+        <v>439.7026934981175</v>
       </c>
       <c r="H50">
-        <v>2493.16954683492</v>
+        <v>2565.940157723755</v>
       </c>
       <c r="I50">
-        <v>1431.855210426616</v>
+        <v>348.8323254757278</v>
       </c>
       <c r="J50">
-        <v>-384.089379870835</v>
+        <v>-401.9170087463089</v>
       </c>
       <c r="K50">
-        <v>-2176.931389040053</v>
+        <v>-3519.965352213982</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>23.74156488281431</v>
+        <v>48.23920843226354</v>
       </c>
       <c r="G51">
-        <v>624.1157456921654</v>
+        <v>452.2857254722767</v>
       </c>
       <c r="H51">
-        <v>2502.371883066846</v>
+        <v>2575.411091664991</v>
       </c>
       <c r="I51">
-        <v>1549.039346142586</v>
+        <v>377.381032267447</v>
       </c>
       <c r="J51">
-        <v>-439.8241931021778</v>
+        <v>-460.2387707916657</v>
       </c>
       <c r="K51">
-        <v>-2544.757480739312</v>
+        <v>-4114.717720129724</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>23.4639509612311</v>
+        <v>47.67513964012406</v>
       </c>
       <c r="G52">
-        <v>641.4792571658481</v>
+        <v>464.8687574464361</v>
       </c>
       <c r="H52">
-        <v>2511.357981696685</v>
+        <v>2584.659476462905</v>
       </c>
       <c r="I52">
-        <v>1669.109033393134</v>
+        <v>406.632724699584</v>
       </c>
       <c r="J52">
-        <v>-495.5590063335206</v>
+        <v>-518.5605328370225</v>
       </c>
       <c r="K52">
-        <v>-2925.745750170309</v>
+        <v>-4730.75252708266</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>23.19585163193142</v>
+        <v>47.13040303617765</v>
       </c>
       <c r="G53">
-        <v>658.8427686395308</v>
+        <v>477.4517894205953</v>
       </c>
       <c r="H53">
-        <v>2520.137772201029</v>
+        <v>2593.695531415565</v>
       </c>
       <c r="I53">
-        <v>1792.135326230138</v>
+        <v>436.604713146798</v>
       </c>
       <c r="J53">
-        <v>-551.2938195648629</v>
+        <v>-576.8822948823788</v>
       </c>
       <c r="K53">
-        <v>-3319.896197333042</v>
+        <v>-5368.069773072787</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2297,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>22.93673562561648</v>
+        <v>46.60391916291747</v>
       </c>
       <c r="G54">
-        <v>676.2062801132134</v>
+        <v>490.0348213947546</v>
       </c>
       <c r="H54">
-        <v>2528.720515447069</v>
+        <v>2602.528787696272</v>
       </c>
       <c r="I54">
-        <v>1918.19102834614</v>
+        <v>467.3147342358015</v>
       </c>
       <c r="J54">
-        <v>-607.0286327962058</v>
+        <v>-635.2040569277357</v>
       </c>
       <c r="K54">
-        <v>-3727.208822227517</v>
+        <v>-6026.669458100115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>954</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G55">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H55">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I55">
+        <v>-735.6135249747338</v>
+      </c>
+      <c r="J55">
+        <v>1008.033335292529</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>954</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G56">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H56">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I56">
+        <v>-721.0905552461489</v>
+      </c>
+      <c r="J56">
+        <v>983.5121239144778</v>
+      </c>
+      <c r="K56">
+        <v>277.8319595590782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>954</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G57">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H57">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I57">
+        <v>-706.2099707488851</v>
+      </c>
+      <c r="J57">
+        <v>958.9909125364268</v>
+      </c>
+      <c r="K57">
+        <v>541.8099440785578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>954</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G58">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H58">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I58">
+        <v>-690.9629655482626</v>
+      </c>
+      <c r="J58">
+        <v>934.4697011583756</v>
+      </c>
+      <c r="K58">
+        <v>791.933953558441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>954</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G59">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H59">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I59">
+        <v>-675.3405168715625</v>
+      </c>
+      <c r="J59">
+        <v>909.9484897803245</v>
+      </c>
+      <c r="K59">
+        <v>1028.203987998726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>954</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G60">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H60">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I60">
+        <v>-659.3333797685877</v>
+      </c>
+      <c r="J60">
+        <v>885.4272784022734</v>
+      </c>
+      <c r="K60">
+        <v>1250.620047399414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>954</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G61">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H61">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I61">
+        <v>-642.9320816407484</v>
+      </c>
+      <c r="J61">
+        <v>860.9060670242221</v>
+      </c>
+      <c r="K61">
+        <v>1459.182131760505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>954</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G62">
+        <v>-99.69278756870527</v>
+      </c>
+      <c r="H62">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I62">
+        <v>-626.1269166354286</v>
+      </c>
+      <c r="J62">
+        <v>836.384855646171</v>
+      </c>
+      <c r="K62">
+        <v>1653.890241081999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>954</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>145.1201543541583</v>
+      </c>
+      <c r="G63">
+        <v>-83.23070217375825</v>
+      </c>
+      <c r="H63">
+        <v>990.4853021838887</v>
+      </c>
+      <c r="I63">
+        <v>-608.9079399023212</v>
+      </c>
+      <c r="J63">
+        <v>811.86364426812</v>
+      </c>
+      <c r="K63">
+        <v>1834.744375363895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>954</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>112.6301689821132</v>
+      </c>
+      <c r="G64">
+        <v>-66.76861677881124</v>
+      </c>
+      <c r="H64">
+        <v>1220.271227259668</v>
+      </c>
+      <c r="I64">
+        <v>-591.264961708329</v>
+      </c>
+      <c r="J64">
+        <v>787.3424328900688</v>
+      </c>
+      <c r="K64">
+        <v>2001.744534606192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>954</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>93.54393244964487</v>
+      </c>
+      <c r="G65">
+        <v>-50.30653138386424</v>
+      </c>
+      <c r="H65">
+        <v>1357.143475933153</v>
+      </c>
+      <c r="I65">
+        <v>-573.1875414075523</v>
+      </c>
+      <c r="J65">
+        <v>762.8212215120177</v>
+      </c>
+      <c r="K65">
+        <v>2154.890718808894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>954</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>81.49529971319352</v>
+      </c>
+      <c r="G66">
+        <v>-33.84444598891723</v>
+      </c>
+      <c r="H66">
+        <v>1454.956821218459</v>
+      </c>
+      <c r="I66">
+        <v>-554.6649812627902</v>
+      </c>
+      <c r="J66">
+        <v>738.3000101339665</v>
+      </c>
+      <c r="K66">
+        <v>2294.182927971998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>954</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>73.09263215106391</v>
+      </c>
+      <c r="G67">
+        <v>-17.38236059397022</v>
+      </c>
+      <c r="H67">
+        <v>1531.124020788588</v>
+      </c>
+      <c r="I67">
+        <v>-535.6863201149066</v>
+      </c>
+      <c r="J67">
+        <v>713.7787987559153</v>
+      </c>
+      <c r="K67">
+        <v>2419.621162095505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>954</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>66.82399051853213</v>
+      </c>
+      <c r="G68">
+        <v>-0.9202751990232148</v>
+      </c>
+      <c r="H68">
+        <v>1593.510865303052</v>
+      </c>
+      <c r="I68">
+        <v>-516.2403268963044</v>
+      </c>
+      <c r="J68">
+        <v>689.2575873778643</v>
+      </c>
+      <c r="K68">
+        <v>2531.205421179413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>954</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>61.92278815174373</v>
+      </c>
+      <c r="G69">
+        <v>15.5418101959238</v>
+      </c>
+      <c r="H69">
+        <v>1646.347968587877</v>
+      </c>
+      <c r="I69">
+        <v>-496.3154939846798</v>
+      </c>
+      <c r="J69">
+        <v>664.736375999813</v>
+      </c>
+      <c r="K69">
+        <v>2628.935705223724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>954</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>57.95735856876588</v>
+      </c>
+      <c r="G70">
+        <v>32.00389559087081</v>
+      </c>
+      <c r="H70">
+        <v>1692.174532616833</v>
+      </c>
+      <c r="I70">
+        <v>-475.9000303931166</v>
+      </c>
+      <c r="J70">
+        <v>640.215164621762</v>
+      </c>
+      <c r="K70">
+        <v>2712.812014228438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>954</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>54.66463905317814</v>
+      </c>
+      <c r="G71">
+        <v>48.46598098581781</v>
+      </c>
+      <c r="H71">
+        <v>1732.634853946403</v>
+      </c>
+      <c r="I71">
+        <v>-454.9818547924934</v>
+      </c>
+      <c r="J71">
+        <v>615.6939532437108</v>
+      </c>
+      <c r="K71">
+        <v>2782.834348193555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>954</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>51.87430701007843</v>
+      </c>
+      <c r="G72">
+        <v>64.92806638076483</v>
+      </c>
+      <c r="H72">
+        <v>1768.854983321463</v>
+      </c>
+      <c r="I72">
+        <v>-433.5485883620733</v>
+      </c>
+      <c r="J72">
+        <v>591.1727418656596</v>
+      </c>
+      <c r="K72">
+        <v>2839.002707119075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>954</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>49.47070818076423</v>
+      </c>
+      <c r="G73">
+        <v>81.39015177571184</v>
+      </c>
+      <c r="H73">
+        <v>1801.639952978061</v>
+      </c>
+      <c r="I73">
+        <v>-411.5875474640476</v>
+      </c>
+      <c r="J73">
+        <v>566.6515304876085</v>
+      </c>
+      <c r="K73">
+        <v>2881.317091004997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>954</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>47.37224220465264</v>
+      </c>
+      <c r="G74">
+        <v>97.85223717065884</v>
+      </c>
+      <c r="H74">
+        <v>1831.585279301069</v>
+      </c>
+      <c r="I74">
+        <v>-389.0857361376954</v>
+      </c>
+      <c r="J74">
+        <v>542.1303191095574</v>
+      </c>
+      <c r="K74">
+        <v>2909.777499851321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>954</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>45.51949508343638</v>
+      </c>
+      <c r="G75">
+        <v>114.3143225656059</v>
+      </c>
+      <c r="H75">
+        <v>1859.143898408551</v>
+      </c>
+      <c r="I75">
+        <v>-366.0298384087185</v>
+      </c>
+      <c r="J75">
+        <v>517.6091077315064</v>
+      </c>
+      <c r="K75">
+        <v>2924.383933658048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>43.86805463651504</v>
+      </c>
+      <c r="G76">
+        <v>130.7764079605529</v>
+      </c>
+      <c r="H76">
+        <v>1884.668337128587</v>
+      </c>
+      <c r="I76">
+        <v>-342.4062104092025</v>
+      </c>
+      <c r="J76">
+        <v>493.0878963534551</v>
+      </c>
+      <c r="K76">
+        <v>2925.136392425178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>954</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>42.383974584619</v>
+      </c>
+      <c r="G77">
+        <v>147.2384933554999</v>
+      </c>
+      <c r="H77">
+        <v>1908.438360633238</v>
+      </c>
+      <c r="I77">
+        <v>-318.2008723035377</v>
+      </c>
+      <c r="J77">
+        <v>468.566684975404</v>
+      </c>
+      <c r="K77">
+        <v>2912.03487615271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>954</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>41.04080728816584</v>
+      </c>
+      <c r="G78">
+        <v>163.7005787504469</v>
+      </c>
+      <c r="H78">
+        <v>1930.679713939282</v>
+      </c>
+      <c r="I78">
+        <v>-293.3995000155235</v>
+      </c>
+      <c r="J78">
+        <v>444.0454735973529</v>
+      </c>
+      <c r="K78">
+        <v>2885.079384840645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>954</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>39.81760266654306</v>
+      </c>
+      <c r="G79">
+        <v>180.1626641453939</v>
+      </c>
+      <c r="H79">
+        <v>1951.577192595151</v>
+      </c>
+      <c r="I79">
+        <v>-267.9874167517611</v>
+      </c>
+      <c r="J79">
+        <v>419.5242622193017</v>
+      </c>
+      <c r="K79">
+        <v>2844.269918488983</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>954</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>38.69752264217213</v>
+      </c>
+      <c r="G80">
+        <v>196.6247495403409</v>
+      </c>
+      <c r="H80">
+        <v>1971.283984633562</v>
+      </c>
+      <c r="I80">
+        <v>-241.9495843163166</v>
+      </c>
+      <c r="J80">
+        <v>395.0030508412505</v>
+      </c>
+      <c r="K80">
+        <v>2789.606477097723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>954</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>37.66685939689002</v>
+      </c>
+      <c r="G81">
+        <v>213.0868349352879</v>
+      </c>
+      <c r="H81">
+        <v>1989.928491638862</v>
+      </c>
+      <c r="I81">
+        <v>-215.2705942115159</v>
+      </c>
+      <c r="J81">
+        <v>370.4818394631994</v>
+      </c>
+      <c r="K81">
+        <v>2721.089060666866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>954</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>36.71432546035646</v>
+      </c>
+      <c r="G82">
+        <v>229.5489203302349</v>
+      </c>
+      <c r="H82">
+        <v>2007.619403597776</v>
+      </c>
+      <c r="I82">
+        <v>-187.9346585196051</v>
+      </c>
+      <c r="J82">
+        <v>345.9606280851482</v>
+      </c>
+      <c r="K82">
+        <v>2638.717669196411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>954</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>35.83053100380884</v>
+      </c>
+      <c r="G83">
+        <v>246.0110057251819</v>
+      </c>
+      <c r="H83">
+        <v>2024.449537950094</v>
+      </c>
+      <c r="I83">
+        <v>-159.9256005598807</v>
+      </c>
+      <c r="J83">
+        <v>321.4394167070971</v>
+      </c>
+      <c r="K83">
+        <v>2542.492302686358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>954</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>35.00759270264094</v>
+      </c>
+      <c r="G84">
+        <v>262.4730911201289</v>
+      </c>
+      <c r="H84">
+        <v>2040.498787252282</v>
+      </c>
+      <c r="I84">
+        <v>-131.2268453157591</v>
+      </c>
+      <c r="J84">
+        <v>296.918205329046</v>
+      </c>
+      <c r="K84">
+        <v>2432.41296113671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>954</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>34.23883676471144</v>
+      </c>
+      <c r="G85">
+        <v>278.935176515076</v>
+      </c>
+      <c r="H85">
+        <v>2055.836412835829</v>
+      </c>
+      <c r="I85">
+        <v>-101.8214096261216</v>
+      </c>
+      <c r="J85">
+        <v>272.3969939509948</v>
+      </c>
+      <c r="K85">
+        <v>2308.479644547463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>954</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>33.51857046969006</v>
+      </c>
+      <c r="G86">
+        <v>295.397261910023</v>
+      </c>
+      <c r="H86">
+        <v>2070.52285121369</v>
+      </c>
+      <c r="I86">
+        <v>-71.69189213513151</v>
+      </c>
+      <c r="J86">
+        <v>247.8757825729438</v>
+      </c>
+      <c r="K86">
+        <v>2170.692352918619</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>954</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>32.84190430111694</v>
+      </c>
+      <c r="G87">
+        <v>311.85934730497</v>
+      </c>
+      <c r="H87">
+        <v>2084.611152399864</v>
+      </c>
+      <c r="I87">
+        <v>-40.82046299457353</v>
+      </c>
+      <c r="J87">
+        <v>223.3545711948926</v>
+      </c>
+      <c r="K87">
+        <v>2019.051086250177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>954</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>32.20461194861232</v>
+      </c>
+      <c r="G88">
+        <v>328.321432699917</v>
+      </c>
+      <c r="H88">
+        <v>2098.148136633667</v>
+      </c>
+      <c r="I88">
+        <v>-9.188853312623488</v>
+      </c>
+      <c r="J88">
+        <v>198.8333598168414</v>
+      </c>
+      <c r="K88">
+        <v>1853.555844542137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>954</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>31.60301901020859</v>
+      </c>
+      <c r="G89">
+        <v>344.783518094864</v>
+      </c>
+      <c r="H89">
+        <v>2111.1753331805</v>
+      </c>
+      <c r="I89">
+        <v>23.22165565719736</v>
+      </c>
+      <c r="J89">
+        <v>174.3121484387903</v>
+      </c>
+      <c r="K89">
+        <v>1674.206627794501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>954</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>31.03391369386923</v>
+      </c>
+      <c r="G90">
+        <v>361.245603489811</v>
+      </c>
+      <c r="H90">
+        <v>2123.729748692734</v>
+      </c>
+      <c r="I90">
+        <v>56.43024359327849</v>
+      </c>
+      <c r="J90">
+        <v>149.7909370607392</v>
+      </c>
+      <c r="K90">
+        <v>1481.003436007268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>954</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>30.49447455926397</v>
+      </c>
+      <c r="G91">
+        <v>377.707688884758</v>
+      </c>
+      <c r="H91">
+        <v>2135.844500965496</v>
+      </c>
+      <c r="I91">
+        <v>90.45656245594522</v>
+      </c>
+      <c r="J91">
+        <v>125.2697256826881</v>
+      </c>
+      <c r="K91">
+        <v>1273.946269180437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>954</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>29.98221158700427</v>
+      </c>
+      <c r="G92">
+        <v>394.1697742797051</v>
+      </c>
+      <c r="H92">
+        <v>2147.549345429003</v>
+      </c>
+      <c r="I92">
+        <v>125.3207481169654</v>
+      </c>
+      <c r="J92">
+        <v>100.7485143046369</v>
+      </c>
+      <c r="K92">
+        <v>1053.035127314008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>954</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>29.49491776539696</v>
+      </c>
+      <c r="G93">
+        <v>410.631859674652</v>
+      </c>
+      <c r="H93">
+        <v>2158.871115451278</v>
+      </c>
+      <c r="I93">
+        <v>161.0434322754258</v>
+      </c>
+      <c r="J93">
+        <v>76.22730292658574</v>
+      </c>
+      <c r="K93">
+        <v>818.2700104079815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>954</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>29.03062904668912</v>
+      </c>
+      <c r="G94">
+        <v>427.093945069599</v>
+      </c>
+      <c r="H94">
+        <v>2169.834092847505</v>
+      </c>
+      <c r="I94">
+        <v>197.645754667021</v>
+      </c>
+      <c r="J94">
+        <v>51.70609154853467</v>
+      </c>
+      <c r="K94">
+        <v>569.6509184623585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>954</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>28.58759101541445</v>
+      </c>
+      <c r="G95">
+        <v>443.556030464546</v>
+      </c>
+      <c r="H95">
+        <v>2180.46032146478</v>
+      </c>
+      <c r="I95">
+        <v>235.1493755739909</v>
+      </c>
+      <c r="J95">
+        <v>27.18488017048348</v>
+      </c>
+      <c r="K95">
+        <v>307.1778514771373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>954</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>28.16423097885921</v>
+      </c>
+      <c r="G96">
+        <v>460.0181158594931</v>
+      </c>
+      <c r="H96">
+        <v>2190.769874025155</v>
+      </c>
+      <c r="I96">
+        <v>273.576488643096</v>
+      </c>
+      <c r="J96">
+        <v>2.663668792432301</v>
+      </c>
+      <c r="K96">
+        <v>30.85080945231893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>954</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>27.75913446744415</v>
+      </c>
+      <c r="G97">
+        <v>476.4802012544401</v>
+      </c>
+      <c r="H97">
+        <v>2200.781080346071</v>
+      </c>
+      <c r="I97">
+        <v>312.9498340192316</v>
+      </c>
+      <c r="J97">
+        <v>-21.85754258561877</v>
+      </c>
+      <c r="K97">
+        <v>-259.330207612096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>954</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>27.37102534471219</v>
+      </c>
+      <c r="G98">
+        <v>492.942286649387</v>
+      </c>
+      <c r="H98">
+        <v>2210.510723458113</v>
+      </c>
+      <c r="I98">
+        <v>353.2927118024413</v>
+      </c>
+      <c r="J98">
+        <v>-46.37875396366995</v>
+      </c>
+      <c r="K98">
+        <v>-563.3651997161093</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>954</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>26.99874888960722</v>
+      </c>
+      <c r="G99">
+        <v>509.4043720443341</v>
+      </c>
+      <c r="H99">
+        <v>2219.974208891033</v>
+      </c>
+      <c r="I99">
+        <v>394.6289958362958</v>
+      </c>
+      <c r="J99">
+        <v>-70.89996534172113</v>
+      </c>
+      <c r="K99">
+        <v>-881.2541668597206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>954</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>26.64125734010841</v>
+      </c>
+      <c r="G100">
+        <v>525.8664574392811</v>
+      </c>
+      <c r="H100">
+        <v>2229.185711416107</v>
+      </c>
+      <c r="I100">
+        <v>436.9831478357999</v>
+      </c>
+      <c r="J100">
+        <v>-95.4211767197723</v>
+      </c>
+      <c r="K100">
+        <v>-1212.997109042929</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>954</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>26.29759748599422</v>
+      </c>
+      <c r="G101">
+        <v>542.3285428342281</v>
+      </c>
+      <c r="H101">
+        <v>2238.158302754127</v>
+      </c>
+      <c r="I101">
+        <v>480.3802318631861</v>
+      </c>
+      <c r="J101">
+        <v>-119.9423880978233</v>
+      </c>
+      <c r="K101">
+        <v>-1558.594026265732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>954</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>25.96689997615656</v>
+      </c>
+      <c r="G102">
+        <v>558.7906282291751</v>
+      </c>
+      <c r="H102">
+        <v>2246.904063137044</v>
+      </c>
+      <c r="I102">
+        <v>524.8459291601621</v>
+      </c>
+      <c r="J102">
+        <v>-144.4635994758744</v>
+      </c>
+      <c r="K102">
+        <v>-1918.044918528135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>954</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>25.64837006736416</v>
+      </c>
+      <c r="G103">
+        <v>575.2527136241221</v>
+      </c>
+      <c r="H103">
+        <v>2255.43417911267</v>
+      </c>
+      <c r="I103">
+        <v>570.4065533453843</v>
+      </c>
+      <c r="J103">
+        <v>-168.9848108539256</v>
+      </c>
+      <c r="K103">
+        <v>-2291.349785830135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>954</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>25.34127959035798</v>
+      </c>
+      <c r="G104">
+        <v>591.7147990190691</v>
+      </c>
+      <c r="H104">
+        <v>2263.759029579227</v>
+      </c>
+      <c r="I104">
+        <v>617.0890659861619</v>
+      </c>
+      <c r="J104">
+        <v>-193.5060222319768</v>
+      </c>
+      <c r="K104">
+        <v>-2678.508628171734</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>954</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>25.04495994842451</v>
+      </c>
+      <c r="G105">
+        <v>608.1768844140162</v>
+      </c>
+      <c r="H105">
+        <v>2271.888261709607</v>
+      </c>
+      <c r="I105">
+        <v>664.921092553595</v>
+      </c>
+      <c r="J105">
+        <v>-218.027233610028</v>
+      </c>
+      <c r="K105">
+        <v>-3079.521445552928</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>954</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>24.75879599523503</v>
+      </c>
+      <c r="G106">
+        <v>624.6389698089631</v>
+      </c>
+      <c r="H106">
+        <v>2279.830858158407</v>
+      </c>
+      <c r="I106">
+        <v>713.9309387705925</v>
+      </c>
+      <c r="J106">
+        <v>-242.548444988079</v>
+      </c>
+      <c r="K106">
+        <v>-3494.388237973718</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>954</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>24.48222066438492</v>
+      </c>
+      <c r="G107">
+        <v>641.1010552039102</v>
+      </c>
+      <c r="H107">
+        <v>2287.595196725851</v>
+      </c>
+      <c r="I107">
+        <v>764.1476073624527</v>
+      </c>
+      <c r="J107">
+        <v>-267.0696563661301</v>
+      </c>
+      <c r="K107">
+        <v>-3923.109005434108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>954</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G108">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H108">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I108">
+        <v>-1232.805251386685</v>
+      </c>
+      <c r="J108">
+        <v>2957.377440947631</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>954</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G109">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H109">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I109">
+        <v>-1208.466393087765</v>
+      </c>
+      <c r="J109">
+        <v>2885.436886190965</v>
+      </c>
+      <c r="K109">
+        <v>329.6816599420787</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>954</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G110">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H110">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I110">
+        <v>-1183.528212794573</v>
+      </c>
+      <c r="J110">
+        <v>2813.496331434299</v>
+      </c>
+      <c r="K110">
+        <v>642.9238811129683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>954</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G111">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H111">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I111">
+        <v>-1157.975952754366</v>
+      </c>
+      <c r="J111">
+        <v>2741.555776677633</v>
+      </c>
+      <c r="K111">
+        <v>939.7266635126709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>954</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G112">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H112">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I112">
+        <v>-1131.794491818318</v>
+      </c>
+      <c r="J112">
+        <v>2669.615221920968</v>
+      </c>
+      <c r="K112">
+        <v>1220.090007141185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>954</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G113">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H113">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I113">
+        <v>-1104.968336493221</v>
+      </c>
+      <c r="J113">
+        <v>2597.674667164302</v>
+      </c>
+      <c r="K113">
+        <v>1484.013911998512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>954</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G114">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H114">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I114">
+        <v>-1077.481611772855</v>
+      </c>
+      <c r="J114">
+        <v>2525.734112407636</v>
+      </c>
+      <c r="K114">
+        <v>1731.498378084652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>954</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G115">
+        <v>-103.0446602010999</v>
+      </c>
+      <c r="H115">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I115">
+        <v>-1049.318051743572</v>
+      </c>
+      <c r="J115">
+        <v>2453.793557650969</v>
+      </c>
+      <c r="K115">
+        <v>1962.543405399603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>954</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>120.7052764242905</v>
+      </c>
+      <c r="G116">
+        <v>-86.02908628553712</v>
+      </c>
+      <c r="H116">
+        <v>796.4776903728675</v>
+      </c>
+      <c r="I116">
+        <v>-1020.460989958569</v>
+      </c>
+      <c r="J116">
+        <v>2381.853002894304</v>
+      </c>
+      <c r="K116">
+        <v>2177.148993943366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>954</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>93.68137555533802</v>
+      </c>
+      <c r="G117">
+        <v>-69.01351236997432</v>
+      </c>
+      <c r="H117">
+        <v>981.2551549965382</v>
+      </c>
+      <c r="I117">
+        <v>-990.8933495751199</v>
+      </c>
+      <c r="J117">
+        <v>2309.912448137638</v>
+      </c>
+      <c r="K117">
+        <v>2375.315143715941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>954</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>77.8061894600376</v>
+      </c>
+      <c r="G118">
+        <v>-51.99793845441153</v>
+      </c>
+      <c r="H118">
+        <v>1091.318062804694</v>
+      </c>
+      <c r="I118">
+        <v>-960.597633248959</v>
+      </c>
+      <c r="J118">
+        <v>2237.971893380972</v>
+      </c>
+      <c r="K118">
+        <v>2557.041854717329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>954</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>67.78460733410567</v>
+      </c>
+      <c r="G119">
+        <v>-34.98236453884873</v>
+      </c>
+      <c r="H119">
+        <v>1169.972584147627</v>
+      </c>
+      <c r="I119">
+        <v>-929.5559127798136</v>
+      </c>
+      <c r="J119">
+        <v>2166.031338624306</v>
+      </c>
+      <c r="K119">
+        <v>2722.329126947529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>954</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>60.79559663947082</v>
+      </c>
+      <c r="G120">
+        <v>-17.96679062328593</v>
+      </c>
+      <c r="H120">
+        <v>1231.220817778178</v>
+      </c>
+      <c r="I120">
+        <v>-897.7498185019753</v>
+      </c>
+      <c r="J120">
+        <v>2094.090783867639</v>
+      </c>
+      <c r="K120">
+        <v>2871.176960406542</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>954</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>55.58158536428309</v>
+      </c>
+      <c r="G121">
+        <v>-0.9512167077231457</v>
+      </c>
+      <c r="H121">
+        <v>1281.387871967647</v>
+      </c>
+      <c r="I121">
+        <v>-865.1605284136153</v>
+      </c>
+      <c r="J121">
+        <v>2022.150229110974</v>
+      </c>
+      <c r="K121">
+        <v>3003.585355094365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>954</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>51.50495666217457</v>
+      </c>
+      <c r="G122">
+        <v>16.06435720783966</v>
+      </c>
+      <c r="H122">
+        <v>1323.875704848661</v>
+      </c>
+      <c r="I122">
+        <v>-831.7687570384265</v>
+      </c>
+      <c r="J122">
+        <v>1950.209674354308</v>
+      </c>
+      <c r="K122">
+        <v>3119.554311011002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>954</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>48.20666721309995</v>
+      </c>
+      <c r="G123">
+        <v>33.07993112340246</v>
+      </c>
+      <c r="H123">
+        <v>1360.726161685355</v>
+      </c>
+      <c r="I123">
+        <v>-797.55474401299</v>
+      </c>
+      <c r="J123">
+        <v>1878.269119597642</v>
+      </c>
+      <c r="K123">
+        <v>3219.08382815645</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>954</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>45.46791172399868</v>
+      </c>
+      <c r="G124">
+        <v>50.09550503896524</v>
+      </c>
+      <c r="H124">
+        <v>1393.261468583162</v>
+      </c>
+      <c r="I124">
+        <v>-762.4982423931172</v>
+      </c>
+      <c r="J124">
+        <v>1806.328564840976</v>
+      </c>
+      <c r="K124">
+        <v>3302.173906530712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>954</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>43.14702251273211</v>
+      </c>
+      <c r="G125">
+        <v>67.11107895452805</v>
+      </c>
+      <c r="H125">
+        <v>1422.387115300026</v>
+      </c>
+      <c r="I125">
+        <v>-726.5785066722448</v>
+      </c>
+      <c r="J125">
+        <v>1734.38801008431</v>
+      </c>
+      <c r="K125">
+        <v>3368.824546133785</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>954</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>41.14780288402753</v>
+      </c>
+      <c r="G126">
+        <v>84.12665287009085</v>
+      </c>
+      <c r="H126">
+        <v>1448.750451387353</v>
+      </c>
+      <c r="I126">
+        <v>-689.7742805047967</v>
+      </c>
+      <c r="J126">
+        <v>1662.447455327644</v>
+      </c>
+      <c r="K126">
+        <v>3419.03574696567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>954</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>39.40238084502279</v>
+      </c>
+      <c r="G127">
+        <v>101.1422267856536</v>
+      </c>
+      <c r="H127">
+        <v>1472.830348680754</v>
+      </c>
+      <c r="I127">
+        <v>-652.0637841272428</v>
+      </c>
+      <c r="J127">
+        <v>1590.506900570978</v>
+      </c>
+      <c r="K127">
+        <v>3452.807509026367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>954</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>37.86133815246236</v>
+      </c>
+      <c r="G128">
+        <v>118.1578007012164</v>
+      </c>
+      <c r="H128">
+        <v>1494.991026126645</v>
+      </c>
+      <c r="I128">
+        <v>-613.4247014694118</v>
+      </c>
+      <c r="J128">
+        <v>1518.566345814312</v>
+      </c>
+      <c r="K128">
+        <v>3470.139832315877</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>954</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>36.48773448913231</v>
+      </c>
+      <c r="G129">
+        <v>135.1733746167792</v>
+      </c>
+      <c r="H129">
+        <v>1515.515960676379</v>
+      </c>
+      <c r="I129">
+        <v>-573.8341669484361</v>
+      </c>
+      <c r="J129">
+        <v>1446.625791057646</v>
+      </c>
+      <c r="K129">
+        <v>3471.032716834198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>954</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>35.25333466577825</v>
+      </c>
+      <c r="G130">
+        <v>152.188948532342</v>
+      </c>
+      <c r="H130">
+        <v>1534.630119543098</v>
+      </c>
+      <c r="I130">
+        <v>-533.2687519375053</v>
+      </c>
+      <c r="J130">
+        <v>1374.68523630098</v>
+      </c>
+      <c r="K130">
+        <v>3455.486162581332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>954</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>34.13614056876274</v>
+      </c>
+      <c r="G131">
+        <v>169.2045224479048</v>
+      </c>
+      <c r="H131">
+        <v>1552.51503078096</v>
+      </c>
+      <c r="I131">
+        <v>-491.7044509014275</v>
+      </c>
+      <c r="J131">
+        <v>1302.744681544314</v>
+      </c>
+      <c r="K131">
+        <v>3423.500169557279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>954</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>33.11872673928098</v>
+      </c>
+      <c r="G132">
+        <v>186.2200963634677</v>
+      </c>
+      <c r="H132">
+        <v>1569.319293800052</v>
+      </c>
+      <c r="I132">
+        <v>-449.1166671907923</v>
+      </c>
+      <c r="J132">
+        <v>1230.804126787648</v>
+      </c>
+      <c r="K132">
+        <v>3375.074737762037</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>954</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>32.18708792204908</v>
+      </c>
+      <c r="G133">
+        <v>203.2356702790304</v>
+      </c>
+      <c r="H133">
+        <v>1585.166091498921</v>
+      </c>
+      <c r="I133">
+        <v>-405.4801984863253</v>
+      </c>
+      <c r="J133">
+        <v>1158.863572030982</v>
+      </c>
+      <c r="K133">
+        <v>3310.209867195607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>954</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>31.32982248930618</v>
+      </c>
+      <c r="G134">
+        <v>220.2512441945932</v>
+      </c>
+      <c r="H134">
+        <v>1600.158675280811</v>
+      </c>
+      <c r="I134">
+        <v>-360.7692218848262</v>
+      </c>
+      <c r="J134">
+        <v>1086.923017274316</v>
+      </c>
+      <c r="K134">
+        <v>3228.905557857991</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>954</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>30.53754196407874</v>
+      </c>
+      <c r="G135">
+        <v>237.266818110156</v>
+      </c>
+      <c r="H135">
+        <v>1614.384445886955</v>
+      </c>
+      <c r="I135">
+        <v>-314.9572786178588</v>
+      </c>
+      <c r="J135">
+        <v>1014.98246251765</v>
+      </c>
+      <c r="K135">
+        <v>3131.161809749185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>954</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>29.80243625354116</v>
+      </c>
+      <c r="G136">
+        <v>254.2823920257188</v>
+      </c>
+      <c r="H136">
+        <v>1627.918040487545</v>
+      </c>
+      <c r="I136">
+        <v>-268.0172583941575</v>
+      </c>
+      <c r="J136">
+        <v>943.0419077609839</v>
+      </c>
+      <c r="K136">
+        <v>3016.978622869191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>954</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>29.11794831618554</v>
+      </c>
+      <c r="G137">
+        <v>271.2979659412816</v>
+      </c>
+      <c r="H137">
+        <v>1640.823702982728</v>
+      </c>
+      <c r="I137">
+        <v>-219.9213833564745</v>
+      </c>
+      <c r="J137">
+        <v>871.1013530043182</v>
+      </c>
+      <c r="K137">
+        <v>2886.355997218011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>954</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>28.47852715236746</v>
+      </c>
+      <c r="G138">
+        <v>288.3135398568444</v>
+      </c>
+      <c r="H138">
+        <v>1653.15712839919</v>
+      </c>
+      <c r="I138">
+        <v>-170.6411916433823</v>
+      </c>
+      <c r="J138">
+        <v>799.160798247652</v>
+      </c>
+      <c r="K138">
+        <v>2739.293932795642</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>954</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>27.87943777965716</v>
+      </c>
+      <c r="G139">
+        <v>305.3291137724072</v>
+      </c>
+      <c r="H139">
+        <v>1664.966915473477</v>
+      </c>
+      <c r="I139">
+        <v>-120.1475205462999</v>
+      </c>
+      <c r="J139">
+        <v>727.2202434909863</v>
+      </c>
+      <c r="K139">
+        <v>2575.792429602086</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>954</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>27.31661328923348</v>
+      </c>
+      <c r="G140">
+        <v>322.34468768797</v>
+      </c>
+      <c r="H140">
+        <v>1676.295723246092</v>
+      </c>
+      <c r="I140">
+        <v>-68.41048925177736</v>
+      </c>
+      <c r="J140">
+        <v>655.2796887343202</v>
+      </c>
+      <c r="K140">
+        <v>2395.851487637342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>954</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>26.78653840118984</v>
+      </c>
+      <c r="G141">
+        <v>339.3602616035328</v>
+      </c>
+      <c r="H141">
+        <v>1687.18120121672</v>
+      </c>
+      <c r="I141">
+        <v>-15.39948115882352</v>
+      </c>
+      <c r="J141">
+        <v>583.339133977654</v>
+      </c>
+      <c r="K141">
+        <v>2199.47110690141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>954</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>26.28615689148093</v>
+      </c>
+      <c r="G142">
+        <v>356.3758355190956</v>
+      </c>
+      <c r="H142">
+        <v>1697.6567442609</v>
+      </c>
+      <c r="I142">
+        <v>38.91687423918627</v>
+      </c>
+      <c r="J142">
+        <v>511.3985792209883</v>
+      </c>
+      <c r="K142">
+        <v>1986.65128739429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>954</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>25.81279731693396</v>
+      </c>
+      <c r="G143">
+        <v>373.3914094346584</v>
+      </c>
+      <c r="H143">
+        <v>1707.752110491088</v>
+      </c>
+      <c r="I143">
+        <v>94.57071991874129</v>
+      </c>
+      <c r="J143">
+        <v>439.4580244643222</v>
+      </c>
+      <c r="K143">
+        <v>1757.392029115983</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>954</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>25.36411291367938</v>
+      </c>
+      <c r="G144">
+        <v>390.4069833502212</v>
+      </c>
+      <c r="H144">
+        <v>1717.493930877897</v>
+      </c>
+      <c r="I144">
+        <v>151.5949903475567</v>
+      </c>
+      <c r="J144">
+        <v>367.5174697076564</v>
+      </c>
+      <c r="K144">
+        <v>1511.693332066488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>954</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>24.93803258084266</v>
+      </c>
+      <c r="G145">
+        <v>407.422557265784</v>
+      </c>
+      <c r="H145">
+        <v>1726.906132617702</v>
+      </c>
+      <c r="I145">
+        <v>210.0234309743142</v>
+      </c>
+      <c r="J145">
+        <v>295.5769149509903</v>
+      </c>
+      <c r="K145">
+        <v>1249.555196245804</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>954</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>24.53272061229683</v>
+      </c>
+      <c r="G146">
+        <v>424.4381311813468</v>
+      </c>
+      <c r="H146">
+        <v>1736.010293192718</v>
+      </c>
+      <c r="I146">
+        <v>269.8906181983264</v>
+      </c>
+      <c r="J146">
+        <v>223.6363601943242</v>
+      </c>
+      <c r="K146">
+        <v>970.9776216539327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>954</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>24.14654338983095</v>
+      </c>
+      <c r="G147">
+        <v>441.4537050969096</v>
+      </c>
+      <c r="H147">
+        <v>1744.825938308202</v>
+      </c>
+      <c r="I147">
+        <v>331.2319798309266</v>
+      </c>
+      <c r="J147">
+        <v>151.6958054376584</v>
+      </c>
+      <c r="K147">
+        <v>675.9606082908742</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>954</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>23.77804165918246</v>
+      </c>
+      <c r="G148">
+        <v>458.4692790124724</v>
+      </c>
+      <c r="H148">
+        <v>1753.370794054976</v>
+      </c>
+      <c r="I148">
+        <v>394.083816060713</v>
+      </c>
+      <c r="J148">
+        <v>79.75525068099233</v>
+      </c>
+      <c r="K148">
+        <v>364.5041561566271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>954</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>23.42590731597685</v>
+      </c>
+      <c r="G149">
+        <v>475.4848529280353</v>
+      </c>
+      <c r="H149">
+        <v>1761.661001485577</v>
+      </c>
+      <c r="I149">
+        <v>458.4833209350284</v>
+      </c>
+      <c r="J149">
+        <v>7.814695924326232</v>
+      </c>
+      <c r="K149">
+        <v>36.60826525119233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>954</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>23.08896385966313</v>
+      </c>
+      <c r="G150">
+        <v>492.500426843598</v>
+      </c>
+      <c r="H150">
+        <v>1769.711300132865</v>
+      </c>
+      <c r="I150">
+        <v>524.4686043704151</v>
+      </c>
+      <c r="J150">
+        <v>-64.12585883233953</v>
+      </c>
+      <c r="K150">
+        <v>-307.7270644254293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>954</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>22.76614984977845</v>
+      </c>
+      <c r="G151">
+        <v>509.5160007591608</v>
+      </c>
+      <c r="H151">
+        <v>1777.535185713948</v>
+      </c>
+      <c r="I151">
+        <v>592.0787147050509</v>
+      </c>
+      <c r="J151">
+        <v>-136.0664135890056</v>
+      </c>
+      <c r="K151">
+        <v>-668.5018328732397</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>954</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>22.45650483444834</v>
+      </c>
+      <c r="G152">
+        <v>526.5315746747236</v>
+      </c>
+      <c r="H152">
+        <v>1785.145046257936</v>
+      </c>
+      <c r="I152">
+        <v>661.3536618065165</v>
+      </c>
+      <c r="J152">
+        <v>-208.0069683456717</v>
+      </c>
+      <c r="K152">
+        <v>-1045.716040092239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>954</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>22.15915732614641</v>
+      </c>
+      <c r="G153">
+        <v>543.5471485902864</v>
+      </c>
+      <c r="H153">
+        <v>1792.552280105685</v>
+      </c>
+      <c r="I153">
+        <v>732.3344407485729</v>
+      </c>
+      <c r="J153">
+        <v>-279.9475231023379</v>
+      </c>
+      <c r="K153">
+        <v>-1439.369686082425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>954</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>21.87331448183994</v>
+      </c>
+      <c r="G154">
+        <v>560.5627225058491</v>
+      </c>
+      <c r="H154">
+        <v>1799.767398603465</v>
+      </c>
+      <c r="I154">
+        <v>805.0630560709578</v>
+      </c>
+      <c r="J154">
+        <v>-351.8880778590033</v>
+      </c>
+      <c r="K154">
+        <v>-1849.462770843796</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>954</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>21.59825320923157</v>
+      </c>
+      <c r="G155">
+        <v>577.578296421412</v>
+      </c>
+      <c r="H155">
+        <v>1806.800115812879</v>
+      </c>
+      <c r="I155">
+        <v>879.5825466365582</v>
+      </c>
+      <c r="J155">
+        <v>-423.8286326156694</v>
+      </c>
+      <c r="K155">
+        <v>-2275.995294376358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>954</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>21.33331247194183</v>
+      </c>
+      <c r="G156">
+        <v>594.5938703369748</v>
+      </c>
+      <c r="H156">
+        <v>1813.659427158438</v>
+      </c>
+      <c r="I156">
+        <v>955.9370111006615</v>
+      </c>
+      <c r="J156">
+        <v>-495.7691873723355</v>
+      </c>
+      <c r="K156">
+        <v>-2718.967256680108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>954</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>21.07788660722123</v>
+      </c>
+      <c r="G157">
+        <v>611.6094442525375</v>
+      </c>
+      <c r="H157">
+        <v>1820.353678610411</v>
+      </c>
+      <c r="I157">
+        <v>1034.171634007374</v>
+      </c>
+      <c r="J157">
+        <v>-567.7097421290016</v>
+      </c>
+      <c r="K157">
+        <v>-3178.378657755046</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>954</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>20.83141950243689</v>
+      </c>
+      <c r="G158">
+        <v>628.6250181681004</v>
+      </c>
+      <c r="H158">
+        <v>1826.890627737707</v>
+      </c>
+      <c r="I158">
+        <v>1114.332712528632</v>
+      </c>
+      <c r="J158">
+        <v>-639.6502968856677</v>
+      </c>
+      <c r="K158">
+        <v>-3654.229497601171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>954</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>20.59339950289839</v>
+      </c>
+      <c r="G159">
+        <v>645.6405920836631</v>
+      </c>
+      <c r="H159">
+        <v>1833.277497750978</v>
+      </c>
+      <c r="I159">
+        <v>1196.467683861634</v>
+      </c>
+      <c r="J159">
+        <v>-711.5908516423332</v>
+      </c>
+      <c r="K159">
+        <v>-4146.519776218481</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>954</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>20.36335494491831</v>
+      </c>
+      <c r="G160">
+        <v>662.6561659992259</v>
+      </c>
+      <c r="H160">
+        <v>1839.521025480097</v>
+      </c>
+      <c r="I160">
+        <v>1280.625153300925</v>
+      </c>
+      <c r="J160">
+        <v>-783.5314063989993</v>
+      </c>
+      <c r="K160">
+        <v>-4655.249493606982</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>954</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G161">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H161">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I161">
+        <v>-2209.813864900824</v>
+      </c>
+      <c r="J161">
+        <v>2218.227252465272</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>954</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G162">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H162">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I162">
+        <v>-2166.186255053841</v>
+      </c>
+      <c r="J162">
+        <v>2164.267113015647</v>
+      </c>
+      <c r="K162">
+        <v>179.944335195798</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>954</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G163">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H163">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I163">
+        <v>-2121.484355451041</v>
+      </c>
+      <c r="J163">
+        <v>2110.306973566023</v>
+      </c>
+      <c r="K163">
+        <v>350.9158210035125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>954</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G164">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H164">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I164">
+        <v>-2075.681712695516</v>
+      </c>
+      <c r="J164">
+        <v>2056.346834116399</v>
+      </c>
+      <c r="K164">
+        <v>512.9144574231447</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>954</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G165">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H165">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I165">
+        <v>-2028.751221999795</v>
+      </c>
+      <c r="J165">
+        <v>2002.386694666775</v>
+      </c>
+      <c r="K165">
+        <v>665.9402444546935</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>954</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G166">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H166">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I166">
+        <v>-1980.665111145951</v>
+      </c>
+      <c r="J166">
+        <v>1948.426555217151</v>
+      </c>
+      <c r="K166">
+        <v>809.9931820981602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>954</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G167">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H167">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I167">
+        <v>-1931.394924050742</v>
+      </c>
+      <c r="J167">
+        <v>1894.466415767527</v>
+      </c>
+      <c r="K167">
+        <v>945.0732703535438</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>954</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G168">
+        <v>-99.96968911623955</v>
+      </c>
+      <c r="H168">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I168">
+        <v>-1880.911503926054</v>
+      </c>
+      <c r="J168">
+        <v>1840.506276317903</v>
+      </c>
+      <c r="K168">
+        <v>1071.180509220845</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>954</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>217.5822204761107</v>
+      </c>
+      <c r="G169">
+        <v>-83.46187948152884</v>
+      </c>
+      <c r="H169">
+        <v>808.7302928991427</v>
+      </c>
+      <c r="I169">
+        <v>-1829.184976024691</v>
+      </c>
+      <c r="J169">
+        <v>1786.546136868279</v>
+      </c>
+      <c r="K169">
+        <v>1188.314898700062</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>954</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>168.8691854607688</v>
+      </c>
+      <c r="G170">
+        <v>-66.95406984681813</v>
+      </c>
+      <c r="H170">
+        <v>996.3502788604628</v>
+      </c>
+      <c r="I170">
+        <v>-1776.18472996129</v>
+      </c>
+      <c r="J170">
+        <v>1732.585997418655</v>
+      </c>
+      <c r="K170">
+        <v>1296.476438791197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>954</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>140.2527210988859</v>
+      </c>
+      <c r="G171">
+        <v>-50.44626021210745</v>
+      </c>
+      <c r="H171">
+        <v>1108.106337749383</v>
+      </c>
+      <c r="I171">
+        <v>-1721.87940159791</v>
+      </c>
+      <c r="J171">
+        <v>1678.625857969031</v>
+      </c>
+      <c r="K171">
+        <v>1395.665129494249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>954</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>122.1879093836196</v>
+      </c>
+      <c r="G172">
+        <v>-33.93845057739674</v>
+      </c>
+      <c r="H172">
+        <v>1187.970839734031</v>
+      </c>
+      <c r="I172">
+        <v>-1666.236854483567</v>
+      </c>
+      <c r="J172">
+        <v>1624.665718519407</v>
+      </c>
+      <c r="K172">
+        <v>1485.880970809219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>954</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>109.5895830227687</v>
+      </c>
+      <c r="G173">
+        <v>-17.43064094268603</v>
+      </c>
+      <c r="H173">
+        <v>1250.161284642038</v>
+      </c>
+      <c r="I173">
+        <v>-1609.224160836739</v>
+      </c>
+      <c r="J173">
+        <v>1570.705579069783</v>
+      </c>
+      <c r="K173">
+        <v>1567.123962736105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>954</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>100.1908542807456</v>
+      </c>
+      <c r="G174">
+        <v>-0.9228313079753426</v>
+      </c>
+      <c r="H174">
+        <v>1301.100082952312</v>
+      </c>
+      <c r="I174">
+        <v>-1550.807582059574</v>
+      </c>
+      <c r="J174">
+        <v>1516.745439620159</v>
+      </c>
+      <c r="K174">
+        <v>1639.394105274908</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>954</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>92.84236089804111</v>
+      </c>
+      <c r="G175">
+        <v>15.58497832673536</v>
+      </c>
+      <c r="H175">
+        <v>1344.241526769058</v>
+      </c>
+      <c r="I175">
+        <v>-1490.952548772289</v>
+      </c>
+      <c r="J175">
+        <v>1462.785300170534</v>
+      </c>
+      <c r="K175">
+        <v>1702.691398425629</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>954</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>86.8968946900853</v>
+      </c>
+      <c r="G176">
+        <v>32.09278796144607</v>
+      </c>
+      <c r="H176">
+        <v>1381.658872052207</v>
+      </c>
+      <c r="I176">
+        <v>-1429.623640355924</v>
+      </c>
+      <c r="J176">
+        <v>1408.82516072091</v>
+      </c>
+      <c r="K176">
+        <v>1757.015842188267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>954</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>81.96003924919199</v>
+      </c>
+      <c r="G177">
+        <v>48.60059759615676</v>
+      </c>
+      <c r="H177">
+        <v>1414.694685352526</v>
+      </c>
+      <c r="I177">
+        <v>-1366.784563991369</v>
+      </c>
+      <c r="J177">
+        <v>1354.865021271286</v>
+      </c>
+      <c r="K177">
+        <v>1802.367436562822</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>954</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>77.77642571525364</v>
+      </c>
+      <c r="G178">
+        <v>65.10840723086748</v>
+      </c>
+      <c r="H178">
+        <v>1444.26838601598</v>
+      </c>
+      <c r="I178">
+        <v>-1302.398133182225</v>
+      </c>
+      <c r="J178">
+        <v>1300.904881821662</v>
+      </c>
+      <c r="K178">
+        <v>1838.746181549294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>954</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>74.17265081063456</v>
+      </c>
+      <c r="G179">
+        <v>81.61621686557817</v>
+      </c>
+      <c r="H179">
+        <v>1471.037282086027</v>
+      </c>
+      <c r="I179">
+        <v>-1236.426245748837</v>
+      </c>
+      <c r="J179">
+        <v>1246.944742372038</v>
+      </c>
+      <c r="K179">
+        <v>1866.152077147683</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>954</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>71.02636910560243</v>
+      </c>
+      <c r="G180">
+        <v>98.12402650028886</v>
+      </c>
+      <c r="H180">
+        <v>1495.487612115933</v>
+      </c>
+      <c r="I180">
+        <v>-1168.829861280426</v>
+      </c>
+      <c r="J180">
+        <v>1192.984602922414</v>
+      </c>
+      <c r="K180">
+        <v>1884.585123357989</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>954</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>68.24849972964276</v>
+      </c>
+      <c r="G181">
+        <v>114.6318361349996</v>
+      </c>
+      <c r="H181">
+        <v>1517.989198008776</v>
+      </c>
+      <c r="I181">
+        <v>-1099.568978032012</v>
+      </c>
+      <c r="J181">
+        <v>1139.02446347279</v>
+      </c>
+      <c r="K181">
+        <v>1894.045320180213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>954</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>65.7724544068939</v>
+      </c>
+      <c r="G182">
+        <v>131.1396457697103</v>
+      </c>
+      <c r="H182">
+        <v>1538.829877579313</v>
+      </c>
+      <c r="I182">
+        <v>-1028.602609252451</v>
+      </c>
+      <c r="J182">
+        <v>1085.064324023166</v>
+      </c>
+      <c r="K182">
+        <v>1894.532667614354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>954</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>63.54733664504398</v>
+      </c>
+      <c r="G183">
+        <v>147.647455404421</v>
+      </c>
+      <c r="H183">
+        <v>1558.238078820412</v>
+      </c>
+      <c r="I183">
+        <v>-955.8887589295559</v>
+      </c>
+      <c r="J183">
+        <v>1031.104184573542</v>
+      </c>
+      <c r="K183">
+        <v>1886.047165660412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>954</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>61.53349284689067</v>
+      </c>
+      <c r="G184">
+        <v>164.1552650391317</v>
+      </c>
+      <c r="H184">
+        <v>1576.398122320312</v>
+      </c>
+      <c r="I184">
+        <v>-881.3843969379743</v>
+      </c>
+      <c r="J184">
+        <v>977.1440451239179</v>
+      </c>
+      <c r="K184">
+        <v>1868.588814318387</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>954</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>59.69951204075255</v>
+      </c>
+      <c r="G185">
+        <v>180.6630746738424</v>
+      </c>
+      <c r="H185">
+        <v>1593.460893465882</v>
+      </c>
+      <c r="I185">
+        <v>-805.0454335751065</v>
+      </c>
+      <c r="J185">
+        <v>923.1839056742937</v>
+      </c>
+      <c r="K185">
+        <v>1842.157613588279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>954</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>58.02014848234011</v>
+      </c>
+      <c r="G186">
+        <v>197.1708843085531</v>
+      </c>
+      <c r="H186">
+        <v>1609.55147013793</v>
+      </c>
+      <c r="I186">
+        <v>-726.8266934699867</v>
+      </c>
+      <c r="J186">
+        <v>869.2237662246695</v>
+      </c>
+      <c r="K186">
+        <v>1806.753563470088</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>954</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>56.47484970237661</v>
+      </c>
+      <c r="G187">
+        <v>213.6786939432638</v>
+      </c>
+      <c r="H187">
+        <v>1624.774692106101</v>
+      </c>
+      <c r="I187">
+        <v>-646.6818888497002</v>
+      </c>
+      <c r="J187">
+        <v>815.2636267750455</v>
+      </c>
+      <c r="K187">
+        <v>1762.376663963815</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>954</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>55.04669211866823</v>
+      </c>
+      <c r="G188">
+        <v>230.1865035779745</v>
+      </c>
+      <c r="H188">
+        <v>1639.219304639613</v>
+      </c>
+      <c r="I188">
+        <v>-564.5635921475063</v>
+      </c>
+      <c r="J188">
+        <v>761.3034873254213</v>
+      </c>
+      <c r="K188">
+        <v>1709.026915069458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>954</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>53.72159732976098</v>
+      </c>
+      <c r="G189">
+        <v>246.6943132126852</v>
+      </c>
+      <c r="H189">
+        <v>1652.961093088439</v>
+      </c>
+      <c r="I189">
+        <v>-480.4232079364689</v>
+      </c>
+      <c r="J189">
+        <v>707.3433478757972</v>
+      </c>
+      <c r="K189">
+        <v>1646.704316787019</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>954</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>52.48774567297477</v>
+      </c>
+      <c r="G190">
+        <v>263.2021228473959</v>
+      </c>
+      <c r="H190">
+        <v>1666.065289647794</v>
+      </c>
+      <c r="I190">
+        <v>-394.2109441719691</v>
+      </c>
+      <c r="J190">
+        <v>653.3832084261733</v>
+      </c>
+      <c r="K190">
+        <v>1575.408869116497</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>954</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>51.33513096743437</v>
+      </c>
+      <c r="G191">
+        <v>279.7099324821066</v>
+      </c>
+      <c r="H191">
+        <v>1678.588446127966</v>
+      </c>
+      <c r="I191">
+        <v>-305.8757827260968</v>
+      </c>
+      <c r="J191">
+        <v>599.4230689765491</v>
+      </c>
+      <c r="K191">
+        <v>1495.140572057892</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>954</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>50.25521797738618</v>
+      </c>
+      <c r="G192">
+        <v>296.2177421168172</v>
+      </c>
+      <c r="H192">
+        <v>1690.57990888343</v>
+      </c>
+      <c r="I192">
+        <v>-215.3654491964778</v>
+      </c>
+      <c r="J192">
+        <v>545.4629295269252</v>
+      </c>
+      <c r="K192">
+        <v>1405.899425611205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>954</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>49.24067573041549</v>
+      </c>
+      <c r="G193">
+        <v>312.725551751528</v>
+      </c>
+      <c r="H193">
+        <v>1702.082993199396</v>
+      </c>
+      <c r="I193">
+        <v>-122.6263819716717</v>
+      </c>
+      <c r="J193">
+        <v>491.502790077301</v>
+      </c>
+      <c r="K193">
+        <v>1307.685429776434</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>954</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>48.28516761531248</v>
+      </c>
+      <c r="G194">
+        <v>329.2333613862387</v>
+      </c>
+      <c r="H194">
+        <v>1713.135927756058</v>
+      </c>
+      <c r="I194">
+        <v>-27.60370053483273</v>
+      </c>
+      <c r="J194">
+        <v>437.5426506276768</v>
+      </c>
+      <c r="K194">
+        <v>1200.49858455358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>954</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>47.38318451073841</v>
+      </c>
+      <c r="G195">
+        <v>345.7411710209494</v>
+      </c>
+      <c r="H195">
+        <v>1723.77262115852</v>
+      </c>
+      <c r="I195">
+        <v>69.75882701312476</v>
+      </c>
+      <c r="J195">
+        <v>383.5825111780529</v>
+      </c>
+      <c r="K195">
+        <v>1084.338889942644</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>954</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>46.5299108978143</v>
+      </c>
+      <c r="G196">
+        <v>362.2489806556601</v>
+      </c>
+      <c r="H196">
+        <v>1734.023289302712</v>
+      </c>
+      <c r="I196">
+        <v>169.5188172300676</v>
+      </c>
+      <c r="J196">
+        <v>329.6223717284287</v>
+      </c>
+      <c r="K196">
+        <v>959.2063459436251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>954</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>45.72111652158532</v>
+      </c>
+      <c r="G197">
+        <v>378.7567902903708</v>
+      </c>
+      <c r="H197">
+        <v>1743.914972836379</v>
+      </c>
+      <c r="I197">
+        <v>271.7353054285955</v>
+      </c>
+      <c r="J197">
+        <v>275.6622322788048</v>
+      </c>
+      <c r="K197">
+        <v>825.1009525565235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>954</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>44.95306803467463</v>
+      </c>
+      <c r="G198">
+        <v>395.2645999250815</v>
+      </c>
+      <c r="H198">
+        <v>1753.471967039563</v>
+      </c>
+      <c r="I198">
+        <v>376.4687806115662</v>
+      </c>
+      <c r="J198">
+        <v>221.7020928291806</v>
+      </c>
+      <c r="K198">
+        <v>682.0227097813381</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>954</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>44.22245641011106</v>
+      </c>
+      <c r="G199">
+        <v>411.7724095597922</v>
+      </c>
+      <c r="H199">
+        <v>1762.716181331348</v>
+      </c>
+      <c r="I199">
+        <v>483.7812212678882</v>
+      </c>
+      <c r="J199">
+        <v>167.7419533795565</v>
+      </c>
+      <c r="K199">
+        <v>529.9716176180705</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>954</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>43.52633690274116</v>
+      </c>
+      <c r="G200">
+        <v>428.2802191945029</v>
+      </c>
+      <c r="H200">
+        <v>1771.667441790387</v>
+      </c>
+      <c r="I200">
+        <v>593.7361320497353</v>
+      </c>
+      <c r="J200">
+        <v>113.7818139299325</v>
+      </c>
+      <c r="K200">
+        <v>368.9476760667201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>954</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>42.86207907426026</v>
+      </c>
+      <c r="G201">
+        <v>444.7880288292136</v>
+      </c>
+      <c r="H201">
+        <v>1780.343747196548</v>
+      </c>
+      <c r="I201">
+        <v>706.3985813529246</v>
+      </c>
+      <c r="J201">
+        <v>59.82167448030837</v>
+      </c>
+      <c r="K201">
+        <v>198.9508851272865</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>954</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>42.22732494776082</v>
+      </c>
+      <c r="G202">
+        <v>461.2958384639243</v>
+      </c>
+      <c r="H202">
+        <v>1788.761486908009</v>
+      </c>
+      <c r="I202">
+        <v>821.8352398226513</v>
+      </c>
+      <c r="J202">
+        <v>5.861535030684199</v>
+      </c>
+      <c r="K202">
+        <v>19.98124479977011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>954</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>41.61995377417656</v>
+      </c>
+      <c r="G203">
+        <v>477.803648098635</v>
+      </c>
+      <c r="H203">
+        <v>1796.935627203011</v>
+      </c>
+      <c r="I203">
+        <v>940.1144198074155</v>
+      </c>
+      <c r="J203">
+        <v>-48.09860441893972</v>
+      </c>
+      <c r="K203">
+        <v>-167.9612449158286</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>954</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>41.03805221069717</v>
+      </c>
+      <c r="G204">
+        <v>494.3114577333457</v>
+      </c>
+      <c r="H204">
+        <v>1804.879871409822</v>
+      </c>
+      <c r="I204">
+        <v>1061.306115784455</v>
+      </c>
+      <c r="J204">
+        <v>-102.0587438685639</v>
+      </c>
+      <c r="K204">
+        <v>-364.8765840195106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>954</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>40.47988895561244</v>
+      </c>
+      <c r="G205">
+        <v>510.8192673680564</v>
+      </c>
+      <c r="H205">
+        <v>1812.60679812861</v>
+      </c>
+      <c r="I205">
+        <v>1185.482045780614</v>
+      </c>
+      <c r="J205">
+        <v>-156.0188833181881</v>
+      </c>
+      <c r="K205">
+        <v>-570.7647725112761</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>954</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>39.94389307352726</v>
+      </c>
+      <c r="G206">
+        <v>527.3270770027672</v>
+      </c>
+      <c r="H206">
+        <v>1820.127981046437</v>
+      </c>
+      <c r="I206">
+        <v>1312.715693813167</v>
+      </c>
+      <c r="J206">
+        <v>-209.9790227678122</v>
+      </c>
+      <c r="K206">
+        <v>-785.625810391124</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>954</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>39.42863539288712</v>
+      </c>
+      <c r="G207">
+        <v>543.8348866374778</v>
+      </c>
+      <c r="H207">
+        <v>1827.454093210709</v>
+      </c>
+      <c r="I207">
+        <v>1443.082353375711</v>
+      </c>
+      <c r="J207">
+        <v>-263.9391622174359</v>
+      </c>
+      <c r="K207">
+        <v>-1009.459697659053</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>954</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>38.93281247417109</v>
+      </c>
+      <c r="G208">
+        <v>560.3426962721885</v>
+      </c>
+      <c r="H208">
+        <v>1834.594998119148</v>
+      </c>
+      <c r="I208">
+        <v>1576.659171994857</v>
+      </c>
+      <c r="J208">
+        <v>-317.8993016670601</v>
+      </c>
+      <c r="K208">
+        <v>-1242.266434315067</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>954</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>38.45523273928489</v>
+      </c>
+      <c r="G209">
+        <v>576.8505059068992</v>
+      </c>
+      <c r="H209">
+        <v>1841.559829577244</v>
+      </c>
+      <c r="I209">
+        <v>1713.525196884078</v>
+      </c>
+      <c r="J209">
+        <v>-371.8594411166843</v>
+      </c>
+      <c r="K209">
+        <v>-1484.046020359163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>954</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>37.99480442612993</v>
+      </c>
+      <c r="G210">
+        <v>593.3583155416098</v>
+      </c>
+      <c r="H210">
+        <v>1848.357061945372</v>
+      </c>
+      <c r="I210">
+        <v>1853.761421721763</v>
+      </c>
+      <c r="J210">
+        <v>-425.8195805663084</v>
+      </c>
+      <c r="K210">
+        <v>-1734.798455791343</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>954</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>37.5505250911919</v>
+      </c>
+      <c r="G211">
+        <v>609.8661251763207</v>
+      </c>
+      <c r="H211">
+        <v>1854.994572130887</v>
+      </c>
+      <c r="I211">
+        <v>1997.450834581116</v>
+      </c>
+      <c r="J211">
+        <v>-479.7797200159326</v>
+      </c>
+      <c r="K211">
+        <v>-1994.523740611605</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>954</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>37.12147243043441</v>
+      </c>
+      <c r="G212">
+        <v>626.3739348110313</v>
+      </c>
+      <c r="H212">
+        <v>1861.479694462591</v>
+      </c>
+      <c r="I212">
+        <v>2144.678467040291</v>
+      </c>
+      <c r="J212">
+        <v>-533.7398594655563</v>
+      </c>
+      <c r="K212">
+        <v>-2263.221874819948</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>954</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>36.70679622723509</v>
+      </c>
+      <c r="G213">
+        <v>642.881744445742</v>
+      </c>
+      <c r="H213">
+        <v>1867.81926940628</v>
+      </c>
+      <c r="I213">
+        <v>2295.531444501838</v>
+      </c>
+      <c r="J213">
+        <v>-587.6999989151805</v>
+      </c>
+      <c r="K213">
+        <v>-2540.892858416375</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run954/NotionalETEOutput954.xlsx
+++ b/runs/run954/NotionalETEOutput954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_269.MISSILE_BRAVER_269</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_222.MISSILE_BRAVER_222</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_117.MISSILE_BRAVER_117</t>
+    <t>MISSILE_SOMERSAULT_120.MISSILE_SOMERSAULT_120</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_108.MISSILE_SOMERSAULT_108</t>
+    <t>MISSILE_HELLMASKER_312.MISSILE_HELLMASKER_312</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HIGHWIND_469.MISSILE_HIGHWIND_469</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -486,22 +489,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G2">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H2">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I2">
-        <v>-449.8647062579548</v>
+        <v>1114862.135382207</v>
       </c>
       <c r="J2">
-        <v>2397.527569430815</v>
+        <v>4843226.18053639</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984363.560976487</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -521,22 +524,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G3">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H3">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I3">
-        <v>-440.9831790848821</v>
+        <v>1114891.749399336</v>
       </c>
       <c r="J3">
-        <v>2339.205807385458</v>
+        <v>4843177.528918964</v>
       </c>
       <c r="K3">
-        <v>426.8047058696304</v>
+        <v>3984667.356453019</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -556,22 +559,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G4">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H4">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I4">
-        <v>-431.8829524760276</v>
+        <v>1114922.092634392</v>
       </c>
       <c r="J4">
-        <v>2280.884045340101</v>
+        <v>4843128.877301537</v>
       </c>
       <c r="K4">
-        <v>832.3269727020638</v>
+        <v>3984956.003294543</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -591,22 +594,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G5">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H5">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I5">
-        <v>-422.5586411589849</v>
+        <v>1114953.183043696</v>
       </c>
       <c r="J5">
-        <v>2222.562283294744</v>
+        <v>4843080.225684111</v>
       </c>
       <c r="K5">
-        <v>1216.566800497303</v>
+        <v>3985229.501501058</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -626,22 +629,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G6">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H6">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I6">
-        <v>-413.0047272539693</v>
+        <v>1114985.039025726</v>
       </c>
       <c r="J6">
-        <v>2164.240521249388</v>
+        <v>4843031.574066686</v>
       </c>
       <c r="K6">
-        <v>1579.524189255347</v>
+        <v>3985487.851072566</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -661,22 +664,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G7">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H7">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I7">
-        <v>-403.2155570084822</v>
+        <v>1115017.679432007</v>
       </c>
       <c r="J7">
-        <v>2105.918759204031</v>
+        <v>4842982.92244926</v>
       </c>
       <c r="K7">
-        <v>1921.199138976196</v>
+        <v>3985731.052009064</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -696,22 +699,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G8">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H8">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I8">
-        <v>-393.1853374515715</v>
+        <v>1115051.123578264</v>
       </c>
       <c r="J8">
-        <v>2047.596997158674</v>
+        <v>4842934.270831833</v>
       </c>
       <c r="K8">
-        <v>2241.59164965985</v>
+        <v>3985959.104310554</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -731,22 +734,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G9">
-        <v>-76.20161744241307</v>
+        <v>4841123.012813482</v>
       </c>
       <c r="H9">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I9">
-        <v>-382.9081329657047</v>
+        <v>1115085.391255855</v>
       </c>
       <c r="J9">
-        <v>1989.275235113317</v>
+        <v>4842885.619214407</v>
       </c>
       <c r="K9">
-        <v>2540.701721306309</v>
+        <v>3986172.007977037</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -766,22 +769,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>276.2481408506337</v>
+        <v>1116578.29538117</v>
       </c>
       <c r="G10">
-        <v>-63.61858546825378</v>
+        <v>4841139.525627405</v>
       </c>
       <c r="H10">
-        <v>1126.845569711403</v>
+        <v>3985223.303292738</v>
       </c>
       <c r="I10">
-        <v>-372.3778617742282</v>
+        <v>1115120.50274348</v>
       </c>
       <c r="J10">
-        <v>1930.953473067961</v>
+        <v>4842836.967596981</v>
       </c>
       <c r="K10">
-        <v>2818.529353915571</v>
+        <v>3986369.76300851</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -801,22 +804,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>214.4007834299133</v>
+        <v>1116529.614826489</v>
       </c>
       <c r="G11">
-        <v>-51.03555349409449</v>
+        <v>4841156.038441326</v>
       </c>
       <c r="H11">
-        <v>1388.266159277715</v>
+        <v>3985422.557448268</v>
       </c>
       <c r="I11">
-        <v>-361.5882923423334</v>
+        <v>1115156.478819187</v>
       </c>
       <c r="J11">
-        <v>1872.631711022604</v>
+        <v>4842788.315979555</v>
       </c>
       <c r="K11">
-        <v>3075.074547487638</v>
+        <v>3986552.369404975</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -836,22 +839,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>178.0685635436081</v>
+        <v>1116501.017442694</v>
       </c>
       <c r="G12">
-        <v>-38.45252151993522</v>
+        <v>4841172.551255248</v>
       </c>
       <c r="H12">
-        <v>1543.981631979924</v>
+        <v>3985541.243413546</v>
       </c>
       <c r="I12">
-        <v>-350.5330396894001</v>
+        <v>1115193.34077266</v>
       </c>
       <c r="J12">
-        <v>1814.309948977247</v>
+        <v>4842739.664362128</v>
       </c>
       <c r="K12">
-        <v>3310.337302022511</v>
+        <v>3986719.827166433</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -871,22 +874,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>155.1330008848616</v>
+        <v>1116482.964676033</v>
       </c>
       <c r="G13">
-        <v>-25.86948954577593</v>
+        <v>4841189.064069171</v>
       </c>
       <c r="H13">
-        <v>1655.260955913733</v>
+        <v>3985626.060251253</v>
       </c>
       <c r="I13">
-        <v>-339.205561610534</v>
+        <v>1115231.110417826</v>
       </c>
       <c r="J13">
-        <v>1755.988186931891</v>
+        <v>4842691.012744702</v>
       </c>
       <c r="K13">
-        <v>3524.317617520189</v>
+        <v>3986872.13629288</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -906,22 +909,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>139.1378325875663</v>
+        <v>1116470.374749843</v>
       </c>
       <c r="G14">
-        <v>-13.28645757161665</v>
+        <v>4841205.576883092</v>
       </c>
       <c r="H14">
-        <v>1741.91410584305</v>
+        <v>3985692.107077334</v>
       </c>
       <c r="I14">
-        <v>-327.5991548050648</v>
+        <v>1115269.810105755</v>
       </c>
       <c r="J14">
-        <v>1697.666424886534</v>
+        <v>4842642.361127276</v>
       </c>
       <c r="K14">
-        <v>3717.015493980672</v>
+        <v>3987009.296784321</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -941,22 +944,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>127.2049580371461</v>
+        <v>1116460.982287881</v>
       </c>
       <c r="G15">
-        <v>-0.7034255974573739</v>
+        <v>4841222.089697014</v>
       </c>
       <c r="H15">
-        <v>1812.889757066137</v>
+        <v>3985746.204550954</v>
       </c>
       <c r="I15">
-        <v>-315.7069509097094</v>
+        <v>1115309.462737897</v>
       </c>
       <c r="J15">
-        <v>1639.344662841177</v>
+        <v>4842593.70950985</v>
       </c>
       <c r="K15">
-        <v>3888.430931403958</v>
+        <v>3987131.308640753</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -976,22 +979,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>117.8751165152457</v>
+        <v>1116453.638694245</v>
       </c>
       <c r="G16">
-        <v>11.87960637670191</v>
+        <v>4841238.602510936</v>
       </c>
       <c r="H16">
-        <v>1873.000952680663</v>
+        <v>3985792.021162185</v>
       </c>
       <c r="I16">
-        <v>-303.5219124340579</v>
+        <v>1115350.091779626</v>
       </c>
       <c r="J16">
-        <v>1581.02290079582</v>
+        <v>4842545.057892423</v>
       </c>
       <c r="K16">
-        <v>4038.56392979005</v>
+        <v>3987238.171862176</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1011,22 +1014,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>110.3265953959919</v>
+        <v>1116447.697192288</v>
       </c>
       <c r="G17">
-        <v>24.46263835086119</v>
+        <v>4841255.115324858</v>
       </c>
       <c r="H17">
-        <v>1925.136466995987</v>
+        <v>3985831.75872798</v>
       </c>
       <c r="I17">
-        <v>-291.0368285959731</v>
+        <v>1115391.72127413</v>
       </c>
       <c r="J17">
-        <v>1522.701138750464</v>
+        <v>4842496.406274998</v>
       </c>
       <c r="K17">
-        <v>4167.414489138946</v>
+        <v>3987329.886448591</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1046,22 +1049,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>104.0586331782571</v>
+        <v>1116442.763628589</v>
       </c>
       <c r="G18">
-        <v>37.04567032502047</v>
+        <v>4841271.62813878</v>
       </c>
       <c r="H18">
-        <v>1971.166967134454</v>
+        <v>3985866.843066398</v>
       </c>
       <c r="I18">
-        <v>-278.2443110544422</v>
+        <v>1115434.375856637</v>
       </c>
       <c r="J18">
-        <v>1464.379376705107</v>
+        <v>4842447.754657571</v>
       </c>
       <c r="K18">
-        <v>4274.982609450648</v>
+        <v>3987406.452399998</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1081,22 +1084,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>98.74700680428637</v>
+        <v>1116438.582804558</v>
       </c>
       <c r="G19">
-        <v>49.62870229917976</v>
+        <v>4841288.140952701</v>
       </c>
       <c r="H19">
-        <v>2012.373527424314</v>
+        <v>3985898.250609264</v>
       </c>
       <c r="I19">
-        <v>-265.1367895373513</v>
+        <v>1115478.080768997</v>
       </c>
       <c r="J19">
-        <v>1406.05761465975</v>
+        <v>4842399.103040146</v>
       </c>
       <c r="K19">
-        <v>4361.268290725155</v>
+        <v>3987467.869716396</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1116,22 +1119,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>94.17155888732529</v>
+        <v>1116434.981432538</v>
       </c>
       <c r="G20">
-        <v>62.21173427333904</v>
+        <v>4841304.653766623</v>
       </c>
       <c r="H20">
-        <v>2049.672009016321</v>
+        <v>3985926.679423783</v>
       </c>
       <c r="I20">
-        <v>-251.7065073616007</v>
+        <v>1115522.861874616</v>
       </c>
       <c r="J20">
-        <v>1347.735852614393</v>
+        <v>4842350.451422718</v>
       </c>
       <c r="K20">
-        <v>4426.271532962465</v>
+        <v>3987514.138397786</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1151,22 +1154,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>90.17695643448876</v>
+        <v>1116431.837248676</v>
       </c>
       <c r="G21">
-        <v>74.79476624749832</v>
+        <v>4841321.166580546</v>
       </c>
       <c r="H21">
-        <v>2083.739913129833</v>
+        <v>3985952.645899783</v>
       </c>
       <c r="I21">
-        <v>-237.9455168429054</v>
+        <v>1115568.745673763</v>
       </c>
       <c r="J21">
-        <v>1289.414090569036</v>
+        <v>4842301.799805293</v>
       </c>
       <c r="K21">
-        <v>4469.992336162581</v>
+        <v>3987545.258444168</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1186,22 +1189,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>86.6501000169212</v>
+        <v>1116429.061231497</v>
       </c>
       <c r="G22">
-        <v>87.37779822165761</v>
+        <v>4841337.679394467</v>
       </c>
       <c r="H22">
-        <v>2115.092531669613</v>
+        <v>3985976.542791535</v>
       </c>
       <c r="I22">
-        <v>-223.8456745925662</v>
+        <v>1115615.759319251</v>
       </c>
       <c r="J22">
-        <v>1231.09232852368</v>
+        <v>4842253.148187866</v>
       </c>
       <c r="K22">
-        <v>4492.430700325502</v>
+        <v>3987561.229855541</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1221,22 +1224,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>83.5064473987314</v>
+        <v>1116426.586837124</v>
       </c>
       <c r="G23">
-        <v>99.96083019581688</v>
+        <v>4841354.192208389</v>
       </c>
       <c r="H23">
-        <v>2144.130923887677</v>
+        <v>3985998.675785455</v>
       </c>
       <c r="I23">
-        <v>-209.3986366984295</v>
+        <v>1115663.930632509</v>
       </c>
       <c r="J23">
-        <v>1172.770566478323</v>
+        <v>4842204.496570441</v>
       </c>
       <c r="K23">
-        <v>4493.586625451227</v>
+        <v>3987562.052631906</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1256,22 +1259,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>80.68137904737566</v>
+        <v>1116424.363203001</v>
       </c>
       <c r="G24">
-        <v>112.5438621699762</v>
+        <v>4841370.705022311</v>
       </c>
       <c r="H24">
-        <v>2171.173370271378</v>
+        <v>3986019.287474177</v>
       </c>
       <c r="I24">
-        <v>-194.5958537871808</v>
+        <v>1115713.288120038</v>
       </c>
       <c r="J24">
-        <v>1114.448804432966</v>
+        <v>4842155.844953015</v>
       </c>
       <c r="K24">
-        <v>4473.460111539756</v>
+        <v>3987547.726773262</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -1291,22 +1294,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>78.12454970724806</v>
+        <v>1116422.350701972</v>
       </c>
       <c r="G25">
-        <v>125.1268941441354</v>
+        <v>4841387.217836232</v>
       </c>
       <c r="H25">
-        <v>2196.476694189505</v>
+        <v>3986038.573607866</v>
       </c>
       <c r="I25">
-        <v>-179.4285659650531</v>
+        <v>1115763.860990289</v>
       </c>
       <c r="J25">
-        <v>1056.12704238761</v>
+        <v>4842107.193335588</v>
       </c>
       <c r="K25">
-        <v>4432.051158591092</v>
+        <v>3987518.25227961</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -1326,22 +1329,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>75.79607917807159</v>
+        <v>1116420.517944007</v>
       </c>
       <c r="G26">
-        <v>137.7099261182948</v>
+        <v>4841403.730650154</v>
       </c>
       <c r="H26">
-        <v>2220.25113202274</v>
+        <v>3986056.694428194</v>
       </c>
       <c r="I26">
-        <v>-163.8877976339545</v>
+        <v>1115815.679170944</v>
       </c>
       <c r="J26">
-        <v>997.8052803422529</v>
+        <v>4842058.541718163</v>
       </c>
       <c r="K26">
-        <v>4369.359766605231</v>
+        <v>3987473.62915095</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1361,22 +1364,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>73.66391479529898</v>
+        <v>1116418.839700196</v>
       </c>
       <c r="G27">
-        <v>150.292958092454</v>
+        <v>4841420.243464076</v>
       </c>
       <c r="H27">
-        <v>2242.670961224389</v>
+        <v>3986073.782769025</v>
       </c>
       <c r="I27">
-        <v>-147.9643521799474</v>
+        <v>1115868.773326627</v>
       </c>
       <c r="J27">
-        <v>939.4835182968961</v>
+        <v>4842009.890100735</v>
       </c>
       <c r="K27">
-        <v>4285.385935582175</v>
+        <v>3987413.857387281</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -1396,22 +1399,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>71.70196260044793</v>
+        <v>1116417.295431773</v>
       </c>
       <c r="G28">
-        <v>162.8759900666133</v>
+        <v>4841436.756277998</v>
       </c>
       <c r="H28">
-        <v>2263.882260445138</v>
+        <v>3986089.949971161</v>
       </c>
       <c r="I28">
-        <v>-131.6488065309366</v>
+        <v>1115923.174877047</v>
       </c>
       <c r="J28">
-        <v>881.1617562515395</v>
+        <v>4841961.23848331</v>
       </c>
       <c r="K28">
-        <v>4180.129665521925</v>
+        <v>3987338.936988605</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -1431,22 +1434,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>69.88873596603875</v>
+        <v>1116415.86822644</v>
       </c>
       <c r="G29">
-        <v>175.4590220407726</v>
+        <v>4841453.26909192</v>
       </c>
       <c r="H29">
-        <v>2284.008683039297</v>
+        <v>3986105.290282896</v>
       </c>
       <c r="I29">
-        <v>-114.9315055803454</v>
+        <v>1115978.916015597</v>
       </c>
       <c r="J29">
-        <v>822.8399942061827</v>
+        <v>4841912.586865883</v>
       </c>
       <c r="K29">
-        <v>4053.590956424479</v>
+        <v>3987248.86795492</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1466,22 +1469,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>68.20636058129688</v>
+        <v>1116414.544015183</v>
       </c>
       <c r="G30">
-        <v>188.0420540149318</v>
+        <v>4841469.781905841</v>
       </c>
       <c r="H30">
-        <v>2303.155824638211</v>
+        <v>3986119.88418897</v>
       </c>
       <c r="I30">
-        <v>-97.80255647348092</v>
+        <v>1116036.029728404</v>
       </c>
       <c r="J30">
-        <v>764.5182321608258</v>
+        <v>4841863.935248458</v>
       </c>
       <c r="K30">
-        <v>3905.769808289837</v>
+        <v>3987143.650286226</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -1501,22 +1504,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>66.63982988992501</v>
+        <v>1116413.31098622</v>
       </c>
       <c r="G31">
-        <v>200.6250859890911</v>
+        <v>4841486.294719763</v>
       </c>
       <c r="H31">
-        <v>2321.414576619174</v>
+        <v>3986133.800966578</v>
       </c>
       <c r="I31">
-        <v>-80.25182275320412</v>
+        <v>1116094.549813845</v>
       </c>
       <c r="J31">
-        <v>706.1964701154693</v>
+        <v>4841815.28363103</v>
       </c>
       <c r="K31">
-        <v>3736.666221118001</v>
+        <v>3987023.283982524</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1536,22 +1539,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>65.17643978008101</v>
+        <v>1116412.159140042</v>
       </c>
       <c r="G32">
-        <v>213.2081179632504</v>
+        <v>4841502.807533685</v>
       </c>
       <c r="H32">
-        <v>2338.863735532087</v>
+        <v>3986147.100674262</v>
       </c>
       <c r="I32">
-        <v>-62.2689183614445</v>
+        <v>1116154.510902552</v>
       </c>
       <c r="J32">
-        <v>647.8747080701124</v>
+        <v>4841766.632013605</v>
       </c>
       <c r="K32">
-        <v>3546.280194908969</v>
+        <v>3986887.769043813</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -1571,22 +1574,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>63.80535369074673</v>
+        <v>1116411.079947104</v>
       </c>
       <c r="G33">
-        <v>225.7911499374097</v>
+        <v>4841519.320347607</v>
       </c>
       <c r="H33">
-        <v>2355.572058194163</v>
+        <v>3986159.835718307</v>
       </c>
       <c r="I33">
-        <v>-43.84320149300636</v>
+        <v>1116215.948477905</v>
       </c>
       <c r="J33">
-        <v>589.5529460247559</v>
+        <v>4841717.980396179</v>
       </c>
       <c r="K33">
-        <v>3334.611729662743</v>
+        <v>3986737.105470094</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,7 +1600,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -1606,22 +1609,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>62.51726402548454</v>
+        <v>1116410.066081323</v>
       </c>
       <c r="G34">
-        <v>238.374181911569</v>
+        <v>4841535.833161529</v>
       </c>
       <c r="H34">
-        <v>2371.599898023181</v>
+        <v>3986172.052099945</v>
       </c>
       <c r="I34">
-        <v>-24.9637682980316</v>
+        <v>1116278.89889703</v>
       </c>
       <c r="J34">
-        <v>531.231183979399</v>
+        <v>4841669.328778753</v>
       </c>
       <c r="K34">
-        <v>3101.660825379321</v>
+        <v>3986571.293261367</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1641,22 +1644,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>61.30412565513741</v>
+        <v>1116409.111210311</v>
       </c>
       <c r="G35">
-        <v>250.9572138857283</v>
+        <v>4841552.34597545</v>
       </c>
       <c r="H35">
-        <v>2387.000521008177</v>
+        <v>3986183.790418386</v>
       </c>
       <c r="I35">
-        <v>-5.619446429390735</v>
+        <v>1116343.399412313</v>
       </c>
       <c r="J35">
-        <v>472.9094219340421</v>
+        <v>4841620.677161326</v>
       </c>
       <c r="K35">
-        <v>2847.427482058703</v>
+        <v>3986390.332417632</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1676,22 +1679,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>60.15894405357071</v>
+        <v>1116408.20982862</v>
       </c>
       <c r="G36">
-        <v>263.5402458598876</v>
+        <v>4841568.858789372</v>
       </c>
       <c r="H36">
-        <v>2401.82117375506</v>
+        <v>3986195.086684883</v>
       </c>
       <c r="I36">
-        <v>14.20121156881567</v>
+        <v>1116409.488193445</v>
       </c>
       <c r="J36">
-        <v>414.5876598886856</v>
+        <v>4841572.0255439</v>
       </c>
       <c r="K36">
-        <v>2571.911699700891</v>
+        <v>3986194.222938888</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,7 +1705,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1711,22 +1714,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>59.07560531067436</v>
+        <v>1116407.357123944</v>
       </c>
       <c r="G37">
-        <v>276.1232778340468</v>
+        <v>4841585.371603294</v>
       </c>
       <c r="H37">
-        <v>2416.103957627859</v>
+        <v>3986205.972988995</v>
       </c>
       <c r="I37">
-        <v>34.50993503555689</v>
+        <v>1116477.204350012</v>
       </c>
       <c r="J37">
-        <v>356.2658978433287</v>
+        <v>4841523.373926474</v>
       </c>
       <c r="K37">
-        <v>2275.113478305883</v>
+        <v>3985982.964825136</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -1746,22 +1749,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>58.04873858289301</v>
+        <v>1116406.548868846</v>
       </c>
       <c r="G38">
-        <v>288.7063098082061</v>
+        <v>4841601.884417216</v>
       </c>
       <c r="H38">
-        <v>2429.886549753774</v>
+        <v>3986216.47804814</v>
       </c>
       <c r="I38">
-        <v>55.31874213398379</v>
+        <v>1116546.587954636</v>
       </c>
       <c r="J38">
-        <v>297.9441357979722</v>
+        <v>4841474.722309048</v>
       </c>
       <c r="K38">
-        <v>1957.032817873681</v>
+        <v>3985756.558076375</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1781,22 +1784,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>57.07360391367257</v>
+        <v>1116405.78133247</v>
       </c>
       <c r="G39">
-        <v>301.2893417823654</v>
+        <v>4841618.397231138</v>
       </c>
       <c r="H39">
-        <v>2443.202801997782</v>
+        <v>3986226.627664129</v>
       </c>
       <c r="I39">
-        <v>76.63994696345773</v>
+        <v>1116617.680066693</v>
       </c>
       <c r="J39">
-        <v>239.6223737526153</v>
+        <v>4841426.070691621</v>
       </c>
       <c r="K39">
-        <v>1617.669718404282</v>
+        <v>3985515.002692606</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1816,22 +1819,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>56.14600007486669</v>
+        <v>1116405.051207995</v>
       </c>
       <c r="G40">
-        <v>313.8723737565247</v>
+        <v>4841634.91004506</v>
       </c>
       <c r="H40">
-        <v>2456.08324188191</v>
+        <v>3986236.445104967</v>
       </c>
       <c r="I40">
-        <v>98.4861668467089</v>
+        <v>1116690.522756606</v>
       </c>
       <c r="J40">
-        <v>181.3006117072585</v>
+        <v>4841377.419074195</v>
       </c>
       <c r="K40">
-        <v>1257.024179897688</v>
+        <v>3985258.298673829</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -1851,22 +1854,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>55.26218834015785</v>
+        <v>1116404.355552638</v>
       </c>
       <c r="G41">
-        <v>326.455405730684</v>
+        <v>4841651.422858981</v>
       </c>
       <c r="H41">
-        <v>2468.555494102662</v>
+        <v>3986245.951426133</v>
       </c>
       <c r="I41">
-        <v>120.870329796431</v>
+        <v>1116765.159130743</v>
       </c>
       <c r="J41">
-        <v>122.9788496619019</v>
+        <v>4841328.76745677</v>
       </c>
       <c r="K41">
-        <v>875.0962023539003</v>
+        <v>3984986.446020043</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -1886,22 +1889,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>54.41882903551522</v>
+        <v>1116403.691737716</v>
       </c>
       <c r="G42">
-        <v>339.0384377048432</v>
+        <v>4841667.935672903</v>
       </c>
       <c r="H42">
-        <v>2480.644637287033</v>
+        <v>3986255.165742497</v>
       </c>
       <c r="I42">
-        <v>143.8056821657382</v>
+        <v>1116841.63335693</v>
       </c>
       <c r="J42">
-        <v>64.65708761654508</v>
+        <v>4841280.115839344</v>
       </c>
       <c r="K42">
-        <v>471.8857857729159</v>
+        <v>3984699.444731249</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -1921,22 +1924,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>53.61292841110281</v>
+        <v>1116403.057406824</v>
       </c>
       <c r="G43">
-        <v>351.6214696790025</v>
+        <v>4841684.448486825</v>
       </c>
       <c r="H43">
-        <v>2492.373507571884</v>
+        <v>3986264.105459708</v>
       </c>
       <c r="I43">
-        <v>167.3057964870021</v>
+        <v>1116919.990690582</v>
       </c>
       <c r="J43">
-        <v>6.335325571188239</v>
+        <v>4841231.464221917</v>
       </c>
       <c r="K43">
-        <v>47.39293015473658</v>
+        <v>3984397.294807447</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -1956,22 +1959,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>52.84179390782505</v>
+        <v>1116402.450440626</v>
       </c>
       <c r="G44">
-        <v>364.2045016531618</v>
+        <v>4841700.961300747</v>
       </c>
       <c r="H44">
-        <v>2503.762958243507</v>
+        <v>3986272.786472092</v>
       </c>
       <c r="I44">
-        <v>191.3845795037182</v>
+        <v>1117000.277501487</v>
       </c>
       <c r="J44">
-        <v>-51.98643647416833</v>
+        <v>4841182.812604491</v>
       </c>
       <c r="K44">
-        <v>-398.3823645006367</v>
+        <v>3984079.996248636</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,7 +1985,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1991,22 +1994,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>52.10299629505361</v>
+        <v>1116401.868927057</v>
       </c>
       <c r="G45">
-        <v>376.7875336273211</v>
+        <v>4841717.474114669</v>
       </c>
       <c r="H45">
-        <v>2514.832082854951</v>
+        <v>3986281.223332711</v>
       </c>
       <c r="I45">
-        <v>216.0562804001469</v>
+        <v>1117082.541301248</v>
       </c>
       <c r="J45">
-        <v>-110.3081985195252</v>
+        <v>4841134.160987065</v>
       </c>
       <c r="K45">
-        <v>-865.4400981932065</v>
+        <v>3983747.549054817</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -2026,22 +2029,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>51.39433746635476</v>
+        <v>1116401.311135967</v>
       </c>
       <c r="G46">
-        <v>389.3705656014804</v>
+        <v>4841733.986928591</v>
       </c>
       <c r="H46">
-        <v>2525.598407817675</v>
+        <v>3986289.429400153</v>
       </c>
       <c r="I46">
-        <v>241.3354992336017</v>
+        <v>1117166.830771397</v>
       </c>
       <c r="J46">
-        <v>-168.629960564882</v>
+        <v>4841085.509369638</v>
       </c>
       <c r="K46">
-        <v>-1353.780270922972</v>
+        <v>3983399.953225989</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -2061,22 +2064,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>50.71382292060913</v>
+        <v>1116400.775497471</v>
       </c>
       <c r="G47">
-        <v>401.9535975756397</v>
+        <v>4841750.499742513</v>
       </c>
       <c r="H47">
-        <v>2536.07805934595</v>
+        <v>3986297.41696578</v>
       </c>
       <c r="I47">
-        <v>267.2371955743753</v>
+        <v>1117253.195792204</v>
       </c>
       <c r="J47">
-        <v>-226.9517226102388</v>
+        <v>4841036.857752212</v>
       </c>
       <c r="K47">
-        <v>-1863.402882689933</v>
+        <v>3983037.208762154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -2096,22 +2099,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>50.05963814381816</v>
+        <v>1116400.260583348</v>
       </c>
       <c r="G48">
-        <v>414.5366295497989</v>
+        <v>4841767.012556435</v>
       </c>
       <c r="H48">
-        <v>2546.285908746427</v>
+        <v>3986305.197364468</v>
       </c>
       <c r="I48">
-        <v>293.7766973584167</v>
+        <v>1117341.687472193</v>
       </c>
       <c r="J48">
-        <v>-285.2734846555952</v>
+        <v>4840988.206134786</v>
       </c>
       <c r="K48">
-        <v>-2394.307933494085</v>
+        <v>3982659.315663309</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -2131,22 +2134,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>49.43012825469799</v>
+        <v>1116399.765091029</v>
       </c>
       <c r="G49">
-        <v>427.1196615239583</v>
+        <v>4841783.525370357</v>
       </c>
       <c r="H49">
-        <v>2556.235699338491</v>
+        <v>3986312.781071342</v>
       </c>
       <c r="I49">
-        <v>320.9697099579964</v>
+        <v>1117432.358178392</v>
       </c>
       <c r="J49">
-        <v>-343.595246700952</v>
+        <v>4840939.55451736</v>
       </c>
       <c r="K49">
-        <v>-2946.495423335436</v>
+        <v>3982266.273929457</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -2166,22 +2169,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>48.82378039419007</v>
+        <v>1116399.287829729</v>
       </c>
       <c r="G50">
-        <v>439.7026934981175</v>
+        <v>4841800.038184279</v>
       </c>
       <c r="H50">
-        <v>2565.940157723755</v>
+        <v>3986320.177786588</v>
       </c>
       <c r="I50">
-        <v>348.8323254757278</v>
+        <v>1117525.261567315</v>
       </c>
       <c r="J50">
-        <v>-401.9170087463089</v>
+        <v>4840890.902899933</v>
       </c>
       <c r="K50">
-        <v>-3519.965352213982</v>
+        <v>3981858.083560596</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -2201,22 +2204,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>48.23920843226354</v>
+        <v>1116398.827708415</v>
       </c>
       <c r="G51">
-        <v>452.2857254722767</v>
+        <v>4841816.550998201</v>
       </c>
       <c r="H51">
-        <v>2575.411091664991</v>
+        <v>3986327.396510054</v>
       </c>
       <c r="I51">
-        <v>377.381032267447</v>
+        <v>1117620.452616721</v>
       </c>
       <c r="J51">
-        <v>-460.2387707916657</v>
+        <v>4840842.251282508</v>
       </c>
       <c r="K51">
-        <v>-4114.717720129724</v>
+        <v>3981434.744556726</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -2236,22 +2239,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>47.67513964012406</v>
+        <v>1116398.383725312</v>
       </c>
       <c r="G52">
-        <v>464.8687574464361</v>
+        <v>4841833.063812122</v>
       </c>
       <c r="H52">
-        <v>2584.659476462905</v>
+        <v>3986334.44560709</v>
       </c>
       <c r="I52">
-        <v>406.632724699584</v>
+        <v>1117717.987658144</v>
       </c>
       <c r="J52">
-        <v>-518.5605328370225</v>
+        <v>4840793.599665081</v>
       </c>
       <c r="K52">
-        <v>-4730.75252708266</v>
+        <v>3980996.256917849</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -2271,22 +2274,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>47.13040303617765</v>
+        <v>1116397.95495873</v>
       </c>
       <c r="G53">
-        <v>477.4517894205953</v>
+        <v>4841849.576626044</v>
       </c>
       <c r="H53">
-        <v>2593.695531415565</v>
+        <v>3986341.332866819</v>
       </c>
       <c r="I53">
-        <v>436.604713146798</v>
+        <v>1117817.924410231</v>
       </c>
       <c r="J53">
-        <v>-576.8822948823788</v>
+        <v>4840744.948047656</v>
       </c>
       <c r="K53">
-        <v>-5368.069773072787</v>
+        <v>3980542.620643963</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -2306,22 +2309,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>46.60391916291747</v>
+        <v>1116397.54055902</v>
       </c>
       <c r="G54">
-        <v>490.0348213947546</v>
+        <v>4841866.089439966</v>
       </c>
       <c r="H54">
-        <v>2602.528787696272</v>
+        <v>3986348.06555388</v>
       </c>
       <c r="I54">
-        <v>467.3147342358015</v>
+        <v>1117920.322012899</v>
       </c>
       <c r="J54">
-        <v>-635.2040569277357</v>
+        <v>4840696.296430228</v>
       </c>
       <c r="K54">
-        <v>-6026.669458100115</v>
+        <v>3980073.835735068</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,34 +2332,34 @@
         <v>954</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G55">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H55">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I55">
-        <v>-735.6135249747338</v>
+        <v>1114860.701061803</v>
       </c>
       <c r="J55">
-        <v>1008.033335292529</v>
+        <v>4843219.18130656</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.706333394</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,34 +2367,34 @@
         <v>954</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G56">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H56">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I56">
-        <v>-721.0905552461489</v>
+        <v>1114890.315040832</v>
       </c>
       <c r="J56">
-        <v>983.5121239144778</v>
+        <v>4843170.529759443</v>
       </c>
       <c r="K56">
-        <v>277.8319595590782</v>
+        <v>3984668.501897256</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,34 +2402,34 @@
         <v>954</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G57">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H57">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I57">
-        <v>-706.2099707488851</v>
+        <v>1114920.65823685</v>
       </c>
       <c r="J57">
-        <v>958.9909125364268</v>
+        <v>4843121.878212325</v>
       </c>
       <c r="K57">
-        <v>541.8099440785578</v>
+        <v>3984957.148821755</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,34 +2437,34 @@
         <v>954</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G58">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H58">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I58">
-        <v>-690.9629655482626</v>
+        <v>1114951.748606155</v>
       </c>
       <c r="J58">
-        <v>934.4697011583756</v>
+        <v>4843073.226665209</v>
       </c>
       <c r="K58">
-        <v>791.933953558441</v>
+        <v>3985230.647106891</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,34 +2472,34 @@
         <v>954</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G59">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H59">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I59">
-        <v>-675.3405168715625</v>
+        <v>1114983.604547201</v>
       </c>
       <c r="J59">
-        <v>909.9484897803245</v>
+        <v>4843024.575118092</v>
       </c>
       <c r="K59">
-        <v>1028.203987998726</v>
+        <v>3985488.996752664</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,34 +2507,34 @@
         <v>954</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G60">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H60">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I60">
-        <v>-659.3333797685877</v>
+        <v>1115016.244911489</v>
       </c>
       <c r="J60">
-        <v>885.4272784022734</v>
+        <v>4842975.923570976</v>
       </c>
       <c r="K60">
-        <v>1250.620047399414</v>
+        <v>3985732.197759075</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,34 +2542,34 @@
         <v>954</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G61">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H61">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I61">
-        <v>-642.9320816407484</v>
+        <v>1115049.689014719</v>
       </c>
       <c r="J61">
-        <v>860.9060670242221</v>
+        <v>4842927.272023858</v>
       </c>
       <c r="K61">
-        <v>1459.182131760505</v>
+        <v>3985960.250126122</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,34 +2577,34 @@
         <v>954</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G62">
-        <v>-99.69278756870527</v>
+        <v>4841117.871422401</v>
       </c>
       <c r="H62">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I62">
-        <v>-626.1269166354286</v>
+        <v>1115083.956648222</v>
       </c>
       <c r="J62">
-        <v>836.384855646171</v>
+        <v>4842878.620476741</v>
       </c>
       <c r="K62">
-        <v>1653.890241081999</v>
+        <v>3986173.153853805</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,34 +2612,34 @@
         <v>954</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>145.1201543541583</v>
+        <v>1116577.033480095</v>
       </c>
       <c r="G63">
-        <v>-83.23070217375825</v>
+        <v>4841134.384218786</v>
       </c>
       <c r="H63">
-        <v>990.4853021838887</v>
+        <v>3985220.351469793</v>
       </c>
       <c r="I63">
-        <v>-608.9079399023212</v>
+        <v>1115119.068090675</v>
       </c>
       <c r="J63">
-        <v>811.86364426812</v>
+        <v>4842829.968929625</v>
       </c>
       <c r="K63">
-        <v>1834.744375363895</v>
+        <v>3986370.908942126</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,34 +2647,34 @@
         <v>954</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>112.6301689821132</v>
+        <v>1116528.35298043</v>
       </c>
       <c r="G64">
-        <v>-66.76861677881124</v>
+        <v>4841150.89701517</v>
       </c>
       <c r="H64">
-        <v>1220.271227259668</v>
+        <v>3985419.605477738</v>
       </c>
       <c r="I64">
-        <v>-591.264961708329</v>
+        <v>1115155.044120097</v>
       </c>
       <c r="J64">
-        <v>787.3424328900688</v>
+        <v>4842781.317382508</v>
       </c>
       <c r="K64">
-        <v>2001.744534606192</v>
+        <v>3986553.515391084</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,34 +2682,34 @@
         <v>954</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>93.54393244964487</v>
+        <v>1116499.755628954</v>
       </c>
       <c r="G65">
-        <v>-50.30653138386424</v>
+        <v>4841167.409811555</v>
       </c>
       <c r="H65">
-        <v>1357.143475933153</v>
+        <v>3985538.291355107</v>
       </c>
       <c r="I65">
-        <v>-573.1875414075523</v>
+        <v>1115191.906026146</v>
       </c>
       <c r="J65">
-        <v>762.8212215120177</v>
+        <v>4842732.665835391</v>
       </c>
       <c r="K65">
-        <v>2154.890718808894</v>
+        <v>3986720.973200679</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,34 +2717,34 @@
         <v>954</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>81.49529971319352</v>
+        <v>1116481.702882695</v>
       </c>
       <c r="G66">
-        <v>-33.84444598891723</v>
+        <v>4841183.922607941</v>
       </c>
       <c r="H66">
-        <v>1454.956821218459</v>
+        <v>3985623.10812999</v>
       </c>
       <c r="I66">
-        <v>-554.6649812627902</v>
+        <v>1115229.675622719</v>
       </c>
       <c r="J66">
-        <v>738.3000101339665</v>
+        <v>4842684.014288274</v>
       </c>
       <c r="K66">
-        <v>2294.182927971998</v>
+        <v>3986873.282370911</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,34 +2752,34 @@
         <v>954</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>73.09263215106391</v>
+        <v>1116469.112970734</v>
       </c>
       <c r="G67">
-        <v>-17.38236059397022</v>
+        <v>4841200.435404325</v>
       </c>
       <c r="H67">
-        <v>1531.124020788588</v>
+        <v>3985689.154907151</v>
       </c>
       <c r="I67">
-        <v>-535.6863201149066</v>
+        <v>1115268.37526086</v>
       </c>
       <c r="J67">
-        <v>713.7787987559153</v>
+        <v>4842635.362741157</v>
       </c>
       <c r="K67">
-        <v>2419.621162095505</v>
+        <v>3987010.442901779</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,34 +2787,34 @@
         <v>954</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>66.82399051853213</v>
+        <v>1116459.720519387</v>
       </c>
       <c r="G68">
-        <v>-0.9202751990232148</v>
+        <v>4841216.948200709</v>
       </c>
       <c r="H68">
-        <v>1593.510865303052</v>
+        <v>3985743.252340701</v>
       </c>
       <c r="I68">
-        <v>-516.2403268963044</v>
+        <v>1115308.027841987</v>
       </c>
       <c r="J68">
-        <v>689.2575873778643</v>
+        <v>4842586.71119404</v>
       </c>
       <c r="K68">
-        <v>2531.205421179413</v>
+        <v>3987132.454793285</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,34 +2822,34 @@
         <v>954</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>61.92278815174373</v>
+        <v>1116452.37693405</v>
       </c>
       <c r="G69">
-        <v>15.5418101959238</v>
+        <v>4841233.460997093</v>
       </c>
       <c r="H69">
-        <v>1646.347968587877</v>
+        <v>3985789.068917996</v>
       </c>
       <c r="I69">
-        <v>-496.3154939846798</v>
+        <v>1115348.656831445</v>
       </c>
       <c r="J69">
-        <v>664.736375999813</v>
+        <v>4842538.059646923</v>
       </c>
       <c r="K69">
-        <v>2628.935705223724</v>
+        <v>3987239.318045428</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,34 +2857,34 @@
         <v>954</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>57.95735856876588</v>
+        <v>1116446.435438809</v>
       </c>
       <c r="G70">
-        <v>32.00389559087081</v>
+        <v>4841249.973793479</v>
       </c>
       <c r="H70">
-        <v>1692.174532616833</v>
+        <v>3985828.806454358</v>
       </c>
       <c r="I70">
-        <v>-475.9000303931166</v>
+        <v>1115390.28627239</v>
       </c>
       <c r="J70">
-        <v>640.215164621762</v>
+        <v>4842489.408099807</v>
       </c>
       <c r="K70">
-        <v>2712.812014228438</v>
+        <v>3987331.032658207</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,34 +2892,34 @@
         <v>954</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>54.66463905317814</v>
+        <v>1116441.501880685</v>
       </c>
       <c r="G71">
-        <v>48.46598098581781</v>
+        <v>4841266.486589864</v>
       </c>
       <c r="H71">
-        <v>1732.634853946403</v>
+        <v>3985863.890766789</v>
       </c>
       <c r="I71">
-        <v>-454.9818547924934</v>
+        <v>1115432.94080002</v>
       </c>
       <c r="J71">
-        <v>615.6939532437108</v>
+        <v>4842440.75655269</v>
       </c>
       <c r="K71">
-        <v>2782.834348193555</v>
+        <v>3987407.598631624</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,34 +2927,34 @@
         <v>954</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>51.87430701007843</v>
+        <v>1116437.321061379</v>
       </c>
       <c r="G72">
-        <v>64.92806638076483</v>
+        <v>4841282.999386248</v>
       </c>
       <c r="H72">
-        <v>1768.854983321463</v>
+        <v>3985895.298286392</v>
       </c>
       <c r="I72">
-        <v>-433.5485883620733</v>
+        <v>1115476.645656151</v>
       </c>
       <c r="J72">
-        <v>591.1727418656596</v>
+        <v>4842392.105005573</v>
       </c>
       <c r="K72">
-        <v>2839.002707119075</v>
+        <v>3987469.015965677</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,34 +2962,34 @@
         <v>954</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>49.47070818076423</v>
+        <v>1116433.719693429</v>
       </c>
       <c r="G73">
-        <v>81.39015177571184</v>
+        <v>4841299.512182633</v>
       </c>
       <c r="H73">
-        <v>1801.639952978061</v>
+        <v>3985923.727079853</v>
       </c>
       <c r="I73">
-        <v>-411.5875474640476</v>
+        <v>1115521.426704158</v>
       </c>
       <c r="J73">
-        <v>566.6515304876085</v>
+        <v>4842343.453458455</v>
       </c>
       <c r="K73">
-        <v>2881.317091004997</v>
+        <v>3987515.284660368</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,34 +2997,34 @@
         <v>954</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>47.37224220465264</v>
+        <v>1116430.57551312</v>
       </c>
       <c r="G74">
-        <v>97.85223717065884</v>
+        <v>4841316.024979019</v>
       </c>
       <c r="H74">
-        <v>1831.585279301069</v>
+        <v>3985949.69353662</v>
       </c>
       <c r="I74">
-        <v>-389.0857361376954</v>
+        <v>1115567.310444273</v>
       </c>
       <c r="J74">
-        <v>542.1303191095574</v>
+        <v>4842294.801911339</v>
       </c>
       <c r="K74">
-        <v>2909.777499851321</v>
+        <v>3987546.404715695</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,34 +3032,34 @@
         <v>954</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>45.51949508343638</v>
+        <v>1116427.799499078</v>
       </c>
       <c r="G75">
-        <v>114.3143225656059</v>
+        <v>4841332.537775403</v>
       </c>
       <c r="H75">
-        <v>1859.143898408551</v>
+        <v>3985973.590410673</v>
       </c>
       <c r="I75">
-        <v>-366.0298384087185</v>
+        <v>1115614.324029277</v>
       </c>
       <c r="J75">
-        <v>517.6091077315064</v>
+        <v>4842246.150364222</v>
       </c>
       <c r="K75">
-        <v>2924.383933658048</v>
+        <v>3987562.37613166</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,34 +3067,34 @@
         <v>954</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>43.86805463651504</v>
+        <v>1116425.325107502</v>
       </c>
       <c r="G76">
-        <v>130.7764079605529</v>
+        <v>4841349.050571788</v>
       </c>
       <c r="H76">
-        <v>1884.668337128587</v>
+        <v>3985995.723388199</v>
       </c>
       <c r="I76">
-        <v>-342.4062104092025</v>
+        <v>1115662.495280559</v>
       </c>
       <c r="J76">
-        <v>493.0878963534551</v>
+        <v>4842197.498817106</v>
       </c>
       <c r="K76">
-        <v>2925.136392425178</v>
+        <v>3987563.198908261</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,34 +3102,34 @@
         <v>954</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>42.383974584619</v>
+        <v>1116423.101475892</v>
       </c>
       <c r="G77">
-        <v>147.2384933554999</v>
+        <v>4841365.563368173</v>
       </c>
       <c r="H77">
-        <v>1908.438360633238</v>
+        <v>3986016.335061654</v>
       </c>
       <c r="I77">
-        <v>-318.2008723035377</v>
+        <v>1115711.852704588</v>
       </c>
       <c r="J77">
-        <v>468.566684975404</v>
+        <v>4842148.847269989</v>
       </c>
       <c r="K77">
-        <v>2912.03487615271</v>
+        <v>3987548.873045499</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,34 +3137,34 @@
         <v>954</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>41.04080728816584</v>
+        <v>1116421.088977137</v>
       </c>
       <c r="G78">
-        <v>163.7005787504469</v>
+        <v>4841382.076164558</v>
       </c>
       <c r="H78">
-        <v>1930.679713939282</v>
+        <v>3986035.621181058</v>
       </c>
       <c r="I78">
-        <v>-293.3995000155235</v>
+        <v>1115762.425509775</v>
       </c>
       <c r="J78">
-        <v>444.0454735973529</v>
+        <v>4842100.195722871</v>
       </c>
       <c r="K78">
-        <v>2885.079384840645</v>
+        <v>3987519.398543375</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,34 +3172,34 @@
         <v>954</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>39.81760266654306</v>
+        <v>1116419.256221243</v>
       </c>
       <c r="G79">
-        <v>180.1626641453939</v>
+        <v>4841398.588960943</v>
       </c>
       <c r="H79">
-        <v>1951.577192595151</v>
+        <v>3986053.741987964</v>
       </c>
       <c r="I79">
-        <v>-267.9874167517611</v>
+        <v>1115814.243623764</v>
       </c>
       <c r="J79">
-        <v>419.5242622193017</v>
+        <v>4842051.544175755</v>
       </c>
       <c r="K79">
-        <v>2844.269918488983</v>
+        <v>3987474.775401887</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,34 +3207,34 @@
         <v>954</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>38.69752264217213</v>
+        <v>1116417.577979329</v>
       </c>
       <c r="G80">
-        <v>196.6247495403409</v>
+        <v>4841415.101757327</v>
       </c>
       <c r="H80">
-        <v>1971.283984633562</v>
+        <v>3986070.830316138</v>
       </c>
       <c r="I80">
-        <v>-241.9495843163166</v>
+        <v>1115867.337711138</v>
       </c>
       <c r="J80">
-        <v>395.0030508412505</v>
+        <v>4842002.892628637</v>
       </c>
       <c r="K80">
-        <v>2789.606477097723</v>
+        <v>3987415.003621036</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,34 +3242,34 @@
         <v>954</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>37.66685939689002</v>
+        <v>1116416.033712651</v>
       </c>
       <c r="G81">
-        <v>213.0868349352879</v>
+        <v>4841431.614553712</v>
       </c>
       <c r="H81">
-        <v>1989.928491638862</v>
+        <v>3986086.997506298</v>
       </c>
       <c r="I81">
-        <v>-215.2705942115159</v>
+        <v>1115921.739191568</v>
       </c>
       <c r="J81">
-        <v>370.4818394631994</v>
+        <v>4841954.241081521</v>
       </c>
       <c r="K81">
-        <v>2721.089060666866</v>
+        <v>3987340.083200822</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,34 +3277,34 @@
         <v>954</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>36.71432546035646</v>
+        <v>1116414.606508931</v>
       </c>
       <c r="G82">
-        <v>229.5489203302349</v>
+        <v>4841448.127350098</v>
       </c>
       <c r="H82">
-        <v>2007.619403597776</v>
+        <v>3986102.33780667</v>
       </c>
       <c r="I82">
-        <v>-187.9346585196051</v>
+        <v>1115977.480258405</v>
       </c>
       <c r="J82">
-        <v>345.9606280851482</v>
+        <v>4841905.589534404</v>
       </c>
       <c r="K82">
-        <v>2638.717669196411</v>
+        <v>3987250.014141246</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,34 +3312,34 @@
         <v>954</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>35.83053100380884</v>
+        <v>1116413.282299171</v>
       </c>
       <c r="G83">
-        <v>246.0110057251819</v>
+        <v>4841464.640146482</v>
       </c>
       <c r="H83">
-        <v>2024.449537950094</v>
+        <v>3986116.931701936</v>
       </c>
       <c r="I83">
-        <v>-159.9256005598807</v>
+        <v>1116034.593897732</v>
       </c>
       <c r="J83">
-        <v>321.4394167070971</v>
+        <v>4841856.937987288</v>
       </c>
       <c r="K83">
-        <v>2542.492302686358</v>
+        <v>3987144.796442306</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,34 +3347,34 @@
         <v>954</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>35.00759270264094</v>
+        <v>1116412.049271602</v>
       </c>
       <c r="G84">
-        <v>262.4730911201289</v>
+        <v>4841481.152942867</v>
       </c>
       <c r="H84">
-        <v>2040.498787252282</v>
+        <v>3986130.848469235</v>
       </c>
       <c r="I84">
-        <v>-131.2268453157591</v>
+        <v>1116093.113907884</v>
       </c>
       <c r="J84">
-        <v>296.918205329046</v>
+        <v>4841808.28644017</v>
       </c>
       <c r="K84">
-        <v>2432.41296113671</v>
+        <v>3987024.430104003</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,34 +3382,34 @@
         <v>954</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>34.23883676471144</v>
+        <v>1116410.897426726</v>
       </c>
       <c r="G85">
-        <v>278.935176515076</v>
+        <v>4841497.665739252</v>
       </c>
       <c r="H85">
-        <v>2055.836412835829</v>
+        <v>3986144.148167069</v>
       </c>
       <c r="I85">
-        <v>-101.8214096261216</v>
+        <v>1116153.074919449</v>
       </c>
       <c r="J85">
-        <v>272.3969939509948</v>
+        <v>4841759.634893053</v>
       </c>
       <c r="K85">
-        <v>2308.479644547463</v>
+        <v>3986888.915126337</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,34 +3417,34 @@
         <v>954</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>33.51857046969006</v>
+        <v>1116409.818235007</v>
       </c>
       <c r="G86">
-        <v>295.397261910023</v>
+        <v>4841514.178535637</v>
       </c>
       <c r="H86">
-        <v>2070.52285121369</v>
+        <v>3986156.883201681</v>
       </c>
       <c r="I86">
-        <v>-71.69189213513151</v>
+        <v>1116214.51241576</v>
       </c>
       <c r="J86">
-        <v>247.8757825729438</v>
+        <v>4841710.983345937</v>
       </c>
       <c r="K86">
-        <v>2170.692352918619</v>
+        <v>3986738.251509308</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,34 +3452,34 @@
         <v>954</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>32.84190430111694</v>
+        <v>1116408.804370371</v>
       </c>
       <c r="G87">
-        <v>311.85934730497</v>
+        <v>4841530.691332022</v>
       </c>
       <c r="H87">
-        <v>2084.611152399864</v>
+        <v>3986169.09957427</v>
       </c>
       <c r="I87">
-        <v>-40.82046299457353</v>
+        <v>1116277.462753897</v>
       </c>
       <c r="J87">
-        <v>223.3545711948926</v>
+        <v>4841662.33179882</v>
       </c>
       <c r="K87">
-        <v>2019.051086250177</v>
+        <v>3986572.439252916</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,34 +3487,34 @@
         <v>954</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>32.20461194861232</v>
+        <v>1116407.849500439</v>
       </c>
       <c r="G88">
-        <v>328.321432699917</v>
+        <v>4841547.204128406</v>
       </c>
       <c r="H88">
-        <v>2098.148136633667</v>
+        <v>3986180.837884017</v>
       </c>
       <c r="I88">
-        <v>-9.188853312623488</v>
+        <v>1116341.963186196</v>
       </c>
       <c r="J88">
-        <v>198.8333598168414</v>
+        <v>4841613.680251703</v>
       </c>
       <c r="K88">
-        <v>1853.555844542137</v>
+        <v>3986391.47835716</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,34 +3522,34 @@
         <v>954</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>31.60301901020859</v>
+        <v>1116406.948119767</v>
       </c>
       <c r="G89">
-        <v>344.783518094864</v>
+        <v>4841563.716924791</v>
       </c>
       <c r="H89">
-        <v>2111.1753331805</v>
+        <v>3986192.134142146</v>
       </c>
       <c r="I89">
-        <v>23.22165565719736</v>
+        <v>1116408.051882302</v>
       </c>
       <c r="J89">
-        <v>174.3121484387903</v>
+        <v>4841565.028704586</v>
       </c>
       <c r="K89">
-        <v>1674.206627794501</v>
+        <v>3986195.368822043</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,34 +3557,34 @@
         <v>954</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>31.03391369386923</v>
+        <v>1116406.095416054</v>
       </c>
       <c r="G90">
-        <v>361.245603489811</v>
+        <v>4841580.229721176</v>
       </c>
       <c r="H90">
-        <v>2123.729748692734</v>
+        <v>3986203.020438195</v>
       </c>
       <c r="I90">
-        <v>56.43024359327849</v>
+        <v>1116475.767951749</v>
       </c>
       <c r="J90">
-        <v>149.7909370607392</v>
+        <v>4841516.377157469</v>
       </c>
       <c r="K90">
-        <v>1481.003436007268</v>
+        <v>3985984.110647561</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,34 +3592,34 @@
         <v>954</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>30.49447455926397</v>
+        <v>1116405.28716187</v>
       </c>
       <c r="G91">
-        <v>377.707688884758</v>
+        <v>4841596.74251756</v>
       </c>
       <c r="H91">
-        <v>2135.844500965496</v>
+        <v>3986213.525489559</v>
       </c>
       <c r="I91">
-        <v>90.45656245594522</v>
+        <v>1116545.151467109</v>
       </c>
       <c r="J91">
-        <v>125.2697256826881</v>
+        <v>4841467.725610352</v>
       </c>
       <c r="K91">
-        <v>1273.946269180437</v>
+        <v>3985757.703833717</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,34 +3627,34 @@
         <v>954</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>29.98221158700427</v>
+        <v>1116404.519626361</v>
       </c>
       <c r="G92">
-        <v>394.1697742797051</v>
+        <v>4841613.255313945</v>
       </c>
       <c r="H92">
-        <v>2147.549345429003</v>
+        <v>3986223.67509803</v>
       </c>
       <c r="I92">
-        <v>125.3207481169654</v>
+        <v>1116616.243487702</v>
       </c>
       <c r="J92">
-        <v>100.7485143046369</v>
+        <v>4841419.074063235</v>
       </c>
       <c r="K92">
-        <v>1053.035127314008</v>
+        <v>3985516.14838051</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,34 +3662,34 @@
         <v>954</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>29.49491776539696</v>
+        <v>1116403.789502711</v>
       </c>
       <c r="G93">
-        <v>410.631859674652</v>
+        <v>4841629.76811033</v>
       </c>
       <c r="H93">
-        <v>2158.871115451278</v>
+        <v>3986233.492531597</v>
       </c>
       <c r="I93">
-        <v>161.0434322754258</v>
+        <v>1116689.086083899</v>
       </c>
       <c r="J93">
-        <v>76.22730292658574</v>
+        <v>4841370.422516119</v>
       </c>
       <c r="K93">
-        <v>818.2700104079815</v>
+        <v>3985259.44428794</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,34 +3697,34 @@
         <v>954</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>29.03062904668912</v>
+        <v>1116403.093848141</v>
       </c>
       <c r="G94">
-        <v>427.093945069599</v>
+        <v>4841646.280906714</v>
       </c>
       <c r="H94">
-        <v>2169.834092847505</v>
+        <v>3986242.998845721</v>
       </c>
       <c r="I94">
-        <v>197.645754667021</v>
+        <v>1116763.722362014</v>
       </c>
       <c r="J94">
-        <v>51.70609154853467</v>
+        <v>4841321.770969002</v>
       </c>
       <c r="K94">
-        <v>569.6509184623585</v>
+        <v>3984987.591556007</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,34 +3732,34 @@
         <v>954</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>28.58759101541445</v>
+        <v>1116402.430033969</v>
       </c>
       <c r="G95">
-        <v>443.556030464546</v>
+        <v>4841662.7937031</v>
       </c>
       <c r="H95">
-        <v>2180.46032146478</v>
+        <v>3986252.21315526</v>
       </c>
       <c r="I95">
-        <v>235.1493755739909</v>
+        <v>1116840.196489813</v>
       </c>
       <c r="J95">
-        <v>27.18488017048348</v>
+        <v>4841273.119421885</v>
       </c>
       <c r="K95">
-        <v>307.1778514771373</v>
+        <v>3984700.59018471</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,34 +3767,34 @@
         <v>954</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>28.16423097885921</v>
+        <v>1116401.795703793</v>
       </c>
       <c r="G96">
-        <v>460.0181158594931</v>
+        <v>4841679.306499485</v>
       </c>
       <c r="H96">
-        <v>2190.769874025155</v>
+        <v>3986261.15286585</v>
       </c>
       <c r="I96">
-        <v>273.576488643096</v>
+        <v>1116918.553722654</v>
       </c>
       <c r="J96">
-        <v>2.663668792432301</v>
+        <v>4841224.467874767</v>
       </c>
       <c r="K96">
-        <v>30.85080945231893</v>
+        <v>3984398.440174052</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,34 +3802,34 @@
         <v>954</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>27.75913446744415</v>
+        <v>1116401.188738282</v>
       </c>
       <c r="G97">
-        <v>476.4802012544401</v>
+        <v>4841695.819295869</v>
       </c>
       <c r="H97">
-        <v>2200.781080346071</v>
+        <v>3986269.833871804</v>
       </c>
       <c r="I97">
-        <v>312.9498340192316</v>
+        <v>1116998.840430267</v>
       </c>
       <c r="J97">
-        <v>-21.85754258561877</v>
+        <v>4841175.816327651</v>
       </c>
       <c r="K97">
-        <v>-259.330207612096</v>
+        <v>3984081.141524029</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,34 +3837,34 @@
         <v>954</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>27.37102534471219</v>
+        <v>1116400.60722537</v>
       </c>
       <c r="G98">
-        <v>492.942286649387</v>
+        <v>4841712.332092254</v>
       </c>
       <c r="H98">
-        <v>2210.510723458113</v>
+        <v>3986278.270726173</v>
       </c>
       <c r="I98">
-        <v>353.2927118024413</v>
+        <v>1117081.104124192</v>
       </c>
       <c r="J98">
-        <v>-46.37875396366995</v>
+        <v>4841127.164780534</v>
       </c>
       <c r="K98">
-        <v>-563.3651997161093</v>
+        <v>3983748.694234644</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,34 +3872,34 @@
         <v>954</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>26.99874888960722</v>
+        <v>1116400.049434911</v>
       </c>
       <c r="G99">
-        <v>509.4043720443341</v>
+        <v>4841728.844888639</v>
       </c>
       <c r="H99">
-        <v>2219.974208891033</v>
+        <v>3986286.476787537</v>
       </c>
       <c r="I99">
-        <v>394.6289958362958</v>
+        <v>1117165.393485899</v>
       </c>
       <c r="J99">
-        <v>-70.89996534172113</v>
+        <v>4841078.513233417</v>
       </c>
       <c r="K99">
-        <v>-881.2541668597206</v>
+        <v>3983401.098305895</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,34 +3907,34 @@
         <v>954</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>26.64125734010841</v>
+        <v>1116399.51379702</v>
       </c>
       <c r="G100">
-        <v>525.8664574392811</v>
+        <v>4841745.357685024</v>
       </c>
       <c r="H100">
-        <v>2229.185711416107</v>
+        <v>3986294.464347248</v>
       </c>
       <c r="I100">
-        <v>436.9831478357999</v>
+        <v>1117251.758395593</v>
       </c>
       <c r="J100">
-        <v>-95.4211767197723</v>
+        <v>4841029.8616863</v>
       </c>
       <c r="K100">
-        <v>-1212.997109042929</v>
+        <v>3983038.353737784</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,34 +3942,34 @@
         <v>954</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>26.29759748599422</v>
+        <v>1116398.998883479</v>
       </c>
       <c r="G101">
-        <v>542.3285428342281</v>
+        <v>4841761.870481409</v>
       </c>
       <c r="H101">
-        <v>2238.158302754127</v>
+        <v>3986302.244740173</v>
       </c>
       <c r="I101">
-        <v>480.3802318631861</v>
+        <v>1117340.249961734</v>
       </c>
       <c r="J101">
-        <v>-119.9423880978233</v>
+        <v>4840981.210139183</v>
       </c>
       <c r="K101">
-        <v>-1558.594026265732</v>
+        <v>3982660.460530309</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,34 +3977,34 @@
         <v>954</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>25.96689997615656</v>
+        <v>1116398.503391719</v>
       </c>
       <c r="G102">
-        <v>558.7906282291751</v>
+        <v>4841778.383277793</v>
       </c>
       <c r="H102">
-        <v>2246.904063137044</v>
+        <v>3986309.82844143</v>
       </c>
       <c r="I102">
-        <v>524.8459291601621</v>
+        <v>1117430.92055128</v>
       </c>
       <c r="J102">
-        <v>-144.4635994758744</v>
+        <v>4840932.558592067</v>
       </c>
       <c r="K102">
-        <v>-1918.044918528135</v>
+        <v>3982267.418683472</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,34 +4012,34 @@
         <v>954</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>25.64837006736416</v>
+        <v>1116398.026130959</v>
       </c>
       <c r="G103">
-        <v>575.2527136241221</v>
+        <v>4841794.896074179</v>
       </c>
       <c r="H103">
-        <v>2255.43417911267</v>
+        <v>3986317.225151198</v>
       </c>
       <c r="I103">
-        <v>570.4065533453843</v>
+        <v>1117523.823820679</v>
       </c>
       <c r="J103">
-        <v>-168.9848108539256</v>
+        <v>4840883.907044949</v>
       </c>
       <c r="K103">
-        <v>-2291.349785830135</v>
+        <v>3981859.228197271</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,34 +4047,34 @@
         <v>954</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>25.34127959035798</v>
+        <v>1116397.566010165</v>
       </c>
       <c r="G104">
-        <v>591.7147990190691</v>
+        <v>4841811.408870564</v>
       </c>
       <c r="H104">
-        <v>2263.759029579227</v>
+        <v>3986324.443869317</v>
       </c>
       <c r="I104">
-        <v>617.0890659861619</v>
+        <v>1117619.014747617</v>
       </c>
       <c r="J104">
-        <v>-193.5060222319768</v>
+        <v>4840835.255497833</v>
       </c>
       <c r="K104">
-        <v>-2678.508628171734</v>
+        <v>3981435.889071708</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,34 +4082,34 @@
         <v>954</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>25.04495994842451</v>
+        <v>1116397.122027563</v>
       </c>
       <c r="G105">
-        <v>608.1768844140162</v>
+        <v>4841827.921666948</v>
       </c>
       <c r="H105">
-        <v>2271.888261709607</v>
+        <v>3986331.492961132</v>
       </c>
       <c r="I105">
-        <v>664.921092553595</v>
+        <v>1117716.549663557</v>
       </c>
       <c r="J105">
-        <v>-218.027233610028</v>
+        <v>4840786.603950716</v>
       </c>
       <c r="K105">
-        <v>-3079.521445552928</v>
+        <v>3980997.401306781</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,34 +4117,34 @@
         <v>954</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>24.75879599523503</v>
+        <v>1116396.693261466</v>
       </c>
       <c r="G106">
-        <v>624.6389698089631</v>
+        <v>4841844.434463333</v>
       </c>
       <c r="H106">
-        <v>2279.830858158407</v>
+        <v>3986338.380215759</v>
       </c>
       <c r="I106">
-        <v>713.9309387705925</v>
+        <v>1117816.486287072</v>
       </c>
       <c r="J106">
-        <v>-242.548444988079</v>
+        <v>4840737.952403599</v>
       </c>
       <c r="K106">
-        <v>-3494.388237973718</v>
+        <v>3980543.764902491</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,34 +4152,34 @@
         <v>954</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>24.48222066438492</v>
+        <v>1116396.278862224</v>
       </c>
       <c r="G107">
-        <v>641.1010552039102</v>
+        <v>4841860.947259719</v>
       </c>
       <c r="H107">
-        <v>2287.595196725851</v>
+        <v>3986345.112897833</v>
       </c>
       <c r="I107">
-        <v>764.1476073624527</v>
+        <v>1117918.883758</v>
       </c>
       <c r="J107">
-        <v>-267.0696563661301</v>
+        <v>4840689.300856482</v>
       </c>
       <c r="K107">
-        <v>-3923.109005434108</v>
+        <v>3980074.979858838</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,34 +4187,34 @@
         <v>954</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G108">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H108">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I108">
-        <v>-1232.805251386685</v>
+        <v>1114861.068394904</v>
       </c>
       <c r="J108">
-        <v>2957.377440947631</v>
+        <v>4843219.465860313</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984370.288733867</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,34 +4222,34 @@
         <v>954</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G109">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H109">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I109">
-        <v>-1208.466393087765</v>
+        <v>1114890.68238369</v>
       </c>
       <c r="J109">
-        <v>2885.436886190965</v>
+        <v>4843170.814310337</v>
       </c>
       <c r="K109">
-        <v>329.6816599420787</v>
+        <v>3984674.08472337</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,34 +4257,34 @@
         <v>954</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G110">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H110">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I110">
-        <v>-1183.528212794573</v>
+        <v>1114921.025589706</v>
       </c>
       <c r="J110">
-        <v>2813.496331434299</v>
+        <v>4843122.162760362</v>
       </c>
       <c r="K110">
-        <v>642.9238811129683</v>
+        <v>3984962.732052286</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,34 +4292,34 @@
         <v>954</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G111">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H111">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I111">
-        <v>-1157.975952754366</v>
+        <v>1114952.115969255</v>
       </c>
       <c r="J111">
-        <v>2741.555776677633</v>
+        <v>4843073.511210387</v>
       </c>
       <c r="K111">
-        <v>939.7266635126709</v>
+        <v>3985236.230720614</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,34 +4327,34 @@
         <v>954</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G112">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H112">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I112">
-        <v>-1131.794491818318</v>
+        <v>1114983.971920798</v>
       </c>
       <c r="J112">
-        <v>2669.615221920968</v>
+        <v>4843024.859660411</v>
       </c>
       <c r="K112">
-        <v>1220.090007141185</v>
+        <v>3985494.580728354</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,34 +4362,34 @@
         <v>954</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G113">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H113">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I113">
-        <v>-1104.968336493221</v>
+        <v>1115016.61229584</v>
       </c>
       <c r="J113">
-        <v>2597.674667164302</v>
+        <v>4842976.208110437</v>
       </c>
       <c r="K113">
-        <v>1484.013911998512</v>
+        <v>3985737.782075508</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,34 +4397,34 @@
         <v>954</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G114">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H114">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I114">
-        <v>-1077.481611772855</v>
+        <v>1115050.056410089</v>
       </c>
       <c r="J114">
-        <v>2525.734112407636</v>
+        <v>4842927.55656046</v>
       </c>
       <c r="K114">
-        <v>1731.498378084652</v>
+        <v>3985965.834762073</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,34 +4432,34 @@
         <v>954</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G115">
-        <v>-103.0446602010999</v>
+        <v>4841131.573305531</v>
       </c>
       <c r="H115">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I115">
-        <v>-1049.318051743572</v>
+        <v>1115084.324054883</v>
       </c>
       <c r="J115">
-        <v>2453.793557650969</v>
+        <v>4842878.905010485</v>
       </c>
       <c r="K115">
-        <v>1962.543405399603</v>
+        <v>3986178.738788052</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,34 +4467,34 @@
         <v>954</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>120.7052764242905</v>
+        <v>1116580.155809819</v>
       </c>
       <c r="G116">
-        <v>-86.02908628553712</v>
+        <v>4841148.086148652</v>
       </c>
       <c r="H116">
-        <v>796.4776903728675</v>
+        <v>3985227.691774765</v>
       </c>
       <c r="I116">
-        <v>-1020.460989958569</v>
+        <v>1115119.435508905</v>
       </c>
       <c r="J116">
-        <v>2381.853002894304</v>
+        <v>4842830.253460511</v>
       </c>
       <c r="K116">
-        <v>2177.148993943366</v>
+        <v>3986376.494153442</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,34 +4502,34 @@
         <v>954</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>93.68137555533802</v>
+        <v>1116531.475174026</v>
       </c>
       <c r="G117">
-        <v>-69.01351236997432</v>
+        <v>4841164.598991773</v>
       </c>
       <c r="H117">
-        <v>981.2551549965382</v>
+        <v>3985426.946149712</v>
       </c>
       <c r="I117">
-        <v>-990.8933495751199</v>
+        <v>1115155.411550181</v>
       </c>
       <c r="J117">
-        <v>2309.912448137638</v>
+        <v>4842781.601910535</v>
       </c>
       <c r="K117">
-        <v>2375.315143715941</v>
+        <v>3986559.100858246</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,34 +4537,34 @@
         <v>954</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>77.8061894600376</v>
+        <v>1116502.877742583</v>
       </c>
       <c r="G118">
-        <v>-51.99793845441153</v>
+        <v>4841181.111834895</v>
       </c>
       <c r="H118">
-        <v>1091.318062804694</v>
+        <v>3985545.632245685</v>
       </c>
       <c r="I118">
-        <v>-960.597633248959</v>
+        <v>1115192.273468375</v>
       </c>
       <c r="J118">
-        <v>2237.971893380972</v>
+        <v>4842732.950360559</v>
       </c>
       <c r="K118">
-        <v>2557.041854717329</v>
+        <v>3986726.558902462</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,34 +4572,34 @@
         <v>954</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>67.78460733410567</v>
+        <v>1116484.824945842</v>
       </c>
       <c r="G119">
-        <v>-34.98236453884873</v>
+        <v>4841197.624678017</v>
       </c>
       <c r="H119">
-        <v>1169.972584147627</v>
+        <v>3985630.449176792</v>
       </c>
       <c r="I119">
-        <v>-929.5559127798136</v>
+        <v>1115230.043077392</v>
       </c>
       <c r="J119">
-        <v>2166.031338624306</v>
+        <v>4842684.298810584</v>
       </c>
       <c r="K119">
-        <v>2722.329126947529</v>
+        <v>3986878.86828609</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,34 +4607,34 @@
         <v>954</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>60.79559663947082</v>
+        <v>1116472.234998676</v>
       </c>
       <c r="G120">
-        <v>-17.96679062328593</v>
+        <v>4841214.137521137</v>
       </c>
       <c r="H120">
-        <v>1231.220817778178</v>
+        <v>3985696.496075603</v>
       </c>
       <c r="I120">
-        <v>-897.7498185019753</v>
+        <v>1115268.742728284</v>
       </c>
       <c r="J120">
-        <v>2094.090783867639</v>
+        <v>4842635.647260609</v>
       </c>
       <c r="K120">
-        <v>2871.176960406542</v>
+        <v>3987016.029009132</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,34 +4642,34 @@
         <v>954</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>55.58158536428309</v>
+        <v>1116462.842521064</v>
       </c>
       <c r="G121">
-        <v>-0.9512167077231457</v>
+        <v>4841230.650364258</v>
       </c>
       <c r="H121">
-        <v>1281.387871967647</v>
+        <v>3985750.593608794</v>
       </c>
       <c r="I121">
-        <v>-865.1605284136153</v>
+        <v>1115308.395322477</v>
       </c>
       <c r="J121">
-        <v>2022.150229110974</v>
+        <v>4842586.995710635</v>
       </c>
       <c r="K121">
-        <v>3003.585355094365</v>
+        <v>3987138.041071585</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,34 +4677,34 @@
         <v>954</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>51.50495666217457</v>
+        <v>1116455.498915192</v>
       </c>
       <c r="G122">
-        <v>16.06435720783966</v>
+        <v>4841247.163207379</v>
       </c>
       <c r="H122">
-        <v>1323.875704848661</v>
+        <v>3985796.410270478</v>
       </c>
       <c r="I122">
-        <v>-831.7687570384265</v>
+        <v>1115349.024325321</v>
       </c>
       <c r="J122">
-        <v>1950.209674354308</v>
+        <v>4842538.344160658</v>
       </c>
       <c r="K122">
-        <v>3119.554311011002</v>
+        <v>3987244.904473452</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,34 +4712,34 @@
         <v>954</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>48.20666721309995</v>
+        <v>1116449.557403336</v>
       </c>
       <c r="G123">
-        <v>33.07993112340246</v>
+        <v>4841263.676050501</v>
       </c>
       <c r="H123">
-        <v>1360.726161685355</v>
+        <v>3985836.147880032</v>
       </c>
       <c r="I123">
-        <v>-797.55474401299</v>
+        <v>1115390.653779983</v>
       </c>
       <c r="J123">
-        <v>1878.269119597642</v>
+        <v>4842489.692610683</v>
       </c>
       <c r="K123">
-        <v>3219.08382815645</v>
+        <v>3987336.61921473</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,34 +4747,34 @@
         <v>954</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>45.46791172399868</v>
+        <v>1116444.623831416</v>
       </c>
       <c r="G124">
-        <v>50.09550503896524</v>
+        <v>4841280.188893623</v>
       </c>
       <c r="H124">
-        <v>1393.261468583162</v>
+        <v>3985871.232257084</v>
       </c>
       <c r="I124">
-        <v>-762.4982423931172</v>
+        <v>1115433.308321667</v>
       </c>
       <c r="J124">
-        <v>1806.328564840976</v>
+        <v>4842441.041060708</v>
       </c>
       <c r="K124">
-        <v>3302.173906530712</v>
+        <v>3987413.185295422</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,34 +4782,34 @@
         <v>954</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>43.14702251273211</v>
+        <v>1116440.443000419</v>
       </c>
       <c r="G125">
-        <v>67.11107895452805</v>
+        <v>4841296.701736743</v>
       </c>
       <c r="H125">
-        <v>1422.387115300026</v>
+        <v>3985902.639834536</v>
       </c>
       <c r="I125">
-        <v>-726.5785066722448</v>
+        <v>1115477.013192199</v>
       </c>
       <c r="J125">
-        <v>1734.38801008431</v>
+        <v>4842392.389510733</v>
       </c>
       <c r="K125">
-        <v>3368.824546133785</v>
+        <v>3987474.602715526</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,34 +4817,34 @@
         <v>954</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>41.14780288402753</v>
+        <v>1116436.841622399</v>
       </c>
       <c r="G126">
-        <v>84.12665287009085</v>
+        <v>4841313.214579864</v>
       </c>
       <c r="H126">
-        <v>1448.750451387353</v>
+        <v>3985931.06868036</v>
       </c>
       <c r="I126">
-        <v>-689.7742805047967</v>
+        <v>1115521.79425496</v>
       </c>
       <c r="J126">
-        <v>1662.447455327644</v>
+        <v>4842343.737960757</v>
       </c>
       <c r="K126">
-        <v>3419.03574696567</v>
+        <v>3987520.871475042</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,34 +4852,34 @@
         <v>954</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>39.40238084502279</v>
+        <v>1116433.697433298</v>
       </c>
       <c r="G127">
-        <v>101.1422267856536</v>
+        <v>4841329.727422986</v>
       </c>
       <c r="H127">
-        <v>1472.830348680754</v>
+        <v>3985957.035184954</v>
       </c>
       <c r="I127">
-        <v>-652.0637841272428</v>
+        <v>1115567.678010193</v>
       </c>
       <c r="J127">
-        <v>1590.506900570978</v>
+        <v>4842295.086410782</v>
       </c>
       <c r="K127">
-        <v>3452.807509026367</v>
+        <v>3987551.991573971</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,34 +4887,34 @@
         <v>954</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>37.86133815246236</v>
+        <v>1116430.921411493</v>
       </c>
       <c r="G128">
-        <v>118.1578007012164</v>
+        <v>4841346.240266107</v>
       </c>
       <c r="H128">
-        <v>1494.991026126645</v>
+        <v>3985980.932103021</v>
       </c>
       <c r="I128">
-        <v>-613.4247014694118</v>
+        <v>1115614.691610687</v>
       </c>
       <c r="J128">
-        <v>1518.566345814312</v>
+        <v>4842246.434860807</v>
       </c>
       <c r="K128">
-        <v>3470.139832315877</v>
+        <v>3987567.963012313</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,34 +4922,34 @@
         <v>954</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>36.48773448913231</v>
+        <v>1116428.447012997</v>
       </c>
       <c r="G129">
-        <v>135.1733746167792</v>
+        <v>4841362.753109229</v>
       </c>
       <c r="H129">
-        <v>1515.515960676379</v>
+        <v>3986003.065121314</v>
       </c>
       <c r="I129">
-        <v>-573.8341669484361</v>
+        <v>1115662.862877841</v>
       </c>
       <c r="J129">
-        <v>1446.625791057646</v>
+        <v>4842197.783310832</v>
       </c>
       <c r="K129">
-        <v>3471.032716834198</v>
+        <v>3987568.785790067</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,34 +4957,34 @@
         <v>954</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>35.25333466577825</v>
+        <v>1116426.22337517</v>
       </c>
       <c r="G130">
-        <v>152.188948532342</v>
+        <v>4841379.26595235</v>
       </c>
       <c r="H130">
-        <v>1534.630119543098</v>
+        <v>3986023.676832733</v>
       </c>
       <c r="I130">
-        <v>-533.2687519375053</v>
+        <v>1115712.220318133</v>
       </c>
       <c r="J130">
-        <v>1374.68523630098</v>
+        <v>4842149.131760856</v>
       </c>
       <c r="K130">
-        <v>3455.486162581332</v>
+        <v>3987554.459907234</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,34 +4992,34 @@
         <v>954</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>34.13614056876274</v>
+        <v>1116424.210870787</v>
       </c>
       <c r="G131">
-        <v>169.2045224479048</v>
+        <v>4841395.77879547</v>
       </c>
       <c r="H131">
-        <v>1552.51503078096</v>
+        <v>3986042.96298766</v>
       </c>
       <c r="I131">
-        <v>-491.7044509014275</v>
+        <v>1115762.793139983</v>
       </c>
       <c r="J131">
-        <v>1302.744681544314</v>
+        <v>4842100.480210881</v>
       </c>
       <c r="K131">
-        <v>3423.500169557279</v>
+        <v>3987524.985363813</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,34 +5027,34 @@
         <v>954</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>33.11872673928098</v>
+        <v>1116422.378109768</v>
       </c>
       <c r="G132">
-        <v>186.2200963634677</v>
+        <v>4841412.291638592</v>
       </c>
       <c r="H132">
-        <v>1569.319293800052</v>
+        <v>3986061.083827943</v>
       </c>
       <c r="I132">
-        <v>-449.1166671907923</v>
+        <v>1115814.611271045</v>
       </c>
       <c r="J132">
-        <v>1230.804126787648</v>
+        <v>4842051.828660905</v>
       </c>
       <c r="K132">
-        <v>3375.074737762037</v>
+        <v>3987480.362159804</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,34 +5062,34 @@
         <v>954</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>32.18708792204908</v>
+        <v>1116420.699863161</v>
       </c>
       <c r="G133">
-        <v>203.2356702790304</v>
+        <v>4841428.804481713</v>
       </c>
       <c r="H133">
-        <v>1585.166091498921</v>
+        <v>3986078.172187591</v>
       </c>
       <c r="I133">
-        <v>-405.4801984863253</v>
+        <v>1115867.705375913</v>
       </c>
       <c r="J133">
-        <v>1158.863572030982</v>
+        <v>4842003.17711093</v>
       </c>
       <c r="K133">
-        <v>3310.209867195607</v>
+        <v>3987420.590295209</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,34 +5097,34 @@
         <v>954</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>31.32982248930618</v>
+        <v>1116419.155592165</v>
       </c>
       <c r="G134">
-        <v>220.2512441945932</v>
+        <v>4841445.317324834</v>
       </c>
       <c r="H134">
-        <v>1600.158675280811</v>
+        <v>3986094.33940753</v>
       </c>
       <c r="I134">
-        <v>-360.7692218848262</v>
+        <v>1115922.106874268</v>
       </c>
       <c r="J134">
-        <v>1086.923017274316</v>
+        <v>4841954.525560955</v>
       </c>
       <c r="K134">
-        <v>3228.905557857991</v>
+        <v>3987345.669770026</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,34 +5132,34 @@
         <v>954</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>30.53754196407874</v>
+        <v>1116417.728384454</v>
       </c>
       <c r="G135">
-        <v>237.266818110156</v>
+        <v>4841461.830167956</v>
       </c>
       <c r="H135">
-        <v>1614.384445886955</v>
+        <v>3986109.679736157</v>
       </c>
       <c r="I135">
-        <v>-314.9572786178588</v>
+        <v>1115977.847959471</v>
       </c>
       <c r="J135">
-        <v>1014.98246251765</v>
+        <v>4841905.87401098</v>
       </c>
       <c r="K135">
-        <v>3131.161809749185</v>
+        <v>3987255.600584256</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,34 +5167,34 @@
         <v>954</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>29.80243625354116</v>
+        <v>1116416.404170991</v>
       </c>
       <c r="G136">
-        <v>254.2823920257188</v>
+        <v>4841478.343011077</v>
       </c>
       <c r="H136">
-        <v>1627.918040487545</v>
+        <v>3986124.273658302</v>
       </c>
       <c r="I136">
-        <v>-268.0172583941575</v>
+        <v>1116034.961617616</v>
       </c>
       <c r="J136">
-        <v>943.0419077609839</v>
+        <v>4841857.222461005</v>
       </c>
       <c r="K136">
-        <v>3016.978622869191</v>
+        <v>3987150.382737898</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,34 +5202,34 @@
         <v>954</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>29.11794831618554</v>
+        <v>1116415.171139973</v>
       </c>
       <c r="G137">
-        <v>271.2979659412816</v>
+        <v>4841494.855854198</v>
       </c>
       <c r="H137">
-        <v>1640.823702982728</v>
+        <v>3986138.190451235</v>
       </c>
       <c r="I137">
-        <v>-219.9213833564745</v>
+        <v>1116093.48164705</v>
       </c>
       <c r="J137">
-        <v>871.1013530043182</v>
+        <v>4841808.570911028</v>
       </c>
       <c r="K137">
-        <v>2886.355997218011</v>
+        <v>3987030.016230952</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,34 +5237,34 @@
         <v>954</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>28.47852715236746</v>
+        <v>1116414.019291876</v>
       </c>
       <c r="G138">
-        <v>288.3135398568444</v>
+        <v>4841511.36869732</v>
       </c>
       <c r="H138">
-        <v>1653.15712839919</v>
+        <v>3986151.490173565</v>
       </c>
       <c r="I138">
-        <v>-170.6411916433823</v>
+        <v>1116153.442678371</v>
       </c>
       <c r="J138">
-        <v>799.160798247652</v>
+        <v>4841759.919361054</v>
       </c>
       <c r="K138">
-        <v>2739.293932795642</v>
+        <v>3986894.50106342</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,34 +5272,34 @@
         <v>954</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>27.87943777965716</v>
+        <v>1116412.94009714</v>
       </c>
       <c r="G139">
-        <v>305.3291137724072</v>
+        <v>4841527.88154044</v>
       </c>
       <c r="H139">
-        <v>1664.966915473477</v>
+        <v>3986164.225231633</v>
       </c>
       <c r="I139">
-        <v>-120.1475205462999</v>
+        <v>1116214.880194925</v>
       </c>
       <c r="J139">
-        <v>727.2202434909863</v>
+        <v>4841711.267811079</v>
       </c>
       <c r="K139">
-        <v>2575.792429602086</v>
+        <v>3986743.837235299</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,34 +5307,34 @@
         <v>954</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>27.31661328923348</v>
+        <v>1116411.926229669</v>
       </c>
       <c r="G140">
-        <v>322.34468768797</v>
+        <v>4841544.394383562</v>
       </c>
       <c r="H140">
-        <v>1676.295723246092</v>
+        <v>3986176.441626723</v>
       </c>
       <c r="I140">
-        <v>-68.41048925177736</v>
+        <v>1116277.830553803</v>
       </c>
       <c r="J140">
-        <v>655.2796887343202</v>
+        <v>4841662.616261103</v>
       </c>
       <c r="K140">
-        <v>2395.851487637342</v>
+        <v>3986578.024746592</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,34 +5342,34 @@
         <v>954</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>26.78653840118984</v>
+        <v>1116410.971357066</v>
       </c>
       <c r="G141">
-        <v>339.3602616035328</v>
+        <v>4841560.907226683</v>
       </c>
       <c r="H141">
-        <v>1687.18120121672</v>
+        <v>3986188.179958091</v>
       </c>
       <c r="I141">
-        <v>-15.39948115882352</v>
+        <v>1116342.331007355</v>
       </c>
       <c r="J141">
-        <v>583.339133977654</v>
+        <v>4841613.964711128</v>
       </c>
       <c r="K141">
-        <v>2199.47110690141</v>
+        <v>3986397.063597296</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,34 +5377,34 @@
         <v>954</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>26.28615689148093</v>
+        <v>1116410.069973874</v>
       </c>
       <c r="G142">
-        <v>356.3758355190956</v>
+        <v>4841577.420069804</v>
       </c>
       <c r="H142">
-        <v>1697.6567442609</v>
+        <v>3986199.476237027</v>
       </c>
       <c r="I142">
-        <v>38.91687423918627</v>
+        <v>1116408.419725236</v>
       </c>
       <c r="J142">
-        <v>511.3985792209883</v>
+        <v>4841565.313161152</v>
       </c>
       <c r="K142">
-        <v>1986.65128739429</v>
+        <v>3986200.953787414</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,34 +5412,34 @@
         <v>954</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>25.81279731693396</v>
+        <v>1116409.217267777</v>
       </c>
       <c r="G143">
-        <v>373.3914094346584</v>
+        <v>4841593.932912925</v>
       </c>
       <c r="H143">
-        <v>1707.752110491088</v>
+        <v>3986210.362553127</v>
       </c>
       <c r="I143">
-        <v>94.57071991874129</v>
+        <v>1116476.135816995</v>
       </c>
       <c r="J143">
-        <v>439.4580244643222</v>
+        <v>4841516.661611177</v>
       </c>
       <c r="K143">
-        <v>1757.392029115983</v>
+        <v>3985989.695316944</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,34 +5447,34 @@
         <v>954</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>25.36411291367938</v>
+        <v>1116408.409011333</v>
       </c>
       <c r="G144">
-        <v>390.4069833502212</v>
+        <v>4841610.445756046</v>
       </c>
       <c r="H144">
-        <v>1717.493930877897</v>
+        <v>3986220.86762384</v>
       </c>
       <c r="I144">
-        <v>151.5949903475567</v>
+        <v>1116545.519355215</v>
       </c>
       <c r="J144">
-        <v>367.5174697076564</v>
+        <v>4841468.010061203</v>
       </c>
       <c r="K144">
-        <v>1511.693332066488</v>
+        <v>3985763.288185887</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,34 +5482,34 @@
         <v>954</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>24.93803258084266</v>
+        <v>1116407.641473678</v>
       </c>
       <c r="G145">
-        <v>407.422557265784</v>
+        <v>4841626.958599168</v>
       </c>
       <c r="H145">
-        <v>1726.906132617702</v>
+        <v>3986231.017251005</v>
       </c>
       <c r="I145">
-        <v>210.0234309743142</v>
+        <v>1116616.611399233</v>
       </c>
       <c r="J145">
-        <v>295.5769149509903</v>
+        <v>4841419.358511226</v>
       </c>
       <c r="K145">
-        <v>1249.555196245804</v>
+        <v>3985521.732394241</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,34 +5517,34 @@
         <v>954</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>24.53272061229683</v>
+        <v>1116406.911347986</v>
       </c>
       <c r="G146">
-        <v>424.4381311813468</v>
+        <v>4841643.47144229</v>
       </c>
       <c r="H146">
-        <v>1736.010293192718</v>
+        <v>3986240.834702655</v>
       </c>
       <c r="I146">
-        <v>269.8906181983264</v>
+        <v>1116689.454019431</v>
       </c>
       <c r="J146">
-        <v>223.6363601943242</v>
+        <v>4841370.706961251</v>
       </c>
       <c r="K146">
-        <v>970.9776216539327</v>
+        <v>3985265.027942009</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,34 +5552,34 @@
         <v>954</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>24.14654338983095</v>
+        <v>1116406.21569147</v>
       </c>
       <c r="G147">
-        <v>441.4537050969096</v>
+        <v>4841659.98428541</v>
       </c>
       <c r="H147">
-        <v>1744.825938308202</v>
+        <v>3986250.341034289</v>
       </c>
       <c r="I147">
-        <v>331.2319798309266</v>
+        <v>1116764.090322137</v>
       </c>
       <c r="J147">
-        <v>151.6958054376584</v>
+        <v>4841322.055411276</v>
       </c>
       <c r="K147">
-        <v>675.9606082908742</v>
+        <v>3984993.17482919</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,34 +5587,34 @@
         <v>954</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>23.77804165918246</v>
+        <v>1116405.551875442</v>
       </c>
       <c r="G148">
-        <v>458.4692790124724</v>
+        <v>4841676.497128531</v>
       </c>
       <c r="H148">
-        <v>1753.370794054976</v>
+        <v>3986259.555360799</v>
       </c>
       <c r="I148">
-        <v>394.083816060713</v>
+        <v>1116840.564475134</v>
       </c>
       <c r="J148">
-        <v>79.75525068099233</v>
+        <v>4841273.403861301</v>
       </c>
       <c r="K148">
-        <v>364.5041561566271</v>
+        <v>3984706.173055782</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,34 +5622,34 @@
         <v>954</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>23.42590731597685</v>
+        <v>1116404.917543493</v>
       </c>
       <c r="G149">
-        <v>475.4848529280353</v>
+        <v>4841693.009971653</v>
       </c>
       <c r="H149">
-        <v>1761.661001485577</v>
+        <v>3986268.495087855</v>
       </c>
       <c r="I149">
-        <v>458.4833209350284</v>
+        <v>1116918.921733793</v>
       </c>
       <c r="J149">
-        <v>7.814695924326232</v>
+        <v>4841224.752311325</v>
       </c>
       <c r="K149">
-        <v>36.60826525119233</v>
+        <v>3984404.022621788</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,34 +5657,34 @@
         <v>954</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>23.08896385966313</v>
+        <v>1116404.310576284</v>
       </c>
       <c r="G150">
-        <v>492.500426843598</v>
+        <v>4841709.522814774</v>
       </c>
       <c r="H150">
-        <v>1769.711300132865</v>
+        <v>3986277.176109798</v>
       </c>
       <c r="I150">
-        <v>524.4686043704151</v>
+        <v>1116999.208467859</v>
       </c>
       <c r="J150">
-        <v>-64.12585883233953</v>
+        <v>4841176.10076135</v>
       </c>
       <c r="K150">
-        <v>-307.7270644254293</v>
+        <v>3984086.723527206</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,34 +5692,34 @@
         <v>954</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>22.76614984977845</v>
+        <v>1116403.729061746</v>
       </c>
       <c r="G151">
-        <v>509.5160007591608</v>
+        <v>4841726.035657896</v>
       </c>
       <c r="H151">
-        <v>1777.535185713948</v>
+        <v>3986285.612979707</v>
       </c>
       <c r="I151">
-        <v>592.0787147050509</v>
+        <v>1117081.472188889</v>
       </c>
       <c r="J151">
-        <v>-136.0664135890056</v>
+        <v>4841127.449211375</v>
       </c>
       <c r="K151">
-        <v>-668.5018328732397</v>
+        <v>3983754.275772036</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,34 +5727,34 @@
         <v>954</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>22.45650483444834</v>
+        <v>1116403.171269727</v>
       </c>
       <c r="G152">
-        <v>526.5315746747236</v>
+        <v>4841742.548501016</v>
       </c>
       <c r="H152">
-        <v>1785.145046257936</v>
+        <v>3986293.819056185</v>
       </c>
       <c r="I152">
-        <v>661.3536618065165</v>
+        <v>1117165.761578368</v>
       </c>
       <c r="J152">
-        <v>-208.0069683456717</v>
+        <v>4841078.797661399</v>
       </c>
       <c r="K152">
-        <v>-1045.716040092239</v>
+        <v>3983406.679356279</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,34 +5762,34 @@
         <v>954</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>22.15915732614641</v>
+        <v>1116402.635630338</v>
       </c>
       <c r="G153">
-        <v>543.5471485902864</v>
+        <v>4841759.061344137</v>
       </c>
       <c r="H153">
-        <v>1792.552280105685</v>
+        <v>3986301.806630609</v>
       </c>
       <c r="I153">
-        <v>732.3344407485729</v>
+        <v>1117252.126516518</v>
       </c>
       <c r="J153">
-        <v>-279.9475231023379</v>
+        <v>4841030.146111424</v>
       </c>
       <c r="K153">
-        <v>-1439.369686082425</v>
+        <v>3983043.934279935</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,34 +5797,34 @@
         <v>954</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>21.87331448183994</v>
+        <v>1116402.120715357</v>
       </c>
       <c r="G154">
-        <v>560.5627225058491</v>
+        <v>4841775.574187259</v>
       </c>
       <c r="H154">
-        <v>1799.767398603465</v>
+        <v>3986309.587037864</v>
       </c>
       <c r="I154">
-        <v>805.0630560709578</v>
+        <v>1117340.618111816</v>
       </c>
       <c r="J154">
-        <v>-351.8880778590033</v>
+        <v>4840981.494561449</v>
       </c>
       <c r="K154">
-        <v>-1849.462770843796</v>
+        <v>3982666.040543003</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,34 +5832,34 @@
         <v>954</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>21.59825320923157</v>
+        <v>1116401.625222212</v>
       </c>
       <c r="G155">
-        <v>577.578296421412</v>
+        <v>4841792.08703038</v>
       </c>
       <c r="H155">
-        <v>1806.800115812879</v>
+        <v>3986317.170753089</v>
       </c>
       <c r="I155">
-        <v>879.5825466365582</v>
+        <v>1117431.288731238</v>
       </c>
       <c r="J155">
-        <v>-423.8286326156694</v>
+        <v>4840932.843011474</v>
       </c>
       <c r="K155">
-        <v>-2275.995294376358</v>
+        <v>3982272.998145483</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,34 +5867,34 @@
         <v>954</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>21.33331247194183</v>
+        <v>1116401.147960117</v>
       </c>
       <c r="G156">
-        <v>594.5938703369748</v>
+        <v>4841808.599873502</v>
       </c>
       <c r="H156">
-        <v>1813.659427158438</v>
+        <v>3986324.567476481</v>
       </c>
       <c r="I156">
-        <v>955.9370111006615</v>
+        <v>1117524.192031247</v>
       </c>
       <c r="J156">
-        <v>-495.7691873723355</v>
+        <v>4840884.191461498</v>
       </c>
       <c r="K156">
-        <v>-2718.967256680108</v>
+        <v>3981864.807087377</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,34 +5902,34 @@
         <v>954</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>21.07788660722123</v>
+        <v>1116400.687838037</v>
       </c>
       <c r="G157">
-        <v>611.6094442525375</v>
+        <v>4841825.112716623</v>
       </c>
       <c r="H157">
-        <v>1820.353678610411</v>
+        <v>3986331.786207896</v>
       </c>
       <c r="I157">
-        <v>1034.171634007374</v>
+        <v>1117619.382989549</v>
       </c>
       <c r="J157">
-        <v>-567.7097421290016</v>
+        <v>4840835.539911523</v>
       </c>
       <c r="K157">
-        <v>-3178.378657755046</v>
+        <v>3981441.467368683</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,34 +5937,34 @@
         <v>954</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>20.83141950243689</v>
+        <v>1116400.243854193</v>
       </c>
       <c r="G158">
-        <v>628.6250181681004</v>
+        <v>4841841.625559743</v>
       </c>
       <c r="H158">
-        <v>1826.890627737707</v>
+        <v>3986338.835312694</v>
       </c>
       <c r="I158">
-        <v>1114.332712528632</v>
+        <v>1117716.917937626</v>
       </c>
       <c r="J158">
-        <v>-639.6502968856677</v>
+        <v>4840786.888361548</v>
       </c>
       <c r="K158">
-        <v>-3654.229497601171</v>
+        <v>3981002.978989401</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,34 +5972,34 @@
         <v>954</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>20.59339950289839</v>
+        <v>1116399.815086897</v>
       </c>
       <c r="G159">
-        <v>645.6405920836631</v>
+        <v>4841858.138402865</v>
       </c>
       <c r="H159">
-        <v>1833.277497750978</v>
+        <v>3986345.722580007</v>
       </c>
       <c r="I159">
-        <v>1196.467683861634</v>
+        <v>1117816.854594068</v>
       </c>
       <c r="J159">
-        <v>-711.5908516423332</v>
+        <v>4840738.236811573</v>
       </c>
       <c r="K159">
-        <v>-4146.519776218481</v>
+        <v>3980549.341949532</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,1889 +6007,34 @@
         <v>954</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>20.36335494491831</v>
+        <v>1116399.400686497</v>
       </c>
       <c r="G160">
-        <v>662.6561659992259</v>
+        <v>4841874.651245987</v>
       </c>
       <c r="H160">
-        <v>1839.521025480097</v>
+        <v>3986352.455274482</v>
       </c>
       <c r="I160">
-        <v>1280.625153300925</v>
+        <v>1117919.252098735</v>
       </c>
       <c r="J160">
-        <v>-783.5314063989993</v>
+        <v>4840689.585261596</v>
       </c>
       <c r="K160">
-        <v>-4655.249493606982</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>954</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G161">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H161">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I161">
-        <v>-2209.813864900824</v>
-      </c>
-      <c r="J161">
-        <v>2218.227252465272</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>954</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G162">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H162">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I162">
-        <v>-2166.186255053841</v>
-      </c>
-      <c r="J162">
-        <v>2164.267113015647</v>
-      </c>
-      <c r="K162">
-        <v>179.944335195798</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>954</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G163">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H163">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I163">
-        <v>-2121.484355451041</v>
-      </c>
-      <c r="J163">
-        <v>2110.306973566023</v>
-      </c>
-      <c r="K163">
-        <v>350.9158210035125</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>954</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G164">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H164">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I164">
-        <v>-2075.681712695516</v>
-      </c>
-      <c r="J164">
-        <v>2056.346834116399</v>
-      </c>
-      <c r="K164">
-        <v>512.9144574231447</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>954</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G165">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H165">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I165">
-        <v>-2028.751221999795</v>
-      </c>
-      <c r="J165">
-        <v>2002.386694666775</v>
-      </c>
-      <c r="K165">
-        <v>665.9402444546935</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>954</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G166">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H166">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I166">
-        <v>-1980.665111145951</v>
-      </c>
-      <c r="J166">
-        <v>1948.426555217151</v>
-      </c>
-      <c r="K166">
-        <v>809.9931820981602</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>954</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G167">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H167">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I167">
-        <v>-1931.394924050742</v>
-      </c>
-      <c r="J167">
-        <v>1894.466415767527</v>
-      </c>
-      <c r="K167">
-        <v>945.0732703535438</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>954</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G168">
-        <v>-99.96968911623955</v>
-      </c>
-      <c r="H168">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I168">
-        <v>-1880.911503926054</v>
-      </c>
-      <c r="J168">
-        <v>1840.506276317903</v>
-      </c>
-      <c r="K168">
-        <v>1071.180509220845</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>954</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>217.5822204761107</v>
-      </c>
-      <c r="G169">
-        <v>-83.46187948152884</v>
-      </c>
-      <c r="H169">
-        <v>808.7302928991427</v>
-      </c>
-      <c r="I169">
-        <v>-1829.184976024691</v>
-      </c>
-      <c r="J169">
-        <v>1786.546136868279</v>
-      </c>
-      <c r="K169">
-        <v>1188.314898700062</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>954</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>168.8691854607688</v>
-      </c>
-      <c r="G170">
-        <v>-66.95406984681813</v>
-      </c>
-      <c r="H170">
-        <v>996.3502788604628</v>
-      </c>
-      <c r="I170">
-        <v>-1776.18472996129</v>
-      </c>
-      <c r="J170">
-        <v>1732.585997418655</v>
-      </c>
-      <c r="K170">
-        <v>1296.476438791197</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>954</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>140.2527210988859</v>
-      </c>
-      <c r="G171">
-        <v>-50.44626021210745</v>
-      </c>
-      <c r="H171">
-        <v>1108.106337749383</v>
-      </c>
-      <c r="I171">
-        <v>-1721.87940159791</v>
-      </c>
-      <c r="J171">
-        <v>1678.625857969031</v>
-      </c>
-      <c r="K171">
-        <v>1395.665129494249</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>954</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>122.1879093836196</v>
-      </c>
-      <c r="G172">
-        <v>-33.93845057739674</v>
-      </c>
-      <c r="H172">
-        <v>1187.970839734031</v>
-      </c>
-      <c r="I172">
-        <v>-1666.236854483567</v>
-      </c>
-      <c r="J172">
-        <v>1624.665718519407</v>
-      </c>
-      <c r="K172">
-        <v>1485.880970809219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>954</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>109.5895830227687</v>
-      </c>
-      <c r="G173">
-        <v>-17.43064094268603</v>
-      </c>
-      <c r="H173">
-        <v>1250.161284642038</v>
-      </c>
-      <c r="I173">
-        <v>-1609.224160836739</v>
-      </c>
-      <c r="J173">
-        <v>1570.705579069783</v>
-      </c>
-      <c r="K173">
-        <v>1567.123962736105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>954</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>100.1908542807456</v>
-      </c>
-      <c r="G174">
-        <v>-0.9228313079753426</v>
-      </c>
-      <c r="H174">
-        <v>1301.100082952312</v>
-      </c>
-      <c r="I174">
-        <v>-1550.807582059574</v>
-      </c>
-      <c r="J174">
-        <v>1516.745439620159</v>
-      </c>
-      <c r="K174">
-        <v>1639.394105274908</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>954</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>92.84236089804111</v>
-      </c>
-      <c r="G175">
-        <v>15.58497832673536</v>
-      </c>
-      <c r="H175">
-        <v>1344.241526769058</v>
-      </c>
-      <c r="I175">
-        <v>-1490.952548772289</v>
-      </c>
-      <c r="J175">
-        <v>1462.785300170534</v>
-      </c>
-      <c r="K175">
-        <v>1702.691398425629</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>954</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>86.8968946900853</v>
-      </c>
-      <c r="G176">
-        <v>32.09278796144607</v>
-      </c>
-      <c r="H176">
-        <v>1381.658872052207</v>
-      </c>
-      <c r="I176">
-        <v>-1429.623640355924</v>
-      </c>
-      <c r="J176">
-        <v>1408.82516072091</v>
-      </c>
-      <c r="K176">
-        <v>1757.015842188267</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>954</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>81.96003924919199</v>
-      </c>
-      <c r="G177">
-        <v>48.60059759615676</v>
-      </c>
-      <c r="H177">
-        <v>1414.694685352526</v>
-      </c>
-      <c r="I177">
-        <v>-1366.784563991369</v>
-      </c>
-      <c r="J177">
-        <v>1354.865021271286</v>
-      </c>
-      <c r="K177">
-        <v>1802.367436562822</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>954</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>77.77642571525364</v>
-      </c>
-      <c r="G178">
-        <v>65.10840723086748</v>
-      </c>
-      <c r="H178">
-        <v>1444.26838601598</v>
-      </c>
-      <c r="I178">
-        <v>-1302.398133182225</v>
-      </c>
-      <c r="J178">
-        <v>1300.904881821662</v>
-      </c>
-      <c r="K178">
-        <v>1838.746181549294</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>954</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>74.17265081063456</v>
-      </c>
-      <c r="G179">
-        <v>81.61621686557817</v>
-      </c>
-      <c r="H179">
-        <v>1471.037282086027</v>
-      </c>
-      <c r="I179">
-        <v>-1236.426245748837</v>
-      </c>
-      <c r="J179">
-        <v>1246.944742372038</v>
-      </c>
-      <c r="K179">
-        <v>1866.152077147683</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>954</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>71.02636910560243</v>
-      </c>
-      <c r="G180">
-        <v>98.12402650028886</v>
-      </c>
-      <c r="H180">
-        <v>1495.487612115933</v>
-      </c>
-      <c r="I180">
-        <v>-1168.829861280426</v>
-      </c>
-      <c r="J180">
-        <v>1192.984602922414</v>
-      </c>
-      <c r="K180">
-        <v>1884.585123357989</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>954</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>68.24849972964276</v>
-      </c>
-      <c r="G181">
-        <v>114.6318361349996</v>
-      </c>
-      <c r="H181">
-        <v>1517.989198008776</v>
-      </c>
-      <c r="I181">
-        <v>-1099.568978032012</v>
-      </c>
-      <c r="J181">
-        <v>1139.02446347279</v>
-      </c>
-      <c r="K181">
-        <v>1894.045320180213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>954</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>65.7724544068939</v>
-      </c>
-      <c r="G182">
-        <v>131.1396457697103</v>
-      </c>
-      <c r="H182">
-        <v>1538.829877579313</v>
-      </c>
-      <c r="I182">
-        <v>-1028.602609252451</v>
-      </c>
-      <c r="J182">
-        <v>1085.064324023166</v>
-      </c>
-      <c r="K182">
-        <v>1894.532667614354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>954</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>63.54733664504398</v>
-      </c>
-      <c r="G183">
-        <v>147.647455404421</v>
-      </c>
-      <c r="H183">
-        <v>1558.238078820412</v>
-      </c>
-      <c r="I183">
-        <v>-955.8887589295559</v>
-      </c>
-      <c r="J183">
-        <v>1031.104184573542</v>
-      </c>
-      <c r="K183">
-        <v>1886.047165660412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>954</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>61.53349284689067</v>
-      </c>
-      <c r="G184">
-        <v>164.1552650391317</v>
-      </c>
-      <c r="H184">
-        <v>1576.398122320312</v>
-      </c>
-      <c r="I184">
-        <v>-881.3843969379743</v>
-      </c>
-      <c r="J184">
-        <v>977.1440451239179</v>
-      </c>
-      <c r="K184">
-        <v>1868.588814318387</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>954</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>59.69951204075255</v>
-      </c>
-      <c r="G185">
-        <v>180.6630746738424</v>
-      </c>
-      <c r="H185">
-        <v>1593.460893465882</v>
-      </c>
-      <c r="I185">
-        <v>-805.0454335751065</v>
-      </c>
-      <c r="J185">
-        <v>923.1839056742937</v>
-      </c>
-      <c r="K185">
-        <v>1842.157613588279</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>954</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>58.02014848234011</v>
-      </c>
-      <c r="G186">
-        <v>197.1708843085531</v>
-      </c>
-      <c r="H186">
-        <v>1609.55147013793</v>
-      </c>
-      <c r="I186">
-        <v>-726.8266934699867</v>
-      </c>
-      <c r="J186">
-        <v>869.2237662246695</v>
-      </c>
-      <c r="K186">
-        <v>1806.753563470088</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>954</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>56.47484970237661</v>
-      </c>
-      <c r="G187">
-        <v>213.6786939432638</v>
-      </c>
-      <c r="H187">
-        <v>1624.774692106101</v>
-      </c>
-      <c r="I187">
-        <v>-646.6818888497002</v>
-      </c>
-      <c r="J187">
-        <v>815.2636267750455</v>
-      </c>
-      <c r="K187">
-        <v>1762.376663963815</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>954</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>55.04669211866823</v>
-      </c>
-      <c r="G188">
-        <v>230.1865035779745</v>
-      </c>
-      <c r="H188">
-        <v>1639.219304639613</v>
-      </c>
-      <c r="I188">
-        <v>-564.5635921475063</v>
-      </c>
-      <c r="J188">
-        <v>761.3034873254213</v>
-      </c>
-      <c r="K188">
-        <v>1709.026915069458</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>954</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>53.72159732976098</v>
-      </c>
-      <c r="G189">
-        <v>246.6943132126852</v>
-      </c>
-      <c r="H189">
-        <v>1652.961093088439</v>
-      </c>
-      <c r="I189">
-        <v>-480.4232079364689</v>
-      </c>
-      <c r="J189">
-        <v>707.3433478757972</v>
-      </c>
-      <c r="K189">
-        <v>1646.704316787019</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>954</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>52.48774567297477</v>
-      </c>
-      <c r="G190">
-        <v>263.2021228473959</v>
-      </c>
-      <c r="H190">
-        <v>1666.065289647794</v>
-      </c>
-      <c r="I190">
-        <v>-394.2109441719691</v>
-      </c>
-      <c r="J190">
-        <v>653.3832084261733</v>
-      </c>
-      <c r="K190">
-        <v>1575.408869116497</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>954</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>51.33513096743437</v>
-      </c>
-      <c r="G191">
-        <v>279.7099324821066</v>
-      </c>
-      <c r="H191">
-        <v>1678.588446127966</v>
-      </c>
-      <c r="I191">
-        <v>-305.8757827260968</v>
-      </c>
-      <c r="J191">
-        <v>599.4230689765491</v>
-      </c>
-      <c r="K191">
-        <v>1495.140572057892</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>954</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>50.25521797738618</v>
-      </c>
-      <c r="G192">
-        <v>296.2177421168172</v>
-      </c>
-      <c r="H192">
-        <v>1690.57990888343</v>
-      </c>
-      <c r="I192">
-        <v>-215.3654491964778</v>
-      </c>
-      <c r="J192">
-        <v>545.4629295269252</v>
-      </c>
-      <c r="K192">
-        <v>1405.899425611205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>954</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>49.24067573041549</v>
-      </c>
-      <c r="G193">
-        <v>312.725551751528</v>
-      </c>
-      <c r="H193">
-        <v>1702.082993199396</v>
-      </c>
-      <c r="I193">
-        <v>-122.6263819716717</v>
-      </c>
-      <c r="J193">
-        <v>491.502790077301</v>
-      </c>
-      <c r="K193">
-        <v>1307.685429776434</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>954</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>48.28516761531248</v>
-      </c>
-      <c r="G194">
-        <v>329.2333613862387</v>
-      </c>
-      <c r="H194">
-        <v>1713.135927756058</v>
-      </c>
-      <c r="I194">
-        <v>-27.60370053483273</v>
-      </c>
-      <c r="J194">
-        <v>437.5426506276768</v>
-      </c>
-      <c r="K194">
-        <v>1200.49858455358</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>954</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>47.38318451073841</v>
-      </c>
-      <c r="G195">
-        <v>345.7411710209494</v>
-      </c>
-      <c r="H195">
-        <v>1723.77262115852</v>
-      </c>
-      <c r="I195">
-        <v>69.75882701312476</v>
-      </c>
-      <c r="J195">
-        <v>383.5825111780529</v>
-      </c>
-      <c r="K195">
-        <v>1084.338889942644</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>954</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>46.5299108978143</v>
-      </c>
-      <c r="G196">
-        <v>362.2489806556601</v>
-      </c>
-      <c r="H196">
-        <v>1734.023289302712</v>
-      </c>
-      <c r="I196">
-        <v>169.5188172300676</v>
-      </c>
-      <c r="J196">
-        <v>329.6223717284287</v>
-      </c>
-      <c r="K196">
-        <v>959.2063459436251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>954</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>45.72111652158532</v>
-      </c>
-      <c r="G197">
-        <v>378.7567902903708</v>
-      </c>
-      <c r="H197">
-        <v>1743.914972836379</v>
-      </c>
-      <c r="I197">
-        <v>271.7353054285955</v>
-      </c>
-      <c r="J197">
-        <v>275.6622322788048</v>
-      </c>
-      <c r="K197">
-        <v>825.1009525565235</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>954</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>44.95306803467463</v>
-      </c>
-      <c r="G198">
-        <v>395.2645999250815</v>
-      </c>
-      <c r="H198">
-        <v>1753.471967039563</v>
-      </c>
-      <c r="I198">
-        <v>376.4687806115662</v>
-      </c>
-      <c r="J198">
-        <v>221.7020928291806</v>
-      </c>
-      <c r="K198">
-        <v>682.0227097813381</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>954</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>44.22245641011106</v>
-      </c>
-      <c r="G199">
-        <v>411.7724095597922</v>
-      </c>
-      <c r="H199">
-        <v>1762.716181331348</v>
-      </c>
-      <c r="I199">
-        <v>483.7812212678882</v>
-      </c>
-      <c r="J199">
-        <v>167.7419533795565</v>
-      </c>
-      <c r="K199">
-        <v>529.9716176180705</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>954</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>43.52633690274116</v>
-      </c>
-      <c r="G200">
-        <v>428.2802191945029</v>
-      </c>
-      <c r="H200">
-        <v>1771.667441790387</v>
-      </c>
-      <c r="I200">
-        <v>593.7361320497353</v>
-      </c>
-      <c r="J200">
-        <v>113.7818139299325</v>
-      </c>
-      <c r="K200">
-        <v>368.9476760667201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>954</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>42.86207907426026</v>
-      </c>
-      <c r="G201">
-        <v>444.7880288292136</v>
-      </c>
-      <c r="H201">
-        <v>1780.343747196548</v>
-      </c>
-      <c r="I201">
-        <v>706.3985813529246</v>
-      </c>
-      <c r="J201">
-        <v>59.82167448030837</v>
-      </c>
-      <c r="K201">
-        <v>198.9508851272865</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>954</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>42.22732494776082</v>
-      </c>
-      <c r="G202">
-        <v>461.2958384639243</v>
-      </c>
-      <c r="H202">
-        <v>1788.761486908009</v>
-      </c>
-      <c r="I202">
-        <v>821.8352398226513</v>
-      </c>
-      <c r="J202">
-        <v>5.861535030684199</v>
-      </c>
-      <c r="K202">
-        <v>19.98124479977011</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>954</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>41.61995377417656</v>
-      </c>
-      <c r="G203">
-        <v>477.803648098635</v>
-      </c>
-      <c r="H203">
-        <v>1796.935627203011</v>
-      </c>
-      <c r="I203">
-        <v>940.1144198074155</v>
-      </c>
-      <c r="J203">
-        <v>-48.09860441893972</v>
-      </c>
-      <c r="K203">
-        <v>-167.9612449158286</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>954</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>41.03805221069717</v>
-      </c>
-      <c r="G204">
-        <v>494.3114577333457</v>
-      </c>
-      <c r="H204">
-        <v>1804.879871409822</v>
-      </c>
-      <c r="I204">
-        <v>1061.306115784455</v>
-      </c>
-      <c r="J204">
-        <v>-102.0587438685639</v>
-      </c>
-      <c r="K204">
-        <v>-364.8765840195106</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>954</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>40.47988895561244</v>
-      </c>
-      <c r="G205">
-        <v>510.8192673680564</v>
-      </c>
-      <c r="H205">
-        <v>1812.60679812861</v>
-      </c>
-      <c r="I205">
-        <v>1185.482045780614</v>
-      </c>
-      <c r="J205">
-        <v>-156.0188833181881</v>
-      </c>
-      <c r="K205">
-        <v>-570.7647725112761</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>954</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>39.94389307352726</v>
-      </c>
-      <c r="G206">
-        <v>527.3270770027672</v>
-      </c>
-      <c r="H206">
-        <v>1820.127981046437</v>
-      </c>
-      <c r="I206">
-        <v>1312.715693813167</v>
-      </c>
-      <c r="J206">
-        <v>-209.9790227678122</v>
-      </c>
-      <c r="K206">
-        <v>-785.625810391124</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>954</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>39.42863539288712</v>
-      </c>
-      <c r="G207">
-        <v>543.8348866374778</v>
-      </c>
-      <c r="H207">
-        <v>1827.454093210709</v>
-      </c>
-      <c r="I207">
-        <v>1443.082353375711</v>
-      </c>
-      <c r="J207">
-        <v>-263.9391622174359</v>
-      </c>
-      <c r="K207">
-        <v>-1009.459697659053</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>954</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>38.93281247417109</v>
-      </c>
-      <c r="G208">
-        <v>560.3426962721885</v>
-      </c>
-      <c r="H208">
-        <v>1834.594998119148</v>
-      </c>
-      <c r="I208">
-        <v>1576.659171994857</v>
-      </c>
-      <c r="J208">
-        <v>-317.8993016670601</v>
-      </c>
-      <c r="K208">
-        <v>-1242.266434315067</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>954</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>38.45523273928489</v>
-      </c>
-      <c r="G209">
-        <v>576.8505059068992</v>
-      </c>
-      <c r="H209">
-        <v>1841.559829577244</v>
-      </c>
-      <c r="I209">
-        <v>1713.525196884078</v>
-      </c>
-      <c r="J209">
-        <v>-371.8594411166843</v>
-      </c>
-      <c r="K209">
-        <v>-1484.046020359163</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>954</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>37.99480442612993</v>
-      </c>
-      <c r="G210">
-        <v>593.3583155416098</v>
-      </c>
-      <c r="H210">
-        <v>1848.357061945372</v>
-      </c>
-      <c r="I210">
-        <v>1853.761421721763</v>
-      </c>
-      <c r="J210">
-        <v>-425.8195805663084</v>
-      </c>
-      <c r="K210">
-        <v>-1734.798455791343</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>954</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>37.5505250911919</v>
-      </c>
-      <c r="G211">
-        <v>609.8661251763207</v>
-      </c>
-      <c r="H211">
-        <v>1854.994572130887</v>
-      </c>
-      <c r="I211">
-        <v>1997.450834581116</v>
-      </c>
-      <c r="J211">
-        <v>-479.7797200159326</v>
-      </c>
-      <c r="K211">
-        <v>-1994.523740611605</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>954</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>37.12147243043441</v>
-      </c>
-      <c r="G212">
-        <v>626.3739348110313</v>
-      </c>
-      <c r="H212">
-        <v>1861.479694462591</v>
-      </c>
-      <c r="I212">
-        <v>2144.678467040291</v>
-      </c>
-      <c r="J212">
-        <v>-533.7398594655563</v>
-      </c>
-      <c r="K212">
-        <v>-2263.221874819948</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>954</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>36.70679622723509</v>
-      </c>
-      <c r="G213">
-        <v>642.881744445742</v>
-      </c>
-      <c r="H213">
-        <v>1867.81926940628</v>
-      </c>
-      <c r="I213">
-        <v>2295.531444501838</v>
-      </c>
-      <c r="J213">
-        <v>-587.6999989151805</v>
-      </c>
-      <c r="K213">
-        <v>-2540.892858416375</v>
+        <v>3980080.556249076</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run954/NotionalETEOutput954.xlsx
+++ b/runs/run954/NotionalETEOutput954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,31 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_BRAVER_373.MISSILE_BRAVER_373</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_BRAVER_327.MISSILE_BRAVER_327</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_120.MISSILE_SOMERSAULT_120</t>
+    <t>MISSILE_SOMERSAULT_164.MISSILE_SOMERSAULT_164</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_312.MISSILE_HELLMASKER_312</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_469.MISSILE_HIGHWIND_469</t>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -480,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G2">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H2">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I2">
-        <v>1114862.135382207</v>
+        <v>1114861.525450652</v>
       </c>
       <c r="J2">
-        <v>4843226.18053639</v>
+        <v>4843222.662990524</v>
       </c>
       <c r="K2">
-        <v>3984363.560976487</v>
+        <v>3984365.119081246</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G3">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H3">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I3">
-        <v>1114891.749399336</v>
+        <v>1114891.139451579</v>
       </c>
       <c r="J3">
-        <v>4843177.528918964</v>
+        <v>4843174.011408432</v>
       </c>
       <c r="K3">
-        <v>3984667.356453019</v>
+        <v>3984668.914676579</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G4">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H4">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I4">
-        <v>1114922.092634392</v>
+        <v>1114921.482670035</v>
       </c>
       <c r="J4">
-        <v>4843128.877301537</v>
+        <v>4843125.35982634</v>
       </c>
       <c r="K4">
-        <v>3984956.003294543</v>
+        <v>3984957.56163098</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G5">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H5">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I5">
-        <v>1114953.183043696</v>
+        <v>1114952.57306233</v>
       </c>
       <c r="J5">
-        <v>4843080.225684111</v>
+        <v>4843076.708244249</v>
       </c>
       <c r="K5">
-        <v>3985229.501501058</v>
+        <v>3985231.059944448</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G6">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H6">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I6">
-        <v>1114985.039025726</v>
+        <v>1114984.429026932</v>
       </c>
       <c r="J6">
-        <v>4843031.574066686</v>
+        <v>4843028.056662158</v>
       </c>
       <c r="K6">
-        <v>3985487.851072566</v>
+        <v>3985489.409616984</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G7">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H7">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I7">
-        <v>1115017.679432007</v>
+        <v>1115017.069415356</v>
       </c>
       <c r="J7">
-        <v>4842982.92244926</v>
+        <v>4842979.405080067</v>
       </c>
       <c r="K7">
-        <v>3985731.052009064</v>
+        <v>3985732.610648587</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G8">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H8">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I8">
-        <v>1115051.123578264</v>
+        <v>1115050.513543316</v>
       </c>
       <c r="J8">
-        <v>4842934.270831833</v>
+        <v>4842930.753497974</v>
       </c>
       <c r="K8">
-        <v>3985959.104310554</v>
+        <v>3985960.663039259</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G9">
-        <v>4841123.012813482</v>
+        <v>4841124.508003252</v>
       </c>
       <c r="H9">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I9">
-        <v>1115085.391255855</v>
+        <v>1115084.781202159</v>
       </c>
       <c r="J9">
-        <v>4842885.619214407</v>
+        <v>4842882.101915883</v>
       </c>
       <c r="K9">
-        <v>3986172.007977037</v>
+        <v>3986173.566788998</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.29538117</v>
+        <v>1116578.415691868</v>
       </c>
       <c r="G10">
-        <v>4841139.525627405</v>
+        <v>4841141.020822274</v>
       </c>
       <c r="H10">
-        <v>3985223.303292738</v>
+        <v>3985229.604758041</v>
       </c>
       <c r="I10">
-        <v>1115120.50274348</v>
+        <v>1115119.892670575</v>
       </c>
       <c r="J10">
-        <v>4842836.967596981</v>
+        <v>4842833.450333792</v>
       </c>
       <c r="K10">
-        <v>3986369.76300851</v>
+        <v>3986371.321897804</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116529.614826489</v>
+        <v>1116529.735131942</v>
       </c>
       <c r="G11">
-        <v>4841156.038441326</v>
+        <v>4841157.533641296</v>
       </c>
       <c r="H11">
-        <v>3985422.557448268</v>
+        <v>3985428.859228634</v>
       </c>
       <c r="I11">
-        <v>1115156.478819187</v>
+        <v>1115155.868726599</v>
       </c>
       <c r="J11">
-        <v>4842788.315979555</v>
+        <v>4842784.798751701</v>
       </c>
       <c r="K11">
-        <v>3986552.369404975</v>
+        <v>3986553.928365679</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.017442694</v>
+        <v>1116501.137745065</v>
       </c>
       <c r="G12">
-        <v>4841172.551255248</v>
+        <v>4841174.046460317</v>
       </c>
       <c r="H12">
-        <v>3985541.243413546</v>
+        <v>3985547.545381579</v>
       </c>
       <c r="I12">
-        <v>1115193.34077266</v>
+        <v>1115192.730659906</v>
       </c>
       <c r="J12">
-        <v>4842739.664362128</v>
+        <v>4842736.147169609</v>
       </c>
       <c r="K12">
-        <v>3986719.827166433</v>
+        <v>3986721.386192621</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116482.964676033</v>
+        <v>1116483.084976458</v>
       </c>
       <c r="G13">
-        <v>4841189.064069171</v>
+        <v>4841190.559279339</v>
       </c>
       <c r="H13">
-        <v>3985626.060251253</v>
+        <v>3985632.362353399</v>
       </c>
       <c r="I13">
-        <v>1115231.110417826</v>
+        <v>1115230.500284408</v>
       </c>
       <c r="J13">
-        <v>4842691.012744702</v>
+        <v>4842687.495587518</v>
       </c>
       <c r="K13">
-        <v>3986872.13629288</v>
+        <v>3986873.69537863</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116470.374749843</v>
+        <v>1116470.495048913</v>
       </c>
       <c r="G14">
-        <v>4841205.576883092</v>
+        <v>4841207.072098361</v>
       </c>
       <c r="H14">
-        <v>3985692.107077334</v>
+        <v>3985698.409283914</v>
       </c>
       <c r="I14">
-        <v>1115269.810105755</v>
+        <v>1115269.199951165</v>
       </c>
       <c r="J14">
-        <v>4842642.361127276</v>
+        <v>4842638.844005426</v>
       </c>
       <c r="K14">
-        <v>3987009.296784321</v>
+        <v>3987010.855923708</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116460.982287881</v>
+        <v>1116461.102585938</v>
       </c>
       <c r="G15">
-        <v>4841222.089697014</v>
+        <v>4841223.584917383</v>
       </c>
       <c r="H15">
-        <v>3985746.204550954</v>
+        <v>3985752.506843073</v>
       </c>
       <c r="I15">
-        <v>1115309.462737897</v>
+        <v>1115308.852561614</v>
       </c>
       <c r="J15">
-        <v>4842593.70950985</v>
+        <v>4842590.192423335</v>
       </c>
       <c r="K15">
-        <v>3987131.308640753</v>
+        <v>3987132.867827853</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116453.638694245</v>
+        <v>1116453.758991511</v>
       </c>
       <c r="G16">
-        <v>4841238.602510936</v>
+        <v>4841240.097736404</v>
       </c>
       <c r="H16">
-        <v>3985792.021162185</v>
+        <v>3985798.32352675</v>
       </c>
       <c r="I16">
-        <v>1115350.091779626</v>
+        <v>1115349.481581115</v>
       </c>
       <c r="J16">
-        <v>4842545.057892423</v>
+        <v>4842541.540841243</v>
       </c>
       <c r="K16">
-        <v>3987238.171862176</v>
+        <v>3987239.731091066</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116447.697192288</v>
+        <v>1116447.817488914</v>
       </c>
       <c r="G17">
-        <v>4841255.115324858</v>
+        <v>4841256.610555427</v>
       </c>
       <c r="H17">
-        <v>3985831.75872798</v>
+        <v>3985838.061155378</v>
       </c>
       <c r="I17">
-        <v>1115391.72127413</v>
+        <v>1115391.111052843</v>
       </c>
       <c r="J17">
-        <v>4842496.406274998</v>
+        <v>4842492.889259152</v>
       </c>
       <c r="K17">
-        <v>3987329.886448591</v>
+        <v>3987331.445713346</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116442.763628589</v>
+        <v>1116442.883924683</v>
       </c>
       <c r="G18">
-        <v>4841271.62813878</v>
+        <v>4841273.123374449</v>
       </c>
       <c r="H18">
-        <v>3985866.843066398</v>
+        <v>3985873.145549271</v>
       </c>
       <c r="I18">
-        <v>1115434.375856637</v>
+        <v>1115433.765612014</v>
       </c>
       <c r="J18">
-        <v>4842447.754657571</v>
+        <v>4842444.237677061</v>
       </c>
       <c r="K18">
-        <v>3987406.452399998</v>
+        <v>3987408.011694694</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116438.582804558</v>
+        <v>1116438.703100202</v>
       </c>
       <c r="G19">
-        <v>4841288.140952701</v>
+        <v>4841289.63619347</v>
       </c>
       <c r="H19">
-        <v>3985898.250609264</v>
+        <v>3985904.553141799</v>
       </c>
       <c r="I19">
-        <v>1115478.080768997</v>
+        <v>1115477.470500463</v>
       </c>
       <c r="J19">
-        <v>4842399.103040146</v>
+        <v>4842395.58609497</v>
       </c>
       <c r="K19">
-        <v>3987467.869716396</v>
+        <v>3987469.42903511</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116434.981432538</v>
+        <v>1116435.101727794</v>
       </c>
       <c r="G20">
-        <v>4841304.653766623</v>
+        <v>4841306.149012492</v>
       </c>
       <c r="H20">
-        <v>3985926.679423783</v>
+        <v>3985932.98200127</v>
       </c>
       <c r="I20">
-        <v>1115522.861874616</v>
+        <v>1115522.251581583</v>
       </c>
       <c r="J20">
-        <v>4842350.451422718</v>
+        <v>4842346.934512878</v>
       </c>
       <c r="K20">
-        <v>3987514.138397786</v>
+        <v>3987515.697734594</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116431.837248676</v>
+        <v>1116431.957543593</v>
       </c>
       <c r="G21">
-        <v>4841321.166580546</v>
+        <v>4841322.661831515</v>
       </c>
       <c r="H21">
-        <v>3985952.645899783</v>
+        <v>3985958.948518328</v>
       </c>
       <c r="I21">
-        <v>1115568.745673763</v>
+        <v>1115568.135355628</v>
       </c>
       <c r="J21">
-        <v>4842301.799805293</v>
+        <v>4842298.282930787</v>
       </c>
       <c r="K21">
-        <v>3987545.258444168</v>
+        <v>3987546.817793145</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.061231497</v>
+        <v>1116429.181526115</v>
       </c>
       <c r="G22">
-        <v>4841337.679394467</v>
+        <v>4841339.174650536</v>
       </c>
       <c r="H22">
-        <v>3985976.542791535</v>
+        <v>3985982.845447867</v>
       </c>
       <c r="I22">
-        <v>1115615.759319251</v>
+        <v>1115615.148975395</v>
       </c>
       <c r="J22">
-        <v>4842253.148187866</v>
+        <v>4842249.631348696</v>
       </c>
       <c r="K22">
-        <v>3987561.229855541</v>
+        <v>3987562.789210764</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116426.586837124</v>
+        <v>1116426.707131475</v>
       </c>
       <c r="G23">
-        <v>4841354.192208389</v>
+        <v>4841355.687469558</v>
       </c>
       <c r="H23">
-        <v>3985998.675785455</v>
+        <v>3986004.978476783</v>
       </c>
       <c r="I23">
-        <v>1115663.930632509</v>
+        <v>1115663.320262298</v>
       </c>
       <c r="J23">
-        <v>4842204.496570441</v>
+        <v>4842200.979766604</v>
       </c>
       <c r="K23">
-        <v>3987562.052631906</v>
+        <v>3987563.611987451</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116424.363203001</v>
+        <v>1116424.483497113</v>
       </c>
       <c r="G24">
-        <v>4841370.705022311</v>
+        <v>4841372.200288581</v>
       </c>
       <c r="H24">
-        <v>3986019.287474177</v>
+        <v>3986025.590198097</v>
       </c>
       <c r="I24">
-        <v>1115713.288120038</v>
+        <v>1115712.677722825</v>
       </c>
       <c r="J24">
-        <v>4842155.844953015</v>
+        <v>4842152.328184512</v>
       </c>
       <c r="K24">
-        <v>3987547.726773262</v>
+        <v>3987549.286123205</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116422.350701972</v>
+        <v>1116422.470995866</v>
       </c>
       <c r="G25">
-        <v>4841387.217836232</v>
+        <v>4841388.713107602</v>
       </c>
       <c r="H25">
-        <v>3986038.573607866</v>
+        <v>3986044.876362281</v>
       </c>
       <c r="I25">
-        <v>1115763.860990289</v>
+        <v>1115763.250565408</v>
       </c>
       <c r="J25">
-        <v>4842107.193335588</v>
+        <v>4842103.676602421</v>
       </c>
       <c r="K25">
-        <v>3987518.25227961</v>
+        <v>3987519.811618027</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116420.517944007</v>
+        <v>1116420.638237704</v>
       </c>
       <c r="G26">
-        <v>4841403.730650154</v>
+        <v>4841405.225926624</v>
       </c>
       <c r="H26">
-        <v>3986056.694428194</v>
+        <v>3986062.997211262</v>
       </c>
       <c r="I26">
-        <v>1115815.679170944</v>
+        <v>1115815.068717714</v>
       </c>
       <c r="J26">
-        <v>4842058.541718163</v>
+        <v>4842055.02502033</v>
       </c>
       <c r="K26">
-        <v>3987473.62915095</v>
+        <v>3987475.188471917</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116418.839700196</v>
+        <v>1116418.959993712</v>
       </c>
       <c r="G27">
-        <v>4841420.243464076</v>
+        <v>4841421.738745645</v>
       </c>
       <c r="H27">
-        <v>3986073.782769025</v>
+        <v>3986080.085579113</v>
       </c>
       <c r="I27">
-        <v>1115868.773326627</v>
+        <v>1115868.162844349</v>
       </c>
       <c r="J27">
-        <v>4842009.890100735</v>
+        <v>4842006.373438238</v>
       </c>
       <c r="K27">
-        <v>3987413.857387281</v>
+        <v>3987415.416684874</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.295431773</v>
+        <v>1116417.415725123</v>
       </c>
       <c r="G28">
-        <v>4841436.756277998</v>
+        <v>4841438.251564668</v>
       </c>
       <c r="H28">
-        <v>3986089.949971161</v>
+        <v>3986096.252806813</v>
       </c>
       <c r="I28">
-        <v>1115923.174877047</v>
+        <v>1115922.564365006</v>
       </c>
       <c r="J28">
-        <v>4841961.23848331</v>
+        <v>4841957.721856147</v>
       </c>
       <c r="K28">
-        <v>3987338.936988605</v>
+        <v>3987340.496256899</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116415.86822644</v>
+        <v>1116415.988519636</v>
       </c>
       <c r="G29">
-        <v>4841453.26909192</v>
+        <v>4841454.76438369</v>
       </c>
       <c r="H29">
-        <v>3986105.290282896</v>
+        <v>3986111.593142804</v>
       </c>
       <c r="I29">
-        <v>1115978.916015597</v>
+        <v>1115978.305473061</v>
       </c>
       <c r="J29">
-        <v>4841912.586865883</v>
+        <v>4841909.070274055</v>
       </c>
       <c r="K29">
-        <v>3987248.86795492</v>
+        <v>3987250.427187992</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116414.544015183</v>
+        <v>1116414.664308237</v>
       </c>
       <c r="G30">
-        <v>4841469.781905841</v>
+        <v>4841471.277202711</v>
       </c>
       <c r="H30">
-        <v>3986119.88418897</v>
+        <v>3986126.187071954</v>
       </c>
       <c r="I30">
-        <v>1116036.029728404</v>
+        <v>1116035.419154621</v>
       </c>
       <c r="J30">
-        <v>4841863.935248458</v>
+        <v>4841860.418691964</v>
       </c>
       <c r="K30">
-        <v>3987143.650286226</v>
+        <v>3987145.209478152</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116413.31098622</v>
+        <v>1116413.431279141</v>
       </c>
       <c r="G31">
-        <v>4841486.294719763</v>
+        <v>4841487.790021732</v>
       </c>
       <c r="H31">
-        <v>3986133.800966578</v>
+        <v>3986140.103871567</v>
       </c>
       <c r="I31">
-        <v>1116094.549813845</v>
+        <v>1116093.939208047</v>
       </c>
       <c r="J31">
-        <v>4841815.28363103</v>
+        <v>4841811.767109872</v>
       </c>
       <c r="K31">
-        <v>3987023.283982524</v>
+        <v>3987024.843127381</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.159140042</v>
+        <v>1116412.279432839</v>
       </c>
       <c r="G32">
-        <v>4841502.807533685</v>
+        <v>4841504.302840755</v>
       </c>
       <c r="H32">
-        <v>3986147.100674262</v>
+        <v>3986153.403600281</v>
       </c>
       <c r="I32">
-        <v>1116154.510902552</v>
+        <v>1116153.90026395</v>
       </c>
       <c r="J32">
-        <v>4841766.632013605</v>
+        <v>4841763.115527781</v>
       </c>
       <c r="K32">
-        <v>3986887.769043813</v>
+        <v>3986889.328135676</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.079947104</v>
+        <v>1116411.200239785</v>
       </c>
       <c r="G33">
-        <v>4841519.320347607</v>
+        <v>4841520.815659776</v>
       </c>
       <c r="H33">
-        <v>3986159.835718307</v>
+        <v>3986166.138664463</v>
       </c>
       <c r="I33">
-        <v>1116215.948477905</v>
+        <v>1116215.337805691</v>
       </c>
       <c r="J33">
-        <v>4841717.980396179</v>
+        <v>4841714.46394569</v>
       </c>
       <c r="K33">
-        <v>3986737.105470094</v>
+        <v>3986738.66450304</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.066081323</v>
+        <v>1116410.186373894</v>
       </c>
       <c r="G34">
-        <v>4841535.833161529</v>
+        <v>4841537.328478798</v>
       </c>
       <c r="H34">
-        <v>3986172.052099945</v>
+        <v>3986178.355065417</v>
       </c>
       <c r="I34">
-        <v>1116278.89889703</v>
+        <v>1116278.288190376</v>
       </c>
       <c r="J34">
-        <v>4841669.328778753</v>
+        <v>4841665.812363598</v>
       </c>
       <c r="K34">
-        <v>3986571.293261367</v>
+        <v>3986572.852229471</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.111210311</v>
+        <v>1116409.231502779</v>
       </c>
       <c r="G35">
-        <v>4841552.34597545</v>
+        <v>4841553.84129782</v>
       </c>
       <c r="H35">
-        <v>3986183.790418386</v>
+        <v>3986190.093402419</v>
       </c>
       <c r="I35">
-        <v>1116343.399412313</v>
+        <v>1116342.788670371</v>
       </c>
       <c r="J35">
-        <v>4841620.677161326</v>
+        <v>4841617.160781506</v>
       </c>
       <c r="K35">
-        <v>3986390.332417632</v>
+        <v>3986391.89131497</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.20982862</v>
+        <v>1116408.330120991</v>
       </c>
       <c r="G36">
-        <v>4841568.858789372</v>
+        <v>4841570.354116842</v>
       </c>
       <c r="H36">
-        <v>3986195.086684883</v>
+        <v>3986201.389686778</v>
       </c>
       <c r="I36">
-        <v>1116409.488193445</v>
+        <v>1116408.877415347</v>
       </c>
       <c r="J36">
-        <v>4841572.0255439</v>
+        <v>4841568.509199415</v>
       </c>
       <c r="K36">
-        <v>3986194.222938888</v>
+        <v>3986195.781759536</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116407.357123944</v>
+        <v>1116407.477416223</v>
       </c>
       <c r="G37">
-        <v>4841585.371603294</v>
+        <v>4841586.866935864</v>
       </c>
       <c r="H37">
-        <v>3986205.972988995</v>
+        <v>3986212.276008103</v>
       </c>
       <c r="I37">
-        <v>1116477.204350012</v>
+        <v>1116476.593534867</v>
       </c>
       <c r="J37">
-        <v>4841523.373926474</v>
+        <v>4841519.857617324</v>
       </c>
       <c r="K37">
-        <v>3985982.964825136</v>
+        <v>3985984.523563171</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116406.548868846</v>
+        <v>1116406.669161038</v>
       </c>
       <c r="G38">
-        <v>4841601.884417216</v>
+        <v>4841603.379754885</v>
       </c>
       <c r="H38">
-        <v>3986216.47804814</v>
+        <v>3986222.781083859</v>
       </c>
       <c r="I38">
-        <v>1116546.587954636</v>
+        <v>1116545.977101532</v>
       </c>
       <c r="J38">
-        <v>4841474.722309048</v>
+        <v>4841471.206035233</v>
       </c>
       <c r="K38">
-        <v>3985756.558076375</v>
+        <v>3985758.116725873</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116405.78133247</v>
+        <v>1116405.901624579</v>
       </c>
       <c r="G39">
-        <v>4841618.397231138</v>
+        <v>4841619.892573908</v>
       </c>
       <c r="H39">
-        <v>3986226.627664129</v>
+        <v>3986232.930715896</v>
       </c>
       <c r="I39">
-        <v>1116617.680066693</v>
+        <v>1116617.069174695</v>
       </c>
       <c r="J39">
-        <v>4841426.070691621</v>
+        <v>4841422.554453141</v>
       </c>
       <c r="K39">
-        <v>3985515.002692606</v>
+        <v>3985516.561247642</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.051207995</v>
+        <v>1116405.171500025</v>
       </c>
       <c r="G40">
-        <v>4841634.91004506</v>
+        <v>4841636.40539293</v>
       </c>
       <c r="H40">
-        <v>3986236.445104967</v>
+        <v>3986242.748172258</v>
       </c>
       <c r="I40">
-        <v>1116690.522756606</v>
+        <v>1116689.911824756</v>
       </c>
       <c r="J40">
-        <v>4841377.419074195</v>
+        <v>4841373.90287105</v>
       </c>
       <c r="K40">
-        <v>3985258.298673829</v>
+        <v>3985259.85712848</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116404.355552638</v>
+        <v>1116404.475844594</v>
       </c>
       <c r="G41">
-        <v>4841651.422858981</v>
+        <v>4841652.918211951</v>
       </c>
       <c r="H41">
-        <v>3986245.951426133</v>
+        <v>3986252.254508455</v>
       </c>
       <c r="I41">
-        <v>1116765.159130743</v>
+        <v>1116764.548158061</v>
       </c>
       <c r="J41">
-        <v>4841328.76745677</v>
+        <v>4841325.251288959</v>
       </c>
       <c r="K41">
-        <v>3984986.446020043</v>
+        <v>3984988.004368384</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116403.691737716</v>
+        <v>1116403.8120296</v>
       </c>
       <c r="G42">
-        <v>4841667.935672903</v>
+        <v>4841669.431030973</v>
       </c>
       <c r="H42">
-        <v>3986255.165742497</v>
+        <v>3986261.468839389</v>
       </c>
       <c r="I42">
-        <v>1116841.63335693</v>
+        <v>1116841.022342409</v>
       </c>
       <c r="J42">
-        <v>4841280.115839344</v>
+        <v>4841276.599706868</v>
       </c>
       <c r="K42">
-        <v>3984699.444731249</v>
+        <v>3984701.002967357</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.057406824</v>
+        <v>1116403.17769864</v>
       </c>
       <c r="G43">
-        <v>4841684.448486825</v>
+        <v>4841685.943849996</v>
       </c>
       <c r="H43">
-        <v>3986264.105459708</v>
+        <v>3986270.408570736</v>
       </c>
       <c r="I43">
-        <v>1116919.990690582</v>
+        <v>1116919.379633192</v>
       </c>
       <c r="J43">
-        <v>4841231.464221917</v>
+        <v>4841227.948124776</v>
       </c>
       <c r="K43">
-        <v>3984397.294807447</v>
+        <v>3984398.852925398</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116402.450440626</v>
+        <v>1116402.570732377</v>
       </c>
       <c r="G44">
-        <v>4841700.961300747</v>
+        <v>4841702.456669017</v>
       </c>
       <c r="H44">
-        <v>3986272.786472092</v>
+        <v>3986279.089596847</v>
       </c>
       <c r="I44">
-        <v>1117000.277501487</v>
+        <v>1116999.666400173</v>
       </c>
       <c r="J44">
-        <v>4841182.812604491</v>
+        <v>4841179.296542685</v>
       </c>
       <c r="K44">
-        <v>3984079.996248636</v>
+        <v>3984081.554242506</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116401.868927057</v>
+        <v>1116401.989218744</v>
       </c>
       <c r="G45">
-        <v>4841717.474114669</v>
+        <v>4841718.969488039</v>
       </c>
       <c r="H45">
-        <v>3986281.223332711</v>
+        <v>3986287.526470805</v>
       </c>
       <c r="I45">
-        <v>1117082.541301248</v>
+        <v>1117081.930154928</v>
       </c>
       <c r="J45">
-        <v>4841134.160987065</v>
+        <v>4841130.644960593</v>
       </c>
       <c r="K45">
-        <v>3983747.549054817</v>
+        <v>3983749.106918682</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116401.311135967</v>
+        <v>1116401.431427595</v>
       </c>
       <c r="G46">
-        <v>4841733.986928591</v>
+        <v>4841735.482307061</v>
       </c>
       <c r="H46">
-        <v>3986289.429400153</v>
+        <v>3986295.732551222</v>
       </c>
       <c r="I46">
-        <v>1117166.830771397</v>
+        <v>1117166.219578963</v>
       </c>
       <c r="J46">
-        <v>4841085.509369638</v>
+        <v>4841081.993378501</v>
       </c>
       <c r="K46">
-        <v>3983399.953225989</v>
+        <v>3983401.510953925</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116400.775497471</v>
+        <v>1116400.895789041</v>
       </c>
       <c r="G47">
-        <v>4841750.499742513</v>
+        <v>4841751.995126083</v>
       </c>
       <c r="H47">
-        <v>3986297.41696578</v>
+        <v>3986303.72012948</v>
       </c>
       <c r="I47">
-        <v>1117253.195792204</v>
+        <v>1117252.58455252</v>
       </c>
       <c r="J47">
-        <v>4841036.857752212</v>
+        <v>4841033.34179641</v>
       </c>
       <c r="K47">
-        <v>3983037.208762154</v>
+        <v>3983038.766348236</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.260583348</v>
+        <v>1116400.380874863</v>
       </c>
       <c r="G48">
-        <v>4841767.012556435</v>
+        <v>4841768.507945105</v>
       </c>
       <c r="H48">
-        <v>3986305.197364468</v>
+        <v>3986311.50054047</v>
       </c>
       <c r="I48">
-        <v>1117341.687472193</v>
+        <v>1117341.076184097</v>
       </c>
       <c r="J48">
-        <v>4840988.206134786</v>
+        <v>4840984.690214319</v>
       </c>
       <c r="K48">
-        <v>3982659.315663309</v>
+        <v>3982660.873101615</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116399.765091029</v>
+        <v>1116399.88538249</v>
       </c>
       <c r="G49">
-        <v>4841783.525370357</v>
+        <v>4841785.020764126</v>
       </c>
       <c r="H49">
-        <v>3986312.781071342</v>
+        <v>3986319.084259335</v>
       </c>
       <c r="I49">
-        <v>1117432.358178392</v>
+        <v>1117431.74684069</v>
       </c>
       <c r="J49">
-        <v>4840939.55451736</v>
+        <v>4840936.038632228</v>
       </c>
       <c r="K49">
-        <v>3982266.273929457</v>
+        <v>3982267.831214061</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.287829729</v>
+        <v>1116399.408121139</v>
       </c>
       <c r="G50">
-        <v>4841800.038184279</v>
+        <v>4841801.533583148</v>
       </c>
       <c r="H50">
-        <v>3986320.177786588</v>
+        <v>3986326.480986278</v>
       </c>
       <c r="I50">
-        <v>1117525.261567315</v>
+        <v>1117524.650178786</v>
       </c>
       <c r="J50">
-        <v>4840890.902899933</v>
+        <v>4840887.387050135</v>
       </c>
       <c r="K50">
-        <v>3981858.083560596</v>
+        <v>3981859.640685576</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116398.827708415</v>
+        <v>1116398.947999775</v>
       </c>
       <c r="G51">
-        <v>4841816.550998201</v>
+        <v>4841818.04640217</v>
       </c>
       <c r="H51">
-        <v>3986327.396510054</v>
+        <v>3986333.699721158</v>
       </c>
       <c r="I51">
-        <v>1117620.452616721</v>
+        <v>1117619.841176114</v>
       </c>
       <c r="J51">
-        <v>4840842.251282508</v>
+        <v>4840838.735468044</v>
       </c>
       <c r="K51">
-        <v>3981434.744556726</v>
+        <v>3981436.301516158</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116398.383725312</v>
+        <v>1116398.504016624</v>
       </c>
       <c r="G52">
-        <v>4841833.063812122</v>
+        <v>4841834.559221191</v>
       </c>
       <c r="H52">
-        <v>3986334.44560709</v>
+        <v>3986340.74882934</v>
       </c>
       <c r="I52">
-        <v>1117717.987658144</v>
+        <v>1117717.376164176</v>
       </c>
       <c r="J52">
-        <v>4840793.599665081</v>
+        <v>4840790.083885953</v>
       </c>
       <c r="K52">
-        <v>3980996.256917849</v>
+        <v>3980997.813705807</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116397.95495873</v>
+        <v>1116398.075249996</v>
       </c>
       <c r="G53">
-        <v>4841849.576626044</v>
+        <v>4841851.072040214</v>
       </c>
       <c r="H53">
-        <v>3986341.332866819</v>
+        <v>3986347.636099959</v>
       </c>
       <c r="I53">
-        <v>1117817.924410231</v>
+        <v>1117817.312861589</v>
       </c>
       <c r="J53">
-        <v>4840744.948047656</v>
+        <v>4840741.432303862</v>
       </c>
       <c r="K53">
-        <v>3980542.620643963</v>
+        <v>3980544.177254525</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116397.54055902</v>
+        <v>1116397.660850241</v>
       </c>
       <c r="G54">
-        <v>4841866.089439966</v>
+        <v>4841867.584859236</v>
       </c>
       <c r="H54">
-        <v>3986348.06555388</v>
+        <v>3986354.368797666</v>
       </c>
       <c r="I54">
-        <v>1117920.322012899</v>
+        <v>1117919.710408236</v>
       </c>
       <c r="J54">
-        <v>4840696.296430228</v>
+        <v>4840692.78072177</v>
       </c>
       <c r="K54">
-        <v>3980073.835735068</v>
+        <v>3980075.392162309</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,34 +2326,34 @@
         <v>954</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G55">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H55">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I55">
-        <v>1114860.701061803</v>
+        <v>1114861.667876628</v>
       </c>
       <c r="J55">
-        <v>4843219.18130656</v>
+        <v>4843225.121177611</v>
       </c>
       <c r="K55">
-        <v>3984364.706333394</v>
+        <v>3984363.226594211</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,34 +2361,34 @@
         <v>954</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G56">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H56">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I56">
-        <v>1114890.315040832</v>
+        <v>1114891.281881338</v>
       </c>
       <c r="J56">
-        <v>4843170.529759443</v>
+        <v>4843176.469570827</v>
       </c>
       <c r="K56">
-        <v>3984668.501897256</v>
+        <v>3984667.022045247</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,34 +2396,34 @@
         <v>954</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G57">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H57">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I57">
-        <v>1114920.65823685</v>
+        <v>1114921.62510367</v>
       </c>
       <c r="J57">
-        <v>4843121.878212325</v>
+        <v>4843127.817964042</v>
       </c>
       <c r="K57">
-        <v>3984957.148821755</v>
+        <v>3984955.668862547</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,34 +2431,34 @@
         <v>954</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G58">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H58">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I58">
-        <v>1114951.748606155</v>
+        <v>1114952.715499937</v>
       </c>
       <c r="J58">
-        <v>4843073.226665209</v>
+        <v>4843079.166357257</v>
       </c>
       <c r="K58">
-        <v>3985230.647106891</v>
+        <v>3985229.167046109</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,34 +2466,34 @@
         <v>954</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G59">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H59">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I59">
-        <v>1114983.604547201</v>
+        <v>1114984.571468608</v>
       </c>
       <c r="J59">
-        <v>4843024.575118092</v>
+        <v>4843030.514750472</v>
       </c>
       <c r="K59">
-        <v>3985488.996752664</v>
+        <v>3985487.516595935</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,34 +2501,34 @@
         <v>954</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G60">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H60">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I60">
-        <v>1115016.244911489</v>
+        <v>1115017.211861202</v>
       </c>
       <c r="J60">
-        <v>4842975.923570976</v>
+        <v>4842981.863143688</v>
       </c>
       <c r="K60">
-        <v>3985732.197759075</v>
+        <v>3985730.717512024</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,34 +2536,34 @@
         <v>954</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G61">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H61">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I61">
-        <v>1115049.689014719</v>
+        <v>1115050.655993435</v>
       </c>
       <c r="J61">
-        <v>4842927.272023858</v>
+        <v>4842933.211536903</v>
       </c>
       <c r="K61">
-        <v>3985960.250126122</v>
+        <v>3985958.769794375</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,34 +2571,34 @@
         <v>954</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G62">
-        <v>4841117.871422401</v>
+        <v>4841129.877924858</v>
       </c>
       <c r="H62">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I62">
-        <v>1115083.956648222</v>
+        <v>1115084.923656655</v>
       </c>
       <c r="J62">
-        <v>4842878.620476741</v>
+        <v>4842884.559930119</v>
       </c>
       <c r="K62">
-        <v>3986173.153853805</v>
+        <v>3986171.673442989</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,34 +2606,34 @@
         <v>954</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>1116577.033480095</v>
+        <v>1116578.490577949</v>
       </c>
       <c r="G63">
-        <v>4841134.384218786</v>
+        <v>4841146.390762197</v>
       </c>
       <c r="H63">
-        <v>3985220.351469793</v>
+        <v>3985232.316566335</v>
       </c>
       <c r="I63">
-        <v>1115119.068090675</v>
+        <v>1115120.035129558</v>
       </c>
       <c r="J63">
-        <v>4842829.968929625</v>
+        <v>4842835.908323335</v>
       </c>
       <c r="K63">
-        <v>3986370.908942126</v>
+        <v>3986369.428457866</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,34 +2641,34 @@
         <v>954</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>1116528.35298043</v>
+        <v>1116529.810014758</v>
       </c>
       <c r="G64">
-        <v>4841150.89701517</v>
+        <v>4841162.903599534</v>
       </c>
       <c r="H64">
-        <v>3985419.605477738</v>
+        <v>3985431.571172513</v>
       </c>
       <c r="I64">
-        <v>1115155.044120097</v>
+        <v>1115156.011190178</v>
       </c>
       <c r="J64">
-        <v>4842781.317382508</v>
+        <v>4842787.25671655</v>
       </c>
       <c r="K64">
-        <v>3986553.515391084</v>
+        <v>3986552.034839007</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,34 +2676,34 @@
         <v>954</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>1116499.755628954</v>
+        <v>1116501.212625964</v>
       </c>
       <c r="G65">
-        <v>4841167.409811555</v>
+        <v>4841179.416436873</v>
       </c>
       <c r="H65">
-        <v>3985538.291355107</v>
+        <v>3985550.25740622</v>
       </c>
       <c r="I65">
-        <v>1115191.906026146</v>
+        <v>1115192.873128193</v>
       </c>
       <c r="J65">
-        <v>4842732.665835391</v>
+        <v>4842738.605109764</v>
       </c>
       <c r="K65">
-        <v>3986720.973200679</v>
+        <v>3986719.49258641</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,34 +2711,34 @@
         <v>954</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>1116481.702882695</v>
+        <v>1116483.159856146</v>
       </c>
       <c r="G66">
-        <v>4841183.922607941</v>
+        <v>4841195.929274212</v>
       </c>
       <c r="H66">
-        <v>3985623.10812999</v>
+        <v>3985635.074435754</v>
       </c>
       <c r="I66">
-        <v>1115229.675622719</v>
+        <v>1115230.64275752</v>
       </c>
       <c r="J66">
-        <v>4842684.014288274</v>
+        <v>4842689.95350298</v>
       </c>
       <c r="K66">
-        <v>3986873.282370911</v>
+        <v>3986871.801700076</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,34 +2746,34 @@
         <v>954</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>1116469.112970734</v>
+        <v>1116470.569927756</v>
       </c>
       <c r="G67">
-        <v>4841200.435404325</v>
+        <v>4841212.44211155</v>
       </c>
       <c r="H67">
-        <v>3985689.154907151</v>
+        <v>3985701.121411212</v>
       </c>
       <c r="I67">
-        <v>1115268.37526086</v>
+        <v>1115269.342429222</v>
       </c>
       <c r="J67">
-        <v>4842635.362741157</v>
+        <v>4842641.301896196</v>
       </c>
       <c r="K67">
-        <v>3987010.442901779</v>
+        <v>3987008.962180005</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,34 +2781,34 @@
         <v>954</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>1116459.720519387</v>
+        <v>1116461.177464152</v>
       </c>
       <c r="G68">
-        <v>4841216.948200709</v>
+        <v>4841228.954948888</v>
       </c>
       <c r="H68">
-        <v>3985743.252340701</v>
+        <v>3985755.219007182</v>
       </c>
       <c r="I68">
-        <v>1115308.027841987</v>
+        <v>1115308.995044736</v>
       </c>
       <c r="J68">
-        <v>4842586.71119404</v>
+        <v>4842592.650289412</v>
       </c>
       <c r="K68">
-        <v>3987132.454793285</v>
+        <v>3987130.974026198</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,34 +2816,34 @@
         <v>954</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>1116452.37693405</v>
+        <v>1116453.833869232</v>
       </c>
       <c r="G69">
-        <v>4841233.460997093</v>
+        <v>4841245.467786226</v>
       </c>
       <c r="H69">
-        <v>3985789.068917996</v>
+        <v>3985801.035722036</v>
       </c>
       <c r="I69">
-        <v>1115348.656831445</v>
+        <v>1115349.624069428</v>
       </c>
       <c r="J69">
-        <v>4842538.059646923</v>
+        <v>4842543.998682627</v>
       </c>
       <c r="K69">
-        <v>3987239.318045428</v>
+        <v>3987237.837238653</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,34 +2851,34 @@
         <v>954</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>1116446.435438809</v>
+        <v>1116447.892366237</v>
       </c>
       <c r="G70">
-        <v>4841249.973793479</v>
+        <v>4841261.980623565</v>
       </c>
       <c r="H70">
-        <v>3985828.806454358</v>
+        <v>3985840.773377704</v>
       </c>
       <c r="I70">
-        <v>1115390.28627239</v>
+        <v>1115391.253546474</v>
       </c>
       <c r="J70">
-        <v>4842489.408099807</v>
+        <v>4842495.347075842</v>
       </c>
       <c r="K70">
-        <v>3987331.032658207</v>
+        <v>3987329.55181737</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,34 +2886,34 @@
         <v>954</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>1116441.501880685</v>
+        <v>1116442.958801675</v>
       </c>
       <c r="G71">
-        <v>4841266.486589864</v>
+        <v>4841278.493460904</v>
       </c>
       <c r="H71">
-        <v>3985863.890766789</v>
+        <v>3985875.857795471</v>
       </c>
       <c r="I71">
-        <v>1115432.94080002</v>
+        <v>1115433.908111094</v>
       </c>
       <c r="J71">
-        <v>4842440.75655269</v>
+        <v>4842446.695469057</v>
       </c>
       <c r="K71">
-        <v>3987407.598631624</v>
+        <v>3987406.117762351</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,34 +2921,34 @@
         <v>954</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>1116437.321061379</v>
+        <v>1116438.777976913</v>
       </c>
       <c r="G72">
-        <v>4841282.999386248</v>
+        <v>4841295.006298241</v>
       </c>
       <c r="H72">
-        <v>3985895.298286392</v>
+        <v>3985907.265409371</v>
       </c>
       <c r="I72">
-        <v>1115476.645656151</v>
+        <v>1115477.613005127</v>
       </c>
       <c r="J72">
-        <v>4842392.105005573</v>
+        <v>4842398.043862273</v>
       </c>
       <c r="K72">
-        <v>3987469.015965677</v>
+        <v>3987467.535073596</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,34 +2956,34 @@
         <v>954</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>1116433.719693429</v>
+        <v>1116435.176604264</v>
       </c>
       <c r="G73">
-        <v>4841299.512182633</v>
+        <v>4841311.51913558</v>
       </c>
       <c r="H73">
-        <v>3985923.727079853</v>
+        <v>3985935.694288186</v>
       </c>
       <c r="I73">
-        <v>1115521.426704158</v>
+        <v>1115522.394091968</v>
       </c>
       <c r="J73">
-        <v>4842343.453458455</v>
+        <v>4842349.392255488</v>
       </c>
       <c r="K73">
-        <v>3987515.284660368</v>
+        <v>3987513.803751102</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,34 +2991,34 @@
         <v>954</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>1116430.57551312</v>
+        <v>1116432.032419852</v>
       </c>
       <c r="G74">
-        <v>4841316.024979019</v>
+        <v>4841328.031972919</v>
       </c>
       <c r="H74">
-        <v>3985949.69353662</v>
+        <v>3985961.660822914</v>
       </c>
       <c r="I74">
-        <v>1115567.310444273</v>
+        <v>1115568.277871874</v>
       </c>
       <c r="J74">
-        <v>4842294.801911339</v>
+        <v>4842300.740648704</v>
       </c>
       <c r="K74">
-        <v>3987546.404715695</v>
+        <v>3987544.923794872</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,34 +3026,34 @@
         <v>954</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>1116427.799499078</v>
+        <v>1116429.256402188</v>
       </c>
       <c r="G75">
-        <v>4841332.537775403</v>
+        <v>4841344.544810257</v>
       </c>
       <c r="H75">
-        <v>3985973.590410673</v>
+        <v>3985985.557768714</v>
       </c>
       <c r="I75">
-        <v>1115614.324029277</v>
+        <v>1115615.291497648</v>
       </c>
       <c r="J75">
-        <v>4842246.150364222</v>
+        <v>4842252.089041919</v>
       </c>
       <c r="K75">
-        <v>3987562.37613166</v>
+        <v>3987560.895204905</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,34 +3061,34 @@
         <v>954</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>1116425.325107502</v>
+        <v>1116426.782007382</v>
       </c>
       <c r="G76">
-        <v>4841349.050571788</v>
+        <v>4841361.057647595</v>
       </c>
       <c r="H76">
-        <v>3985995.723388199</v>
+        <v>3986007.690812691</v>
       </c>
       <c r="I76">
-        <v>1115662.495280559</v>
+        <v>1115663.462790705</v>
       </c>
       <c r="J76">
-        <v>4842197.498817106</v>
+        <v>4842203.437435134</v>
       </c>
       <c r="K76">
-        <v>3987563.198908261</v>
+        <v>3987561.717981201</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,34 +3096,34 @@
         <v>954</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>1116423.101475892</v>
+        <v>1116424.558372871</v>
       </c>
       <c r="G77">
-        <v>4841365.563368173</v>
+        <v>4841377.570484934</v>
       </c>
       <c r="H77">
-        <v>3986016.335061654</v>
+        <v>3986028.30254803</v>
       </c>
       <c r="I77">
-        <v>1115711.852704588</v>
+        <v>1115712.820257536</v>
       </c>
       <c r="J77">
-        <v>4842148.847269989</v>
+        <v>4842154.785828349</v>
       </c>
       <c r="K77">
-        <v>3987548.873045499</v>
+        <v>3987547.392123759</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,34 +3131,34 @@
         <v>954</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>1116421.088977137</v>
+        <v>1116422.545871489</v>
       </c>
       <c r="G78">
-        <v>4841382.076164558</v>
+        <v>4841394.083322272</v>
       </c>
       <c r="H78">
-        <v>3986035.621181058</v>
+        <v>3986047.588725338</v>
       </c>
       <c r="I78">
-        <v>1115762.425509775</v>
+        <v>1115763.393106581</v>
       </c>
       <c r="J78">
-        <v>4842100.195722871</v>
+        <v>4842106.134221565</v>
       </c>
       <c r="K78">
-        <v>3987519.398543375</v>
+        <v>3987517.917632581</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,34 +3166,34 @@
         <v>954</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>1116419.256221243</v>
+        <v>1116420.713113204</v>
       </c>
       <c r="G79">
-        <v>4841398.588960943</v>
+        <v>4841410.596159611</v>
       </c>
       <c r="H79">
-        <v>3986053.741987964</v>
+        <v>3986065.70958665</v>
       </c>
       <c r="I79">
-        <v>1115814.243623764</v>
+        <v>1115815.211265507</v>
       </c>
       <c r="J79">
-        <v>4842051.544175755</v>
+        <v>4842057.482614781</v>
       </c>
       <c r="K79">
-        <v>3987474.775401887</v>
+        <v>3987473.294507666</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,34 +3201,34 @@
         <v>954</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>1116417.577979329</v>
+        <v>1116419.034869099</v>
       </c>
       <c r="G80">
-        <v>4841415.101757327</v>
+        <v>4841427.108996948</v>
       </c>
       <c r="H80">
-        <v>3986070.830316138</v>
+        <v>3986082.797966129</v>
       </c>
       <c r="I80">
-        <v>1115867.337711138</v>
+        <v>1115868.305398924</v>
       </c>
       <c r="J80">
-        <v>4842002.892628637</v>
+        <v>4842008.831007996</v>
       </c>
       <c r="K80">
-        <v>3987415.003621036</v>
+        <v>3987413.522749014</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,34 +3236,34 @@
         <v>954</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>1116416.033712651</v>
+        <v>1116417.490600406</v>
       </c>
       <c r="G81">
-        <v>4841431.614553712</v>
+        <v>4841443.621834287</v>
       </c>
       <c r="H81">
-        <v>3986086.997506298</v>
+        <v>3986098.965204829</v>
       </c>
       <c r="I81">
-        <v>1115921.739191568</v>
+        <v>1115922.706926532</v>
       </c>
       <c r="J81">
-        <v>4841954.241081521</v>
+        <v>4841960.179401211</v>
       </c>
       <c r="K81">
-        <v>3987340.083200822</v>
+        <v>3987338.602356624</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,34 +3271,34 @@
         <v>954</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>1116414.606508931</v>
+        <v>1116416.063394824</v>
       </c>
       <c r="G82">
-        <v>4841448.127350098</v>
+        <v>4841460.134671626</v>
       </c>
       <c r="H82">
-        <v>3986102.33780667</v>
+        <v>3986114.305551259</v>
       </c>
       <c r="I82">
-        <v>1115977.480258405</v>
+        <v>1115978.448041708</v>
       </c>
       <c r="J82">
-        <v>4841905.589534404</v>
+        <v>4841911.527794426</v>
       </c>
       <c r="K82">
-        <v>3987250.014141246</v>
+        <v>3987248.533330498</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,34 +3306,34 @@
         <v>954</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>1116413.282299171</v>
+        <v>1116414.739183336</v>
       </c>
       <c r="G83">
-        <v>4841464.640146482</v>
+        <v>4841476.647508964</v>
       </c>
       <c r="H83">
-        <v>3986116.931701936</v>
+        <v>3986128.89949034</v>
       </c>
       <c r="I83">
-        <v>1116034.593897732</v>
+        <v>1116035.561730564</v>
       </c>
       <c r="J83">
-        <v>4841856.937987288</v>
+        <v>4841862.876187642</v>
       </c>
       <c r="K83">
-        <v>3987144.796442306</v>
+        <v>3987143.315670635</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,34 +3341,34 @@
         <v>954</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>1116412.049271602</v>
+        <v>1116413.506154157</v>
       </c>
       <c r="G84">
-        <v>4841481.152942867</v>
+        <v>4841493.160346302</v>
       </c>
       <c r="H84">
-        <v>3986130.848469235</v>
+        <v>3986142.816299423</v>
       </c>
       <c r="I84">
-        <v>1116093.113907884</v>
+        <v>1116094.081791465</v>
       </c>
       <c r="J84">
-        <v>4841808.28644017</v>
+        <v>4841814.224580857</v>
       </c>
       <c r="K84">
-        <v>3987024.430104003</v>
+        <v>3987022.949377034</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,34 +3376,34 @@
         <v>954</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>1116410.897426726</v>
+        <v>1116412.354307778</v>
       </c>
       <c r="G85">
-        <v>4841497.665739252</v>
+        <v>4841509.673183641</v>
       </c>
       <c r="H85">
-        <v>3986144.148167069</v>
+        <v>3986156.116037187</v>
       </c>
       <c r="I85">
-        <v>1116153.074919449</v>
+        <v>1116154.042855029</v>
       </c>
       <c r="J85">
-        <v>4841759.634893053</v>
+        <v>4841765.572974073</v>
       </c>
       <c r="K85">
-        <v>3986888.915126337</v>
+        <v>3986887.434449697</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,34 +3411,34 @@
         <v>954</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>1116409.818235007</v>
+        <v>1116411.275114652</v>
       </c>
       <c r="G86">
-        <v>4841514.178535637</v>
+        <v>4841526.186020979</v>
       </c>
       <c r="H86">
-        <v>3986156.883201681</v>
+        <v>3986168.851110034</v>
       </c>
       <c r="I86">
-        <v>1116214.51241576</v>
+        <v>1116215.480404619</v>
       </c>
       <c r="J86">
-        <v>4841710.983345937</v>
+        <v>4841716.921367289</v>
       </c>
       <c r="K86">
-        <v>3986738.251509308</v>
+        <v>3986736.770888622</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,34 +3446,34 @@
         <v>954</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>1116408.804370371</v>
+        <v>1116410.261248693</v>
       </c>
       <c r="G87">
-        <v>4841530.691332022</v>
+        <v>4841542.698858318</v>
       </c>
       <c r="H87">
-        <v>3986169.09957427</v>
+        <v>3986181.067519301</v>
       </c>
       <c r="I87">
-        <v>1116277.462753897</v>
+        <v>1116278.430797346</v>
       </c>
       <c r="J87">
-        <v>4841662.33179882</v>
+        <v>4841668.269760504</v>
       </c>
       <c r="K87">
-        <v>3986572.439252916</v>
+        <v>3986570.95869381</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,34 +3481,34 @@
         <v>954</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>1116407.849500439</v>
+        <v>1116409.306377514</v>
       </c>
       <c r="G88">
-        <v>4841547.204128406</v>
+        <v>4841559.211695655</v>
       </c>
       <c r="H88">
-        <v>3986180.837884017</v>
+        <v>3986192.805864291</v>
       </c>
       <c r="I88">
-        <v>1116341.963186196</v>
+        <v>1116342.931285581</v>
       </c>
       <c r="J88">
-        <v>4841613.680251703</v>
+        <v>4841619.618153718</v>
       </c>
       <c r="K88">
-        <v>3986391.47835716</v>
+        <v>3986389.997865262</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,34 +3516,34 @@
         <v>954</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>1116406.948119767</v>
+        <v>1116408.404995666</v>
       </c>
       <c r="G89">
-        <v>4841563.716924791</v>
+        <v>4841575.724532994</v>
       </c>
       <c r="H89">
-        <v>3986192.134142146</v>
+        <v>3986204.102156336</v>
       </c>
       <c r="I89">
-        <v>1116408.051882302</v>
+        <v>1116409.020039</v>
       </c>
       <c r="J89">
-        <v>4841565.028704586</v>
+        <v>4841570.966546934</v>
       </c>
       <c r="K89">
-        <v>3986195.368822043</v>
+        <v>3986193.888402977</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,34 +3551,34 @@
         <v>954</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>1116406.095416054</v>
+        <v>1116407.55229084</v>
       </c>
       <c r="G90">
-        <v>4841580.229721176</v>
+        <v>4841592.237370333</v>
       </c>
       <c r="H90">
-        <v>3986203.020438195</v>
+        <v>3986214.988485069</v>
       </c>
       <c r="I90">
-        <v>1116475.767951749</v>
+        <v>1116476.73616717</v>
       </c>
       <c r="J90">
-        <v>4841516.377157469</v>
+        <v>4841522.31494015</v>
       </c>
       <c r="K90">
-        <v>3985984.110647561</v>
+        <v>3985982.630306954</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,34 +3586,34 @@
         <v>954</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>1116405.28716187</v>
+        <v>1116406.744035601</v>
       </c>
       <c r="G91">
-        <v>4841596.74251756</v>
+        <v>4841608.750207671</v>
       </c>
       <c r="H91">
-        <v>3986213.525489559</v>
+        <v>3986225.493567973</v>
       </c>
       <c r="I91">
-        <v>1116545.151467109</v>
+        <v>1116546.1197427</v>
       </c>
       <c r="J91">
-        <v>4841467.725610352</v>
+        <v>4841473.663333366</v>
       </c>
       <c r="K91">
-        <v>3985757.703833717</v>
+        <v>3985756.223577194</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,34 +3621,34 @@
         <v>954</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>1116404.519626361</v>
+        <v>1116405.976499091</v>
       </c>
       <c r="G92">
-        <v>4841613.255313945</v>
+        <v>4841625.263045009</v>
       </c>
       <c r="H92">
-        <v>3986223.67509803</v>
+        <v>3986235.643206918</v>
       </c>
       <c r="I92">
-        <v>1116616.243487702</v>
+        <v>1116617.211824945</v>
       </c>
       <c r="J92">
-        <v>4841419.074063235</v>
+        <v>4841425.011726581</v>
       </c>
       <c r="K92">
-        <v>3985516.14838051</v>
+        <v>3985514.668213697</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,34 +3656,34 @@
         <v>954</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>1116403.789502711</v>
+        <v>1116405.246374488</v>
       </c>
       <c r="G93">
-        <v>4841629.76811033</v>
+        <v>4841641.775882348</v>
       </c>
       <c r="H93">
-        <v>3986233.492531597</v>
+        <v>3986245.46066996</v>
       </c>
       <c r="I93">
-        <v>1116689.086083899</v>
+        <v>1116690.054484312</v>
       </c>
       <c r="J93">
-        <v>4841370.422516119</v>
+        <v>4841376.360119796</v>
       </c>
       <c r="K93">
-        <v>3985259.44428794</v>
+        <v>3985257.964216463</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,34 +3691,34 @@
         <v>954</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>1116403.093848141</v>
+        <v>1116404.55071901</v>
       </c>
       <c r="G94">
-        <v>4841646.280906714</v>
+        <v>4841658.288719686</v>
       </c>
       <c r="H94">
-        <v>3986242.998845721</v>
+        <v>3986254.967012626</v>
       </c>
       <c r="I94">
-        <v>1116763.722362014</v>
+        <v>1116764.690827152</v>
       </c>
       <c r="J94">
-        <v>4841321.770969002</v>
+        <v>4841327.708513011</v>
       </c>
       <c r="K94">
-        <v>3984987.591556007</v>
+        <v>3984986.111585492</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,34 +3726,34 @@
         <v>954</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>1116402.430033969</v>
+        <v>1116403.886903972</v>
       </c>
       <c r="G95">
-        <v>4841662.7937031</v>
+        <v>4841674.801557024</v>
       </c>
       <c r="H95">
-        <v>3986252.21315526</v>
+        <v>3986264.181349829</v>
       </c>
       <c r="I95">
-        <v>1116840.196489813</v>
+        <v>1116841.165021269</v>
       </c>
       <c r="J95">
-        <v>4841273.119421885</v>
+        <v>4841279.056906227</v>
       </c>
       <c r="K95">
-        <v>3984700.59018471</v>
+        <v>3984699.110320785</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,34 +3761,34 @@
         <v>954</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>1116401.795703793</v>
+        <v>1116403.252572968</v>
       </c>
       <c r="G96">
-        <v>4841679.306499485</v>
+        <v>4841691.314394363</v>
       </c>
       <c r="H96">
-        <v>3986261.15286585</v>
+        <v>3986273.12108726</v>
       </c>
       <c r="I96">
-        <v>1116918.553722654</v>
+        <v>1116919.522322063</v>
       </c>
       <c r="J96">
-        <v>4841224.467874767</v>
+        <v>4841230.405299442</v>
       </c>
       <c r="K96">
-        <v>3984398.440174052</v>
+        <v>3984396.96042234</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,34 +3796,34 @@
         <v>954</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>1116401.188738282</v>
+        <v>1116402.645606665</v>
       </c>
       <c r="G97">
-        <v>4841695.819295869</v>
+        <v>4841707.827231701</v>
       </c>
       <c r="H97">
-        <v>3986269.833871804</v>
+        <v>3986281.802119277</v>
       </c>
       <c r="I97">
-        <v>1116998.840430267</v>
+        <v>1116999.8090993</v>
       </c>
       <c r="J97">
-        <v>4841175.816327651</v>
+        <v>4841181.753692658</v>
       </c>
       <c r="K97">
-        <v>3984081.141524029</v>
+        <v>3984079.661890157</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,34 +3831,34 @@
         <v>954</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>1116400.60722537</v>
+        <v>1116402.064092994</v>
       </c>
       <c r="G98">
-        <v>4841712.332092254</v>
+        <v>4841724.34006904</v>
       </c>
       <c r="H98">
-        <v>3986278.270726173</v>
+        <v>3986290.238998977</v>
       </c>
       <c r="I98">
-        <v>1117081.104124192</v>
+        <v>1117082.072864565</v>
       </c>
       <c r="J98">
-        <v>4841127.164780534</v>
+        <v>4841133.102085873</v>
       </c>
       <c r="K98">
-        <v>3983748.694234644</v>
+        <v>3983747.214724239</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,34 +3866,34 @@
         <v>954</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>1116400.049434911</v>
+        <v>1116401.506301807</v>
       </c>
       <c r="G99">
-        <v>4841728.844888639</v>
+        <v>4841740.852906377</v>
       </c>
       <c r="H99">
-        <v>3986286.476787537</v>
+        <v>3986298.445084978</v>
       </c>
       <c r="I99">
-        <v>1117165.393485899</v>
+        <v>1117166.362299368</v>
       </c>
       <c r="J99">
-        <v>4841078.513233417</v>
+        <v>4841084.450479087</v>
       </c>
       <c r="K99">
-        <v>3983401.098305895</v>
+        <v>3983399.618924583</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,34 +3901,34 @@
         <v>954</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>1116399.51379702</v>
+        <v>1116400.970663217</v>
       </c>
       <c r="G100">
-        <v>4841745.357685024</v>
+        <v>4841757.365743716</v>
       </c>
       <c r="H100">
-        <v>3986294.464347248</v>
+        <v>3986306.432668671</v>
       </c>
       <c r="I100">
-        <v>1117251.758395593</v>
+        <v>1117252.727283958</v>
       </c>
       <c r="J100">
-        <v>4841029.8616863</v>
+        <v>4841035.798872303</v>
       </c>
       <c r="K100">
-        <v>3983038.353737784</v>
+        <v>3983036.87449119</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,34 +3936,34 @@
         <v>954</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>1116398.998883479</v>
+        <v>1116400.455749004</v>
       </c>
       <c r="G101">
-        <v>4841761.870481409</v>
+        <v>4841773.878581055</v>
       </c>
       <c r="H101">
-        <v>3986302.244740173</v>
+        <v>3986314.213084955</v>
       </c>
       <c r="I101">
-        <v>1117340.249961734</v>
+        <v>1117341.21892684</v>
       </c>
       <c r="J101">
-        <v>4840981.210139183</v>
+        <v>4840987.147265519</v>
       </c>
       <c r="K101">
-        <v>3982660.460530309</v>
+        <v>3982658.98142406</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,34 +3971,34 @@
         <v>954</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>1116398.503391719</v>
+        <v>1116399.960256598</v>
       </c>
       <c r="G102">
-        <v>4841778.383277793</v>
+        <v>4841790.391418393</v>
       </c>
       <c r="H102">
-        <v>3986309.82844143</v>
+        <v>3986321.796808981</v>
       </c>
       <c r="I102">
-        <v>1117430.92055128</v>
+        <v>1117431.889595017</v>
       </c>
       <c r="J102">
-        <v>4840932.558592067</v>
+        <v>4840938.495658735</v>
       </c>
       <c r="K102">
-        <v>3982267.418683472</v>
+        <v>3982265.939723193</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,34 +4006,34 @@
         <v>954</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>1116398.026130959</v>
+        <v>1116399.482995215</v>
       </c>
       <c r="G103">
-        <v>4841794.896074179</v>
+        <v>4841806.904255731</v>
       </c>
       <c r="H103">
-        <v>3986317.225151198</v>
+        <v>3986329.193540956</v>
       </c>
       <c r="I103">
-        <v>1117523.823820679</v>
+        <v>1117524.792944982</v>
       </c>
       <c r="J103">
-        <v>4840883.907044949</v>
+        <v>4840889.84405195</v>
       </c>
       <c r="K103">
-        <v>3981859.228197271</v>
+        <v>3981857.749388589</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,34 +4041,34 @@
         <v>954</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>1116397.566010165</v>
+        <v>1116399.02287382</v>
       </c>
       <c r="G104">
-        <v>4841811.408870564</v>
+        <v>4841823.41709307</v>
       </c>
       <c r="H104">
-        <v>3986324.443869317</v>
+        <v>3986336.412280749</v>
       </c>
       <c r="I104">
-        <v>1117619.014747617</v>
+        <v>1117619.98395447</v>
       </c>
       <c r="J104">
-        <v>4840835.255497833</v>
+        <v>4840841.192445165</v>
       </c>
       <c r="K104">
-        <v>3981435.889071708</v>
+        <v>3981434.410420247</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,34 +4076,34 @@
         <v>954</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>1116397.122027563</v>
+        <v>1116398.578890639</v>
       </c>
       <c r="G105">
-        <v>4841827.921666948</v>
+        <v>4841839.929930408</v>
       </c>
       <c r="H105">
-        <v>3986331.492961132</v>
+        <v>3986343.461393727</v>
       </c>
       <c r="I105">
-        <v>1117716.549663557</v>
+        <v>1117717.518954993</v>
       </c>
       <c r="J105">
-        <v>4840786.603950716</v>
+        <v>4840792.54083838</v>
       </c>
       <c r="K105">
-        <v>3980997.401306781</v>
+        <v>3980995.922818169</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,34 +4111,34 @@
         <v>954</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>1116396.693261466</v>
+        <v>1116398.150123983</v>
       </c>
       <c r="G106">
-        <v>4841844.434463333</v>
+        <v>4841856.442767747</v>
       </c>
       <c r="H106">
-        <v>3986338.380215759</v>
+        <v>3986350.348669033</v>
       </c>
       <c r="I106">
-        <v>1117816.486287072</v>
+        <v>1117817.455665173</v>
       </c>
       <c r="J106">
-        <v>4840737.952403599</v>
+        <v>4840743.889231596</v>
       </c>
       <c r="K106">
-        <v>3980543.764902491</v>
+        <v>3980542.286582354</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,34 +4146,34 @@
         <v>954</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>1116396.278862224</v>
+        <v>1116397.7357242</v>
       </c>
       <c r="G107">
-        <v>4841860.947259719</v>
+        <v>4841872.955605085</v>
       </c>
       <c r="H107">
-        <v>3986345.112897833</v>
+        <v>3986357.081371321</v>
       </c>
       <c r="I107">
-        <v>1117918.883758</v>
+        <v>1117919.853224902</v>
       </c>
       <c r="J107">
-        <v>4840689.300856482</v>
+        <v>4840695.237624811</v>
       </c>
       <c r="K107">
-        <v>3980074.979858838</v>
+        <v>3980073.501712802</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4187,34 +4181,34 @@
         <v>954</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G108">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H108">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I108">
-        <v>1114861.068394904</v>
+        <v>1114862.200041126</v>
       </c>
       <c r="J108">
-        <v>4843219.465860313</v>
+        <v>4843220.111703601</v>
       </c>
       <c r="K108">
-        <v>3984370.288733867</v>
+        <v>3984359.934393932</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4222,34 +4216,34 @@
         <v>954</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G109">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H109">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I109">
-        <v>1114890.68238369</v>
+        <v>1114891.814059973</v>
       </c>
       <c r="J109">
-        <v>4843170.814310337</v>
+        <v>4843171.460147138</v>
       </c>
       <c r="K109">
-        <v>3984674.08472337</v>
+        <v>3984663.729593948</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4257,34 +4251,34 @@
         <v>954</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G110">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H110">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I110">
-        <v>1114921.025589706</v>
+        <v>1114922.157296788</v>
       </c>
       <c r="J110">
-        <v>4843122.162760362</v>
+        <v>4843122.808590674</v>
       </c>
       <c r="K110">
-        <v>3984962.732052286</v>
+        <v>3984952.376172744</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4292,34 +4286,34 @@
         <v>954</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G111">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H111">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I111">
-        <v>1114952.115969255</v>
+        <v>1114953.247707896</v>
       </c>
       <c r="J111">
-        <v>4843073.511210387</v>
+        <v>4843074.157034212</v>
       </c>
       <c r="K111">
-        <v>3985236.230720614</v>
+        <v>3985225.87413032</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4327,34 +4321,34 @@
         <v>954</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G112">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H112">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I112">
-        <v>1114983.971920798</v>
+        <v>1114985.103691773</v>
       </c>
       <c r="J112">
-        <v>4843024.859660411</v>
+        <v>4843025.505477749</v>
       </c>
       <c r="K112">
-        <v>3985494.580728354</v>
+        <v>3985484.223466677</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4362,34 +4356,34 @@
         <v>954</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G113">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H113">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I113">
-        <v>1115016.61229584</v>
+        <v>1115017.744099948</v>
       </c>
       <c r="J113">
-        <v>4842976.208110437</v>
+        <v>4842976.853921286</v>
       </c>
       <c r="K113">
-        <v>3985737.782075508</v>
+        <v>3985727.424181813</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4397,34 +4391,34 @@
         <v>954</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G114">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H114">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I114">
-        <v>1115050.056410089</v>
+        <v>1115051.188248144</v>
       </c>
       <c r="J114">
-        <v>4842927.55656046</v>
+        <v>4842928.202364822</v>
       </c>
       <c r="K114">
-        <v>3985965.834762073</v>
+        <v>3985955.476275729</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4432,34 +4426,34 @@
         <v>954</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G115">
-        <v>4841131.573305531</v>
+        <v>4841117.128783747</v>
       </c>
       <c r="H115">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I115">
-        <v>1115084.324054883</v>
+        <v>1115085.455927722</v>
       </c>
       <c r="J115">
-        <v>4842878.905010485</v>
+        <v>4842879.55080836</v>
       </c>
       <c r="K115">
-        <v>3986178.738788052</v>
+        <v>3986168.379748426</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4467,34 +4461,34 @@
         <v>954</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>1116580.155809819</v>
+        <v>1116578.279090621</v>
       </c>
       <c r="G116">
-        <v>4841148.086148652</v>
+        <v>4841133.641577599</v>
       </c>
       <c r="H116">
-        <v>3985227.691774765</v>
+        <v>3985223.999782104</v>
       </c>
       <c r="I116">
-        <v>1115119.435508905</v>
+        <v>1115120.567417384</v>
       </c>
       <c r="J116">
-        <v>4842830.253460511</v>
+        <v>4842830.899251897</v>
       </c>
       <c r="K116">
-        <v>3986376.494153442</v>
+        <v>3986366.134599902</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4502,34 +4496,34 @@
         <v>954</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>1116531.475174026</v>
+        <v>1116529.59853665</v>
       </c>
       <c r="G117">
-        <v>4841164.598991773</v>
+        <v>4841150.15437145</v>
       </c>
       <c r="H117">
-        <v>3985426.946149712</v>
+        <v>3985423.253972458</v>
       </c>
       <c r="I117">
-        <v>1115155.411550181</v>
+        <v>1115156.543495177</v>
       </c>
       <c r="J117">
-        <v>4842781.601910535</v>
+        <v>4842782.247695434</v>
       </c>
       <c r="K117">
-        <v>3986559.100858246</v>
+        <v>3986548.740830158</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4537,34 +4531,34 @@
         <v>954</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>1116502.877742583</v>
+        <v>1116501.001153273</v>
       </c>
       <c r="G118">
-        <v>4841181.111834895</v>
+        <v>4841166.667165302</v>
       </c>
       <c r="H118">
-        <v>3985545.632245685</v>
+        <v>3985541.939958478</v>
       </c>
       <c r="I118">
-        <v>1115192.273468375</v>
+        <v>1115193.405450789</v>
       </c>
       <c r="J118">
-        <v>4842732.950360559</v>
+        <v>4842733.59613897</v>
       </c>
       <c r="K118">
-        <v>3986726.558902462</v>
+        <v>3986716.198439195</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4572,34 +4566,34 @@
         <v>954</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>1116484.824945842</v>
+        <v>1116482.948386875</v>
       </c>
       <c r="G119">
-        <v>4841197.624678017</v>
+        <v>4841183.179959154</v>
       </c>
       <c r="H119">
-        <v>3985630.449176792</v>
+        <v>3985626.756811008</v>
       </c>
       <c r="I119">
-        <v>1115230.043077392</v>
+        <v>1115231.175098144</v>
       </c>
       <c r="J119">
-        <v>4842684.298810584</v>
+        <v>4842684.944582508</v>
       </c>
       <c r="K119">
-        <v>3986878.86828609</v>
+        <v>3986868.507427011</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4607,34 +4601,34 @@
         <v>954</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>1116472.234998676</v>
+        <v>1116470.358460869</v>
       </c>
       <c r="G120">
-        <v>4841214.137521137</v>
+        <v>4841199.692753006</v>
       </c>
       <c r="H120">
-        <v>3985696.496075603</v>
+        <v>3985692.803648632</v>
       </c>
       <c r="I120">
-        <v>1115268.742728284</v>
+        <v>1115269.874788319</v>
       </c>
       <c r="J120">
-        <v>4842635.647260609</v>
+        <v>4842636.293026045</v>
       </c>
       <c r="K120">
-        <v>3987016.029009132</v>
+        <v>3987005.667793607</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4642,34 +4636,34 @@
         <v>954</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>1116462.842521064</v>
+        <v>1116460.965999044</v>
       </c>
       <c r="G121">
-        <v>4841230.650364258</v>
+        <v>4841216.205546858</v>
       </c>
       <c r="H121">
-        <v>3985750.593608794</v>
+        <v>3985746.901131707</v>
       </c>
       <c r="I121">
-        <v>1115308.395322477</v>
+        <v>1115309.52742276</v>
       </c>
       <c r="J121">
-        <v>4842586.995710635</v>
+        <v>4842587.641469582</v>
       </c>
       <c r="K121">
-        <v>3987138.041071585</v>
+        <v>3987127.679538983</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4677,34 +4671,34 @@
         <v>954</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>1116455.498915192</v>
+        <v>1116453.622405514</v>
       </c>
       <c r="G122">
-        <v>4841247.163207379</v>
+        <v>4841232.718340709</v>
       </c>
       <c r="H122">
-        <v>3985796.410270478</v>
+        <v>3985792.717750946</v>
       </c>
       <c r="I122">
-        <v>1115349.024325321</v>
+        <v>1115350.156466846</v>
       </c>
       <c r="J122">
-        <v>4842538.344160658</v>
+        <v>4842538.989913118</v>
       </c>
       <c r="K122">
-        <v>3987244.904473452</v>
+        <v>3987234.542663139</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4712,34 +4706,34 @@
         <v>954</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>1116449.557403336</v>
+        <v>1116447.680903645</v>
       </c>
       <c r="G123">
-        <v>4841263.676050501</v>
+        <v>4841249.231134561</v>
       </c>
       <c r="H123">
-        <v>3985836.147880032</v>
+        <v>3985832.455323685</v>
       </c>
       <c r="I123">
-        <v>1115390.653779983</v>
+        <v>1115391.785963764</v>
       </c>
       <c r="J123">
-        <v>4842489.692610683</v>
+        <v>4842490.338356656</v>
       </c>
       <c r="K123">
-        <v>3987336.61921473</v>
+        <v>3987326.257166075</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4747,34 +4741,34 @@
         <v>954</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>1116444.623831416</v>
+        <v>1116442.747340017</v>
       </c>
       <c r="G124">
-        <v>4841280.188893623</v>
+        <v>4841265.743928413</v>
       </c>
       <c r="H124">
-        <v>3985871.232257084</v>
+        <v>3985867.539668234</v>
       </c>
       <c r="I124">
-        <v>1115433.308321667</v>
+        <v>1115434.440548745</v>
       </c>
       <c r="J124">
-        <v>4842441.041060708</v>
+        <v>4842441.686800193</v>
       </c>
       <c r="K124">
-        <v>3987413.185295422</v>
+        <v>3987402.823047791</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4782,34 +4776,34 @@
         <v>954</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>1116440.443000419</v>
+        <v>1116438.566516047</v>
       </c>
       <c r="G125">
-        <v>4841296.701736743</v>
+        <v>4841282.256722264</v>
       </c>
       <c r="H125">
-        <v>3985902.639834536</v>
+        <v>3985898.947216589</v>
       </c>
       <c r="I125">
-        <v>1115477.013192199</v>
+        <v>1115478.145463639</v>
       </c>
       <c r="J125">
-        <v>4842392.389510733</v>
+        <v>4842393.03524373</v>
       </c>
       <c r="K125">
-        <v>3987474.602715526</v>
+        <v>3987464.240308287</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4817,34 +4811,34 @@
         <v>954</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>1116436.841622399</v>
+        <v>1116434.96514408</v>
       </c>
       <c r="G126">
-        <v>4841313.214579864</v>
+        <v>4841298.769516116</v>
       </c>
       <c r="H126">
-        <v>3985931.06868036</v>
+        <v>3985927.376036076</v>
       </c>
       <c r="I126">
-        <v>1115521.79425496</v>
+        <v>1115522.926571856</v>
       </c>
       <c r="J126">
-        <v>4842343.737960757</v>
+        <v>4842344.383687266</v>
       </c>
       <c r="K126">
-        <v>3987520.871475042</v>
+        <v>3987510.508947563</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4852,34 +4846,34 @@
         <v>954</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>1116433.697433298</v>
+        <v>1116431.820960264</v>
       </c>
       <c r="G127">
-        <v>4841329.727422986</v>
+        <v>4841315.282309968</v>
       </c>
       <c r="H127">
-        <v>3985957.035184954</v>
+        <v>3985953.342516615</v>
       </c>
       <c r="I127">
-        <v>1115567.678010193</v>
+        <v>1115568.810373664</v>
       </c>
       <c r="J127">
-        <v>4842295.086410782</v>
+        <v>4842295.732130804</v>
       </c>
       <c r="K127">
-        <v>3987551.991573971</v>
+        <v>3987541.628965619</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4887,34 +4881,34 @@
         <v>954</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>1116430.921411493</v>
+        <v>1116429.044943125</v>
       </c>
       <c r="G128">
-        <v>4841346.240266107</v>
+        <v>4841331.795103819</v>
       </c>
       <c r="H128">
-        <v>3985980.932103021</v>
+        <v>3985977.239412544</v>
       </c>
       <c r="I128">
-        <v>1115614.691610687</v>
+        <v>1115615.824021879</v>
       </c>
       <c r="J128">
-        <v>4842246.434860807</v>
+        <v>4842247.080574341</v>
       </c>
       <c r="K128">
-        <v>3987567.963012313</v>
+        <v>3987557.600362455</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4922,34 +4916,34 @@
         <v>954</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>1116428.447012997</v>
+        <v>1116426.570548788</v>
       </c>
       <c r="G129">
-        <v>4841362.753109229</v>
+        <v>4841348.307897671</v>
       </c>
       <c r="H129">
-        <v>3986003.065121314</v>
+        <v>3985999.372410331</v>
       </c>
       <c r="I129">
-        <v>1115662.862877841</v>
+        <v>1115663.99533793</v>
       </c>
       <c r="J129">
-        <v>4842197.783310832</v>
+        <v>4842198.429017878</v>
       </c>
       <c r="K129">
-        <v>3987568.785790067</v>
+        <v>3987558.423138071</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4957,34 +4951,34 @@
         <v>954</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>1116426.22337517</v>
+        <v>1116424.346914698</v>
       </c>
       <c r="G130">
-        <v>4841379.26595235</v>
+        <v>4841364.820691523</v>
       </c>
       <c r="H130">
-        <v>3986023.676832733</v>
+        <v>3986019.984102656</v>
       </c>
       <c r="I130">
-        <v>1115712.220318133</v>
+        <v>1115713.352828322</v>
       </c>
       <c r="J130">
-        <v>4842149.131760856</v>
+        <v>4842149.777461414</v>
       </c>
       <c r="K130">
-        <v>3987554.459907234</v>
+        <v>3987544.097292467</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4992,34 +4986,34 @@
         <v>954</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>1116424.210870787</v>
+        <v>1116422.334413698</v>
       </c>
       <c r="G131">
-        <v>4841395.77879547</v>
+        <v>4841381.333485374</v>
       </c>
       <c r="H131">
-        <v>3986042.96298766</v>
+        <v>3986039.270239715</v>
       </c>
       <c r="I131">
-        <v>1115762.793139983</v>
+        <v>1115763.925701506</v>
       </c>
       <c r="J131">
-        <v>4842100.480210881</v>
+        <v>4842101.125904952</v>
       </c>
       <c r="K131">
-        <v>3987524.985363813</v>
+        <v>3987514.622825643</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5027,34 +5021,34 @@
         <v>954</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>1116422.378109768</v>
+        <v>1116420.50165576</v>
       </c>
       <c r="G132">
-        <v>4841412.291638592</v>
+        <v>4841397.846279226</v>
       </c>
       <c r="H132">
-        <v>3986061.083827943</v>
+        <v>3986057.391063211</v>
       </c>
       <c r="I132">
-        <v>1115814.611271045</v>
+        <v>1115815.743885167</v>
       </c>
       <c r="J132">
-        <v>4842051.828660905</v>
+        <v>4842052.474348489</v>
       </c>
       <c r="K132">
-        <v>3987480.362159804</v>
+        <v>3987469.999737599</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5062,34 +5056,34 @@
         <v>954</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>1116420.699863161</v>
+        <v>1116418.823411973</v>
       </c>
       <c r="G133">
-        <v>4841428.804481713</v>
+        <v>4841414.359073077</v>
       </c>
       <c r="H133">
-        <v>3986078.172187591</v>
+        <v>3986074.479407028</v>
       </c>
       <c r="I133">
-        <v>1115867.705375913</v>
+        <v>1115868.838043928</v>
       </c>
       <c r="J133">
-        <v>4842003.17711093</v>
+        <v>4842003.822792025</v>
       </c>
       <c r="K133">
-        <v>3987420.590295209</v>
+        <v>3987410.228028335</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5097,34 +5091,34 @@
         <v>954</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>1116419.155592165</v>
+        <v>1116417.279143573</v>
       </c>
       <c r="G134">
-        <v>4841445.317324834</v>
+        <v>4841430.871866929</v>
       </c>
       <c r="H134">
-        <v>3986094.33940753</v>
+        <v>3986090.646611989</v>
       </c>
       <c r="I134">
-        <v>1115922.106874268</v>
+        <v>1115923.239597503</v>
       </c>
       <c r="J134">
-        <v>4841954.525560955</v>
+        <v>4841955.171235562</v>
       </c>
       <c r="K134">
-        <v>3987345.669770026</v>
+        <v>3987335.307697851</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5132,34 +5126,34 @@
         <v>954</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>1116417.728384454</v>
+        <v>1116415.85193826</v>
       </c>
       <c r="G135">
-        <v>4841461.830167956</v>
+        <v>4841447.384660781</v>
       </c>
       <c r="H135">
-        <v>3986109.679736157</v>
+        <v>3986105.986926405</v>
       </c>
       <c r="I135">
-        <v>1115977.847959471</v>
+        <v>1115978.980739287</v>
       </c>
       <c r="J135">
-        <v>4841905.87401098</v>
+        <v>4841906.5196791</v>
       </c>
       <c r="K135">
-        <v>3987255.600584256</v>
+        <v>3987245.238746147</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5167,34 +5161,34 @@
         <v>954</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>1116416.404170991</v>
+        <v>1116414.527727023</v>
       </c>
       <c r="G136">
-        <v>4841478.343011077</v>
+        <v>4841463.897454632</v>
       </c>
       <c r="H136">
-        <v>3986124.273658302</v>
+        <v>3986120.58083503</v>
       </c>
       <c r="I136">
-        <v>1116034.961617616</v>
+        <v>1116036.094455406</v>
       </c>
       <c r="J136">
-        <v>4841857.222461005</v>
+        <v>4841857.868122637</v>
       </c>
       <c r="K136">
-        <v>3987150.382737898</v>
+        <v>3987140.021173223</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5202,34 +5196,34 @@
         <v>954</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>1116415.171139973</v>
+        <v>1116413.294698078</v>
       </c>
       <c r="G137">
-        <v>4841494.855854198</v>
+        <v>4841480.410248485</v>
       </c>
       <c r="H137">
-        <v>3986138.190451235</v>
+        <v>3986134.49761507</v>
       </c>
       <c r="I137">
-        <v>1116093.48164705</v>
+        <v>1116094.614544241</v>
       </c>
       <c r="J137">
-        <v>4841808.570911028</v>
+        <v>4841809.216566173</v>
       </c>
       <c r="K137">
-        <v>3987030.016230952</v>
+        <v>3987019.654979079</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5237,34 +5231,34 @@
         <v>954</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>1116414.019291876</v>
+        <v>1116412.142851917</v>
       </c>
       <c r="G138">
-        <v>4841511.36869732</v>
+        <v>4841496.923042337</v>
       </c>
       <c r="H138">
-        <v>3986151.490173565</v>
+        <v>3986147.797325079</v>
       </c>
       <c r="I138">
-        <v>1116153.442678371</v>
+        <v>1116154.575636425</v>
       </c>
       <c r="J138">
-        <v>4841759.919361054</v>
+        <v>4841760.56500971</v>
       </c>
       <c r="K138">
-        <v>3986894.50106342</v>
+        <v>3986884.140163714</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5272,34 +5266,34 @@
         <v>954</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>1116412.94009714</v>
+        <v>1116411.063658995</v>
       </c>
       <c r="G139">
-        <v>4841527.88154044</v>
+        <v>4841513.435836188</v>
       </c>
       <c r="H139">
-        <v>3986164.225231633</v>
+        <v>3986160.532371349</v>
       </c>
       <c r="I139">
-        <v>1116214.880194925</v>
+        <v>1116216.013215342</v>
       </c>
       <c r="J139">
-        <v>4841711.267811079</v>
+        <v>4841711.913453248</v>
       </c>
       <c r="K139">
-        <v>3986743.837235299</v>
+        <v>3986733.47672713</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5307,34 +5301,34 @@
         <v>954</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>1116411.926229669</v>
+        <v>1116410.049793228</v>
       </c>
       <c r="G140">
-        <v>4841544.394383562</v>
+        <v>4841529.948630041</v>
       </c>
       <c r="H140">
-        <v>3986176.441626723</v>
+        <v>3986172.748755122</v>
       </c>
       <c r="I140">
-        <v>1116277.830553803</v>
+        <v>1116278.963638118</v>
       </c>
       <c r="J140">
-        <v>4841662.616261103</v>
+        <v>4841663.261896785</v>
       </c>
       <c r="K140">
-        <v>3986578.024746592</v>
+        <v>3986567.664669326</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5342,34 +5336,34 @@
         <v>954</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>1116410.971357066</v>
+        <v>1116409.09492223</v>
       </c>
       <c r="G141">
-        <v>4841560.907226683</v>
+        <v>4841546.461423892</v>
       </c>
       <c r="H141">
-        <v>3986188.179958091</v>
+        <v>3986184.487075615</v>
       </c>
       <c r="I141">
-        <v>1116342.331007355</v>
+        <v>1116343.464157142</v>
       </c>
       <c r="J141">
-        <v>4841613.964711128</v>
+        <v>4841614.610340321</v>
       </c>
       <c r="K141">
-        <v>3986397.063597296</v>
+        <v>3986386.703990301</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5377,34 +5371,34 @@
         <v>954</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>1116410.069973874</v>
+        <v>1116408.193540553</v>
       </c>
       <c r="G142">
-        <v>4841577.420069804</v>
+        <v>4841562.974217744</v>
       </c>
       <c r="H142">
-        <v>3986199.476237027</v>
+        <v>3986195.783344086</v>
       </c>
       <c r="I142">
-        <v>1116408.419725236</v>
+        <v>1116409.552942107</v>
       </c>
       <c r="J142">
-        <v>4841565.313161152</v>
+        <v>4841565.958783859</v>
       </c>
       <c r="K142">
-        <v>3986200.953787414</v>
+        <v>3986190.594690057</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5412,34 +5406,34 @@
         <v>954</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>1116409.217267777</v>
+        <v>1116407.340835888</v>
       </c>
       <c r="G143">
-        <v>4841593.932912925</v>
+        <v>4841579.487011596</v>
       </c>
       <c r="H143">
-        <v>3986210.362553127</v>
+        <v>3986206.669650101</v>
       </c>
       <c r="I143">
-        <v>1116476.135816995</v>
+        <v>1116477.269102601</v>
       </c>
       <c r="J143">
-        <v>4841516.661611177</v>
+        <v>4841517.307227396</v>
       </c>
       <c r="K143">
-        <v>3985989.695316944</v>
+        <v>3985979.336768593</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5447,34 +5441,34 @@
         <v>954</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>1116408.409011333</v>
+        <v>1116406.532580803</v>
       </c>
       <c r="G144">
-        <v>4841610.445756046</v>
+        <v>4841595.999805447</v>
       </c>
       <c r="H144">
-        <v>3986220.86762384</v>
+        <v>3986217.174711081</v>
       </c>
       <c r="I144">
-        <v>1116545.519355215</v>
+        <v>1116546.652711249</v>
       </c>
       <c r="J144">
-        <v>4841468.010061203</v>
+        <v>4841468.655670933</v>
       </c>
       <c r="K144">
-        <v>3985763.288185887</v>
+        <v>3985752.930225908</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5482,34 +5476,34 @@
         <v>954</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>1116407.641473678</v>
+        <v>1116405.765044438</v>
       </c>
       <c r="G145">
-        <v>4841626.958599168</v>
+        <v>4841612.512599299</v>
       </c>
       <c r="H145">
-        <v>3986231.017251005</v>
+        <v>3986227.324328844</v>
       </c>
       <c r="I145">
-        <v>1116616.611399233</v>
+        <v>1116617.744827429</v>
       </c>
       <c r="J145">
-        <v>4841419.358511226</v>
+        <v>4841420.00411447</v>
       </c>
       <c r="K145">
-        <v>3985521.732394241</v>
+        <v>3985511.375062004</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5517,34 +5511,34 @@
         <v>954</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>1116406.911347986</v>
+        <v>1116405.034919973</v>
       </c>
       <c r="G146">
-        <v>4841643.47144229</v>
+        <v>4841629.025393151</v>
       </c>
       <c r="H146">
-        <v>3986240.834702655</v>
+        <v>3986237.141771398</v>
       </c>
       <c r="I146">
-        <v>1116689.454019431</v>
+        <v>1116690.587521567</v>
       </c>
       <c r="J146">
-        <v>4841370.706961251</v>
+        <v>4841371.352558007</v>
       </c>
       <c r="K146">
-        <v>3985265.027942009</v>
+        <v>3985254.67127688</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5552,34 +5546,34 @@
         <v>954</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>1116406.21569147</v>
+        <v>1116404.339264627</v>
       </c>
       <c r="G147">
-        <v>4841659.98428541</v>
+        <v>4841645.538187002</v>
       </c>
       <c r="H147">
-        <v>3986250.341034289</v>
+        <v>3986246.648094225</v>
       </c>
       <c r="I147">
-        <v>1116764.090322137</v>
+        <v>1116765.223900033</v>
       </c>
       <c r="J147">
-        <v>4841322.055411276</v>
+        <v>4841322.701001544</v>
       </c>
       <c r="K147">
-        <v>3984993.17482919</v>
+        <v>3984982.818870536</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5587,34 +5581,34 @@
         <v>954</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>1116405.551875442</v>
+        <v>1116403.675449714</v>
       </c>
       <c r="G148">
-        <v>4841676.497128531</v>
+        <v>4841662.050980854</v>
       </c>
       <c r="H148">
-        <v>3986259.555360799</v>
+        <v>3986255.8624122</v>
       </c>
       <c r="I148">
-        <v>1116840.564475134</v>
+        <v>1116841.698130655</v>
       </c>
       <c r="J148">
-        <v>4841273.403861301</v>
+        <v>4841274.049445082</v>
       </c>
       <c r="K148">
-        <v>3984706.173055782</v>
+        <v>3984695.817842971</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5622,34 +5616,34 @@
         <v>954</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>1116404.917543493</v>
+        <v>1116403.041118831</v>
       </c>
       <c r="G149">
-        <v>4841693.009971653</v>
+        <v>4841678.563774706</v>
       </c>
       <c r="H149">
-        <v>3986268.495087855</v>
+        <v>3986264.802130973</v>
       </c>
       <c r="I149">
-        <v>1116918.921733793</v>
+        <v>1116920.055468851</v>
       </c>
       <c r="J149">
-        <v>4841224.752311325</v>
+        <v>4841225.397888618</v>
       </c>
       <c r="K149">
-        <v>3984404.022621788</v>
+        <v>3984393.668194187</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5657,34 +5651,34 @@
         <v>954</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>1116404.310576284</v>
+        <v>1116402.434152643</v>
       </c>
       <c r="G150">
-        <v>4841709.522814774</v>
+        <v>4841695.076568557</v>
       </c>
       <c r="H150">
-        <v>3986277.176109798</v>
+        <v>3986273.483144875</v>
       </c>
       <c r="I150">
-        <v>1116999.208467859</v>
+        <v>1117000.342284413</v>
       </c>
       <c r="J150">
-        <v>4841176.10076135</v>
+        <v>4841176.746332156</v>
       </c>
       <c r="K150">
-        <v>3984086.723527206</v>
+        <v>3984076.369924182</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5692,34 +5686,34 @@
         <v>954</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>1116403.729061746</v>
+        <v>1116401.852639082</v>
       </c>
       <c r="G151">
-        <v>4841726.035657896</v>
+        <v>4841711.589362409</v>
       </c>
       <c r="H151">
-        <v>3986285.612979707</v>
+        <v>3986281.920006967</v>
       </c>
       <c r="I151">
-        <v>1117081.472188889</v>
+        <v>1117082.606088945</v>
       </c>
       <c r="J151">
-        <v>4841127.449211375</v>
+        <v>4841128.094775693</v>
       </c>
       <c r="K151">
-        <v>3983754.275772036</v>
+        <v>3983743.923032958</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5727,34 +5721,34 @@
         <v>954</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>1116403.171269727</v>
+        <v>1116401.294848001</v>
       </c>
       <c r="G152">
-        <v>4841742.548501016</v>
+        <v>4841728.10215626</v>
       </c>
       <c r="H152">
-        <v>3986293.819056185</v>
+        <v>3986290.126075843</v>
       </c>
       <c r="I152">
-        <v>1117165.761578368</v>
+        <v>1117166.895563982</v>
       </c>
       <c r="J152">
-        <v>4841078.797661399</v>
+        <v>4841079.443219229</v>
       </c>
       <c r="K152">
-        <v>3983406.679356279</v>
+        <v>3983396.327520513</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5762,34 +5756,34 @@
         <v>954</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>1116402.635630338</v>
+        <v>1116400.759209512</v>
       </c>
       <c r="G153">
-        <v>4841759.061344137</v>
+        <v>4841744.614950112</v>
       </c>
       <c r="H153">
-        <v>3986301.806630609</v>
+        <v>3986298.113642867</v>
       </c>
       <c r="I153">
-        <v>1117252.126516518</v>
+        <v>1117253.260589798</v>
       </c>
       <c r="J153">
-        <v>4841030.146111424</v>
+        <v>4841030.791662766</v>
       </c>
       <c r="K153">
-        <v>3983043.934279935</v>
+        <v>3983033.583386849</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5797,34 +5791,34 @@
         <v>954</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>1116402.120715357</v>
+        <v>1116400.244295396</v>
       </c>
       <c r="G154">
-        <v>4841775.574187259</v>
+        <v>4841761.127743965</v>
       </c>
       <c r="H154">
-        <v>3986309.587037864</v>
+        <v>3986305.894042914</v>
       </c>
       <c r="I154">
-        <v>1117340.618111816</v>
+        <v>1117341.75227492</v>
       </c>
       <c r="J154">
-        <v>4840981.494561449</v>
+        <v>4840982.140106304</v>
       </c>
       <c r="K154">
-        <v>3982666.040543003</v>
+        <v>3982655.690631964</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5832,34 +5826,34 @@
         <v>954</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>1116401.625222212</v>
+        <v>1116399.748803084</v>
       </c>
       <c r="G155">
-        <v>4841792.08703038</v>
+        <v>4841777.640537816</v>
       </c>
       <c r="H155">
-        <v>3986317.170753089</v>
+        <v>3986313.477751114</v>
       </c>
       <c r="I155">
-        <v>1117431.288731238</v>
+        <v>1117432.422986377</v>
       </c>
       <c r="J155">
-        <v>4840932.843011474</v>
+        <v>4840933.488549841</v>
       </c>
       <c r="K155">
-        <v>3982272.998145483</v>
+        <v>3982262.64925586</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5867,34 +5861,34 @@
         <v>954</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>1116401.147960117</v>
+        <v>1116399.271541792</v>
       </c>
       <c r="G156">
-        <v>4841808.599873502</v>
+        <v>4841794.153331668</v>
       </c>
       <c r="H156">
-        <v>3986324.567476481</v>
+        <v>3986320.874467653</v>
       </c>
       <c r="I156">
-        <v>1117524.192031247</v>
+        <v>1117525.326380688</v>
       </c>
       <c r="J156">
-        <v>4840884.191461498</v>
+        <v>4840884.836993377</v>
       </c>
       <c r="K156">
-        <v>3981864.807087377</v>
+        <v>3981854.459258535</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5902,34 +5896,34 @@
         <v>954</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>1116400.687838037</v>
+        <v>1116398.811420484</v>
       </c>
       <c r="G157">
-        <v>4841825.112716623</v>
+        <v>4841810.66612552</v>
       </c>
       <c r="H157">
-        <v>3986331.786207896</v>
+        <v>3986328.09319238</v>
       </c>
       <c r="I157">
-        <v>1117619.382989549</v>
+        <v>1117620.517435615</v>
       </c>
       <c r="J157">
-        <v>4840835.539911523</v>
+        <v>4840836.185436914</v>
       </c>
       <c r="K157">
-        <v>3981441.467368683</v>
+        <v>3981431.120639991</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5937,34 +5931,34 @@
         <v>954</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>1116400.243854193</v>
+        <v>1116398.367437387</v>
       </c>
       <c r="G158">
-        <v>4841841.625559743</v>
+        <v>4841827.178919371</v>
       </c>
       <c r="H158">
-        <v>3986338.835312694</v>
+        <v>3986335.142290648</v>
       </c>
       <c r="I158">
-        <v>1117716.917937626</v>
+        <v>1117718.052482694</v>
       </c>
       <c r="J158">
-        <v>4840786.888361548</v>
+        <v>4840787.533880452</v>
       </c>
       <c r="K158">
-        <v>3981002.978989401</v>
+        <v>3980992.633400226</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5972,34 +5966,34 @@
         <v>954</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>1116399.815086897</v>
+        <v>1116397.938670812</v>
       </c>
       <c r="G159">
-        <v>4841858.138402865</v>
+        <v>4841843.691713223</v>
       </c>
       <c r="H159">
-        <v>3986345.722580007</v>
+        <v>3986342.029551581</v>
       </c>
       <c r="I159">
-        <v>1117816.854594068</v>
+        <v>1117817.989240578</v>
       </c>
       <c r="J159">
-        <v>4840738.236811573</v>
+        <v>4840738.882323989</v>
       </c>
       <c r="K159">
-        <v>3980549.341949532</v>
+        <v>3980538.997539241</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6007,34 +6001,34 @@
         <v>954</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>1116399.400686497</v>
+        <v>1116397.524271108</v>
       </c>
       <c r="G160">
-        <v>4841874.651245987</v>
+        <v>4841860.204507075</v>
       </c>
       <c r="H160">
-        <v>3986352.455274482</v>
+        <v>3986348.762239818</v>
       </c>
       <c r="I160">
-        <v>1117919.252098735</v>
+        <v>1117920.386849185</v>
       </c>
       <c r="J160">
-        <v>4840689.585261596</v>
+        <v>4840690.230767525</v>
       </c>
       <c r="K160">
-        <v>3980080.556249076</v>
+        <v>3980070.213057037</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run954/NotionalETEOutput954.xlsx
+++ b/runs/run954/NotionalETEOutput954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,22 +52,13 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>MISSILE_BRAVER_451.MISSILE_BRAVER_451</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_373.MISSILE_BRAVER_373</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_327.MISSILE_BRAVER_327</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT_164.MISSILE_SOMERSAULT_164</t>
+    <t>MISSILE_BRAVER_265.MISSILE_BRAVER_265</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G2">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H2">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I2">
-        <v>1114861.525450652</v>
+        <v>1114861.981862701</v>
       </c>
       <c r="J2">
-        <v>4843222.662990524</v>
+        <v>4843228.429984644</v>
       </c>
       <c r="K2">
-        <v>3984365.119081246</v>
+        <v>3984368.238217251</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G3">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H3">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I3">
-        <v>1114891.139451579</v>
+        <v>1114891.595875752</v>
       </c>
       <c r="J3">
-        <v>4843174.011408432</v>
+        <v>4843179.778344622</v>
       </c>
       <c r="K3">
-        <v>3984668.914676579</v>
+        <v>3984672.034050408</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G4">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H4">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I4">
-        <v>1114921.482670035</v>
+        <v>1114921.93910663</v>
       </c>
       <c r="J4">
-        <v>4843125.35982634</v>
+        <v>4843131.126704599</v>
       </c>
       <c r="K4">
-        <v>3984957.56163098</v>
+        <v>3984960.681230775</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G5">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H5">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I5">
-        <v>1114952.57306233</v>
+        <v>1114953.029511653</v>
       </c>
       <c r="J5">
-        <v>4843076.708244249</v>
+        <v>4843082.475064577</v>
       </c>
       <c r="K5">
-        <v>3985231.059944448</v>
+        <v>3985234.179758349</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G6">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H6">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I6">
-        <v>1114984.429026932</v>
+        <v>1114984.885489296</v>
       </c>
       <c r="J6">
-        <v>4843028.056662158</v>
+        <v>4843033.823424553</v>
       </c>
       <c r="K6">
-        <v>3985489.409616984</v>
+        <v>3985492.529633133</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G7">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H7">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I7">
-        <v>1115017.069415356</v>
+        <v>1115017.525891083</v>
       </c>
       <c r="J7">
-        <v>4842979.405080067</v>
+        <v>4842985.171784531</v>
       </c>
       <c r="K7">
-        <v>3985732.610648587</v>
+        <v>3985735.730855125</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G8">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H8">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I8">
-        <v>1115050.513543316</v>
+        <v>1115050.970032735</v>
       </c>
       <c r="J8">
-        <v>4842930.753497974</v>
+        <v>4842936.520144508</v>
       </c>
       <c r="K8">
-        <v>3985960.663039259</v>
+        <v>3985963.783424325</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G9">
-        <v>4841124.508003252</v>
+        <v>4841125.764771963</v>
       </c>
       <c r="H9">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I9">
-        <v>1115084.781202159</v>
+        <v>1115085.237705606</v>
       </c>
       <c r="J9">
-        <v>4842882.101915883</v>
+        <v>4842887.868504486</v>
       </c>
       <c r="K9">
-        <v>3986173.566788998</v>
+        <v>3986176.687340735</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.415691868</v>
+        <v>1116577.754795687</v>
       </c>
       <c r="G10">
-        <v>4841141.020822274</v>
+        <v>4841142.277595273</v>
       </c>
       <c r="H10">
-        <v>3985229.604758041</v>
+        <v>3985232.06427401</v>
       </c>
       <c r="I10">
-        <v>1115119.892670575</v>
+        <v>1115120.349188397</v>
       </c>
       <c r="J10">
-        <v>4842833.450333792</v>
+        <v>4842839.216864464</v>
       </c>
       <c r="K10">
-        <v>3986371.321897804</v>
+        <v>3986374.442604353</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116529.735131942</v>
+        <v>1116529.074264574</v>
       </c>
       <c r="G11">
-        <v>4841157.533641296</v>
+        <v>4841158.790418581</v>
       </c>
       <c r="H11">
-        <v>3985428.859228634</v>
+        <v>3985431.318867574</v>
       </c>
       <c r="I11">
-        <v>1115155.868726599</v>
+        <v>1115156.325259149</v>
       </c>
       <c r="J11">
-        <v>4842784.798751701</v>
+        <v>4842790.565224442</v>
       </c>
       <c r="K11">
-        <v>3986553.928365679</v>
+        <v>3986557.04921518</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.137745065</v>
+        <v>1116500.476894625</v>
       </c>
       <c r="G12">
-        <v>4841174.046460317</v>
+        <v>4841175.30324189</v>
       </c>
       <c r="H12">
-        <v>3985547.545381579</v>
+        <v>3985550.005093767</v>
       </c>
       <c r="I12">
-        <v>1115192.730659906</v>
+        <v>1115193.187207547</v>
       </c>
       <c r="J12">
-        <v>4842736.147169609</v>
+        <v>4842741.913584419</v>
       </c>
       <c r="K12">
-        <v>3986721.386192621</v>
+        <v>3986724.507173215</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116483.084976458</v>
+        <v>1116482.424136703</v>
       </c>
       <c r="G13">
-        <v>4841190.559279339</v>
+        <v>4841191.816065199</v>
       </c>
       <c r="H13">
-        <v>3985632.362353399</v>
+        <v>3985634.822117933</v>
       </c>
       <c r="I13">
-        <v>1115230.500284408</v>
+        <v>1115230.956847511</v>
       </c>
       <c r="J13">
-        <v>4842687.495587518</v>
+        <v>4842693.261944396</v>
       </c>
       <c r="K13">
-        <v>3986873.69537863</v>
+        <v>3986876.816478459</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116470.495048913</v>
+        <v>1116469.834216609</v>
       </c>
       <c r="G14">
-        <v>4841207.072098361</v>
+        <v>4841208.328888507</v>
       </c>
       <c r="H14">
-        <v>3985698.409283914</v>
+        <v>3985700.869089209</v>
       </c>
       <c r="I14">
-        <v>1115269.199951165</v>
+        <v>1115269.656530112</v>
       </c>
       <c r="J14">
-        <v>4842638.844005426</v>
+        <v>4842644.610304373</v>
       </c>
       <c r="K14">
-        <v>3987010.855923708</v>
+        <v>3987013.977130912</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116461.102585938</v>
+        <v>1116460.441759194</v>
       </c>
       <c r="G15">
-        <v>4841223.584917383</v>
+        <v>4841224.841711815</v>
       </c>
       <c r="H15">
-        <v>3985752.506843073</v>
+        <v>3985754.966681755</v>
       </c>
       <c r="I15">
-        <v>1115308.852561614</v>
+        <v>1115309.309156793</v>
       </c>
       <c r="J15">
-        <v>4842590.192423335</v>
+        <v>4842595.958664351</v>
       </c>
       <c r="K15">
-        <v>3987132.867827853</v>
+        <v>3987135.989130573</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116453.758991511</v>
+        <v>1116453.098169113</v>
       </c>
       <c r="G16">
-        <v>4841240.097736404</v>
+        <v>4841241.354535123</v>
       </c>
       <c r="H16">
-        <v>3985798.32352675</v>
+        <v>3985800.783393708</v>
       </c>
       <c r="I16">
-        <v>1115349.481581115</v>
+        <v>1115349.938192928</v>
       </c>
       <c r="J16">
-        <v>4842541.540841243</v>
+        <v>4842547.307024328</v>
       </c>
       <c r="K16">
-        <v>3987239.731091066</v>
+        <v>3987242.852477443</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116447.817488914</v>
+        <v>1116447.156670034</v>
       </c>
       <c r="G17">
-        <v>4841256.610555427</v>
+        <v>4841257.867358433</v>
       </c>
       <c r="H17">
-        <v>3985838.061155378</v>
+        <v>3985840.521046861</v>
       </c>
       <c r="I17">
-        <v>1115391.111052843</v>
+        <v>1115391.567681699</v>
       </c>
       <c r="J17">
-        <v>4842492.889259152</v>
+        <v>4842498.655384306</v>
       </c>
       <c r="K17">
-        <v>3987331.445713346</v>
+        <v>3987334.567171522</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116442.883924683</v>
+        <v>1116442.223108723</v>
       </c>
       <c r="G18">
-        <v>4841273.123374449</v>
+        <v>4841274.380181742</v>
       </c>
       <c r="H18">
-        <v>3985873.145549271</v>
+        <v>3985875.605462406</v>
       </c>
       <c r="I18">
-        <v>1115433.765612014</v>
+        <v>1115434.222258332</v>
       </c>
       <c r="J18">
-        <v>4842444.237677061</v>
+        <v>4842450.003744284</v>
       </c>
       <c r="K18">
-        <v>3987408.011694694</v>
+        <v>3987411.133212809</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116438.703100202</v>
+        <v>1116438.042286716</v>
       </c>
       <c r="G19">
-        <v>4841289.63619347</v>
+        <v>4841290.89300505</v>
       </c>
       <c r="H19">
-        <v>3985904.553141799</v>
+        <v>3985907.013074318</v>
       </c>
       <c r="I19">
-        <v>1115477.470500463</v>
+        <v>1115477.927164674</v>
       </c>
       <c r="J19">
-        <v>4842395.58609497</v>
+        <v>4842401.352104262</v>
       </c>
       <c r="K19">
-        <v>3987469.42903511</v>
+        <v>3987472.550601305</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116435.101727794</v>
+        <v>1116434.44091644</v>
       </c>
       <c r="G20">
-        <v>4841306.149012492</v>
+        <v>4841307.405828359</v>
       </c>
       <c r="H20">
-        <v>3985932.98200127</v>
+        <v>3985935.441951333</v>
       </c>
       <c r="I20">
-        <v>1115522.251581583</v>
+        <v>1115522.708264126</v>
       </c>
       <c r="J20">
-        <v>4842346.934512878</v>
+        <v>4842352.700464238</v>
       </c>
       <c r="K20">
-        <v>3987515.697734594</v>
+        <v>3987518.81933701</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116431.957543593</v>
+        <v>1116431.2967341</v>
       </c>
       <c r="G21">
-        <v>4841322.661831515</v>
+        <v>4841323.918651667</v>
       </c>
       <c r="H21">
-        <v>3985958.948518328</v>
+        <v>3985961.408484417</v>
       </c>
       <c r="I21">
-        <v>1115568.135355628</v>
+        <v>1115568.592056955</v>
       </c>
       <c r="J21">
-        <v>4842298.282930787</v>
+        <v>4842304.048824216</v>
       </c>
       <c r="K21">
-        <v>3987546.817793145</v>
+        <v>3987549.939419924</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.181526115</v>
+        <v>1116428.520718265</v>
       </c>
       <c r="G22">
-        <v>4841339.174650536</v>
+        <v>4841340.431474975</v>
       </c>
       <c r="H22">
-        <v>3985982.845447867</v>
+        <v>3985985.305428704</v>
       </c>
       <c r="I22">
-        <v>1115615.148975395</v>
+        <v>1115615.60569597</v>
       </c>
       <c r="J22">
-        <v>4842249.631348696</v>
+        <v>4842255.397184193</v>
       </c>
       <c r="K22">
-        <v>3987562.789210764</v>
+        <v>3987565.910850046</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116426.707131475</v>
+        <v>1116426.04632509</v>
       </c>
       <c r="G23">
-        <v>4841355.687469558</v>
+        <v>4841356.944298285</v>
       </c>
       <c r="H23">
-        <v>3986004.978476783</v>
+        <v>3986007.43847128</v>
       </c>
       <c r="I23">
-        <v>1115663.320262298</v>
+        <v>1115663.777002594</v>
       </c>
       <c r="J23">
-        <v>4842200.979766604</v>
+        <v>4842206.745544171</v>
       </c>
       <c r="K23">
-        <v>3987563.611987451</v>
+        <v>3987566.733627377</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116424.483497113</v>
+        <v>1116423.822692044</v>
       </c>
       <c r="G24">
-        <v>4841372.200288581</v>
+        <v>4841373.457121594</v>
       </c>
       <c r="H24">
-        <v>3986025.590198097</v>
+        <v>3986028.050205314</v>
       </c>
       <c r="I24">
-        <v>1115712.677722825</v>
+        <v>1115713.134483326</v>
       </c>
       <c r="J24">
-        <v>4842152.328184512</v>
+        <v>4842158.093904148</v>
       </c>
       <c r="K24">
-        <v>3987549.286123205</v>
+        <v>3987552.407751916</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116422.470995866</v>
+        <v>1116421.810191988</v>
       </c>
       <c r="G25">
-        <v>4841388.713107602</v>
+        <v>4841389.969944902</v>
       </c>
       <c r="H25">
-        <v>3986044.876362281</v>
+        <v>3986047.336381401</v>
       </c>
       <c r="I25">
-        <v>1115763.250565408</v>
+        <v>1115763.707346614</v>
       </c>
       <c r="J25">
-        <v>4842103.676602421</v>
+        <v>4842109.442264126</v>
       </c>
       <c r="K25">
-        <v>3987519.811618027</v>
+        <v>3987522.933223664</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116420.638237704</v>
+        <v>1116419.977434911</v>
       </c>
       <c r="G26">
-        <v>4841405.225926624</v>
+        <v>4841406.482768211</v>
       </c>
       <c r="H26">
-        <v>3986062.997211262</v>
+        <v>3986065.457241565</v>
       </c>
       <c r="I26">
-        <v>1115815.068717714</v>
+        <v>1115815.525520133</v>
       </c>
       <c r="J26">
-        <v>4842055.02502033</v>
+        <v>4842060.790624104</v>
       </c>
       <c r="K26">
-        <v>3987475.188471917</v>
+        <v>3987478.31004262</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116418.959993712</v>
+        <v>1116418.299191912</v>
       </c>
       <c r="G27">
-        <v>4841421.738745645</v>
+        <v>4841422.995591518</v>
       </c>
       <c r="H27">
-        <v>3986080.085579113</v>
+        <v>3986082.545619963</v>
       </c>
       <c r="I27">
-        <v>1115868.162844349</v>
+        <v>1115868.619668504</v>
       </c>
       <c r="J27">
-        <v>4842006.373438238</v>
+        <v>4842012.13898408</v>
       </c>
       <c r="K27">
-        <v>3987415.416684874</v>
+        <v>3987418.538208786</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.415725123</v>
+        <v>1116416.754924237</v>
       </c>
       <c r="G28">
-        <v>4841438.251564668</v>
+        <v>4841439.508414827</v>
       </c>
       <c r="H28">
-        <v>3986096.252806813</v>
+        <v>3986098.71285764</v>
       </c>
       <c r="I28">
-        <v>1115922.564365006</v>
+        <v>1115923.021211433</v>
       </c>
       <c r="J28">
-        <v>4841957.721856147</v>
+        <v>4841963.487344058</v>
       </c>
       <c r="K28">
-        <v>3987340.496256899</v>
+        <v>3987343.61772216</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116415.988519636</v>
+        <v>1116415.327719595</v>
       </c>
       <c r="G29">
-        <v>4841454.76438369</v>
+        <v>4841456.021238137</v>
       </c>
       <c r="H29">
-        <v>3986111.593142804</v>
+        <v>3986114.053203098</v>
       </c>
       <c r="I29">
-        <v>1115978.305473061</v>
+        <v>1115978.762342308</v>
       </c>
       <c r="J29">
-        <v>4841909.070274055</v>
+        <v>4841914.835704035</v>
       </c>
       <c r="K29">
-        <v>3987250.427187992</v>
+        <v>3987253.548582743</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116414.664308237</v>
+        <v>1116414.003508979</v>
       </c>
       <c r="G30">
-        <v>4841471.277202711</v>
+        <v>4841472.534061445</v>
       </c>
       <c r="H30">
-        <v>3986126.187071954</v>
+        <v>3986128.647141255</v>
       </c>
       <c r="I30">
-        <v>1116035.419154621</v>
+        <v>1116035.87604725</v>
       </c>
       <c r="J30">
-        <v>4841860.418691964</v>
+        <v>4841866.184064013</v>
       </c>
       <c r="K30">
-        <v>3987145.209478152</v>
+        <v>3987148.330790534</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116413.431279141</v>
+        <v>1116412.770480613</v>
       </c>
       <c r="G31">
-        <v>4841487.790021732</v>
+        <v>4841489.046884754</v>
       </c>
       <c r="H31">
-        <v>3986140.103871567</v>
+        <v>3986142.563949457</v>
       </c>
       <c r="I31">
-        <v>1116093.939208047</v>
+        <v>1116094.396124632</v>
       </c>
       <c r="J31">
-        <v>4841811.767109872</v>
+        <v>4841817.53242399</v>
       </c>
       <c r="K31">
-        <v>3987024.843127381</v>
+        <v>3987027.964345534</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.279432839</v>
+        <v>1116411.618634993</v>
       </c>
       <c r="G32">
-        <v>4841504.302840755</v>
+        <v>4841505.559708063</v>
       </c>
       <c r="H32">
-        <v>3986153.403600281</v>
+        <v>3986155.86368638</v>
       </c>
       <c r="I32">
-        <v>1116153.90026395</v>
+        <v>1116154.357205083</v>
       </c>
       <c r="J32">
-        <v>4841763.115527781</v>
+        <v>4841768.880783968</v>
       </c>
       <c r="K32">
-        <v>3986889.328135676</v>
+        <v>3986892.449247743</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.200239785</v>
+        <v>1116410.539442578</v>
       </c>
       <c r="G33">
-        <v>4841520.815659776</v>
+        <v>4841522.07253137</v>
       </c>
       <c r="H33">
-        <v>3986166.138664463</v>
+        <v>3986168.59875842</v>
       </c>
       <c r="I33">
-        <v>1116215.337805691</v>
+        <v>1116215.794771976</v>
       </c>
       <c r="J33">
-        <v>4841714.46394569</v>
+        <v>4841720.229143946</v>
       </c>
       <c r="K33">
-        <v>3986738.66450304</v>
+        <v>3986741.78549716</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.186373894</v>
+        <v>1116409.525577287</v>
       </c>
       <c r="G34">
-        <v>4841537.328478798</v>
+        <v>4841538.585354679</v>
       </c>
       <c r="H34">
-        <v>3986178.355065417</v>
+        <v>3986180.815166914</v>
       </c>
       <c r="I34">
-        <v>1116278.288190376</v>
+        <v>1116278.745182432</v>
       </c>
       <c r="J34">
-        <v>4841665.812363598</v>
+        <v>4841671.577503923</v>
       </c>
       <c r="K34">
-        <v>3986572.852229471</v>
+        <v>3986575.973093786</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.231502779</v>
+        <v>1116408.570706737</v>
       </c>
       <c r="G35">
-        <v>4841553.84129782</v>
+        <v>4841555.098177988</v>
       </c>
       <c r="H35">
-        <v>3986190.093402419</v>
+        <v>3986192.553511161</v>
       </c>
       <c r="I35">
-        <v>1116342.788670371</v>
+        <v>1116343.245688833</v>
       </c>
       <c r="J35">
-        <v>4841617.160781506</v>
+        <v>4841622.9258639</v>
       </c>
       <c r="K35">
-        <v>3986391.89131497</v>
+        <v>3986395.012037621</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.330120991</v>
+        <v>1116407.669325483</v>
       </c>
       <c r="G36">
-        <v>4841570.354116842</v>
+        <v>4841571.611001297</v>
       </c>
       <c r="H36">
-        <v>3986201.389686778</v>
+        <v>3986203.849802491</v>
       </c>
       <c r="I36">
-        <v>1116408.877415347</v>
+        <v>1116409.334460865</v>
       </c>
       <c r="J36">
-        <v>4841568.509199415</v>
+        <v>4841574.274223878</v>
       </c>
       <c r="K36">
-        <v>3986195.781759536</v>
+        <v>3986198.902328665</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116407.477416223</v>
+        <v>1116406.816621219</v>
       </c>
       <c r="G37">
-        <v>4841586.866935864</v>
+        <v>4841588.123824606</v>
       </c>
       <c r="H37">
-        <v>3986212.276008103</v>
+        <v>3986214.736130535</v>
       </c>
       <c r="I37">
-        <v>1116476.593534867</v>
+        <v>1116477.050608107</v>
       </c>
       <c r="J37">
-        <v>4841519.857617324</v>
+        <v>4841525.622583855</v>
       </c>
       <c r="K37">
-        <v>3985984.523563171</v>
+        <v>3985987.643966916</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116406.669161038</v>
+        <v>1116406.008366513</v>
       </c>
       <c r="G38">
-        <v>4841603.379754885</v>
+        <v>4841604.636647914</v>
       </c>
       <c r="H38">
-        <v>3986222.781083859</v>
+        <v>3986225.241212774</v>
       </c>
       <c r="I38">
-        <v>1116545.977101532</v>
+        <v>1116546.434203177</v>
       </c>
       <c r="J38">
-        <v>4841471.206035233</v>
+        <v>4841476.970943833</v>
       </c>
       <c r="K38">
-        <v>3985758.116725873</v>
+        <v>3985761.236952377</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116405.901624579</v>
+        <v>1116405.240830509</v>
       </c>
       <c r="G39">
-        <v>4841619.892573908</v>
+        <v>4841621.149471222</v>
       </c>
       <c r="H39">
-        <v>3986232.930715896</v>
+        <v>3986235.390851075</v>
       </c>
       <c r="I39">
-        <v>1116617.069174695</v>
+        <v>1116617.526305444</v>
       </c>
       <c r="J39">
-        <v>4841422.554453141</v>
+        <v>4841428.31930381</v>
       </c>
       <c r="K39">
-        <v>3985516.561247642</v>
+        <v>3985519.681285047</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.171500025</v>
+        <v>1116404.510706387</v>
       </c>
       <c r="G40">
-        <v>4841636.40539293</v>
+        <v>4841637.662294531</v>
       </c>
       <c r="H40">
-        <v>3986242.748172258</v>
+        <v>3986245.208313496</v>
       </c>
       <c r="I40">
-        <v>1116689.911824756</v>
+        <v>1116690.368985326</v>
       </c>
       <c r="J40">
-        <v>4841373.90287105</v>
+        <v>4841379.667663787</v>
       </c>
       <c r="K40">
-        <v>3985259.85712848</v>
+        <v>3985262.976964925</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116404.475844594</v>
+        <v>1116403.815051367</v>
       </c>
       <c r="G41">
-        <v>4841652.918211951</v>
+        <v>4841654.17511784</v>
       </c>
       <c r="H41">
-        <v>3986252.254508455</v>
+        <v>3986254.71465556</v>
       </c>
       <c r="I41">
-        <v>1116764.548158061</v>
+        <v>1116765.005349186</v>
       </c>
       <c r="J41">
-        <v>4841325.251288959</v>
+        <v>4841331.016023765</v>
       </c>
       <c r="K41">
-        <v>3984988.004368384</v>
+        <v>3984991.123992011</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116403.8120296</v>
+        <v>1116403.151236766</v>
       </c>
       <c r="G42">
-        <v>4841669.431030973</v>
+        <v>4841670.687941149</v>
       </c>
       <c r="H42">
-        <v>3986261.468839389</v>
+        <v>3986263.928992181</v>
       </c>
       <c r="I42">
-        <v>1116841.022342409</v>
+        <v>1116841.479564842</v>
       </c>
       <c r="J42">
-        <v>4841276.599706868</v>
+        <v>4841282.364383743</v>
       </c>
       <c r="K42">
-        <v>3984701.002967357</v>
+        <v>3984704.122366307</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.17769864</v>
+        <v>1116402.516906181</v>
       </c>
       <c r="G43">
-        <v>4841685.943849996</v>
+        <v>4841687.200764458</v>
       </c>
       <c r="H43">
-        <v>3986270.408570736</v>
+        <v>3986272.868729045</v>
       </c>
       <c r="I43">
-        <v>1116919.379633192</v>
+        <v>1116919.836887704</v>
       </c>
       <c r="J43">
-        <v>4841227.948124776</v>
+        <v>4841233.71274372</v>
       </c>
       <c r="K43">
-        <v>3984398.852925398</v>
+        <v>3984401.972087811</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116402.570732377</v>
+        <v>1116401.909940277</v>
       </c>
       <c r="G44">
-        <v>4841702.456669017</v>
+        <v>4841703.713587766</v>
       </c>
       <c r="H44">
-        <v>3986279.089596847</v>
+        <v>3986281.549760513</v>
       </c>
       <c r="I44">
-        <v>1116999.666400173</v>
+        <v>1117000.123687553</v>
       </c>
       <c r="J44">
-        <v>4841179.296542685</v>
+        <v>4841185.061103697</v>
       </c>
       <c r="K44">
-        <v>3984081.554242506</v>
+        <v>3984084.673156524</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116401.989218744</v>
+        <v>1116401.328426989</v>
       </c>
       <c r="G45">
-        <v>4841718.969488039</v>
+        <v>4841720.226411074</v>
       </c>
       <c r="H45">
-        <v>3986287.526470805</v>
+        <v>3986289.986639678</v>
       </c>
       <c r="I45">
-        <v>1117081.930154928</v>
+        <v>1117082.387475986</v>
       </c>
       <c r="J45">
-        <v>4841130.644960593</v>
+        <v>4841136.409463675</v>
       </c>
       <c r="K45">
-        <v>3983749.106918682</v>
+        <v>3983752.225572445</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116401.431427595</v>
+        <v>1116400.77063617</v>
       </c>
       <c r="G46">
-        <v>4841735.482307061</v>
+        <v>4841736.739234382</v>
       </c>
       <c r="H46">
-        <v>3986295.732551222</v>
+        <v>3986298.19272516</v>
       </c>
       <c r="I46">
-        <v>1117166.219578963</v>
+        <v>1117166.676934529</v>
       </c>
       <c r="J46">
-        <v>4841081.993378501</v>
+        <v>4841087.757823652</v>
       </c>
       <c r="K46">
-        <v>3983401.510953925</v>
+        <v>3983404.629335575</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116400.895789041</v>
+        <v>1116400.234997933</v>
       </c>
       <c r="G47">
-        <v>4841751.995126083</v>
+        <v>4841753.252057692</v>
       </c>
       <c r="H47">
-        <v>3986303.72012948</v>
+        <v>3986306.180308348</v>
       </c>
       <c r="I47">
-        <v>1117252.58455252</v>
+        <v>1117253.041943442</v>
       </c>
       <c r="J47">
-        <v>4841033.34179641</v>
+        <v>4841039.106183629</v>
       </c>
       <c r="K47">
-        <v>3983038.766348236</v>
+        <v>3983041.884445914</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.380874863</v>
+        <v>1116399.720084059</v>
       </c>
       <c r="G48">
-        <v>4841768.507945105</v>
+        <v>4841769.764881001</v>
       </c>
       <c r="H48">
-        <v>3986311.50054047</v>
+        <v>3986313.960724139</v>
       </c>
       <c r="I48">
-        <v>1117341.076184097</v>
+        <v>1117341.533611247</v>
       </c>
       <c r="J48">
-        <v>4840984.690214319</v>
+        <v>4840990.454543607</v>
       </c>
       <c r="K48">
-        <v>3982660.873101615</v>
+        <v>3982663.990903461</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116399.88538249</v>
+        <v>1116399.22459198</v>
       </c>
       <c r="G49">
-        <v>4841785.020764126</v>
+        <v>4841786.277704309</v>
       </c>
       <c r="H49">
-        <v>3986319.084259335</v>
+        <v>3986321.544447685</v>
       </c>
       <c r="I49">
-        <v>1117431.74684069</v>
+        <v>1117432.204304959</v>
       </c>
       <c r="J49">
-        <v>4840936.038632228</v>
+        <v>4840941.802903585</v>
       </c>
       <c r="K49">
-        <v>3982267.831214061</v>
+        <v>3982270.948708218</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.408121139</v>
+        <v>1116398.747330911</v>
       </c>
       <c r="G50">
-        <v>4841801.533583148</v>
+        <v>4841802.790527618</v>
       </c>
       <c r="H50">
-        <v>3986326.480986278</v>
+        <v>3986328.941179192</v>
       </c>
       <c r="I50">
-        <v>1117524.650178786</v>
+        <v>1117525.107681089</v>
       </c>
       <c r="J50">
-        <v>4840887.387050135</v>
+        <v>4840893.151263562</v>
       </c>
       <c r="K50">
-        <v>3981859.640685576</v>
+        <v>3981862.757860182</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116398.947999775</v>
+        <v>1116398.28720982</v>
       </c>
       <c r="G51">
-        <v>4841818.04640217</v>
+        <v>4841819.303350926</v>
       </c>
       <c r="H51">
-        <v>3986333.699721158</v>
+        <v>3986336.159918528</v>
       </c>
       <c r="I51">
-        <v>1117619.841176114</v>
+        <v>1117620.298717387</v>
       </c>
       <c r="J51">
-        <v>4840838.735468044</v>
+        <v>4840844.49962354</v>
       </c>
       <c r="K51">
-        <v>3981436.301516158</v>
+        <v>3981439.418359356</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116398.504016624</v>
+        <v>1116397.843226932</v>
       </c>
       <c r="G52">
-        <v>4841834.559221191</v>
+        <v>4841835.816174234</v>
       </c>
       <c r="H52">
-        <v>3986340.74882934</v>
+        <v>3986343.20903106</v>
       </c>
       <c r="I52">
-        <v>1117717.376164176</v>
+        <v>1117717.833745379</v>
       </c>
       <c r="J52">
-        <v>4840790.083885953</v>
+        <v>4840795.847983517</v>
       </c>
       <c r="K52">
-        <v>3980997.813705807</v>
+        <v>3981000.930205737</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116398.075249996</v>
+        <v>1116397.414460558</v>
       </c>
       <c r="G53">
-        <v>4841851.072040214</v>
+        <v>4841852.328997543</v>
       </c>
       <c r="H53">
-        <v>3986347.636099959</v>
+        <v>3986350.09630593</v>
       </c>
       <c r="I53">
-        <v>1117817.312861589</v>
+        <v>1117817.770483705</v>
       </c>
       <c r="J53">
-        <v>4840741.432303862</v>
+        <v>4840747.196343495</v>
       </c>
       <c r="K53">
-        <v>3980544.177254525</v>
+        <v>3980547.293399328</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116397.660850241</v>
+        <v>1116397.000061048</v>
       </c>
       <c r="G54">
-        <v>4841867.584859236</v>
+        <v>4841868.841820853</v>
       </c>
       <c r="H54">
-        <v>3986354.368797666</v>
+        <v>3986356.829007791</v>
       </c>
       <c r="I54">
-        <v>1117919.710408236</v>
+        <v>1117920.168072273</v>
       </c>
       <c r="J54">
-        <v>4840692.78072177</v>
+        <v>4840698.544703471</v>
       </c>
       <c r="K54">
-        <v>3980075.392162309</v>
+        <v>3980078.507940128</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,31 +2320,31 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G55">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H55">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I55">
-        <v>1114861.667876628</v>
+        <v>1114859.721090471</v>
       </c>
       <c r="J55">
-        <v>4843225.121177611</v>
+        <v>4843223.889595687</v>
       </c>
       <c r="K55">
-        <v>3984363.226594211</v>
+        <v>3984373.017274009</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,31 +2355,31 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G56">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H56">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I56">
-        <v>1114891.281881338</v>
+        <v>1114889.335043469</v>
       </c>
       <c r="J56">
-        <v>4843176.469570827</v>
+        <v>4843175.238001275</v>
       </c>
       <c r="K56">
-        <v>3984667.022045247</v>
+        <v>3984676.813471555</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,31 +2390,31 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G57">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H57">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I57">
-        <v>1114921.62510367</v>
+        <v>1114919.678212815</v>
       </c>
       <c r="J57">
-        <v>4843127.817964042</v>
+        <v>4843126.586406861</v>
       </c>
       <c r="K57">
-        <v>3984955.668862547</v>
+        <v>3984965.460998139</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,31 +2425,31 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G58">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H58">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I58">
-        <v>1114952.715499937</v>
+        <v>1114950.768554792</v>
       </c>
       <c r="J58">
-        <v>4843079.166357257</v>
+        <v>4843077.934812448</v>
       </c>
       <c r="K58">
-        <v>3985229.167046109</v>
+        <v>3985238.959853762</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,31 +2460,31 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G59">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H59">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I59">
-        <v>1114984.571468608</v>
+        <v>1114982.624467836</v>
       </c>
       <c r="J59">
-        <v>4843030.514750472</v>
+        <v>4843029.283218035</v>
       </c>
       <c r="K59">
-        <v>3985487.516595935</v>
+        <v>3985497.310038424</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,31 +2495,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G60">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H60">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I60">
-        <v>1115017.211861202</v>
+        <v>1115015.264803433</v>
       </c>
       <c r="J60">
-        <v>4842981.863143688</v>
+        <v>4842980.631623623</v>
       </c>
       <c r="K60">
-        <v>3985730.717512024</v>
+        <v>3985740.511552124</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,31 +2530,31 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G61">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H61">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I61">
-        <v>1115050.655993435</v>
+        <v>1115048.708877265</v>
       </c>
       <c r="J61">
-        <v>4842933.211536903</v>
+        <v>4842931.98002921</v>
       </c>
       <c r="K61">
-        <v>3985958.769794375</v>
+        <v>3985968.564394862</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,31 +2565,31 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G62">
-        <v>4841129.877924858</v>
+        <v>4841121.56778278</v>
       </c>
       <c r="H62">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I62">
-        <v>1115084.923656655</v>
+        <v>1115082.976480647</v>
       </c>
       <c r="J62">
-        <v>4842884.559930119</v>
+        <v>4842883.328434796</v>
       </c>
       <c r="K62">
-        <v>3986171.673442989</v>
+        <v>3986181.46856664</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,31 +2600,31 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>1116578.490577949</v>
+        <v>1116575.998075802</v>
       </c>
       <c r="G63">
-        <v>4841146.390762197</v>
+        <v>4841138.080591774</v>
       </c>
       <c r="H63">
-        <v>3985232.316566335</v>
+        <v>3985223.092907442</v>
       </c>
       <c r="I63">
-        <v>1115120.035129558</v>
+        <v>1115118.087892237</v>
       </c>
       <c r="J63">
-        <v>4842835.908323335</v>
+        <v>4842834.676840384</v>
       </c>
       <c r="K63">
-        <v>3986369.428457866</v>
+        <v>3986379.224067456</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,31 +2635,31 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>1116529.810014758</v>
+        <v>1116527.317621279</v>
       </c>
       <c r="G64">
-        <v>4841162.903599534</v>
+        <v>4841154.593400766</v>
       </c>
       <c r="H64">
-        <v>3985431.571172513</v>
+        <v>3985422.347052454</v>
       </c>
       <c r="I64">
-        <v>1115156.011190178</v>
+        <v>1115154.063890035</v>
       </c>
       <c r="J64">
-        <v>4842787.25671655</v>
+        <v>4842786.025245971</v>
       </c>
       <c r="K64">
-        <v>3986552.034839007</v>
+        <v>3986561.83089731</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,31 +2670,31 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>1116501.212625964</v>
+        <v>1116498.720296322</v>
       </c>
       <c r="G65">
-        <v>4841179.416436873</v>
+        <v>4841171.106209759</v>
       </c>
       <c r="H65">
-        <v>3985550.25740622</v>
+        <v>3985541.033011466</v>
       </c>
       <c r="I65">
-        <v>1115192.873128193</v>
+        <v>1115190.925763682</v>
       </c>
       <c r="J65">
-        <v>4842738.605109764</v>
+        <v>4842737.373651558</v>
       </c>
       <c r="K65">
-        <v>3986719.49258641</v>
+        <v>3986729.289056204</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,31 +2705,31 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>1116483.159856146</v>
+        <v>1116480.667566803</v>
       </c>
       <c r="G66">
-        <v>4841195.929274212</v>
+        <v>4841187.619018752</v>
       </c>
       <c r="H66">
-        <v>3985635.074435754</v>
+        <v>3985625.849844696</v>
       </c>
       <c r="I66">
-        <v>1115230.64275752</v>
+        <v>1115228.695327055</v>
       </c>
       <c r="J66">
-        <v>4842689.95350298</v>
+        <v>4842688.722057144</v>
       </c>
       <c r="K66">
-        <v>3986871.801700076</v>
+        <v>3986881.598544135</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,31 +2740,31 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>1116470.569927756</v>
+        <v>1116468.077666517</v>
       </c>
       <c r="G67">
-        <v>4841212.44211155</v>
+        <v>4841204.131827745</v>
       </c>
       <c r="H67">
-        <v>3985701.121411212</v>
+        <v>3985691.89666729</v>
       </c>
       <c r="I67">
-        <v>1115269.342429222</v>
+        <v>1115267.394931179</v>
       </c>
       <c r="J67">
-        <v>4842641.301896196</v>
+        <v>4842640.070462732</v>
       </c>
       <c r="K67">
-        <v>3987008.962180005</v>
+        <v>3987018.759361106</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,31 +2775,31 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>1116461.177464152</v>
+        <v>1116458.685223879</v>
       </c>
       <c r="G68">
-        <v>4841228.954948888</v>
+        <v>4841220.644636738</v>
       </c>
       <c r="H68">
-        <v>3985755.219007182</v>
+        <v>3985745.994138054</v>
       </c>
       <c r="I68">
-        <v>1115308.995044736</v>
+        <v>1115307.047477451</v>
       </c>
       <c r="J68">
-        <v>4842592.650289412</v>
+        <v>4842591.418868319</v>
       </c>
       <c r="K68">
-        <v>3987130.974026198</v>
+        <v>3987140.771507115</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,31 +2810,31 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>1116453.833869232</v>
+        <v>1116451.341645352</v>
       </c>
       <c r="G69">
-        <v>4841245.467786226</v>
+        <v>4841237.157445731</v>
       </c>
       <c r="H69">
-        <v>3985801.035722036</v>
+        <v>3985791.810746867</v>
       </c>
       <c r="I69">
-        <v>1115349.624069428</v>
+        <v>1115347.676431196</v>
       </c>
       <c r="J69">
-        <v>4842543.998682627</v>
+        <v>4842542.767273905</v>
       </c>
       <c r="K69">
-        <v>3987237.837238653</v>
+        <v>3987247.634982162</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,31 +2845,31 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>1116447.892366237</v>
+        <v>1116445.40015562</v>
       </c>
       <c r="G70">
-        <v>4841261.980623565</v>
+        <v>4841253.670254723</v>
       </c>
       <c r="H70">
-        <v>3985840.773377704</v>
+        <v>3985831.548310563</v>
       </c>
       <c r="I70">
-        <v>1115391.253546474</v>
+        <v>1115389.305835548</v>
       </c>
       <c r="J70">
-        <v>4842495.347075842</v>
+        <v>4842494.115679492</v>
       </c>
       <c r="K70">
-        <v>3987329.55181737</v>
+        <v>3987339.349786248</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,31 +2880,31 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>1116442.958801675</v>
+        <v>1116440.466602071</v>
       </c>
       <c r="G71">
-        <v>4841278.493460904</v>
+        <v>4841270.183063717</v>
       </c>
       <c r="H71">
-        <v>3985875.857795471</v>
+        <v>3985866.632647129</v>
       </c>
       <c r="I71">
-        <v>1115433.908111094</v>
+        <v>1115431.960325685</v>
       </c>
       <c r="J71">
-        <v>4842446.695469057</v>
+        <v>4842445.46408508</v>
       </c>
       <c r="K71">
-        <v>3987406.117762351</v>
+        <v>3987415.915919372</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,31 +2915,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>1116438.777976913</v>
+        <v>1116436.285786642</v>
       </c>
       <c r="G72">
-        <v>4841295.006298241</v>
+        <v>4841286.695872709</v>
       </c>
       <c r="H72">
-        <v>3985907.265409371</v>
+        <v>3985898.040188337</v>
       </c>
       <c r="I72">
-        <v>1115477.613005127</v>
+        <v>1115475.665143399</v>
       </c>
       <c r="J72">
-        <v>4842398.043862273</v>
+        <v>4842396.812490667</v>
       </c>
       <c r="K72">
-        <v>3987467.535073596</v>
+        <v>3987477.333381536</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,31 +2950,31 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>1116435.176604264</v>
+        <v>1116432.684422032</v>
       </c>
       <c r="G73">
-        <v>4841311.51913558</v>
+        <v>4841303.208681703</v>
       </c>
       <c r="H73">
-        <v>3985935.694288186</v>
+        <v>3985926.469001355</v>
       </c>
       <c r="I73">
-        <v>1115522.394091968</v>
+        <v>1115520.446152042</v>
       </c>
       <c r="J73">
-        <v>4842349.392255488</v>
+        <v>4842348.160896253</v>
       </c>
       <c r="K73">
-        <v>3987513.803751102</v>
+        <v>3987523.602172738</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,31 +2985,31 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>1116432.032419852</v>
+        <v>1116429.540244639</v>
       </c>
       <c r="G74">
-        <v>4841328.031972919</v>
+        <v>4841319.721490696</v>
       </c>
       <c r="H74">
-        <v>3985961.660822914</v>
+        <v>3985952.435475984</v>
       </c>
       <c r="I74">
-        <v>1115568.277871874</v>
+        <v>1115566.329851826</v>
       </c>
       <c r="J74">
-        <v>4842300.740648704</v>
+        <v>4842299.50930184</v>
       </c>
       <c r="K74">
-        <v>3987544.923794872</v>
+        <v>3987554.722292978</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,31 +3020,31 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>1116429.256402188</v>
+        <v>1116426.764233171</v>
       </c>
       <c r="G75">
-        <v>4841344.544810257</v>
+        <v>4841336.234299688</v>
       </c>
       <c r="H75">
-        <v>3985985.557768714</v>
+        <v>3985976.332366475</v>
       </c>
       <c r="I75">
-        <v>1115615.291497648</v>
+        <v>1115613.343395504</v>
       </c>
       <c r="J75">
-        <v>4842252.089041919</v>
+        <v>4842250.857707428</v>
       </c>
       <c r="K75">
-        <v>3987560.895204905</v>
+        <v>3987570.693742257</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,31 +3055,31 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>1116426.782007382</v>
+        <v>1116424.289843889</v>
       </c>
       <c r="G76">
-        <v>4841361.057647595</v>
+        <v>4841352.747108681</v>
       </c>
       <c r="H76">
-        <v>3986007.690812691</v>
+        <v>3985998.465359227</v>
       </c>
       <c r="I76">
-        <v>1115663.462790705</v>
+        <v>1115661.514604443</v>
       </c>
       <c r="J76">
-        <v>4842203.437435134</v>
+        <v>4842202.206113015</v>
       </c>
       <c r="K76">
-        <v>3987561.717981201</v>
+        <v>3987571.516520575</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,31 +3090,31 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>1116424.558372871</v>
+        <v>1116422.066214341</v>
       </c>
       <c r="G77">
-        <v>4841377.570484934</v>
+        <v>4841369.259917675</v>
       </c>
       <c r="H77">
-        <v>3986028.30254803</v>
+        <v>3986019.07704686</v>
       </c>
       <c r="I77">
-        <v>1115712.820257536</v>
+        <v>1115710.871985086</v>
       </c>
       <c r="J77">
-        <v>4842154.785828349</v>
+        <v>4842153.554518601</v>
       </c>
       <c r="K77">
-        <v>3987547.392123759</v>
+        <v>3987557.190627931</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,31 +3125,31 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>1116422.545871489</v>
+        <v>1116420.053717452</v>
       </c>
       <c r="G78">
-        <v>4841394.083322272</v>
+        <v>4841385.772726667</v>
       </c>
       <c r="H78">
-        <v>3986047.588725338</v>
+        <v>3986038.363179531</v>
       </c>
       <c r="I78">
-        <v>1115763.393106581</v>
+        <v>1115761.44474582</v>
       </c>
       <c r="J78">
-        <v>4842106.134221565</v>
+        <v>4842104.902924188</v>
       </c>
       <c r="K78">
-        <v>3987517.917632581</v>
+        <v>3987527.716064326</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,31 +3160,31 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>1116420.713113204</v>
+        <v>1116418.220963258</v>
       </c>
       <c r="G79">
-        <v>4841410.596159611</v>
+        <v>4841402.28553566</v>
       </c>
       <c r="H79">
-        <v>3986065.70958665</v>
+        <v>3986056.483998903</v>
       </c>
       <c r="I79">
-        <v>1115815.211265507</v>
+        <v>1115813.26281426</v>
       </c>
       <c r="J79">
-        <v>4842057.482614781</v>
+        <v>4842056.251329776</v>
       </c>
       <c r="K79">
-        <v>3987473.294507666</v>
+        <v>3987483.092829759</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,31 +3195,31 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>1116419.034869099</v>
+        <v>1116416.5427229</v>
       </c>
       <c r="G80">
-        <v>4841427.108996948</v>
+        <v>4841418.798344652</v>
       </c>
       <c r="H80">
-        <v>3986082.797966129</v>
+        <v>3986073.572338832</v>
       </c>
       <c r="I80">
-        <v>1115868.305398924</v>
+        <v>1115866.356854964</v>
       </c>
       <c r="J80">
-        <v>4842008.831007996</v>
+        <v>4842007.599735362</v>
       </c>
       <c r="K80">
-        <v>3987413.522749014</v>
+        <v>3987423.320924231</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,31 +3230,31 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>1116417.490600406</v>
+        <v>1116414.998457654</v>
       </c>
       <c r="G81">
-        <v>4841443.621834287</v>
+        <v>4841435.311153646</v>
       </c>
       <c r="H81">
-        <v>3986098.965204829</v>
+        <v>3986089.739540114</v>
       </c>
       <c r="I81">
-        <v>1115922.706926532</v>
+        <v>1115920.758287575</v>
       </c>
       <c r="J81">
-        <v>4841960.179401211</v>
+        <v>4841958.948140949</v>
       </c>
       <c r="K81">
-        <v>3987338.602356624</v>
+        <v>3987348.400347741</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,31 +3265,31 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>1116416.063394824</v>
+        <v>1116413.571255258</v>
       </c>
       <c r="G82">
-        <v>4841460.134671626</v>
+        <v>4841451.823962639</v>
       </c>
       <c r="H82">
-        <v>3986114.305551259</v>
+        <v>3986105.079851039</v>
       </c>
       <c r="I82">
-        <v>1115978.448041708</v>
+        <v>1115976.499305415</v>
       </c>
       <c r="J82">
-        <v>4841911.527794426</v>
+        <v>4841910.296546536</v>
       </c>
       <c r="K82">
-        <v>3987248.533330498</v>
+        <v>3987258.331100291</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,31 +3300,31 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>1116414.739183336</v>
+        <v>1116412.247046726</v>
       </c>
       <c r="G83">
-        <v>4841476.647508964</v>
+        <v>4841468.336771632</v>
       </c>
       <c r="H83">
-        <v>3986128.89949034</v>
+        <v>3986119.673756343</v>
       </c>
       <c r="I83">
-        <v>1116035.561730564</v>
+        <v>1116033.612894539</v>
       </c>
       <c r="J83">
-        <v>4841862.876187642</v>
+        <v>4841861.644952124</v>
       </c>
       <c r="K83">
-        <v>3987143.315670635</v>
+        <v>3987153.113181879</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,31 +3335,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>1116413.506154157</v>
+        <v>1116411.0140203</v>
       </c>
       <c r="G84">
-        <v>4841493.160346302</v>
+        <v>4841484.849580624</v>
       </c>
       <c r="H84">
-        <v>3986142.816299423</v>
+        <v>3986133.590533216</v>
       </c>
       <c r="I84">
-        <v>1116094.081791465</v>
+        <v>1116092.132853251</v>
       </c>
       <c r="J84">
-        <v>4841814.224580857</v>
+        <v>4841812.99335771</v>
       </c>
       <c r="K84">
-        <v>3987022.949377034</v>
+        <v>3987032.746592505</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,31 +3370,31 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>1116412.354307778</v>
+        <v>1116409.862176491</v>
       </c>
       <c r="G85">
-        <v>4841509.673183641</v>
+        <v>4841501.362389618</v>
       </c>
       <c r="H85">
-        <v>3986156.116037187</v>
+        <v>3986146.890240198</v>
       </c>
       <c r="I85">
-        <v>1116154.042855029</v>
+        <v>1116152.09381211</v>
       </c>
       <c r="J85">
-        <v>4841765.572974073</v>
+        <v>4841764.341763297</v>
       </c>
       <c r="K85">
-        <v>3986887.434449697</v>
+        <v>3986897.23133217</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,31 +3405,31 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>1116411.275114652</v>
+        <v>1116408.782985774</v>
       </c>
       <c r="G86">
-        <v>4841526.186020979</v>
+        <v>4841517.87519861</v>
       </c>
       <c r="H86">
-        <v>3986168.851110034</v>
+        <v>3986159.62528357</v>
       </c>
       <c r="I86">
-        <v>1116215.480404619</v>
+        <v>1116213.531254417</v>
       </c>
       <c r="J86">
-        <v>4841716.921367289</v>
+        <v>4841715.690168885</v>
       </c>
       <c r="K86">
-        <v>3986736.770888622</v>
+        <v>3986746.567400873</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,31 +3440,31 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>1116410.261248693</v>
+        <v>1116407.769122078</v>
       </c>
       <c r="G87">
-        <v>4841542.698858318</v>
+        <v>4841534.388007604</v>
       </c>
       <c r="H87">
-        <v>3986181.067519301</v>
+        <v>3986171.841664563</v>
       </c>
       <c r="I87">
-        <v>1116278.430797346</v>
+        <v>1116276.48153722</v>
       </c>
       <c r="J87">
-        <v>4841668.269760504</v>
+        <v>4841667.038574472</v>
       </c>
       <c r="K87">
-        <v>3986570.95869381</v>
+        <v>3986580.754798615</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,31 +3475,31 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>1116409.306377514</v>
+        <v>1116406.814253031</v>
       </c>
       <c r="G88">
-        <v>4841559.211695655</v>
+        <v>4841550.900816596</v>
       </c>
       <c r="H88">
-        <v>3986192.805864291</v>
+        <v>3986183.579982385</v>
       </c>
       <c r="I88">
-        <v>1116342.931285581</v>
+        <v>1116340.981912823</v>
       </c>
       <c r="J88">
-        <v>4841619.618153718</v>
+        <v>4841618.386980058</v>
       </c>
       <c r="K88">
-        <v>3986389.997865262</v>
+        <v>3986399.793525396</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,31 +3510,31 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>1116408.404995666</v>
+        <v>1116405.912873195</v>
       </c>
       <c r="G89">
-        <v>4841575.724532994</v>
+        <v>4841567.413625589</v>
       </c>
       <c r="H89">
-        <v>3986204.102156336</v>
+        <v>3986194.876248286</v>
       </c>
       <c r="I89">
-        <v>1116409.020039</v>
+        <v>1116407.070550836</v>
       </c>
       <c r="J89">
-        <v>4841570.966546934</v>
+        <v>4841569.735385645</v>
       </c>
       <c r="K89">
-        <v>3986193.888402977</v>
+        <v>3986203.683581216</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,31 +3545,31 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>1116407.55229084</v>
+        <v>1116405.060170273</v>
       </c>
       <c r="G90">
-        <v>4841592.237370333</v>
+        <v>4841583.926434582</v>
       </c>
       <c r="H90">
-        <v>3986214.988485069</v>
+        <v>3986205.762551823</v>
       </c>
       <c r="I90">
-        <v>1116476.73616717</v>
+        <v>1116474.78656076</v>
       </c>
       <c r="J90">
-        <v>4841522.31494015</v>
+        <v>4841521.083791233</v>
       </c>
       <c r="K90">
-        <v>3985982.630306954</v>
+        <v>3985992.424966074</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,31 +3580,31 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>1116406.744035601</v>
+        <v>1116404.251916838</v>
       </c>
       <c r="G91">
-        <v>4841608.750207671</v>
+        <v>4841600.439243575</v>
       </c>
       <c r="H91">
-        <v>3986225.493567973</v>
+        <v>3986216.267610413</v>
       </c>
       <c r="I91">
-        <v>1116546.1197427</v>
+        <v>1116544.170015131</v>
       </c>
       <c r="J91">
-        <v>4841473.663333366</v>
+        <v>4841472.432196819</v>
       </c>
       <c r="K91">
-        <v>3985756.223577194</v>
+        <v>3985766.01767997</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,31 +3615,31 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>1116405.976499091</v>
+        <v>1116403.484382041</v>
       </c>
       <c r="G92">
-        <v>4841625.263045009</v>
+        <v>4841616.952052568</v>
       </c>
       <c r="H92">
-        <v>3986235.643206918</v>
+        <v>3986226.417225867</v>
       </c>
       <c r="I92">
-        <v>1116617.211824945</v>
+        <v>1116615.261973234</v>
       </c>
       <c r="J92">
-        <v>4841425.011726581</v>
+        <v>4841423.780602406</v>
       </c>
       <c r="K92">
-        <v>3985514.668213697</v>
+        <v>3985524.461722905</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,31 +3650,31 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>1116405.246374488</v>
+        <v>1116402.754259068</v>
       </c>
       <c r="G93">
-        <v>4841641.775882348</v>
+        <v>4841633.464861562</v>
       </c>
       <c r="H93">
-        <v>3986245.46066996</v>
+        <v>3986236.234666187</v>
       </c>
       <c r="I93">
-        <v>1116690.054484312</v>
+        <v>1116688.104505403</v>
       </c>
       <c r="J93">
-        <v>4841376.360119796</v>
+        <v>4841375.129007993</v>
       </c>
       <c r="K93">
-        <v>3985257.964216463</v>
+        <v>3985267.757094879</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,31 +3685,31 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>1116404.55071901</v>
+        <v>1116402.058605143</v>
       </c>
       <c r="G94">
-        <v>4841658.288719686</v>
+        <v>4841649.977670553</v>
       </c>
       <c r="H94">
-        <v>3986254.967012626</v>
+        <v>3986245.740986851</v>
       </c>
       <c r="I94">
-        <v>1116764.690827152</v>
+        <v>1116762.740717911</v>
       </c>
       <c r="J94">
-        <v>4841327.708513011</v>
+        <v>4841326.477413581</v>
       </c>
       <c r="K94">
-        <v>3984986.111585492</v>
+        <v>3984995.903795891</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,31 +3720,31 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>1116403.886903972</v>
+        <v>1116401.394791587</v>
       </c>
       <c r="G95">
-        <v>4841674.801557024</v>
+        <v>4841666.490479547</v>
       </c>
       <c r="H95">
-        <v>3986264.181349829</v>
+        <v>3986254.955302728</v>
       </c>
       <c r="I95">
-        <v>1116841.165021269</v>
+        <v>1116839.214778489</v>
       </c>
       <c r="J95">
-        <v>4841279.056906227</v>
+        <v>4841277.825819167</v>
       </c>
       <c r="K95">
-        <v>3984699.110320785</v>
+        <v>3984708.901825942</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,31 +3755,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>1116403.252572968</v>
+        <v>1116400.760461999</v>
       </c>
       <c r="G96">
-        <v>4841691.314394363</v>
+        <v>4841683.00328854</v>
       </c>
       <c r="H96">
-        <v>3986273.12108726</v>
+        <v>3986263.895019467</v>
       </c>
       <c r="I96">
-        <v>1116919.522322063</v>
+        <v>1116917.571942454</v>
       </c>
       <c r="J96">
-        <v>4841230.405299442</v>
+        <v>4841229.174224754</v>
       </c>
       <c r="K96">
-        <v>3984396.96042234</v>
+        <v>3984406.751185031</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,31 +3790,31 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>1116402.645606665</v>
+        <v>1116400.153497051</v>
       </c>
       <c r="G97">
-        <v>4841707.827231701</v>
+        <v>4841699.516097533</v>
       </c>
       <c r="H97">
-        <v>3986281.802119277</v>
+        <v>3986272.576031393</v>
       </c>
       <c r="I97">
-        <v>1116999.8090993</v>
+        <v>1116997.858579493</v>
       </c>
       <c r="J97">
-        <v>4841181.753692658</v>
+        <v>4841180.522630341</v>
       </c>
       <c r="K97">
-        <v>3984079.661890157</v>
+        <v>3984089.451873159</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,31 +3825,31 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>1116402.064092994</v>
+        <v>1116399.571984678</v>
       </c>
       <c r="G98">
-        <v>4841724.34006904</v>
+        <v>4841716.028906525</v>
       </c>
       <c r="H98">
-        <v>3986290.238998977</v>
+        <v>3986281.012891566</v>
       </c>
       <c r="I98">
-        <v>1117082.072864565</v>
+        <v>1117080.122201108</v>
       </c>
       <c r="J98">
-        <v>4841133.102085873</v>
+        <v>4841131.871035929</v>
       </c>
       <c r="K98">
-        <v>3983747.214724239</v>
+        <v>3983757.003890326</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,31 +3860,31 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>1116401.506301807</v>
+        <v>1116399.014194736</v>
       </c>
       <c r="G99">
-        <v>4841740.852906377</v>
+        <v>4841732.541715518</v>
       </c>
       <c r="H99">
-        <v>3986298.445084978</v>
+        <v>3986289.218958575</v>
       </c>
       <c r="I99">
-        <v>1117166.362299368</v>
+        <v>1117164.411488724</v>
       </c>
       <c r="J99">
-        <v>4841084.450479087</v>
+        <v>4841083.219441514</v>
       </c>
       <c r="K99">
-        <v>3983399.618924583</v>
+        <v>3983409.407236531</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,31 +3895,31 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>1116400.970663217</v>
+        <v>1116398.478557341</v>
       </c>
       <c r="G100">
-        <v>4841757.365743716</v>
+        <v>4841749.054524511</v>
       </c>
       <c r="H100">
-        <v>3986306.432668671</v>
+        <v>3986297.206523781</v>
       </c>
       <c r="I100">
-        <v>1117252.727283958</v>
+        <v>1117250.776322502</v>
       </c>
       <c r="J100">
-        <v>4841035.798872303</v>
+        <v>4841034.567847102</v>
       </c>
       <c r="K100">
-        <v>3983036.87449119</v>
+        <v>3983046.661911775</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,31 +3930,31 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>1116400.455749004</v>
+        <v>1116397.963644278</v>
       </c>
       <c r="G101">
-        <v>4841773.878581055</v>
+        <v>4841765.567333505</v>
       </c>
       <c r="H101">
-        <v>3986314.213084955</v>
+        <v>3986304.986922057</v>
       </c>
       <c r="I101">
-        <v>1117341.21892684</v>
+        <v>1117339.267810859</v>
       </c>
       <c r="J101">
-        <v>4840987.147265519</v>
+        <v>4840985.916252689</v>
       </c>
       <c r="K101">
-        <v>3982658.98142406</v>
+        <v>3982668.767916057</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,31 +3965,31 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>1116399.960256598</v>
+        <v>1116397.468152978</v>
       </c>
       <c r="G102">
-        <v>4841790.391418393</v>
+        <v>4841782.080142497</v>
       </c>
       <c r="H102">
-        <v>3986321.796808981</v>
+        <v>3986312.570628531</v>
       </c>
       <c r="I102">
-        <v>1117431.889595017</v>
+        <v>1117429.938320705</v>
       </c>
       <c r="J102">
-        <v>4840938.495658735</v>
+        <v>4840937.264658276</v>
       </c>
       <c r="K102">
-        <v>3982265.939723193</v>
+        <v>3982275.725249378</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,31 +4000,31 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>1116399.482995215</v>
+        <v>1116396.99089266</v>
       </c>
       <c r="G103">
-        <v>4841806.904255731</v>
+        <v>4841798.59295149</v>
       </c>
       <c r="H103">
-        <v>3986329.193540956</v>
+        <v>3986319.967343387</v>
       </c>
       <c r="I103">
-        <v>1117524.792944982</v>
+        <v>1117522.841508441</v>
       </c>
       <c r="J103">
-        <v>4840889.84405195</v>
+        <v>4840888.613063863</v>
       </c>
       <c r="K103">
-        <v>3981857.749388589</v>
+        <v>3981867.533911738</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,31 +4035,31 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>1116399.02287382</v>
+        <v>1116396.530772293</v>
       </c>
       <c r="G104">
-        <v>4841823.41709307</v>
+        <v>4841815.105760483</v>
       </c>
       <c r="H104">
-        <v>3986336.412280749</v>
+        <v>3986327.186066472</v>
       </c>
       <c r="I104">
-        <v>1117619.98395447</v>
+        <v>1117618.032351706</v>
       </c>
       <c r="J104">
-        <v>4840841.192445165</v>
+        <v>4840839.96146945</v>
       </c>
       <c r="K104">
-        <v>3981434.410420247</v>
+        <v>3981444.193903136</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,31 +4070,31 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>1116398.578890639</v>
+        <v>1116396.086790103</v>
       </c>
       <c r="G105">
-        <v>4841839.929930408</v>
+        <v>4841831.618569476</v>
       </c>
       <c r="H105">
-        <v>3986343.461393727</v>
+        <v>3986334.235163135</v>
       </c>
       <c r="I105">
-        <v>1117717.518954993</v>
+        <v>1117715.567181912</v>
       </c>
       <c r="J105">
-        <v>4840792.54083838</v>
+        <v>4840791.309875038</v>
       </c>
       <c r="K105">
-        <v>3980995.922818169</v>
+        <v>3981005.705223572</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,31 +4105,31 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>1116398.150123983</v>
+        <v>1116395.658024404</v>
       </c>
       <c r="G106">
-        <v>4841856.442767747</v>
+        <v>4841848.131378469</v>
       </c>
       <c r="H106">
-        <v>3986350.348669033</v>
+        <v>3986341.122422501</v>
       </c>
       <c r="I106">
-        <v>1117817.455665173</v>
+        <v>1117815.503717581</v>
       </c>
       <c r="J106">
-        <v>4840743.889231596</v>
+        <v>4840742.658280624</v>
       </c>
       <c r="K106">
-        <v>3980542.286582354</v>
+        <v>3980552.067873048</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,1886 +4140,31 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>1116397.7357242</v>
+        <v>1116395.243625546</v>
       </c>
       <c r="G107">
-        <v>4841872.955605085</v>
+        <v>4841864.644187463</v>
       </c>
       <c r="H107">
-        <v>3986357.081371321</v>
+        <v>3986347.855109207</v>
       </c>
       <c r="I107">
-        <v>1117919.853224902</v>
+        <v>1117917.901098501</v>
       </c>
       <c r="J107">
-        <v>4840695.237624811</v>
+        <v>4840694.006686211</v>
       </c>
       <c r="K107">
-        <v>3980073.501712802</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>954</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G108">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H108">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I108">
-        <v>1114862.200041126</v>
-      </c>
-      <c r="J108">
-        <v>4843220.111703601</v>
-      </c>
-      <c r="K108">
-        <v>3984359.934393932</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>954</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G109">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H109">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I109">
-        <v>1114891.814059973</v>
-      </c>
-      <c r="J109">
-        <v>4843171.460147138</v>
-      </c>
-      <c r="K109">
-        <v>3984663.729593948</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>954</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G110">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H110">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I110">
-        <v>1114922.157296788</v>
-      </c>
-      <c r="J110">
-        <v>4843122.808590674</v>
-      </c>
-      <c r="K110">
-        <v>3984952.376172744</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>954</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G111">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H111">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I111">
-        <v>1114953.247707896</v>
-      </c>
-      <c r="J111">
-        <v>4843074.157034212</v>
-      </c>
-      <c r="K111">
-        <v>3985225.87413032</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>954</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G112">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H112">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I112">
-        <v>1114985.103691773</v>
-      </c>
-      <c r="J112">
-        <v>4843025.505477749</v>
-      </c>
-      <c r="K112">
-        <v>3985484.223466677</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>954</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G113">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H113">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I113">
-        <v>1115017.744099948</v>
-      </c>
-      <c r="J113">
-        <v>4842976.853921286</v>
-      </c>
-      <c r="K113">
-        <v>3985727.424181813</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>954</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G114">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H114">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I114">
-        <v>1115051.188248144</v>
-      </c>
-      <c r="J114">
-        <v>4842928.202364822</v>
-      </c>
-      <c r="K114">
-        <v>3985955.476275729</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>954</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G115">
-        <v>4841117.128783747</v>
-      </c>
-      <c r="H115">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I115">
-        <v>1115085.455927722</v>
-      </c>
-      <c r="J115">
-        <v>4842879.55080836</v>
-      </c>
-      <c r="K115">
-        <v>3986168.379748426</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>954</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>1116578.279090621</v>
-      </c>
-      <c r="G116">
-        <v>4841133.641577599</v>
-      </c>
-      <c r="H116">
-        <v>3985223.999782104</v>
-      </c>
-      <c r="I116">
-        <v>1115120.567417384</v>
-      </c>
-      <c r="J116">
-        <v>4842830.899251897</v>
-      </c>
-      <c r="K116">
-        <v>3986366.134599902</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>954</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>1116529.59853665</v>
-      </c>
-      <c r="G117">
-        <v>4841150.15437145</v>
-      </c>
-      <c r="H117">
-        <v>3985423.253972458</v>
-      </c>
-      <c r="I117">
-        <v>1115156.543495177</v>
-      </c>
-      <c r="J117">
-        <v>4842782.247695434</v>
-      </c>
-      <c r="K117">
-        <v>3986548.740830158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>954</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>1116501.001153273</v>
-      </c>
-      <c r="G118">
-        <v>4841166.667165302</v>
-      </c>
-      <c r="H118">
-        <v>3985541.939958478</v>
-      </c>
-      <c r="I118">
-        <v>1115193.405450789</v>
-      </c>
-      <c r="J118">
-        <v>4842733.59613897</v>
-      </c>
-      <c r="K118">
-        <v>3986716.198439195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>954</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>1116482.948386875</v>
-      </c>
-      <c r="G119">
-        <v>4841183.179959154</v>
-      </c>
-      <c r="H119">
-        <v>3985626.756811008</v>
-      </c>
-      <c r="I119">
-        <v>1115231.175098144</v>
-      </c>
-      <c r="J119">
-        <v>4842684.944582508</v>
-      </c>
-      <c r="K119">
-        <v>3986868.507427011</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>954</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>1116470.358460869</v>
-      </c>
-      <c r="G120">
-        <v>4841199.692753006</v>
-      </c>
-      <c r="H120">
-        <v>3985692.803648632</v>
-      </c>
-      <c r="I120">
-        <v>1115269.874788319</v>
-      </c>
-      <c r="J120">
-        <v>4842636.293026045</v>
-      </c>
-      <c r="K120">
-        <v>3987005.667793607</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>954</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>1116460.965999044</v>
-      </c>
-      <c r="G121">
-        <v>4841216.205546858</v>
-      </c>
-      <c r="H121">
-        <v>3985746.901131707</v>
-      </c>
-      <c r="I121">
-        <v>1115309.52742276</v>
-      </c>
-      <c r="J121">
-        <v>4842587.641469582</v>
-      </c>
-      <c r="K121">
-        <v>3987127.679538983</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>954</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>1116453.622405514</v>
-      </c>
-      <c r="G122">
-        <v>4841232.718340709</v>
-      </c>
-      <c r="H122">
-        <v>3985792.717750946</v>
-      </c>
-      <c r="I122">
-        <v>1115350.156466846</v>
-      </c>
-      <c r="J122">
-        <v>4842538.989913118</v>
-      </c>
-      <c r="K122">
-        <v>3987234.542663139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>954</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>1116447.680903645</v>
-      </c>
-      <c r="G123">
-        <v>4841249.231134561</v>
-      </c>
-      <c r="H123">
-        <v>3985832.455323685</v>
-      </c>
-      <c r="I123">
-        <v>1115391.785963764</v>
-      </c>
-      <c r="J123">
-        <v>4842490.338356656</v>
-      </c>
-      <c r="K123">
-        <v>3987326.257166075</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>954</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>1116442.747340017</v>
-      </c>
-      <c r="G124">
-        <v>4841265.743928413</v>
-      </c>
-      <c r="H124">
-        <v>3985867.539668234</v>
-      </c>
-      <c r="I124">
-        <v>1115434.440548745</v>
-      </c>
-      <c r="J124">
-        <v>4842441.686800193</v>
-      </c>
-      <c r="K124">
-        <v>3987402.823047791</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>954</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>1116438.566516047</v>
-      </c>
-      <c r="G125">
-        <v>4841282.256722264</v>
-      </c>
-      <c r="H125">
-        <v>3985898.947216589</v>
-      </c>
-      <c r="I125">
-        <v>1115478.145463639</v>
-      </c>
-      <c r="J125">
-        <v>4842393.03524373</v>
-      </c>
-      <c r="K125">
-        <v>3987464.240308287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>954</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>1116434.96514408</v>
-      </c>
-      <c r="G126">
-        <v>4841298.769516116</v>
-      </c>
-      <c r="H126">
-        <v>3985927.376036076</v>
-      </c>
-      <c r="I126">
-        <v>1115522.926571856</v>
-      </c>
-      <c r="J126">
-        <v>4842344.383687266</v>
-      </c>
-      <c r="K126">
-        <v>3987510.508947563</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>954</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>1116431.820960264</v>
-      </c>
-      <c r="G127">
-        <v>4841315.282309968</v>
-      </c>
-      <c r="H127">
-        <v>3985953.342516615</v>
-      </c>
-      <c r="I127">
-        <v>1115568.810373664</v>
-      </c>
-      <c r="J127">
-        <v>4842295.732130804</v>
-      </c>
-      <c r="K127">
-        <v>3987541.628965619</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>954</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>1116429.044943125</v>
-      </c>
-      <c r="G128">
-        <v>4841331.795103819</v>
-      </c>
-      <c r="H128">
-        <v>3985977.239412544</v>
-      </c>
-      <c r="I128">
-        <v>1115615.824021879</v>
-      </c>
-      <c r="J128">
-        <v>4842247.080574341</v>
-      </c>
-      <c r="K128">
-        <v>3987557.600362455</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>954</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>1116426.570548788</v>
-      </c>
-      <c r="G129">
-        <v>4841348.307897671</v>
-      </c>
-      <c r="H129">
-        <v>3985999.372410331</v>
-      </c>
-      <c r="I129">
-        <v>1115663.99533793</v>
-      </c>
-      <c r="J129">
-        <v>4842198.429017878</v>
-      </c>
-      <c r="K129">
-        <v>3987558.423138071</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>954</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>1116424.346914698</v>
-      </c>
-      <c r="G130">
-        <v>4841364.820691523</v>
-      </c>
-      <c r="H130">
-        <v>3986019.984102656</v>
-      </c>
-      <c r="I130">
-        <v>1115713.352828322</v>
-      </c>
-      <c r="J130">
-        <v>4842149.777461414</v>
-      </c>
-      <c r="K130">
-        <v>3987544.097292467</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>954</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>1116422.334413698</v>
-      </c>
-      <c r="G131">
-        <v>4841381.333485374</v>
-      </c>
-      <c r="H131">
-        <v>3986039.270239715</v>
-      </c>
-      <c r="I131">
-        <v>1115763.925701506</v>
-      </c>
-      <c r="J131">
-        <v>4842101.125904952</v>
-      </c>
-      <c r="K131">
-        <v>3987514.622825643</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>954</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>1116420.50165576</v>
-      </c>
-      <c r="G132">
-        <v>4841397.846279226</v>
-      </c>
-      <c r="H132">
-        <v>3986057.391063211</v>
-      </c>
-      <c r="I132">
-        <v>1115815.743885167</v>
-      </c>
-      <c r="J132">
-        <v>4842052.474348489</v>
-      </c>
-      <c r="K132">
-        <v>3987469.999737599</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>954</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>1116418.823411973</v>
-      </c>
-      <c r="G133">
-        <v>4841414.359073077</v>
-      </c>
-      <c r="H133">
-        <v>3986074.479407028</v>
-      </c>
-      <c r="I133">
-        <v>1115868.838043928</v>
-      </c>
-      <c r="J133">
-        <v>4842003.822792025</v>
-      </c>
-      <c r="K133">
-        <v>3987410.228028335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>954</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>1116417.279143573</v>
-      </c>
-      <c r="G134">
-        <v>4841430.871866929</v>
-      </c>
-      <c r="H134">
-        <v>3986090.646611989</v>
-      </c>
-      <c r="I134">
-        <v>1115923.239597503</v>
-      </c>
-      <c r="J134">
-        <v>4841955.171235562</v>
-      </c>
-      <c r="K134">
-        <v>3987335.307697851</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>954</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>1116415.85193826</v>
-      </c>
-      <c r="G135">
-        <v>4841447.384660781</v>
-      </c>
-      <c r="H135">
-        <v>3986105.986926405</v>
-      </c>
-      <c r="I135">
-        <v>1115978.980739287</v>
-      </c>
-      <c r="J135">
-        <v>4841906.5196791</v>
-      </c>
-      <c r="K135">
-        <v>3987245.238746147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>954</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>1116414.527727023</v>
-      </c>
-      <c r="G136">
-        <v>4841463.897454632</v>
-      </c>
-      <c r="H136">
-        <v>3986120.58083503</v>
-      </c>
-      <c r="I136">
-        <v>1116036.094455406</v>
-      </c>
-      <c r="J136">
-        <v>4841857.868122637</v>
-      </c>
-      <c r="K136">
-        <v>3987140.021173223</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>954</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>1116413.294698078</v>
-      </c>
-      <c r="G137">
-        <v>4841480.410248485</v>
-      </c>
-      <c r="H137">
-        <v>3986134.49761507</v>
-      </c>
-      <c r="I137">
-        <v>1116094.614544241</v>
-      </c>
-      <c r="J137">
-        <v>4841809.216566173</v>
-      </c>
-      <c r="K137">
-        <v>3987019.654979079</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>954</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>1116412.142851917</v>
-      </c>
-      <c r="G138">
-        <v>4841496.923042337</v>
-      </c>
-      <c r="H138">
-        <v>3986147.797325079</v>
-      </c>
-      <c r="I138">
-        <v>1116154.575636425</v>
-      </c>
-      <c r="J138">
-        <v>4841760.56500971</v>
-      </c>
-      <c r="K138">
-        <v>3986884.140163714</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>954</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>1116411.063658995</v>
-      </c>
-      <c r="G139">
-        <v>4841513.435836188</v>
-      </c>
-      <c r="H139">
-        <v>3986160.532371349</v>
-      </c>
-      <c r="I139">
-        <v>1116216.013215342</v>
-      </c>
-      <c r="J139">
-        <v>4841711.913453248</v>
-      </c>
-      <c r="K139">
-        <v>3986733.47672713</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>954</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>1116410.049793228</v>
-      </c>
-      <c r="G140">
-        <v>4841529.948630041</v>
-      </c>
-      <c r="H140">
-        <v>3986172.748755122</v>
-      </c>
-      <c r="I140">
-        <v>1116278.963638118</v>
-      </c>
-      <c r="J140">
-        <v>4841663.261896785</v>
-      </c>
-      <c r="K140">
-        <v>3986567.664669326</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>954</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>1116409.09492223</v>
-      </c>
-      <c r="G141">
-        <v>4841546.461423892</v>
-      </c>
-      <c r="H141">
-        <v>3986184.487075615</v>
-      </c>
-      <c r="I141">
-        <v>1116343.464157142</v>
-      </c>
-      <c r="J141">
-        <v>4841614.610340321</v>
-      </c>
-      <c r="K141">
-        <v>3986386.703990301</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>954</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>1116408.193540553</v>
-      </c>
-      <c r="G142">
-        <v>4841562.974217744</v>
-      </c>
-      <c r="H142">
-        <v>3986195.783344086</v>
-      </c>
-      <c r="I142">
-        <v>1116409.552942107</v>
-      </c>
-      <c r="J142">
-        <v>4841565.958783859</v>
-      </c>
-      <c r="K142">
-        <v>3986190.594690057</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>954</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>1116407.340835888</v>
-      </c>
-      <c r="G143">
-        <v>4841579.487011596</v>
-      </c>
-      <c r="H143">
-        <v>3986206.669650101</v>
-      </c>
-      <c r="I143">
-        <v>1116477.269102601</v>
-      </c>
-      <c r="J143">
-        <v>4841517.307227396</v>
-      </c>
-      <c r="K143">
-        <v>3985979.336768593</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>954</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>1116406.532580803</v>
-      </c>
-      <c r="G144">
-        <v>4841595.999805447</v>
-      </c>
-      <c r="H144">
-        <v>3986217.174711081</v>
-      </c>
-      <c r="I144">
-        <v>1116546.652711249</v>
-      </c>
-      <c r="J144">
-        <v>4841468.655670933</v>
-      </c>
-      <c r="K144">
-        <v>3985752.930225908</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>954</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>1116405.765044438</v>
-      </c>
-      <c r="G145">
-        <v>4841612.512599299</v>
-      </c>
-      <c r="H145">
-        <v>3986227.324328844</v>
-      </c>
-      <c r="I145">
-        <v>1116617.744827429</v>
-      </c>
-      <c r="J145">
-        <v>4841420.00411447</v>
-      </c>
-      <c r="K145">
-        <v>3985511.375062004</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>954</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>1116405.034919973</v>
-      </c>
-      <c r="G146">
-        <v>4841629.025393151</v>
-      </c>
-      <c r="H146">
-        <v>3986237.141771398</v>
-      </c>
-      <c r="I146">
-        <v>1116690.587521567</v>
-      </c>
-      <c r="J146">
-        <v>4841371.352558007</v>
-      </c>
-      <c r="K146">
-        <v>3985254.67127688</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>954</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>1116404.339264627</v>
-      </c>
-      <c r="G147">
-        <v>4841645.538187002</v>
-      </c>
-      <c r="H147">
-        <v>3986246.648094225</v>
-      </c>
-      <c r="I147">
-        <v>1116765.223900033</v>
-      </c>
-      <c r="J147">
-        <v>4841322.701001544</v>
-      </c>
-      <c r="K147">
-        <v>3984982.818870536</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>954</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>1116403.675449714</v>
-      </c>
-      <c r="G148">
-        <v>4841662.050980854</v>
-      </c>
-      <c r="H148">
-        <v>3986255.8624122</v>
-      </c>
-      <c r="I148">
-        <v>1116841.698130655</v>
-      </c>
-      <c r="J148">
-        <v>4841274.049445082</v>
-      </c>
-      <c r="K148">
-        <v>3984695.817842971</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>954</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>1116403.041118831</v>
-      </c>
-      <c r="G149">
-        <v>4841678.563774706</v>
-      </c>
-      <c r="H149">
-        <v>3986264.802130973</v>
-      </c>
-      <c r="I149">
-        <v>1116920.055468851</v>
-      </c>
-      <c r="J149">
-        <v>4841225.397888618</v>
-      </c>
-      <c r="K149">
-        <v>3984393.668194187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>954</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>1116402.434152643</v>
-      </c>
-      <c r="G150">
-        <v>4841695.076568557</v>
-      </c>
-      <c r="H150">
-        <v>3986273.483144875</v>
-      </c>
-      <c r="I150">
-        <v>1117000.342284413</v>
-      </c>
-      <c r="J150">
-        <v>4841176.746332156</v>
-      </c>
-      <c r="K150">
-        <v>3984076.369924182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>954</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>1116401.852639082</v>
-      </c>
-      <c r="G151">
-        <v>4841711.589362409</v>
-      </c>
-      <c r="H151">
-        <v>3986281.920006967</v>
-      </c>
-      <c r="I151">
-        <v>1117082.606088945</v>
-      </c>
-      <c r="J151">
-        <v>4841128.094775693</v>
-      </c>
-      <c r="K151">
-        <v>3983743.923032958</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>954</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>1116401.294848001</v>
-      </c>
-      <c r="G152">
-        <v>4841728.10215626</v>
-      </c>
-      <c r="H152">
-        <v>3986290.126075843</v>
-      </c>
-      <c r="I152">
-        <v>1117166.895563982</v>
-      </c>
-      <c r="J152">
-        <v>4841079.443219229</v>
-      </c>
-      <c r="K152">
-        <v>3983396.327520513</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>954</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>1116400.759209512</v>
-      </c>
-      <c r="G153">
-        <v>4841744.614950112</v>
-      </c>
-      <c r="H153">
-        <v>3986298.113642867</v>
-      </c>
-      <c r="I153">
-        <v>1117253.260589798</v>
-      </c>
-      <c r="J153">
-        <v>4841030.791662766</v>
-      </c>
-      <c r="K153">
-        <v>3983033.583386849</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>954</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>1116400.244295396</v>
-      </c>
-      <c r="G154">
-        <v>4841761.127743965</v>
-      </c>
-      <c r="H154">
-        <v>3986305.894042914</v>
-      </c>
-      <c r="I154">
-        <v>1117341.75227492</v>
-      </c>
-      <c r="J154">
-        <v>4840982.140106304</v>
-      </c>
-      <c r="K154">
-        <v>3982655.690631964</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>954</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>1116399.748803084</v>
-      </c>
-      <c r="G155">
-        <v>4841777.640537816</v>
-      </c>
-      <c r="H155">
-        <v>3986313.477751114</v>
-      </c>
-      <c r="I155">
-        <v>1117432.422986377</v>
-      </c>
-      <c r="J155">
-        <v>4840933.488549841</v>
-      </c>
-      <c r="K155">
-        <v>3982262.64925586</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>954</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>1116399.271541792</v>
-      </c>
-      <c r="G156">
-        <v>4841794.153331668</v>
-      </c>
-      <c r="H156">
-        <v>3986320.874467653</v>
-      </c>
-      <c r="I156">
-        <v>1117525.326380688</v>
-      </c>
-      <c r="J156">
-        <v>4840884.836993377</v>
-      </c>
-      <c r="K156">
-        <v>3981854.459258535</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>954</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>1116398.811420484</v>
-      </c>
-      <c r="G157">
-        <v>4841810.66612552</v>
-      </c>
-      <c r="H157">
-        <v>3986328.09319238</v>
-      </c>
-      <c r="I157">
-        <v>1117620.517435615</v>
-      </c>
-      <c r="J157">
-        <v>4840836.185436914</v>
-      </c>
-      <c r="K157">
-        <v>3981431.120639991</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>954</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>1116398.367437387</v>
-      </c>
-      <c r="G158">
-        <v>4841827.178919371</v>
-      </c>
-      <c r="H158">
-        <v>3986335.142290648</v>
-      </c>
-      <c r="I158">
-        <v>1117718.052482694</v>
-      </c>
-      <c r="J158">
-        <v>4840787.533880452</v>
-      </c>
-      <c r="K158">
-        <v>3980992.633400226</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>954</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>1116397.938670812</v>
-      </c>
-      <c r="G159">
-        <v>4841843.691713223</v>
-      </c>
-      <c r="H159">
-        <v>3986342.029551581</v>
-      </c>
-      <c r="I159">
-        <v>1117817.989240578</v>
-      </c>
-      <c r="J159">
-        <v>4840738.882323989</v>
-      </c>
-      <c r="K159">
-        <v>3980538.997539241</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>954</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>1116397.524271108</v>
-      </c>
-      <c r="G160">
-        <v>4841860.204507075</v>
-      </c>
-      <c r="H160">
-        <v>3986348.762239818</v>
-      </c>
-      <c r="I160">
-        <v>1117920.386849185</v>
-      </c>
-      <c r="J160">
-        <v>4840690.230767525</v>
-      </c>
-      <c r="K160">
-        <v>3980070.213057037</v>
+        <v>3980083.281851562</v>
       </c>
     </row>
   </sheetData>
